--- a/xlsx/ufa.xlsx
+++ b/xlsx/ufa.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U369"/>
+  <dimension ref="A1:U370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,7 +549,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/baic/bj40/</t>
+          <t>https://alga-auto.ru/auto/baic/bj40/</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/baic/bj40/</t>
+          <t>https://avtolininiya-rb.ru/auto/baic/bj40/</t>
         </is>
       </c>
       <c r="J2" t="n">
@@ -585,7 +585,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/baic/bj40/</t>
+          <t>https://alga-auto.ru/auto/baic/bj40/</t>
         </is>
       </c>
     </row>
@@ -610,7 +610,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/baic/u5_plus/</t>
+          <t>https://alga-auto.ru/auto/baic/u5_plus/</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -620,7 +620,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/baic/u5_plus/</t>
+          <t>https://avtolininiya-rb.ru/auto/baic/u5_plus/</t>
         </is>
       </c>
       <c r="J3" t="n">
@@ -654,7 +654,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/baic/u5_plus/</t>
+          <t>https://alga-auto.ru/auto/baic/u5_plus/</t>
         </is>
       </c>
     </row>
@@ -689,7 +689,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/baic/x35/</t>
+          <t>https://avtolininiya-rb.ru/auto/baic/x35/</t>
         </is>
       </c>
       <c r="J4" t="n">
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>2210000</v>
+        <v>1890000</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -723,7 +723,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/baic/x35/</t>
+          <t>https://alga-auto.ru/auto/baic/x35/</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/baic/x55/</t>
+          <t>https://alga-auto.ru/auto/baic/x55/</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -758,11 +758,11 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/baic/x55/</t>
+          <t>https://avtolininiya-rb.ru/auto/baic/x55/</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>2720000</v>
+        <v>2300000</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/baic/x55/</t>
+          <t>https://alga-auto.ru/auto/baic/x55/</t>
         </is>
       </c>
     </row>
@@ -813,7 +813,7 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>3000000</v>
+        <v>2400000</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2800000</v>
+        <v>2699000</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1755990</v>
+        <v>1805990</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>1755990</v>
+        <v>1805990</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2409990</v>
+        <v>2194990</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>2409990</v>
+        <v>2194990</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/changan/alsvin/</t>
+          <t>https://avtolininiya-rb.ru/auto/changan/alsvin/</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/changan/alsvin/</t>
+          <t>https://alga-auto.ru/auto/changan/alsvin/</t>
         </is>
       </c>
     </row>
@@ -1156,7 +1156,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/changan/cs35_plus/</t>
+          <t>https://alga-auto.ru/auto/changan/cs35_plus/</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1166,7 +1166,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/changan/cs35_plus/</t>
+          <t>https://avtolininiya-rb.ru/auto/changan/cs35_plus/</t>
         </is>
       </c>
       <c r="J13" t="n">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/changan/cs35_plus/</t>
+          <t>https://alga-auto.ru/auto/changan/cs35_plus/</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/changan/cs55/</t>
+          <t>https://alga-auto.ru/auto/changan/cs55/</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/changan/cs55/</t>
+          <t>https://avtolininiya-rb.ru/auto/changan/cs55/</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/changan/cs55/</t>
+          <t>https://alga-auto.ru/auto/changan/cs55/</t>
         </is>
       </c>
     </row>
@@ -1312,7 +1312,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/changan/cs55_plus/</t>
+          <t>https://avtolininiya-rb.ru/auto/changan/cs55_plus/</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/changan/cs55_plus/</t>
+          <t>https://alga-auto.ru/auto/changan/cs55_plus/</t>
         </is>
       </c>
     </row>
@@ -1477,7 +1477,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/changan/cs75fl/</t>
+          <t>https://alga-auto.ru/auto/changan/cs75fl/</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/changan/cs75fl/</t>
+          <t>https://avtolininiya-rb.ru/auto/changan/cs75fl/</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/changan/cs75fl/</t>
+          <t>https://alga-auto.ru/auto/changan/cs75fl/</t>
         </is>
       </c>
     </row>
@@ -1554,7 +1554,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/changan/cs85_coupe/</t>
+          <t>https://alga-auto.ru/auto/changan/cs85_coupe/</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/changan/cs85_coupe/</t>
+          <t>https://avtolininiya-rb.ru/auto/changan/cs85_coupe/</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/changan/cs85_coupe/</t>
+          <t>https://alga-auto.ru/auto/changan/cs85_coupe/</t>
         </is>
       </c>
     </row>
@@ -1623,7 +1623,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/changan/cs95/</t>
+          <t>https://alga-auto.ru/auto/changan/cs95/</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1633,7 +1633,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/changan/cs95/</t>
+          <t>https://avtolininiya-rb.ru/auto/changan/cs95/</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/changan/cs95/</t>
+          <t>https://alga-auto.ru/auto/changan/cs95/</t>
         </is>
       </c>
     </row>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/changan/eado_plus/</t>
+          <t>https://alga-auto.ru/auto/changan/eado_plus/</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/changan/eado_plus/</t>
+          <t>https://avtolininiya-rb.ru/auto/changan/eado_plus/</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/changan/eado_plus/</t>
+          <t>https://alga-auto.ru/auto/changan/eado_plus/</t>
         </is>
       </c>
     </row>
@@ -1810,7 +1810,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/changan/hunter_plus/</t>
+          <t>https://alga-auto.ru/auto/changan/hunter_plus/</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/changan/hunter_plus/</t>
+          <t>https://avtolininiya-rb.ru/auto/changan/hunter_plus/</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -1846,7 +1846,7 @@
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/changan/hunter_plus/</t>
+          <t>https://alga-auto.ru/auto/changan/hunter_plus/</t>
         </is>
       </c>
     </row>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/changan/lamore/</t>
+          <t>https://alga-auto.ru/auto/changan/lamore/</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/changan/lamore/</t>
+          <t>https://avtolininiya-rb.ru/auto/changan/lamore/</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -1931,7 +1931,7 @@
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/changan/lamore/</t>
+          <t>https://alga-auto.ru/auto/changan/lamore/</t>
         </is>
       </c>
     </row>
@@ -1966,7 +1966,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/changan/uni-k/</t>
+          <t>https://avtolininiya-rb.ru/auto/changan/uni-k/</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -2016,7 +2016,7 @@
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/changan/uni-k/</t>
+          <t>https://alga-auto.ru/auto/changan/uni-k/</t>
         </is>
       </c>
     </row>
@@ -2082,7 +2082,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/changan/uni-t/</t>
+          <t>https://alga-auto.ru/auto/changan/uni-t/</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2092,7 +2092,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/changan/uni-t/</t>
+          <t>https://avtolininiya-rb.ru/auto/changan/uni-t/</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -2142,7 +2142,7 @@
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/changan/uni-t/</t>
+          <t>https://alga-auto.ru/auto/changan/uni-t/</t>
         </is>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/changan/uni-v/</t>
+          <t>https://avtolininiya-rb.ru/auto/changan/uni-v/</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2177,7 +2177,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/changan/uni-v/</t>
+          <t>https://avtolininiya-rb.ru/auto/changan/uni-v/</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/changan/uni-v/</t>
+          <t>https://alga-auto.ru/auto/changan/uni-v/</t>
         </is>
       </c>
     </row>
@@ -2248,11 +2248,11 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>2046000</v>
+        <v>2009000</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chery/arrizo_8/</t>
+          <t>https://ufa.autospot.ru/brands/chery/arrizo8/sedan/price/</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2262,7 +2262,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/arrizo_8/</t>
+          <t>https://avtolininiya-rb.ru/auto/chery/arrizo_8/</t>
         </is>
       </c>
       <c r="H29" t="n">
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2321500</v>
+        <v>2009000</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chery/arrizo_8/</t>
+          <t>https://alga-auto.ru/auto/chery/arrizo_8/</t>
         </is>
       </c>
     </row>
@@ -2378,7 +2378,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_3/</t>
+          <t>https://alga-auto.ru/auto/chery/tiggo_3/</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2388,7 +2388,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_3/</t>
+          <t>https://avtolininiya-rb.ru/auto/chery/tiggo_3/</t>
         </is>
       </c>
       <c r="J31" t="n">
@@ -2414,7 +2414,7 @@
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_3/</t>
+          <t>https://alga-auto.ru/auto/chery/tiggo_3/</t>
         </is>
       </c>
     </row>
@@ -2439,7 +2439,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_4/</t>
+          <t>https://alga-auto.ru/auto/chery/tiggo_4/</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2449,7 +2449,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_4/</t>
+          <t>https://avtolininiya-rb.ru/auto/chery/tiggo_4/</t>
         </is>
       </c>
       <c r="H32" t="n">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_4/</t>
+          <t>https://alga-auto.ru/auto/chery/tiggo_4/</t>
         </is>
       </c>
     </row>
@@ -2516,7 +2516,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_4_pro/</t>
+          <t>https://alga-auto.ru/auto/chery/tiggo_4_pro/</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2526,7 +2526,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_4_pro/</t>
+          <t>https://avtolininiya-rb.ru/auto/chery/tiggo_4_pro/</t>
         </is>
       </c>
       <c r="H33" t="n">
@@ -2576,7 +2576,7 @@
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_4_pro/</t>
+          <t>https://alga-auto.ru/auto/chery/tiggo_4_pro/</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_5/</t>
+          <t>https://alga-auto.ru/auto/chery/tiggo_5/</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_5/</t>
+          <t>https://avtolininiya-rb.ru/auto/chery/tiggo_5/</t>
         </is>
       </c>
       <c r="J34" t="n">
@@ -2637,7 +2637,7 @@
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_5/</t>
+          <t>https://alga-auto.ru/auto/chery/tiggo_5/</t>
         </is>
       </c>
     </row>
@@ -2662,7 +2662,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_7/</t>
+          <t>https://alga-auto.ru/auto/chery/tiggo_7/</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2672,7 +2672,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_7/</t>
+          <t>https://avtolininiya-rb.ru/auto/chery/tiggo_7/</t>
         </is>
       </c>
       <c r="J35" t="n">
@@ -2706,7 +2706,7 @@
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_7/</t>
+          <t>https://alga-auto.ru/auto/chery/tiggo_7/</t>
         </is>
       </c>
     </row>
@@ -2731,7 +2731,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_7_pro/</t>
+          <t>https://alga-auto.ru/auto/chery/tiggo_7_pro/</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2741,7 +2741,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_7_pro/</t>
+          <t>https://avtolininiya-rb.ru/auto/chery/tiggo_7_pro/</t>
         </is>
       </c>
       <c r="H36" t="n">
@@ -2783,7 +2783,7 @@
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_7_pro/</t>
+          <t>https://alga-auto.ru/auto/chery/tiggo_7_pro/</t>
         </is>
       </c>
     </row>
@@ -2808,7 +2808,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_7_pro_max_1/</t>
+          <t>https://alga-auto.ru/auto/chery/tiggo_7_pro_max_1/</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2818,7 +2818,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_7_pro_max_1/</t>
+          <t>https://avtolininiya-rb.ru/auto/chery/tiggo_7_pro_max_1/</t>
         </is>
       </c>
       <c r="H37" t="n">
@@ -2868,7 +2868,7 @@
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_7_pro_max_1/</t>
+          <t>https://alga-auto.ru/auto/chery/tiggo_7_pro_max_1/</t>
         </is>
       </c>
     </row>
@@ -2903,7 +2903,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_7_pro_max/</t>
+          <t>https://avtolininiya-rb.ru/auto/chery/tiggo_7_pro_max/</t>
         </is>
       </c>
       <c r="L38" t="n">
@@ -2921,7 +2921,7 @@
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_7_pro_max/</t>
+          <t>https://alga-auto.ru/auto/chery/tiggo_7_pro_max/</t>
         </is>
       </c>
     </row>
@@ -2987,7 +2987,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_8/</t>
+          <t>https://alga-auto.ru/auto/chery/tiggo_8/</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2997,7 +2997,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_8/</t>
+          <t>https://avtolininiya-rb.ru/auto/chery/tiggo_8/</t>
         </is>
       </c>
       <c r="H40" t="n">
@@ -3039,7 +3039,7 @@
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_8/</t>
+          <t>https://alga-auto.ru/auto/chery/tiggo_8/</t>
         </is>
       </c>
     </row>
@@ -3064,7 +3064,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_8_pro/</t>
+          <t>https://alga-auto.ru/auto/chery/tiggo_8_pro/</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3074,7 +3074,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_8_pro/</t>
+          <t>https://avtolininiya-rb.ru/auto/chery/tiggo_8_pro/</t>
         </is>
       </c>
       <c r="H41" t="n">
@@ -3116,7 +3116,7 @@
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_8_pro/</t>
+          <t>https://alga-auto.ru/auto/chery/tiggo_8_pro/</t>
         </is>
       </c>
     </row>
@@ -3141,7 +3141,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_8_pro_max_1/</t>
+          <t>https://alga-auto.ru/auto/chery/tiggo_8_pro_max_1/</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3151,7 +3151,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_8_pro_max_1/</t>
+          <t>https://avtolininiya-rb.ru/auto/chery/tiggo_8_pro_max_1/</t>
         </is>
       </c>
       <c r="H42" t="n">
@@ -3201,7 +3201,7 @@
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_8_pro_max_1/</t>
+          <t>https://alga-auto.ru/auto/chery/tiggo_8_pro_max_1/</t>
         </is>
       </c>
     </row>
@@ -3226,7 +3226,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_8_pro_max/</t>
+          <t>https://avtolininiya-rb.ru/auto/chery/tiggo_8_pro_max/</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3236,7 +3236,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chery/tiggo_8_pro_max/</t>
+          <t>https://avtolininiya-rb.ru/auto/chery/tiggo_8_pro_max/</t>
         </is>
       </c>
       <c r="L43" t="n">
@@ -3262,7 +3262,7 @@
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/chery/tiggo_8_pro_max/</t>
+          <t>https://alga-auto.ru/auto/chery/tiggo_8_pro_max/</t>
         </is>
       </c>
     </row>
@@ -3394,7 +3394,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chevrolet/cobalt/</t>
+          <t>https://avtolininiya-rb.ru/auto/chevrolet/cobalt/</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3404,7 +3404,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chevrolet/cobalt/</t>
+          <t>https://avtolininiya-rb.ru/auto/chevrolet/cobalt/</t>
         </is>
       </c>
       <c r="J47" t="n">
@@ -3455,7 +3455,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chevrolet/nexia/</t>
+          <t>https://avtolininiya-rb.ru/auto/chevrolet/nexia/</t>
         </is>
       </c>
       <c r="J48" t="n">
@@ -3506,7 +3506,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/chevrolet/spark/</t>
+          <t>https://avtolininiya-rb.ru/auto/chevrolet/spark/</t>
         </is>
       </c>
       <c r="J49" t="n">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/exeed/lx/</t>
+          <t>https://avtolininiya-rb.ru/auto/exeed/lx/</t>
         </is>
       </c>
       <c r="H61" t="n">
@@ -4011,14 +4011,6 @@
           <t>https://autofort-ufa.ru/avto-new/exeed/lx/</t>
         </is>
       </c>
-      <c r="R61" t="n">
-        <v>2299900</v>
-      </c>
-      <c r="S61" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/exeed/lx</t>
-        </is>
-      </c>
       <c r="T61" t="inlineStr">
         <is>
           <t>2279900</t>
@@ -4026,7 +4018,7 @@
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/exeed/lx/</t>
+          <t>https://alga-auto.ru/auto/exeed/lx/</t>
         </is>
       </c>
     </row>
@@ -4084,7 +4076,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/exeed/rx/</t>
+          <t>https://alga-auto.ru/auto/exeed/rx/</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -4094,7 +4086,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/exeed/rx/</t>
+          <t>https://avtolininiya-rb.ru/auto/exeed/rx/</t>
         </is>
       </c>
       <c r="H63" t="n">
@@ -4129,14 +4121,6 @@
           <t>https://autofort-ufa.ru/avto-new/exeed/rx/</t>
         </is>
       </c>
-      <c r="R63" t="n">
-        <v>3605000</v>
-      </c>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/exeed/exeed_rx</t>
-        </is>
-      </c>
       <c r="T63" t="inlineStr">
         <is>
           <t>3270000</t>
@@ -4144,7 +4128,7 @@
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/exeed/rx/</t>
+          <t>https://alga-auto.ru/auto/exeed/rx/</t>
         </is>
       </c>
     </row>
@@ -4179,7 +4163,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/exeed/txl/</t>
+          <t>https://avtolininiya-rb.ru/auto/exeed/txl/</t>
         </is>
       </c>
       <c r="H64" t="n">
@@ -4229,7 +4213,7 @@
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/exeed/txl/</t>
+          <t>https://alga-auto.ru/auto/exeed/txl/</t>
         </is>
       </c>
     </row>
@@ -4305,7 +4289,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/exeed/vx/</t>
+          <t>https://avtolininiya-rb.ru/auto/exeed/vx/</t>
         </is>
       </c>
       <c r="H66" t="n">
@@ -4340,14 +4324,6 @@
           <t>https://autofort-ufa.ru/avto-new/exeed/vx/</t>
         </is>
       </c>
-      <c r="R66" t="n">
-        <v>4109900</v>
-      </c>
-      <c r="S66" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/exeed/vx</t>
-        </is>
-      </c>
       <c r="T66" t="inlineStr">
         <is>
           <t>4079900</t>
@@ -4355,7 +4331,7 @@
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/exeed/vx/</t>
+          <t>https://alga-auto.ru/auto/exeed/vx/</t>
         </is>
       </c>
     </row>
@@ -4421,7 +4397,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/faw/bestune_b70/</t>
+          <t>https://alga-auto.ru/auto/faw/bestune_b70/</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -4431,7 +4407,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/faw/bestune_b70/</t>
+          <t>https://avtolininiya-rb.ru/auto/faw/bestune_b70/</t>
         </is>
       </c>
       <c r="H68" t="n">
@@ -4481,7 +4457,7 @@
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/faw/bestune_b70/</t>
+          <t>https://alga-auto.ru/auto/faw/bestune_b70/</t>
         </is>
       </c>
     </row>
@@ -4506,7 +4482,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/faw/bestune_t55/</t>
+          <t>https://alga-auto.ru/auto/faw/bestune_t55/</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -4516,7 +4492,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/faw/bestune_t55/</t>
+          <t>https://avtolininiya-rb.ru/auto/faw/bestune_t55/</t>
         </is>
       </c>
       <c r="H69" t="n">
@@ -4558,7 +4534,7 @@
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/faw/bestune_t55/</t>
+          <t>https://alga-auto.ru/auto/faw/bestune_t55/</t>
         </is>
       </c>
     </row>
@@ -4593,7 +4569,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/faw/besturn_t77/</t>
+          <t>https://avtolininiya-rb.ru/auto/faw/besturn_t77/</t>
         </is>
       </c>
       <c r="H70" t="n">
@@ -4627,7 +4603,7 @@
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/faw/besturn_t77/</t>
+          <t>https://alga-auto.ru/auto/faw/besturn_t77/</t>
         </is>
       </c>
     </row>
@@ -4652,7 +4628,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/faw/bestune_t99/</t>
+          <t>https://alga-auto.ru/auto/faw/bestune_t99/</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -4662,7 +4638,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/faw/bestune_t99/</t>
+          <t>https://avtolininiya-rb.ru/auto/faw/bestune_t99/</t>
         </is>
       </c>
       <c r="H71" t="n">
@@ -4688,7 +4664,7 @@
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/faw/bestune_t99/</t>
+          <t>https://alga-auto.ru/auto/faw/bestune_t99/</t>
         </is>
       </c>
     </row>
@@ -4893,7 +4869,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/faw/x40/</t>
+          <t>https://alga-auto.ru/auto/faw/x40/</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4903,7 +4879,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/faw/x40/</t>
+          <t>https://avtolininiya-rb.ru/auto/faw/x40/</t>
         </is>
       </c>
       <c r="T76" t="inlineStr">
@@ -4913,7 +4889,7 @@
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/faw/x40/</t>
+          <t>https://alga-auto.ru/auto/faw/x40/</t>
         </is>
       </c>
     </row>
@@ -4938,7 +4914,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/faw/x80/</t>
+          <t>https://alga-auto.ru/auto/faw/x80/</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4948,7 +4924,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/faw/x80/</t>
+          <t>https://avtolininiya-rb.ru/auto/faw/x80/</t>
         </is>
       </c>
       <c r="T77" t="inlineStr">
@@ -4958,7 +4934,7 @@
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/faw/x80/</t>
+          <t>https://alga-auto.ru/auto/faw/x80/</t>
         </is>
       </c>
     </row>
@@ -5398,14 +5374,6 @@
           <t>https://avrora-motors.ru/catalog/gac/gn8</t>
         </is>
       </c>
-      <c r="R90" t="n">
-        <v>3399000</v>
-      </c>
-      <c r="S90" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/gac/gn8</t>
-        </is>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -5479,7 +5447,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/gac/gs5/</t>
+          <t>https://avtolininiya-rb.ru/auto/gac/gs5/</t>
         </is>
       </c>
       <c r="H92" t="n">
@@ -5498,14 +5466,6 @@
           <t>https://avrora-motors.ru/catalog/gac/gs5</t>
         </is>
       </c>
-      <c r="R92" t="n">
-        <v>2099000</v>
-      </c>
-      <c r="S92" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/gac/gs5</t>
-        </is>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -5528,7 +5488,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/gac/gs8</t>
+          <t>https://avrora-motors.ru/catalog/gac/gs8</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -5538,7 +5498,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/gac/gs8/</t>
+          <t>https://avtolininiya-rb.ru/auto/gac/gs8/</t>
         </is>
       </c>
       <c r="H93" t="n">
@@ -5565,14 +5525,6 @@
           <t>https://ufa.autospot.ru/brands/gac/gs8_ii/suv/price/</t>
         </is>
       </c>
-      <c r="R93" t="n">
-        <v>1952300</v>
-      </c>
-      <c r="S93" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/gac/gs8</t>
-        </is>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -5669,7 +5621,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/geely/atlas_1/</t>
+          <t>https://alga-auto.ru/auto/geely/atlas_1/</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5679,7 +5631,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/geely/atlas_1/</t>
+          <t>https://avtolininiya-rb.ru/auto/geely/atlas_1/</t>
         </is>
       </c>
       <c r="H96" t="n">
@@ -5729,7 +5681,7 @@
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/geely/atlas_1/</t>
+          <t>https://alga-auto.ru/auto/geely/atlas_1/</t>
         </is>
       </c>
     </row>
@@ -5754,7 +5706,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/geely/atlas/</t>
+          <t>https://alga-auto.ru/auto/geely/atlas/</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5764,7 +5716,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/geely/atlas/</t>
+          <t>https://avtolininiya-rb.ru/auto/geely/atlas/</t>
         </is>
       </c>
       <c r="P97" t="n">
@@ -5782,7 +5734,7 @@
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/geely/atlas/</t>
+          <t>https://alga-auto.ru/auto/geely/atlas/</t>
         </is>
       </c>
     </row>
@@ -5807,7 +5759,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/geely/atlas_pro/</t>
+          <t>https://alga-auto.ru/auto/geely/atlas_pro/</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5817,7 +5769,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/geely/atlas_pro/</t>
+          <t>https://avtolininiya-rb.ru/auto/geely/atlas_pro/</t>
         </is>
       </c>
       <c r="H98" t="n">
@@ -5867,7 +5819,7 @@
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/geely/atlas_pro/</t>
+          <t>https://alga-auto.ru/auto/geely/atlas_pro/</t>
         </is>
       </c>
     </row>
@@ -5892,7 +5844,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/geely/belgee_x50/</t>
+          <t>https://alga-auto.ru/auto/geely/belgee_x50/</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -5902,7 +5854,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/geely/belgee_x50/</t>
+          <t>https://avtolininiya-rb.ru/auto/geely/belgee_x50/</t>
         </is>
       </c>
       <c r="J99" t="n">
@@ -5936,7 +5888,7 @@
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/geely/belgee_x50/</t>
+          <t>https://alga-auto.ru/auto/geely/belgee_x50/</t>
         </is>
       </c>
     </row>
@@ -5961,7 +5913,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/geely/coolray_1/</t>
+          <t>https://alga-auto.ru/auto/geely/coolray_1/</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5971,7 +5923,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/geely/coolray_1/</t>
+          <t>https://avtolininiya-rb.ru/auto/geely/coolray_1/</t>
         </is>
       </c>
       <c r="H100" t="n">
@@ -6021,7 +5973,7 @@
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/geely/coolray_1/</t>
+          <t>https://alga-auto.ru/auto/geely/coolray_1/</t>
         </is>
       </c>
     </row>
@@ -6046,7 +5998,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/geely/coolray/</t>
+          <t>https://alga-auto.ru/auto/geely/coolray/</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -6056,7 +6008,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/geely/coolray/</t>
+          <t>https://avtolininiya-rb.ru/auto/geely/coolray/</t>
         </is>
       </c>
       <c r="H101" t="n">
@@ -6106,7 +6058,7 @@
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/geely/coolray/</t>
+          <t>https://alga-auto.ru/auto/geely/coolray/</t>
         </is>
       </c>
     </row>
@@ -6180,7 +6132,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/geely/emgrand/</t>
+          <t>https://alga-auto.ru/auto/geely/emgrand/</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -6190,7 +6142,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/geely/emgrand/</t>
+          <t>https://avtolininiya-rb.ru/auto/geely/emgrand/</t>
         </is>
       </c>
       <c r="T103" t="inlineStr">
@@ -6200,7 +6152,7 @@
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/geely/emgrand/</t>
+          <t>https://alga-auto.ru/auto/geely/emgrand/</t>
         </is>
       </c>
     </row>
@@ -6225,7 +6177,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/geely/emgrand_x7/</t>
+          <t>https://alga-auto.ru/auto/geely/emgrand_x7/</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -6235,7 +6187,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/geely/emgrand_x7/</t>
+          <t>https://avtolininiya-rb.ru/auto/geely/emgrand_x7/</t>
         </is>
       </c>
       <c r="J104" t="n">
@@ -6261,7 +6213,7 @@
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/geely/emgrand_x7/</t>
+          <t>https://alga-auto.ru/auto/geely/emgrand_x7/</t>
         </is>
       </c>
     </row>
@@ -6286,7 +6238,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/geely/gs/</t>
+          <t>https://alga-auto.ru/auto/geely/gs/</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -6296,7 +6248,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/geely/gs/</t>
+          <t>https://avtolininiya-rb.ru/auto/geely/gs/</t>
         </is>
       </c>
       <c r="J105" t="n">
@@ -6330,7 +6282,7 @@
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/geely/gs/</t>
+          <t>https://alga-auto.ru/auto/geely/gs/</t>
         </is>
       </c>
     </row>
@@ -6365,7 +6317,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/geely/monjaro/</t>
+          <t>https://avtolininiya-rb.ru/auto/geely/monjaro/</t>
         </is>
       </c>
       <c r="H106" t="n">
@@ -6415,7 +6367,7 @@
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/geely/monjaro/</t>
+          <t>https://alga-auto.ru/auto/geely/monjaro/</t>
         </is>
       </c>
     </row>
@@ -6522,7 +6474,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/geely/okavango/</t>
+          <t>https://alga-auto.ru/auto/geely/okavango/</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -6532,7 +6484,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/geely/okavango/</t>
+          <t>https://avtolininiya-rb.ru/auto/geely/okavango/</t>
         </is>
       </c>
       <c r="L109" t="n">
@@ -6550,7 +6502,7 @@
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/geely/okavango/</t>
+          <t>https://alga-auto.ru/auto/geely/okavango/</t>
         </is>
       </c>
     </row>
@@ -6578,6 +6530,14 @@
           <t>https://autofort-ufa.ru/avto-new/geely/preface/</t>
         </is>
       </c>
+      <c r="L110" t="n">
+        <v>2867990</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>https://ufa.autospot.ru/brands/geely/preface/sedan/price/</t>
+        </is>
+      </c>
       <c r="P110" t="n">
         <v>1725000</v>
       </c>
@@ -6673,7 +6633,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/geely/tugella/</t>
+          <t>https://alga-auto.ru/auto/geely/tugella/</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -6683,7 +6643,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/geely/tugella/</t>
+          <t>https://avtolininiya-rb.ru/auto/geely/tugella/</t>
         </is>
       </c>
       <c r="P112" t="n">
@@ -6701,7 +6661,7 @@
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/geely/tugella/</t>
+          <t>https://alga-auto.ru/auto/geely/tugella/</t>
         </is>
       </c>
     </row>
@@ -6819,14 +6779,6 @@
           <t>https://ufa.autospot.ru/brands/greatwall/poer/pickup/price/</t>
         </is>
       </c>
-      <c r="R115" t="n">
-        <v>2749000</v>
-      </c>
-      <c r="S115" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/great-wall/poer</t>
-        </is>
-      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -6909,14 +6861,6 @@
           <t>https://avrora-motors.ru/catalog/great-wall/wingle7</t>
         </is>
       </c>
-      <c r="R117" t="n">
-        <v>2099000</v>
-      </c>
-      <c r="S117" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/great-wall/wingle7</t>
-        </is>
-      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -6939,7 +6883,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/dargo/</t>
+          <t>https://alga-auto.ru/auto/haval/dargo/</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -6949,7 +6893,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/dargo/</t>
+          <t>https://avtolininiya-rb.ru/auto/haval/dargo/</t>
         </is>
       </c>
       <c r="H118" t="n">
@@ -6999,7 +6943,7 @@
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/dargo/</t>
+          <t>https://alga-auto.ru/auto/haval/dargo/</t>
         </is>
       </c>
     </row>
@@ -7024,7 +6968,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/dargo_x/</t>
+          <t>https://alga-auto.ru/auto/haval/dargo_x/</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -7034,7 +6978,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/dargo_x/</t>
+          <t>https://avtolininiya-rb.ru/auto/haval/dargo_x/</t>
         </is>
       </c>
       <c r="J119" t="n">
@@ -7076,7 +7020,7 @@
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/dargo_x/</t>
+          <t>https://alga-auto.ru/auto/haval/dargo_x/</t>
         </is>
       </c>
     </row>
@@ -7158,7 +7102,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/f7/</t>
+          <t>https://alga-auto.ru/auto/haval/f7/</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -7168,7 +7112,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/f7/</t>
+          <t>https://avtolininiya-rb.ru/auto/haval/f7/</t>
         </is>
       </c>
       <c r="L121" t="n">
@@ -7186,7 +7130,7 @@
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/f7/</t>
+          <t>https://alga-auto.ru/auto/haval/f7/</t>
         </is>
       </c>
     </row>
@@ -7276,7 +7220,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/f7x/</t>
+          <t>https://alga-auto.ru/auto/haval/f7x/</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -7286,7 +7230,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/f7x/</t>
+          <t>https://avtolininiya-rb.ru/auto/haval/f7x/</t>
         </is>
       </c>
       <c r="L123" t="n">
@@ -7304,7 +7248,7 @@
       </c>
       <c r="U123" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/f7x/</t>
+          <t>https://alga-auto.ru/auto/haval/f7x/</t>
         </is>
       </c>
     </row>
@@ -7493,7 +7437,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/h5/</t>
+          <t>https://alga-auto.ru/auto/haval/h5/</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -7503,7 +7447,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/h5/</t>
+          <t>https://avtolininiya-rb.ru/auto/haval/h5/</t>
         </is>
       </c>
       <c r="J128" t="n">
@@ -7529,7 +7473,7 @@
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/h5/</t>
+          <t>https://alga-auto.ru/auto/haval/h5/</t>
         </is>
       </c>
     </row>
@@ -7605,7 +7549,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/h9/</t>
+          <t>https://avtolininiya-rb.ru/auto/haval/h9/</t>
         </is>
       </c>
       <c r="H130" t="n">
@@ -7647,7 +7591,7 @@
       </c>
       <c r="U130" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/h9/</t>
+          <t>https://alga-auto.ru/auto/haval/h9/</t>
         </is>
       </c>
     </row>
@@ -7672,7 +7616,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/jolion_1/</t>
+          <t>https://alga-auto.ru/auto/haval/jolion_1/</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -7682,7 +7626,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/jolion_1/</t>
+          <t>https://avtolininiya-rb.ru/auto/haval/jolion_1/</t>
         </is>
       </c>
       <c r="H131" t="n">
@@ -7732,7 +7676,7 @@
       </c>
       <c r="U131" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/jolion_1/</t>
+          <t>https://alga-auto.ru/auto/haval/jolion_1/</t>
         </is>
       </c>
     </row>
@@ -7757,7 +7701,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/jolion/</t>
+          <t>https://alga-auto.ru/auto/haval/jolion/</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -7767,7 +7711,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/jolion/</t>
+          <t>https://avtolininiya-rb.ru/auto/haval/jolion/</t>
         </is>
       </c>
       <c r="H132" t="n">
@@ -7801,7 +7745,7 @@
       </c>
       <c r="U132" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/jolion/</t>
+          <t>https://alga-auto.ru/auto/haval/jolion/</t>
         </is>
       </c>
     </row>
@@ -7836,7 +7780,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/haval/m6/</t>
+          <t>https://avtolininiya-rb.ru/auto/haval/m6/</t>
         </is>
       </c>
       <c r="H133" t="n">
@@ -7870,7 +7814,7 @@
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/haval/m6/</t>
+          <t>https://alga-auto.ru/auto/haval/m6/</t>
         </is>
       </c>
     </row>
@@ -8249,7 +8193,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/hyundai/creta/</t>
+          <t>https://avtolininiya-rb.ru/auto/hyundai/creta/</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -8259,7 +8203,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/hyundai/creta/</t>
+          <t>https://avtolininiya-rb.ru/auto/hyundai/creta/</t>
         </is>
       </c>
       <c r="J144" t="n">
@@ -8349,7 +8293,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/hyundai/elantra/</t>
+          <t>https://avtolininiya-rb.ru/auto/hyundai/elantra/</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -8359,7 +8303,7 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/hyundai/elantra/</t>
+          <t>https://avtolininiya-rb.ru/auto/hyundai/elantra/</t>
         </is>
       </c>
     </row>
@@ -8483,7 +8427,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/hyundai/solaris/</t>
+          <t>https://avtolininiya-rb.ru/auto/hyundai/solaris/</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -8493,7 +8437,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/hyundai/solaris/</t>
+          <t>https://avtolininiya-rb.ru/auto/hyundai/solaris/</t>
         </is>
       </c>
       <c r="H150" t="n">
@@ -8577,7 +8521,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/hyundai/sonata/</t>
+          <t>https://avtolininiya-rb.ru/auto/hyundai/sonata/</t>
         </is>
       </c>
       <c r="H152" t="n">
@@ -8708,7 +8652,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/hyundai/tucson/</t>
+          <t>https://avtolininiya-rb.ru/auto/hyundai/tucson/</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -8718,7 +8662,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/hyundai/tucson/</t>
+          <t>https://avtolininiya-rb.ru/auto/hyundai/tucson/</t>
         </is>
       </c>
     </row>
@@ -8772,7 +8716,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jac/j7/</t>
+          <t>https://alga-auto.ru/auto/jac/j7/</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8782,7 +8726,7 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jac/j7/</t>
+          <t>https://avtolininiya-rb.ru/auto/jac/j7/</t>
         </is>
       </c>
       <c r="H157" t="n">
@@ -8832,7 +8776,7 @@
       </c>
       <c r="U157" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jac/j7/</t>
+          <t>https://alga-auto.ru/auto/jac/j7/</t>
         </is>
       </c>
     </row>
@@ -9004,7 +8948,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jac/s3/</t>
+          <t>https://alga-auto.ru/auto/jac/s3/</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -9014,7 +8958,7 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jac/s3/</t>
+          <t>https://avtolininiya-rb.ru/auto/jac/s3/</t>
         </is>
       </c>
       <c r="H161" t="n">
@@ -9048,7 +8992,7 @@
       </c>
       <c r="U161" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jac/s3/</t>
+          <t>https://alga-auto.ru/auto/jac/s3/</t>
         </is>
       </c>
     </row>
@@ -9147,7 +9091,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jac/s7/</t>
+          <t>https://alga-auto.ru/auto/jac/s7/</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -9157,7 +9101,7 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jac/s7/</t>
+          <t>https://avtolininiya-rb.ru/auto/jac/s7/</t>
         </is>
       </c>
       <c r="H164" t="n">
@@ -9191,7 +9135,7 @@
       </c>
       <c r="U164" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jac/s7/</t>
+          <t>https://alga-auto.ru/auto/jac/s7/</t>
         </is>
       </c>
     </row>
@@ -9429,7 +9373,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jaecoo/j7/</t>
+          <t>https://alga-auto.ru/auto/jaecoo/j7/</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -9439,7 +9383,7 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jaecoo/j7/</t>
+          <t>https://avtolininiya-rb.ru/auto/jaecoo/j7/</t>
         </is>
       </c>
       <c r="J170" t="n">
@@ -9466,14 +9410,6 @@
           <t>https://autofort-ufa.ru/avto-new/jaecoo/jaecoo_j7/</t>
         </is>
       </c>
-      <c r="R170" t="n">
-        <v>2003940</v>
-      </c>
-      <c r="S170" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/jaecoo/j7</t>
-        </is>
-      </c>
       <c r="T170" t="inlineStr">
         <is>
           <t>2003940</t>
@@ -9481,7 +9417,7 @@
       </c>
       <c r="U170" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jaecoo/j7/</t>
+          <t>https://alga-auto.ru/auto/jaecoo/j7/</t>
         </is>
       </c>
     </row>
@@ -9502,15 +9438,15 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>3242801</v>
+        <v>3299250</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/jaecoo/j8/suv/price/</t>
+          <t>https://autofort-ufa.ru/avto-new/jaecoo/jaecoo_j8/</t>
         </is>
       </c>
       <c r="L171" t="n">
-        <v>3242801</v>
+        <v>3699000</v>
       </c>
       <c r="M171" t="inlineStr">
         <is>
@@ -9547,7 +9483,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jetour/dashing/</t>
+          <t>https://alga-auto.ru/auto/jetour/dashing/</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -9557,7 +9493,7 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetour/dashing/</t>
+          <t>https://avtolininiya-rb.ru/auto/jetour/dashing/</t>
         </is>
       </c>
       <c r="H172" t="n">
@@ -9577,7 +9513,7 @@
         </is>
       </c>
       <c r="L172" t="n">
-        <v>2519556</v>
+        <v>1919900</v>
       </c>
       <c r="M172" t="inlineStr">
         <is>
@@ -9599,7 +9535,7 @@
       </c>
       <c r="U172" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jetour/dashing/</t>
+          <t>https://alga-auto.ru/auto/jetour/dashing/</t>
         </is>
       </c>
     </row>
@@ -9636,7 +9572,7 @@
         </is>
       </c>
       <c r="L173" t="n">
-        <v>3759000</v>
+        <v>3659000</v>
       </c>
       <c r="M173" t="inlineStr">
         <is>
@@ -9673,7 +9609,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jetour/x70_plus/</t>
+          <t>https://alga-auto.ru/auto/jetour/x70_plus/</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -9683,7 +9619,7 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetour/x70_plus/</t>
+          <t>https://avtolininiya-rb.ru/auto/jetour/x70_plus/</t>
         </is>
       </c>
       <c r="H174" t="n">
@@ -9695,7 +9631,7 @@
         </is>
       </c>
       <c r="L174" t="n">
-        <v>3340350</v>
+        <v>2429900</v>
       </c>
       <c r="M174" t="inlineStr">
         <is>
@@ -9717,7 +9653,7 @@
       </c>
       <c r="U174" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jetour/x70_plus/</t>
+          <t>https://alga-auto.ru/auto/jetour/x70_plus/</t>
         </is>
       </c>
     </row>
@@ -9742,7 +9678,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jetour/x90_plus/</t>
+          <t>https://alga-auto.ru/auto/jetour/x90_plus/</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -9752,7 +9688,7 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetour/x90_plus/</t>
+          <t>https://avtolininiya-rb.ru/auto/jetour/x90_plus/</t>
         </is>
       </c>
       <c r="H175" t="n">
@@ -9772,7 +9708,7 @@
         </is>
       </c>
       <c r="L175" t="n">
-        <v>3454600</v>
+        <v>2679900</v>
       </c>
       <c r="M175" t="inlineStr">
         <is>
@@ -9794,7 +9730,7 @@
       </c>
       <c r="U175" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jetour/x90_plus/</t>
+          <t>https://alga-auto.ru/auto/jetour/x90_plus/</t>
         </is>
       </c>
     </row>
@@ -9819,7 +9755,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jetta/va3/</t>
+          <t>https://alga-auto.ru/auto/jetta/va3/</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -9829,7 +9765,7 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetta/va3/</t>
+          <t>https://avtolininiya-rb.ru/auto/jetta/va3/</t>
         </is>
       </c>
       <c r="J176" t="n">
@@ -9855,7 +9791,7 @@
       </c>
       <c r="U176" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jetta/va3/</t>
+          <t>https://alga-auto.ru/auto/jetta/va3/</t>
         </is>
       </c>
     </row>
@@ -9880,7 +9816,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jetta/vs5/</t>
+          <t>https://alga-auto.ru/auto/jetta/vs5/</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -9890,7 +9826,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetta/vs5/</t>
+          <t>https://avtolininiya-rb.ru/auto/jetta/vs5/</t>
         </is>
       </c>
       <c r="J177" t="n">
@@ -9916,7 +9852,7 @@
       </c>
       <c r="U177" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jetta/vs5/</t>
+          <t>https://alga-auto.ru/auto/jetta/vs5/</t>
         </is>
       </c>
     </row>
@@ -9941,7 +9877,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jetta/vs7/</t>
+          <t>https://alga-auto.ru/auto/jetta/vs7/</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -9951,7 +9887,7 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/jetta/vs7/</t>
+          <t>https://avtolininiya-rb.ru/auto/jetta/vs7/</t>
         </is>
       </c>
       <c r="J178" t="n">
@@ -9985,7 +9921,7 @@
       </c>
       <c r="U178" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/jetta/vs7/</t>
+          <t>https://alga-auto.ru/auto/jetta/vs7/</t>
         </is>
       </c>
     </row>
@@ -10010,7 +9946,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kaiyi/e5/</t>
+          <t>https://alga-auto.ru/auto/kaiyi/e5/</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -10020,7 +9956,7 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kaiyi/e5/</t>
+          <t>https://avtolininiya-rb.ru/auto/kaiyi/e5/</t>
         </is>
       </c>
       <c r="J179" t="n">
@@ -10032,7 +9968,7 @@
         </is>
       </c>
       <c r="L179" t="n">
-        <v>2115000</v>
+        <v>1740000</v>
       </c>
       <c r="M179" t="inlineStr">
         <is>
@@ -10047,14 +9983,6 @@
           <t>https://autofort-ufa.ru/avto-new/kaiyi/e5/</t>
         </is>
       </c>
-      <c r="R179" t="n">
-        <v>1371300</v>
-      </c>
-      <c r="S179" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/kaiyi/kaiyi_e5</t>
-        </is>
-      </c>
       <c r="T179" t="inlineStr">
         <is>
           <t>1341300</t>
@@ -10062,7 +9990,7 @@
       </c>
       <c r="U179" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kaiyi/e5/</t>
+          <t>https://alga-auto.ru/auto/kaiyi/e5/</t>
         </is>
       </c>
     </row>
@@ -10087,7 +10015,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kaiyi/x3/</t>
+          <t>https://alga-auto.ru/auto/kaiyi/x3/</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -10097,7 +10025,7 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kaiyi/x3/</t>
+          <t>https://avtolininiya-rb.ru/auto/kaiyi/x3/</t>
         </is>
       </c>
       <c r="J180" t="n">
@@ -10124,14 +10052,6 @@
           <t>https://autofort-ufa.ru/avto-new/kaiyi/kaiyi_x3/</t>
         </is>
       </c>
-      <c r="R180" t="n">
-        <v>1566600</v>
-      </c>
-      <c r="S180" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/kaiyi/x3</t>
-        </is>
-      </c>
       <c r="T180" t="inlineStr">
         <is>
           <t>1342800</t>
@@ -10139,7 +10059,7 @@
       </c>
       <c r="U180" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kaiyi/x3/</t>
+          <t>https://alga-auto.ru/auto/kaiyi/x3/</t>
         </is>
       </c>
     </row>
@@ -10164,7 +10084,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kaiyi/x3_pro/</t>
+          <t>https://alga-auto.ru/auto/kaiyi/x3_pro/</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -10174,7 +10094,7 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kaiyi/x3_pro/</t>
+          <t>https://avtolininiya-rb.ru/auto/kaiyi/x3_pro/</t>
         </is>
       </c>
       <c r="J181" t="n">
@@ -10201,14 +10121,6 @@
           <t>https://autofort-ufa.ru/avto-new/kaiyi/kaiyi_x3_pro/</t>
         </is>
       </c>
-      <c r="R181" t="n">
-        <v>1760430</v>
-      </c>
-      <c r="S181" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/kaiyi/x3_pro</t>
-        </is>
-      </c>
       <c r="T181" t="inlineStr">
         <is>
           <t>1549900</t>
@@ -10216,7 +10128,7 @@
       </c>
       <c r="U181" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kaiyi/x3_pro/</t>
+          <t>https://alga-auto.ru/auto/kaiyi/x3_pro/</t>
         </is>
       </c>
     </row>
@@ -10241,7 +10153,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kaiyi/x7_kunlun/</t>
+          <t>https://alga-auto.ru/auto/kaiyi/x7_kunlun/</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -10251,7 +10163,7 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kaiyi/x7_kunlun/</t>
+          <t>https://avtolininiya-rb.ru/auto/kaiyi/x7_kunlun/</t>
         </is>
       </c>
       <c r="L182" t="n">
@@ -10277,7 +10189,7 @@
       </c>
       <c r="U182" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/kaiyi/x7_kunlun/</t>
+          <t>https://alga-auto.ru/auto/kaiyi/x7_kunlun/</t>
         </is>
       </c>
     </row>
@@ -10302,7 +10214,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/ceed/</t>
+          <t>https://avtolininiya-rb.ru/auto/kia/ceed/</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -10312,7 +10224,7 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/ceed/</t>
+          <t>https://avtolininiya-rb.ru/auto/kia/ceed/</t>
         </is>
       </c>
     </row>
@@ -10337,7 +10249,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/ceed_sw/</t>
+          <t>https://avtolininiya-rb.ru/auto/kia/ceed_sw/</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -10347,7 +10259,7 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/ceed_sw/</t>
+          <t>https://avtolininiya-rb.ru/auto/kia/ceed_sw/</t>
         </is>
       </c>
     </row>
@@ -10372,7 +10284,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/cerato/</t>
+          <t>https://avtolininiya-rb.ru/auto/kia/cerato/</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -10382,7 +10294,7 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/cerato/</t>
+          <t>https://avtolininiya-rb.ru/auto/kia/cerato/</t>
         </is>
       </c>
     </row>
@@ -10407,7 +10319,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/k5/</t>
+          <t>https://avtolininiya-rb.ru/auto/kia/k5/</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -10417,7 +10329,7 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/k5/</t>
+          <t>https://avtolininiya-rb.ru/auto/kia/k5/</t>
         </is>
       </c>
     </row>
@@ -10442,7 +10354,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/picanto/</t>
+          <t>https://avtolininiya-rb.ru/auto/kia/picanto/</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -10452,7 +10364,7 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/picanto/</t>
+          <t>https://avtolininiya-rb.ru/auto/kia/picanto/</t>
         </is>
       </c>
     </row>
@@ -10477,7 +10389,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/proceed/</t>
+          <t>https://avtolininiya-rb.ru/auto/kia/proceed/</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -10487,7 +10399,7 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/proceed/</t>
+          <t>https://avtolininiya-rb.ru/auto/kia/proceed/</t>
         </is>
       </c>
     </row>
@@ -10512,7 +10424,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/rio/</t>
+          <t>https://avtolininiya-rb.ru/auto/kia/rio/</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -10522,7 +10434,7 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/rio/</t>
+          <t>https://avtolininiya-rb.ru/auto/kia/rio/</t>
         </is>
       </c>
     </row>
@@ -10547,7 +10459,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/rio_x/</t>
+          <t>https://avtolininiya-rb.ru/auto/kia/rio_x/</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -10557,7 +10469,7 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/rio_x/</t>
+          <t>https://avtolininiya-rb.ru/auto/kia/rio_x/</t>
         </is>
       </c>
     </row>
@@ -10582,7 +10494,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/rio_x-line/</t>
+          <t>https://avtolininiya-rb.ru/auto/kia/rio_x-line/</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -10592,7 +10504,7 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/rio_x-line/</t>
+          <t>https://avtolininiya-rb.ru/auto/kia/rio_x-line/</t>
         </is>
       </c>
     </row>
@@ -10617,7 +10529,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/seltos/</t>
+          <t>https://avtolininiya-rb.ru/auto/kia/seltos/</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -10627,7 +10539,7 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/seltos/</t>
+          <t>https://avtolininiya-rb.ru/auto/kia/seltos/</t>
         </is>
       </c>
     </row>
@@ -10652,7 +10564,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/soul/</t>
+          <t>https://avtolininiya-rb.ru/auto/kia/soul/</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -10662,7 +10574,7 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/soul/</t>
+          <t>https://avtolininiya-rb.ru/auto/kia/soul/</t>
         </is>
       </c>
     </row>
@@ -10687,7 +10599,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/sportage/</t>
+          <t>https://avtolininiya-rb.ru/auto/kia/sportage/</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -10697,7 +10609,7 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/sportage/</t>
+          <t>https://avtolininiya-rb.ru/auto/kia/sportage/</t>
         </is>
       </c>
     </row>
@@ -10722,7 +10634,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/xceed/</t>
+          <t>https://avtolininiya-rb.ru/auto/kia/xceed/</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -10732,7 +10644,7 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/kia/xceed/</t>
+          <t>https://avtolininiya-rb.ru/auto/kia/xceed/</t>
         </is>
       </c>
     </row>
@@ -10798,7 +10710,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_cross/</t>
+          <t>https://avtolininiya-rb.ru/auto/lada/granta_cross/</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -10808,7 +10720,7 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_cross/</t>
+          <t>https://avtolininiya-rb.ru/auto/lada/granta_cross/</t>
         </is>
       </c>
       <c r="H197" t="n">
@@ -10855,7 +10767,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>408</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -10865,64 +10777,30 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Granta Drive Active</t>
+          <t>Granta Drive Active Liftback</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>411900</v>
+        <v>738940</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_drive_active/</t>
-        </is>
-      </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>411900</t>
-        </is>
-      </c>
-      <c r="G198" t="inlineStr">
-        <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_drive_active/</t>
-        </is>
-      </c>
-      <c r="H198" t="n">
-        <v>735300</v>
-      </c>
-      <c r="I198" t="inlineStr">
-        <is>
-          <t>https://ufa.masmotors.ru/car/lada/granta-drive-active</t>
-        </is>
-      </c>
-      <c r="J198" t="n">
-        <v>421900</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/lada/granta_da</t>
+          <t>https://autofort-ufa.ru/avto-new/lada/lada_granta_sport_drive_active_liftback/</t>
         </is>
       </c>
       <c r="P198" t="n">
-        <v>511900</v>
+        <v>738940</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/lada/granta_drive_active/</t>
-        </is>
-      </c>
-      <c r="R198" t="n">
-        <v>441900</v>
-      </c>
-      <c r="S198" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/lada/granta_da</t>
+          <t>https://autofort-ufa.ru/avto-new/lada/lada_granta_sport_drive_active_liftback/</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -10932,30 +10810,64 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Granta Drive Active Liftback</t>
+          <t>Granta Hatchback</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>738940</v>
+        <v>271500</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/lada/lada_granta_sport_drive_active_liftback/</t>
+          <t>https://avtolininiya-rb.ru/auto/lada/granta_hatchback/</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>271500</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>https://avtolininiya-rb.ru/auto/lada/granta_hatchback/</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>662600</v>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>https://ufa.masmotors.ru/car/lada/granta-hatchback</t>
+        </is>
+      </c>
+      <c r="J199" t="n">
+        <v>281500</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>https://avrora-motors.ru/catalog/lada/granta_hatchback</t>
         </is>
       </c>
       <c r="P199" t="n">
-        <v>738940</v>
+        <v>371500</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/lada/lada_granta_sport_drive_active_liftback/</t>
+          <t>https://autofort-ufa.ru/avto-new/lada/granta_hatchback_new/</t>
+        </is>
+      </c>
+      <c r="R199" t="n">
+        <v>301500</v>
+      </c>
+      <c r="S199" t="inlineStr">
+        <is>
+          <t>https://motors-ag.ru/catalog/lada/granta_hatchback</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -10965,64 +10877,72 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Granta Hatchback</t>
+          <t>Granta Liftback</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>271500</v>
+        <v>271900</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_hatchback/</t>
+          <t>https://avtolininiya-rb.ru/auto/lada/granta_liftback/</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>271500</t>
+          <t>271900</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_hatchback/</t>
+          <t>https://avtolininiya-rb.ru/auto/lada/granta_liftback/</t>
         </is>
       </c>
       <c r="H200" t="n">
-        <v>662600</v>
+        <v>611700</v>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/lada/granta-hatchback</t>
+          <t>https://ufa.masmotors.ru/car/lada/granta-lift</t>
         </is>
       </c>
       <c r="J200" t="n">
-        <v>281500</v>
+        <v>281900</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>https://avrora-motors.ru/catalog/lada/granta_hatchback</t>
+          <t>https://avrora-motors.ru/catalog/lada/granta_liftback</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>942500</v>
+      </c>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>https://ufa.autospot.ru/brands/lada/granta/liftback/price/</t>
         </is>
       </c>
       <c r="P200" t="n">
-        <v>371500</v>
+        <v>371900</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/lada/granta_hatchback_new/</t>
+          <t>https://autofort-ufa.ru/avto-new/lada/granta_liftback_new/</t>
         </is>
       </c>
       <c r="R200" t="n">
-        <v>301500</v>
+        <v>301900</v>
       </c>
       <c r="S200" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/lada/granta_hatchback</t>
+          <t>https://motors-ag.ru/catalog/lada/granta_liftback</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -11032,72 +10952,72 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Granta Liftback</t>
+          <t>Granta Sedan</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>271900</v>
+        <v>254900</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_liftback/</t>
+          <t>https://avtolininiya-rb.ru/auto/lada/granta_sedan/</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>271900</t>
+          <t>254900</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_liftback/</t>
+          <t>https://avtolininiya-rb.ru/auto/lada/granta_sedan/</t>
         </is>
       </c>
       <c r="H201" t="n">
-        <v>611700</v>
+        <v>589200</v>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/lada/granta-lift</t>
+          <t>https://ufa.masmotors.ru/car/lada/granta-sedan</t>
         </is>
       </c>
       <c r="J201" t="n">
-        <v>281900</v>
+        <v>264900</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>https://avrora-motors.ru/catalog/lada/granta_liftback</t>
+          <t>https://avrora-motors.ru/catalog/lada/granta_sedan</t>
         </is>
       </c>
       <c r="L201" t="n">
-        <v>942500</v>
+        <v>629900</v>
       </c>
       <c r="M201" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/lada/granta/liftback/price/</t>
+          <t>https://ufa.autospot.ru/brands/lada/granta/sedan/price/</t>
         </is>
       </c>
       <c r="P201" t="n">
-        <v>371900</v>
+        <v>354900</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/lada/granta_liftback_new/</t>
+          <t>https://autofort-ufa.ru/avto-new/lada/granta_sedan_new/</t>
         </is>
       </c>
       <c r="R201" t="n">
-        <v>301900</v>
+        <v>284900</v>
       </c>
       <c r="S201" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/lada/granta_liftback</t>
+          <t>https://motors-ag.ru/catalog/lada/granta_sedan</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -11107,65 +11027,57 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Granta Sedan</t>
+          <t>Granta Sedan Drive Active</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>254900</v>
+        <v>411900</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_sedan/</t>
+          <t>https://avtolininiya-rb.ru/auto/lada/granta_drive_active/</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>254900</t>
+          <t>411900</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_sedan/</t>
+          <t>https://avtolininiya-rb.ru/auto/lada/granta_drive_active/</t>
         </is>
       </c>
       <c r="H202" t="n">
-        <v>589200</v>
+        <v>735300</v>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/lada/granta-sedan</t>
+          <t>https://ufa.masmotors.ru/car/lada/granta-drive-active</t>
         </is>
       </c>
       <c r="J202" t="n">
-        <v>264900</v>
+        <v>421900</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>https://avrora-motors.ru/catalog/lada/granta_sedan</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>629900</v>
-      </c>
-      <c r="M202" t="inlineStr">
-        <is>
-          <t>https://ufa.autospot.ru/brands/lada/granta/sedan/price/</t>
+          <t>https://avrora-motors.ru/catalog/lada/granta_da</t>
         </is>
       </c>
       <c r="P202" t="n">
-        <v>354900</v>
+        <v>511900</v>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/lada/granta_sedan_new/</t>
+          <t>https://autofort-ufa.ru/avto-new/lada/granta_drive_active/</t>
         </is>
       </c>
       <c r="R202" t="n">
-        <v>284900</v>
+        <v>441900</v>
       </c>
       <c r="S202" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/lada/granta_sedan</t>
+          <t>https://motors-ag.ru/catalog/lada/granta_da</t>
         </is>
       </c>
     </row>
@@ -11403,7 +11315,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_universal/</t>
+          <t>https://avtolininiya-rb.ru/auto/lada/granta_universal/</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -11413,7 +11325,7 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/granta_universal/</t>
+          <t>https://avtolininiya-rb.ru/auto/lada/granta_universal/</t>
         </is>
       </c>
       <c r="J208" t="n">
@@ -11569,7 +11481,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/largus_cross/</t>
+          <t>https://avtolininiya-rb.ru/auto/lada/largus_cross/</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -11579,7 +11491,7 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/largus_cross/</t>
+          <t>https://avtolininiya-rb.ru/auto/lada/largus_cross/</t>
         </is>
       </c>
       <c r="J212" t="n">
@@ -11620,7 +11532,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/largus/</t>
+          <t>https://avtolininiya-rb.ru/auto/lada/largus/</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -11630,7 +11542,7 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/largus/</t>
+          <t>https://avtolininiya-rb.ru/auto/lada/largus/</t>
         </is>
       </c>
       <c r="J213" t="n">
@@ -11714,7 +11626,7 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/largus_furgon/</t>
+          <t>https://avtolininiya-rb.ru/auto/lada/largus_furgon/</t>
         </is>
       </c>
       <c r="J215" t="n">
@@ -11755,7 +11667,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/niva/</t>
+          <t>https://avtolininiya-rb.ru/auto/lada/niva/</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -11765,7 +11677,7 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/niva/</t>
+          <t>https://avtolininiya-rb.ru/auto/lada/niva/</t>
         </is>
       </c>
       <c r="P216" t="n">
@@ -11798,7 +11710,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/4x4_3_dv/</t>
+          <t>https://avtolininiya-rb.ru/auto/lada/4x4_3_dv/</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -11808,7 +11720,7 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/4x4_3_dv/</t>
+          <t>https://avtolininiya-rb.ru/auto/lada/4x4_3_dv/</t>
         </is>
       </c>
       <c r="H217" t="n">
@@ -11873,7 +11785,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/4x4_5_dv/</t>
+          <t>https://avtolininiya-rb.ru/auto/lada/4x4_5_dv/</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -11883,7 +11795,7 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/4x4_5_dv/</t>
+          <t>https://avtolininiya-rb.ru/auto/lada/4x4_5_dv/</t>
         </is>
       </c>
       <c r="H218" t="n">
@@ -11973,7 +11885,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/niva_off-road/</t>
+          <t>https://avtolininiya-rb.ru/auto/lada/niva_off-road/</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -11983,7 +11895,7 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/niva_off-road/</t>
+          <t>https://avtolininiya-rb.ru/auto/lada/niva_off-road/</t>
         </is>
       </c>
       <c r="H220" t="n">
@@ -12024,7 +11936,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/niva_travel/</t>
+          <t>https://avtolininiya-rb.ru/auto/lada/niva_travel/</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
@@ -12034,7 +11946,7 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/niva_travel/</t>
+          <t>https://avtolininiya-rb.ru/auto/lada/niva_travel/</t>
         </is>
       </c>
       <c r="H221" t="n">
@@ -12181,7 +12093,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_cross_1/</t>
+          <t>https://avtolininiya-rb.ru/auto/lada/vesta_cross_1/</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
@@ -12191,7 +12103,7 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_cross_1/</t>
+          <t>https://avtolininiya-rb.ru/auto/lada/vesta_cross_1/</t>
         </is>
       </c>
       <c r="J224" t="n">
@@ -12258,7 +12170,7 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_cross/</t>
+          <t>https://avtolininiya-rb.ru/auto/lada/vesta_cross/</t>
         </is>
       </c>
       <c r="H225" t="n">
@@ -12291,7 +12203,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sw_1/</t>
+          <t>https://avtolininiya-rb.ru/auto/lada/vesta_sw_1/</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -12301,7 +12213,7 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sw_1/</t>
+          <t>https://avtolininiya-rb.ru/auto/lada/vesta_sw_1/</t>
         </is>
       </c>
       <c r="J226" t="n">
@@ -12358,7 +12270,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sw_cross_1/</t>
+          <t>https://avtolininiya-rb.ru/auto/lada/vesta_sw_cross_1/</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
@@ -12368,7 +12280,7 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sw_cross_1/</t>
+          <t>https://avtolininiya-rb.ru/auto/lada/vesta_sw_cross_1/</t>
         </is>
       </c>
       <c r="J227" t="n">
@@ -12435,7 +12347,7 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sw_cross/</t>
+          <t>https://avtolininiya-rb.ru/auto/lada/vesta_sw_cross/</t>
         </is>
       </c>
       <c r="H228" t="n">
@@ -12478,7 +12390,7 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sw/</t>
+          <t>https://avtolininiya-rb.ru/auto/lada/vesta_sw/</t>
         </is>
       </c>
       <c r="H229" t="n">
@@ -12552,7 +12464,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_1/</t>
+          <t>https://avtolininiya-rb.ru/auto/lada/vesta_1/</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
@@ -12562,7 +12474,7 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_1/</t>
+          <t>https://avtolininiya-rb.ru/auto/lada/vesta_1/</t>
         </is>
       </c>
       <c r="J231" t="n">
@@ -12619,7 +12531,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_cng/</t>
+          <t>https://avtolininiya-rb.ru/auto/lada/vesta_cng/</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
@@ -12629,7 +12541,7 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_cng/</t>
+          <t>https://avtolininiya-rb.ru/auto/lada/vesta_cng/</t>
         </is>
       </c>
       <c r="J232" t="n">
@@ -12688,7 +12600,7 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta/</t>
+          <t>https://avtolininiya-rb.ru/auto/lada/vesta/</t>
         </is>
       </c>
       <c r="H233" t="n">
@@ -12731,7 +12643,7 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/vesta_sport/</t>
+          <t>https://avtolininiya-rb.ru/auto/lada/vesta_sport/</t>
         </is>
       </c>
       <c r="J234" t="n">
@@ -12838,7 +12750,7 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/xray/</t>
+          <t>https://avtolininiya-rb.ru/auto/lada/xray/</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
@@ -12848,7 +12760,7 @@
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/xray/</t>
+          <t>https://avtolininiya-rb.ru/auto/lada/xray/</t>
         </is>
       </c>
       <c r="H237" t="n">
@@ -12905,7 +12817,7 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/xray_cross/</t>
+          <t>https://avtolininiya-rb.ru/auto/lada/xray_cross/</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
@@ -12915,7 +12827,7 @@
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lada/xray_cross/</t>
+          <t>https://avtolininiya-rb.ru/auto/lada/xray_cross/</t>
         </is>
       </c>
       <c r="H238" t="n">
@@ -13071,7 +12983,7 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lifan/murman/</t>
+          <t>https://alga-auto.ru/auto/lifan/murman/</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
@@ -13081,7 +12993,7 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lifan/murman/</t>
+          <t>https://avtolininiya-rb.ru/auto/lifan/murman/</t>
         </is>
       </c>
       <c r="J242" t="n">
@@ -13115,7 +13027,7 @@
       </c>
       <c r="U242" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lifan/murman/</t>
+          <t>https://alga-auto.ru/auto/lifan/murman/</t>
         </is>
       </c>
     </row>
@@ -13140,7 +13052,7 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lifan/myway/</t>
+          <t>https://alga-auto.ru/auto/lifan/myway/</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
@@ -13150,7 +13062,7 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lifan/myway/</t>
+          <t>https://avtolininiya-rb.ru/auto/lifan/myway/</t>
         </is>
       </c>
       <c r="J243" t="n">
@@ -13184,7 +13096,7 @@
       </c>
       <c r="U243" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lifan/myway/</t>
+          <t>https://alga-auto.ru/auto/lifan/myway/</t>
         </is>
       </c>
     </row>
@@ -13209,7 +13121,7 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lifan/solano_ii/</t>
+          <t>https://alga-auto.ru/auto/lifan/solano_ii/</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
@@ -13219,7 +13131,7 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lifan/solano_ii/</t>
+          <t>https://avtolininiya-rb.ru/auto/lifan/solano_ii/</t>
         </is>
       </c>
       <c r="H244" t="n">
@@ -13261,7 +13173,7 @@
       </c>
       <c r="U244" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lifan/solano_ii/</t>
+          <t>https://alga-auto.ru/auto/lifan/solano_ii/</t>
         </is>
       </c>
     </row>
@@ -13286,7 +13198,7 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lifan/x50/</t>
+          <t>https://alga-auto.ru/auto/lifan/x50/</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
@@ -13296,7 +13208,7 @@
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lifan/x50/</t>
+          <t>https://avtolininiya-rb.ru/auto/lifan/x50/</t>
         </is>
       </c>
       <c r="H245" t="n">
@@ -13338,7 +13250,7 @@
       </c>
       <c r="U245" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lifan/x50/</t>
+          <t>https://alga-auto.ru/auto/lifan/x50/</t>
         </is>
       </c>
     </row>
@@ -13363,7 +13275,7 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lifan/x60/</t>
+          <t>https://alga-auto.ru/auto/lifan/x60/</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
@@ -13373,7 +13285,7 @@
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lifan/x60/</t>
+          <t>https://avtolininiya-rb.ru/auto/lifan/x60/</t>
         </is>
       </c>
       <c r="J246" t="n">
@@ -13407,7 +13319,7 @@
       </c>
       <c r="U246" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lifan/x60/</t>
+          <t>https://alga-auto.ru/auto/lifan/x60/</t>
         </is>
       </c>
     </row>
@@ -13465,7 +13377,7 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lifan/x70/</t>
+          <t>https://alga-auto.ru/auto/lifan/x70/</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
@@ -13475,7 +13387,7 @@
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/lifan/x70/</t>
+          <t>https://avtolininiya-rb.ru/auto/lifan/x70/</t>
         </is>
       </c>
       <c r="H248" t="n">
@@ -13517,7 +13429,7 @@
       </c>
       <c r="U248" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/lifan/x70/</t>
+          <t>https://alga-auto.ru/auto/lifan/x70/</t>
         </is>
       </c>
     </row>
@@ -13542,7 +13454,7 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/livan/s6pro/</t>
+          <t>https://alga-auto.ru/auto/livan/s6pro/</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
@@ -13552,7 +13464,7 @@
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/livan/s6pro/</t>
+          <t>https://avtolininiya-rb.ru/auto/livan/s6pro/</t>
         </is>
       </c>
       <c r="J249" t="n">
@@ -13579,14 +13491,6 @@
           <t>https://autofort-ufa.ru/avto-new/livan/S6PRO/</t>
         </is>
       </c>
-      <c r="R249" t="n">
-        <v>1784930</v>
-      </c>
-      <c r="S249" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/livan/s6pro</t>
-        </is>
-      </c>
       <c r="T249" t="inlineStr">
         <is>
           <t>1529940</t>
@@ -13594,7 +13498,7 @@
       </c>
       <c r="U249" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/livan/s6pro/</t>
+          <t>https://alga-auto.ru/auto/livan/s6pro/</t>
         </is>
       </c>
     </row>
@@ -13619,7 +13523,7 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/livan/x3pro/</t>
+          <t>https://alga-auto.ru/auto/livan/x3pro/</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
@@ -13629,7 +13533,7 @@
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/livan/x3pro/</t>
+          <t>https://avtolininiya-rb.ru/auto/livan/x3pro/</t>
         </is>
       </c>
       <c r="J250" t="n">
@@ -13663,7 +13567,7 @@
       </c>
       <c r="U250" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/livan/x3pro/</t>
+          <t>https://alga-auto.ru/auto/livan/x3pro/</t>
         </is>
       </c>
     </row>
@@ -13688,7 +13592,7 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/livan/x6pro/</t>
+          <t>https://alga-auto.ru/auto/livan/x6pro/</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
@@ -13698,7 +13602,7 @@
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/livan/x6pro/</t>
+          <t>https://avtolininiya-rb.ru/auto/livan/x6pro/</t>
         </is>
       </c>
       <c r="J251" t="n">
@@ -13725,14 +13629,6 @@
           <t>https://autofort-ufa.ru/avto-new/livan/%D0%A56PRO/</t>
         </is>
       </c>
-      <c r="R251" t="n">
-        <v>1840930</v>
-      </c>
-      <c r="S251" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/livan/x6pro</t>
-        </is>
-      </c>
       <c r="T251" t="inlineStr">
         <is>
           <t>1577940</t>
@@ -13740,7 +13636,7 @@
       </c>
       <c r="U251" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/livan/x6pro/</t>
+          <t>https://alga-auto.ru/auto/livan/x6pro/</t>
         </is>
       </c>
     </row>
@@ -14352,7 +14248,7 @@
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/moskvich/3/</t>
+          <t>https://avtolininiya-rb.ru/auto/moskvich/3/</t>
         </is>
       </c>
       <c r="H269" t="n">
@@ -14387,14 +14283,6 @@
           <t>https://autofort-ufa.ru/avto-new/moskvich/moskvich_3/</t>
         </is>
       </c>
-      <c r="R269" t="n">
-        <v>1444000</v>
-      </c>
-      <c r="S269" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/moskvich/moskvish_3</t>
-        </is>
-      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -14417,7 +14305,7 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/moskvich/3e/</t>
+          <t>https://avtolininiya-rb.ru/auto/moskvich/3e/</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
@@ -14427,7 +14315,7 @@
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/moskvich/3e/</t>
+          <t>https://avtolininiya-rb.ru/auto/moskvich/3e/</t>
         </is>
       </c>
       <c r="J270" t="n">
@@ -14454,14 +14342,6 @@
           <t>https://autofort-ufa.ru/avto-new/moskvich/moskvich_3e/</t>
         </is>
       </c>
-      <c r="R270" t="n">
-        <v>2450000</v>
-      </c>
-      <c r="S270" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/moskvich/moskvish_3e</t>
-        </is>
-      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -14484,7 +14364,7 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/moskvich/moskvish_6</t>
+          <t>https://avrora-motors.ru/catalog/moskvic/moskvish_6</t>
         </is>
       </c>
       <c r="H271" t="n">
@@ -14519,14 +14399,6 @@
           <t>https://autofort-ufa.ru/avto-new/moskvich/moskvich_6/</t>
         </is>
       </c>
-      <c r="R271" t="n">
-        <v>1540000</v>
-      </c>
-      <c r="S271" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/moskvich/moskvish_6</t>
-        </is>
-      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -14549,7 +14421,7 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/nissan/murano/</t>
+          <t>https://avtolininiya-rb.ru/auto/nissan/murano/</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
@@ -14559,7 +14431,7 @@
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/nissan/murano/</t>
+          <t>https://avtolininiya-rb.ru/auto/nissan/murano/</t>
         </is>
       </c>
       <c r="H272" t="n">
@@ -14625,7 +14497,7 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/nissan/qashqai/</t>
+          <t>https://avtolininiya-rb.ru/auto/nissan/qashqai/</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
@@ -14635,7 +14507,7 @@
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/nissan/qashqai/</t>
+          <t>https://avtolininiya-rb.ru/auto/nissan/qashqai/</t>
         </is>
       </c>
       <c r="H274" t="n">
@@ -14684,7 +14556,7 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/nissan/terrano/</t>
+          <t>https://avtolininiya-rb.ru/auto/nissan/terrano/</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
@@ -14694,7 +14566,7 @@
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/nissan/terrano/</t>
+          <t>https://avtolininiya-rb.ru/auto/nissan/terrano/</t>
         </is>
       </c>
       <c r="H275" t="n">
@@ -14743,7 +14615,7 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/nissan/x-trail/</t>
+          <t>https://avtolininiya-rb.ru/auto/nissan/x-trail/</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
@@ -14753,7 +14625,7 @@
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/nissan/x-trail/</t>
+          <t>https://avtolininiya-rb.ru/auto/nissan/x-trail/</t>
         </is>
       </c>
       <c r="H276" t="n">
@@ -14802,7 +14674,7 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/omoda/c5/</t>
+          <t>https://alga-auto.ru/auto/omoda/c5/</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
@@ -14812,7 +14684,7 @@
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/omoda/c5/</t>
+          <t>https://avtolininiya-rb.ru/auto/omoda/c5/</t>
         </is>
       </c>
       <c r="H277" t="n">
@@ -14847,14 +14719,6 @@
           <t>https://autofort-ufa.ru/avto-new/omoda/omoda_c5/</t>
         </is>
       </c>
-      <c r="R277" t="n">
-        <v>1779900</v>
-      </c>
-      <c r="S277" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/omoda/c5</t>
-        </is>
-      </c>
       <c r="T277" t="inlineStr">
         <is>
           <t>1749900</t>
@@ -14862,7 +14726,7 @@
       </c>
       <c r="U277" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/omoda/c5/</t>
+          <t>https://alga-auto.ru/auto/omoda/c5/</t>
         </is>
       </c>
     </row>
@@ -14887,7 +14751,7 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/omoda/s5/</t>
+          <t>https://avtolininiya-rb.ru/auto/omoda/s5/</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
@@ -14897,7 +14761,7 @@
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/omoda/s5/</t>
+          <t>https://avtolininiya-rb.ru/auto/omoda/s5/</t>
         </is>
       </c>
       <c r="H278" t="n">
@@ -14932,14 +14796,6 @@
           <t>https://autofort-ufa.ru/avto-new/omoda/omoda_s5/</t>
         </is>
       </c>
-      <c r="R278" t="n">
-        <v>1659900</v>
-      </c>
-      <c r="S278" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/omoda/s5</t>
-        </is>
-      </c>
       <c r="T278" t="inlineStr">
         <is>
           <t>1629900</t>
@@ -14947,7 +14803,7 @@
       </c>
       <c r="U278" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/omoda/s5/</t>
+          <t>https://alga-auto.ru/auto/omoda/s5/</t>
         </is>
       </c>
     </row>
@@ -15384,7 +15240,7 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/ravon/nexia_r3/</t>
+          <t>https://avtolininiya-rb.ru/auto/ravon/nexia_r3/</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
@@ -15394,7 +15250,7 @@
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/ravon/nexia_r3/</t>
+          <t>https://avtolininiya-rb.ru/auto/ravon/nexia_r3/</t>
         </is>
       </c>
       <c r="H291" t="n">
@@ -15443,7 +15299,7 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/ravon/r2/</t>
+          <t>https://avtolininiya-rb.ru/auto/ravon/r2/</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
@@ -15453,7 +15309,7 @@
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/ravon/r2/</t>
+          <t>https://avtolininiya-rb.ru/auto/ravon/r2/</t>
         </is>
       </c>
       <c r="H292" t="n">
@@ -15502,7 +15358,7 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/ravon/r4/</t>
+          <t>https://avtolininiya-rb.ru/auto/ravon/r4/</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
@@ -15512,7 +15368,7 @@
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/ravon/r4/</t>
+          <t>https://avtolininiya-rb.ru/auto/ravon/r4/</t>
         </is>
       </c>
       <c r="H293" t="n">
@@ -15561,7 +15417,7 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/arkana/</t>
+          <t>https://avtolininiya-rb.ru/auto/renault/arkana/</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
@@ -15571,7 +15427,7 @@
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/arkana/</t>
+          <t>https://avtolininiya-rb.ru/auto/renault/arkana/</t>
         </is>
       </c>
       <c r="H294" t="n">
@@ -15669,7 +15525,7 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/duster/</t>
+          <t>https://avtolininiya-rb.ru/auto/renault/duster/</t>
         </is>
       </c>
       <c r="F296" t="inlineStr">
@@ -15679,7 +15535,7 @@
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/duster/</t>
+          <t>https://avtolininiya-rb.ru/auto/renault/duster/</t>
         </is>
       </c>
       <c r="J296" t="n">
@@ -15720,7 +15576,7 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/kaptur/</t>
+          <t>https://avtolininiya-rb.ru/auto/renault/kaptur/</t>
         </is>
       </c>
       <c r="F297" t="inlineStr">
@@ -15730,7 +15586,7 @@
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/kaptur/</t>
+          <t>https://avtolininiya-rb.ru/auto/renault/kaptur/</t>
         </is>
       </c>
       <c r="H297" t="n">
@@ -15779,7 +15635,7 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/logan/</t>
+          <t>https://avtolininiya-rb.ru/auto/renault/logan/</t>
         </is>
       </c>
       <c r="F298" t="inlineStr">
@@ -15789,7 +15645,7 @@
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/logan/</t>
+          <t>https://avtolininiya-rb.ru/auto/renault/logan/</t>
         </is>
       </c>
       <c r="H298" t="n">
@@ -15848,7 +15704,7 @@
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/logan_stepway/</t>
+          <t>https://avtolininiya-rb.ru/auto/renault/logan_stepway/</t>
         </is>
       </c>
       <c r="H299" t="n">
@@ -15907,7 +15763,7 @@
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/logan_stepway_city/</t>
+          <t>https://avtolininiya-rb.ru/auto/renault/logan_stepway_city/</t>
         </is>
       </c>
       <c r="J300" t="n">
@@ -15948,7 +15804,7 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/sandero/</t>
+          <t>https://avtolininiya-rb.ru/auto/renault/sandero/</t>
         </is>
       </c>
       <c r="F301" t="inlineStr">
@@ -15958,7 +15814,7 @@
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/sandero/</t>
+          <t>https://avtolininiya-rb.ru/auto/renault/sandero/</t>
         </is>
       </c>
       <c r="H301" t="n">
@@ -16017,7 +15873,7 @@
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/sandero_stepway/</t>
+          <t>https://avtolininiya-rb.ru/auto/renault/sandero_stepway/</t>
         </is>
       </c>
       <c r="H302" t="n">
@@ -16076,7 +15932,7 @@
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/renault/sandero_stepway_city/</t>
+          <t>https://avtolininiya-rb.ru/auto/renault/sandero_stepway_city/</t>
         </is>
       </c>
       <c r="J303" t="n">
@@ -16117,7 +15973,7 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/karoq/</t>
+          <t>https://avtolininiya-rb.ru/auto/skoda/karoq/</t>
         </is>
       </c>
       <c r="F304" t="inlineStr">
@@ -16127,7 +15983,7 @@
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/karoq/</t>
+          <t>https://avtolininiya-rb.ru/auto/skoda/karoq/</t>
         </is>
       </c>
       <c r="H304" t="n">
@@ -16209,7 +16065,7 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/kodiaq/</t>
+          <t>https://avtolininiya-rb.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
       <c r="F306" t="inlineStr">
@@ -16219,7 +16075,7 @@
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/kodiaq/</t>
+          <t>https://avtolininiya-rb.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
     </row>
@@ -16384,7 +16240,7 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/octavia/</t>
+          <t>https://avtolininiya-rb.ru/auto/skoda/octavia/</t>
         </is>
       </c>
       <c r="F311" t="inlineStr">
@@ -16394,7 +16250,7 @@
       </c>
       <c r="G311" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/octavia/</t>
+          <t>https://avtolininiya-rb.ru/auto/skoda/octavia/</t>
         </is>
       </c>
       <c r="J311" t="n">
@@ -16435,7 +16291,7 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/rapid/</t>
+          <t>https://avtolininiya-rb.ru/auto/skoda/rapid/</t>
         </is>
       </c>
       <c r="F312" t="inlineStr">
@@ -16445,7 +16301,7 @@
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/rapid/</t>
+          <t>https://avtolininiya-rb.ru/auto/skoda/rapid/</t>
         </is>
       </c>
       <c r="H312" t="n">
@@ -16519,7 +16375,7 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/superb/</t>
+          <t>https://avtolininiya-rb.ru/auto/skoda/superb/</t>
         </is>
       </c>
       <c r="F314" t="inlineStr">
@@ -16529,7 +16385,7 @@
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/superb/</t>
+          <t>https://avtolininiya-rb.ru/auto/skoda/superb/</t>
         </is>
       </c>
     </row>
@@ -16554,7 +16410,7 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/superb_combi/</t>
+          <t>https://avtolininiya-rb.ru/auto/skoda/superb_combi/</t>
         </is>
       </c>
       <c r="F315" t="inlineStr">
@@ -16564,7 +16420,7 @@
       </c>
       <c r="G315" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/skoda/superb_combi/</t>
+          <t>https://avtolininiya-rb.ru/auto/skoda/superb_combi/</t>
         </is>
       </c>
     </row>
@@ -16696,7 +16552,7 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/solaris/hc/</t>
+          <t>https://avtolininiya-rb.ru/auto/solaris/hc/</t>
         </is>
       </c>
       <c r="F319" t="inlineStr">
@@ -16706,7 +16562,7 @@
       </c>
       <c r="G319" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/solaris/hc/</t>
+          <t>https://avtolininiya-rb.ru/auto/solaris/hc/</t>
         </is>
       </c>
       <c r="P319" t="n">
@@ -16739,7 +16595,7 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/solaris/hs/</t>
+          <t>https://avtolininiya-rb.ru/auto/solaris/hs/</t>
         </is>
       </c>
       <c r="F320" t="inlineStr">
@@ -16749,7 +16605,7 @@
       </c>
       <c r="G320" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/solaris/hs/</t>
+          <t>https://avtolininiya-rb.ru/auto/solaris/hs/</t>
         </is>
       </c>
       <c r="P320" t="n">
@@ -16782,7 +16638,7 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/solaris/krs/</t>
+          <t>https://avtolininiya-rb.ru/auto/solaris/krs/</t>
         </is>
       </c>
       <c r="F321" t="inlineStr">
@@ -16792,7 +16648,7 @@
       </c>
       <c r="G321" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/solaris/krs/</t>
+          <t>https://avtolininiya-rb.ru/auto/solaris/krs/</t>
         </is>
       </c>
       <c r="P321" t="n">
@@ -16825,7 +16681,7 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/solaris/krx/</t>
+          <t>https://avtolininiya-rb.ru/auto/solaris/krx/</t>
         </is>
       </c>
       <c r="F322" t="inlineStr">
@@ -16835,7 +16691,7 @@
       </c>
       <c r="G322" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/solaris/krx/</t>
+          <t>https://avtolininiya-rb.ru/auto/solaris/krx/</t>
         </is>
       </c>
     </row>
@@ -16988,7 +16844,7 @@
         </is>
       </c>
       <c r="D327" t="n">
-        <v>2075000</v>
+        <v>2230000</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
@@ -16996,7 +16852,7 @@
         </is>
       </c>
       <c r="L327" t="n">
-        <v>2075000</v>
+        <v>2230000</v>
       </c>
       <c r="M327" t="inlineStr">
         <is>
@@ -17190,7 +17046,7 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/tank/tank_300</t>
+          <t>https://avrora-motors.ru/catalog/tank/tank_300</t>
         </is>
       </c>
       <c r="F333" t="inlineStr">
@@ -17200,7 +17056,7 @@
       </c>
       <c r="G333" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/tank/300/</t>
+          <t>https://avtolininiya-rb.ru/auto/tank/300/</t>
         </is>
       </c>
       <c r="H333" t="n">
@@ -17235,14 +17091,6 @@
           <t>https://alfa-tank.ru/models/tank-300</t>
         </is>
       </c>
-      <c r="R333" t="n">
-        <v>2869300</v>
-      </c>
-      <c r="S333" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/tank/tank_300</t>
-        </is>
-      </c>
       <c r="T333" t="inlineStr">
         <is>
           <t>4099000</t>
@@ -17250,7 +17098,7 @@
       </c>
       <c r="U333" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/tank/300/</t>
+          <t>https://alga-auto.ru/auto/tank/300/</t>
         </is>
       </c>
     </row>
@@ -17275,7 +17123,7 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/tank/tank_500</t>
+          <t>https://avrora-motors.ru/catalog/tank/tank_500</t>
         </is>
       </c>
       <c r="F334" t="inlineStr">
@@ -17285,7 +17133,7 @@
       </c>
       <c r="G334" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/tank/500/</t>
+          <t>https://avtolininiya-rb.ru/auto/tank/500/</t>
         </is>
       </c>
       <c r="H334" t="n">
@@ -17320,14 +17168,6 @@
           <t>https://alfa-tank.ru/models/tank-500</t>
         </is>
       </c>
-      <c r="R334" t="n">
-        <v>4409300</v>
-      </c>
-      <c r="S334" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/tank/tank_500</t>
-        </is>
-      </c>
       <c r="T334" t="inlineStr">
         <is>
           <t>6299000</t>
@@ -17335,7 +17175,7 @@
       </c>
       <c r="U334" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/tank/500/</t>
+          <t>https://alga-auto.ru/auto/tank/500/</t>
         </is>
       </c>
     </row>
@@ -17788,7 +17628,7 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/uaz/hunter/</t>
+          <t>https://avtolininiya-rb.ru/auto/uaz/hunter/</t>
         </is>
       </c>
       <c r="F347" t="inlineStr">
@@ -17798,7 +17638,7 @@
       </c>
       <c r="G347" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/uaz/hunter/</t>
+          <t>https://avtolininiya-rb.ru/auto/uaz/hunter/</t>
         </is>
       </c>
       <c r="H347" t="n">
@@ -17847,7 +17687,7 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/uaz/patriot/</t>
+          <t>https://avtolininiya-rb.ru/auto/uaz/patriot/</t>
         </is>
       </c>
       <c r="F348" t="inlineStr">
@@ -17857,7 +17697,7 @@
       </c>
       <c r="G348" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/uaz/patriot/</t>
+          <t>https://avtolininiya-rb.ru/auto/uaz/patriot/</t>
         </is>
       </c>
       <c r="H348" t="n">
@@ -17906,7 +17746,7 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/uaz/patriot_pickup/</t>
+          <t>https://avtolininiya-rb.ru/auto/uaz/patriot_pickup/</t>
         </is>
       </c>
       <c r="F349" t="inlineStr">
@@ -17916,7 +17756,7 @@
       </c>
       <c r="G349" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/uaz/patriot_pickup/</t>
+          <t>https://avtolininiya-rb.ru/auto/uaz/patriot_pickup/</t>
         </is>
       </c>
       <c r="H349" t="n">
@@ -18048,7 +17888,7 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/voyah/free</t>
+          <t>https://avrora-motors.ru/catalog/voyah/free</t>
         </is>
       </c>
       <c r="J353" t="n">
@@ -18059,14 +17899,6 @@
           <t>https://avrora-motors.ru/catalog/voyah/free</t>
         </is>
       </c>
-      <c r="R353" t="n">
-        <v>4790000</v>
-      </c>
-      <c r="S353" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/voyah/free</t>
-        </is>
-      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -18221,7 +18053,7 @@
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/jetta/</t>
+          <t>https://avtolininiya-rb.ru/auto/volkswagen/jetta/</t>
         </is>
       </c>
       <c r="F358" t="inlineStr">
@@ -18231,7 +18063,7 @@
       </c>
       <c r="G358" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/jetta/</t>
+          <t>https://avtolininiya-rb.ru/auto/volkswagen/jetta/</t>
         </is>
       </c>
       <c r="H358" t="n">
@@ -18280,7 +18112,7 @@
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/passat/</t>
+          <t>https://avtolininiya-rb.ru/auto/volkswagen/passat/</t>
         </is>
       </c>
       <c r="F359" t="inlineStr">
@@ -18290,7 +18122,7 @@
       </c>
       <c r="G359" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/passat/</t>
+          <t>https://avtolininiya-rb.ru/auto/volkswagen/passat/</t>
         </is>
       </c>
       <c r="H359" t="n">
@@ -18356,7 +18188,7 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/polo/</t>
+          <t>https://avtolininiya-rb.ru/auto/volkswagen/polo/</t>
         </is>
       </c>
       <c r="F361" t="inlineStr">
@@ -18366,7 +18198,7 @@
       </c>
       <c r="G361" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/polo/</t>
+          <t>https://avtolininiya-rb.ru/auto/volkswagen/polo/</t>
         </is>
       </c>
       <c r="H361" t="n">
@@ -18440,7 +18272,7 @@
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/taos/</t>
+          <t>https://avtolininiya-rb.ru/auto/volkswagen/taos/</t>
         </is>
       </c>
       <c r="F363" t="inlineStr">
@@ -18450,7 +18282,7 @@
       </c>
       <c r="G363" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/taos/</t>
+          <t>https://avtolininiya-rb.ru/auto/volkswagen/taos/</t>
         </is>
       </c>
       <c r="H363" t="n">
@@ -18581,7 +18413,7 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/tiguan/</t>
+          <t>https://avtolininiya-rb.ru/auto/volkswagen/tiguan/</t>
         </is>
       </c>
       <c r="F366" t="inlineStr">
@@ -18591,7 +18423,7 @@
       </c>
       <c r="G366" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/volkswagen/tiguan/</t>
+          <t>https://avtolininiya-rb.ru/auto/volkswagen/tiguan/</t>
         </is>
       </c>
     </row>
@@ -18649,7 +18481,7 @@
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/zotye/coupa/</t>
+          <t>https://alga-auto.ru/auto/zotye/coupa/</t>
         </is>
       </c>
       <c r="F368" t="inlineStr">
@@ -18659,7 +18491,7 @@
       </c>
       <c r="G368" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/zotye/coupa/</t>
+          <t>https://avtolininiya-rb.ru/auto/zotye/coupa/</t>
         </is>
       </c>
       <c r="H368" t="n">
@@ -18678,14 +18510,6 @@
           <t>https://avrora-motors.ru/catalog/zotye/coupa</t>
         </is>
       </c>
-      <c r="R368" t="n">
-        <v>990000</v>
-      </c>
-      <c r="S368" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/zotye/coupa</t>
-        </is>
-      </c>
       <c r="T368" t="inlineStr">
         <is>
           <t>960000</t>
@@ -18693,7 +18517,7 @@
       </c>
       <c r="U368" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/zotye/coupa/</t>
+          <t>https://alga-auto.ru/auto/zotye/coupa/</t>
         </is>
       </c>
     </row>
@@ -18718,7 +18542,7 @@
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/zotye/t600/</t>
+          <t>https://alga-auto.ru/auto/zotye/t600/</t>
         </is>
       </c>
       <c r="F369" t="inlineStr">
@@ -18728,7 +18552,7 @@
       </c>
       <c r="G369" t="inlineStr">
         <is>
-          <t>https://avto-trend21.ru/auto/zotye/t600/</t>
+          <t>https://avtolininiya-rb.ru/auto/zotye/t600/</t>
         </is>
       </c>
       <c r="H369" t="n">
@@ -18747,14 +18571,6 @@
           <t>https://avrora-motors.ru/catalog/zotye/t600</t>
         </is>
       </c>
-      <c r="R369" t="n">
-        <v>757000</v>
-      </c>
-      <c r="S369" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/zotye/t600</t>
-        </is>
-      </c>
       <c r="T369" t="inlineStr">
         <is>
           <t>727000</t>
@@ -18762,7 +18578,40 @@
       </c>
       <c r="U369" t="inlineStr">
         <is>
-          <t>https://autocenter-stav.ru/auto/zotye/t600/</t>
+          <t>https://alga-auto.ru/auto/zotye/t600/</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Новая машина, необходимо назначить id</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>haval</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>новыйh9</t>
+        </is>
+      </c>
+      <c r="D370" t="n">
+        <v>4799000</v>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>https://ufa.autospot.ru/brands/haval/h9_ii/suv/price/</t>
+        </is>
+      </c>
+      <c r="L370" t="n">
+        <v>4799000</v>
+      </c>
+      <c r="M370" t="inlineStr">
+        <is>
+          <t>https://ufa.autospot.ru/brands/haval/h9_ii/suv/price/</t>
         </is>
       </c>
     </row>

--- a/xlsx/ufa.xlsx
+++ b/xlsx/ufa.xlsx
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>1645000</v>
+        <v>1680000</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1805990</v>
+        <v>1900990</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>1805990</v>
+        <v>1900990</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2599900</v>
+        <v>2619900</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2080000</v>
+        <v>1953000</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2080000</v>
+        <v>1953000</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>2769000</v>
+        <v>2706000</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2769000</v>
+        <v>2706000</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -3222,25 +3222,25 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>2368000</v>
+        <v>2256000</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
+          <t>https://ufa.autospot.ru/brands/chery/tiggo8promax_i/suv/price/</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2368000</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>https://avtolininiya-rb.ru/auto/chery/tiggo_8_pro_max/</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>2368000</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>https://avtolininiya-rb.ru/auto/chery/tiggo_8_pro_max/</t>
-        </is>
-      </c>
       <c r="L43" t="n">
-        <v>2432000</v>
+        <v>2256000</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -4114,7 +4114,7 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>3543200</v>
+        <v>3643200</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>2139990</v>
+        <v>2159990</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         </is>
       </c>
       <c r="L106" t="n">
-        <v>3194990</v>
+        <v>3344990</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>3400000</v>
+        <v>3550000</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>3400000</v>
+        <v>3550000</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
@@ -6579,7 +6579,7 @@
         </is>
       </c>
       <c r="L110" t="n">
-        <v>2699990</v>
+        <v>2519990</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
@@ -6636,7 +6636,7 @@
         </is>
       </c>
       <c r="L111" t="n">
-        <v>3759990</v>
+        <v>3674990</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
@@ -7128,6 +7128,14 @@
           <t>https://avrora-motors.ru/catalog/haval/f7</t>
         </is>
       </c>
+      <c r="L120" t="n">
+        <v>1949250</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>https://ufa.autospot.ru/brands/haval/f7_i/suv/price/</t>
+        </is>
+      </c>
       <c r="P120" t="n">
         <v>1836750</v>
       </c>
@@ -7179,12 +7187,12 @@
           <t>https://avtolininiya-rb.ru/auto/haval/f7/</t>
         </is>
       </c>
-      <c r="L121" t="n">
-        <v>1949250</v>
-      </c>
-      <c r="M121" t="inlineStr">
-        <is>
-          <t>https://ufa.autospot.ru/brands/haval/f7_i/suv/price/</t>
+      <c r="P121" t="n">
+        <v>2024250</v>
+      </c>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>https://autofort-ufa.ru/avto-new/haval/haval_f7_%D0%BD%D0%BE%D0%B2%D1%8B%D0%B9/</t>
         </is>
       </c>
       <c r="T121" t="inlineStr">
@@ -7333,7 +7341,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>3409000</v>
+        <v>3074000</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -7341,7 +7349,7 @@
         </is>
       </c>
       <c r="L124" t="n">
-        <v>3409000</v>
+        <v>3074000</v>
       </c>
       <c r="M124" t="inlineStr">
         <is>
@@ -7456,7 +7464,7 @@
         </is>
       </c>
       <c r="L127" t="n">
-        <v>2209300</v>
+        <v>1949300</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
@@ -7676,7 +7684,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>4499000</v>
+        <v>4999000</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -7684,7 +7692,7 @@
         </is>
       </c>
       <c r="L131" t="n">
-        <v>4499000</v>
+        <v>4999000</v>
       </c>
       <c r="M131" t="inlineStr">
         <is>
@@ -7820,7 +7828,7 @@
         </is>
       </c>
       <c r="L133" t="n">
-        <v>1724250</v>
+        <v>1724000</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
@@ -8072,7 +8080,7 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>3750000</v>
+        <v>3590000</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -8080,7 +8088,7 @@
         </is>
       </c>
       <c r="L139" t="n">
-        <v>3750000</v>
+        <v>3590000</v>
       </c>
       <c r="M139" t="inlineStr">
         <is>
@@ -8204,7 +8212,7 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>3290000</v>
+        <v>2990000</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -8212,7 +8220,7 @@
         </is>
       </c>
       <c r="L143" t="n">
-        <v>3290000</v>
+        <v>2990000</v>
       </c>
       <c r="M143" t="inlineStr">
         <is>
@@ -8843,7 +8851,7 @@
         </is>
       </c>
       <c r="L158" t="n">
-        <v>1489000</v>
+        <v>1679000</v>
       </c>
       <c r="M158" t="inlineStr">
         <is>
@@ -8910,7 +8918,7 @@
         </is>
       </c>
       <c r="L159" t="n">
-        <v>1429000</v>
+        <v>1699000</v>
       </c>
       <c r="M159" t="inlineStr">
         <is>
@@ -8976,11 +8984,11 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>1799000</v>
+        <v>1799250</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/jac/js6/suv/price/</t>
+          <t>https://autofort-ufa.ru/avto-new/jac/js6/</t>
         </is>
       </c>
       <c r="H161" t="n">
@@ -9000,7 +9008,7 @@
         </is>
       </c>
       <c r="L161" t="n">
-        <v>1799000</v>
+        <v>2079000</v>
       </c>
       <c r="M161" t="inlineStr">
         <is>
@@ -9276,14 +9284,6 @@
           <t>https://avrora-motors.ru/catalog/jac/t_6</t>
         </is>
       </c>
-      <c r="L166" t="n">
-        <v>2369000</v>
-      </c>
-      <c r="M166" t="inlineStr">
-        <is>
-          <t>https://ufa.autospot.ru/brands/jac/t6/pickup/price/</t>
-        </is>
-      </c>
       <c r="R166" t="n">
         <v>2270000</v>
       </c>
@@ -9310,7 +9310,7 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>2359000</v>
+        <v>2549000</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
         </is>
       </c>
       <c r="L167" t="n">
-        <v>2359000</v>
+        <v>2549000</v>
       </c>
       <c r="M167" t="inlineStr">
         <is>
@@ -9351,11 +9351,11 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>2319000</v>
+        <v>2774100</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/jac/t8pro/pickup/price/</t>
+          <t>https://ufa.masmotors.ru/car/jac/t8-pro</t>
         </is>
       </c>
       <c r="H168" t="n">
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="L168" t="n">
-        <v>2319000</v>
+        <v>2899000</v>
       </c>
       <c r="M168" t="inlineStr">
         <is>
@@ -9400,7 +9400,7 @@
         </is>
       </c>
       <c r="L169" t="n">
-        <v>3349000</v>
+        <v>3399000</v>
       </c>
       <c r="M169" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         </is>
       </c>
       <c r="L173" t="n">
-        <v>1919900</v>
+        <v>1869900</v>
       </c>
       <c r="M173" t="inlineStr">
         <is>
@@ -9736,7 +9736,7 @@
         </is>
       </c>
       <c r="L175" t="n">
-        <v>2429900</v>
+        <v>2379900</v>
       </c>
       <c r="M175" t="inlineStr">
         <is>
@@ -10802,7 +10802,7 @@
         </is>
       </c>
       <c r="L197" t="n">
-        <v>1444000</v>
+        <v>1475000</v>
       </c>
       <c r="M197" t="inlineStr">
         <is>
@@ -10869,7 +10869,7 @@
         </is>
       </c>
       <c r="L198" t="n">
-        <v>1041500</v>
+        <v>1060900</v>
       </c>
       <c r="M198" t="inlineStr">
         <is>
@@ -11044,7 +11044,7 @@
         </is>
       </c>
       <c r="L201" t="n">
-        <v>942500</v>
+        <v>1032000</v>
       </c>
       <c r="M201" t="inlineStr">
         <is>
@@ -11119,7 +11119,7 @@
         </is>
       </c>
       <c r="L202" t="n">
-        <v>629900</v>
+        <v>689900</v>
       </c>
       <c r="M202" t="inlineStr">
         <is>
@@ -11242,14 +11242,6 @@
           <t>https://ufa.masmotors.ru/car/lada/granta-sport-drive-active-liftback</t>
         </is>
       </c>
-      <c r="L204" t="n">
-        <v>1217500</v>
-      </c>
-      <c r="M204" t="inlineStr">
-        <is>
-          <t>https://ufa.autospot.ru/brands/lada/grantasportdriveactive/liftback/price/</t>
-        </is>
-      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -11283,14 +11275,6 @@
           <t>https://ufa.masmotors.ru/car/lada/granta-sport-liftback</t>
         </is>
       </c>
-      <c r="L205" t="n">
-        <v>1443500</v>
-      </c>
-      <c r="M205" t="inlineStr">
-        <is>
-          <t>https://ufa.autospot.ru/brands/lada/grantasport/liftback/price/</t>
-        </is>
-      </c>
       <c r="P205" t="n">
         <v>977800</v>
       </c>
@@ -11333,7 +11317,7 @@
         </is>
       </c>
       <c r="L206" t="n">
-        <v>1344500</v>
+        <v>1393000</v>
       </c>
       <c r="M206" t="inlineStr">
         <is>
@@ -11723,6 +11707,14 @@
           <t>https://ufa.masmotors.ru/car/lada/largus-furgon</t>
         </is>
       </c>
+      <c r="L215" t="n">
+        <v>1666500</v>
+      </c>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>https://ufa.autospot.ru/brands/lada/largus_i/van/price/</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -12095,7 +12087,7 @@
         </is>
       </c>
       <c r="L222" t="n">
-        <v>1171500</v>
+        <v>1185900</v>
       </c>
       <c r="M222" t="inlineStr">
         <is>
@@ -12244,7 +12236,7 @@
         </is>
       </c>
       <c r="L225" t="n">
-        <v>1668500</v>
+        <v>1699900</v>
       </c>
       <c r="M225" t="inlineStr">
         <is>
@@ -12421,7 +12413,7 @@
         </is>
       </c>
       <c r="L228" t="n">
-        <v>1788500</v>
+        <v>1855900</v>
       </c>
       <c r="M228" t="inlineStr">
         <is>
@@ -12615,7 +12607,7 @@
         </is>
       </c>
       <c r="L232" t="n">
-        <v>1108630</v>
+        <v>1263900</v>
       </c>
       <c r="M232" t="inlineStr">
         <is>
@@ -13009,7 +13001,7 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>1267600</v>
+        <v>1381100</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -13017,7 +13009,7 @@
         </is>
       </c>
       <c r="L240" t="n">
-        <v>1267600</v>
+        <v>1381100</v>
       </c>
       <c r="M240" t="inlineStr">
         <is>
@@ -13042,7 +13034,7 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>1349600</v>
+        <v>1392100</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
@@ -13050,7 +13042,7 @@
         </is>
       </c>
       <c r="L241" t="n">
-        <v>1349600</v>
+        <v>1392100</v>
       </c>
       <c r="M241" t="inlineStr">
         <is>
@@ -13075,7 +13067,7 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>1341500</v>
+        <v>1382000</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -13083,7 +13075,7 @@
         </is>
       </c>
       <c r="L242" t="n">
-        <v>1341500</v>
+        <v>1382000</v>
       </c>
       <c r="M242" t="inlineStr">
         <is>
@@ -13850,14 +13842,6 @@
           <t>https://autofort-ufa.ru/avto-new/mg/mg_6/</t>
         </is>
       </c>
-      <c r="L254" t="n">
-        <v>2669000</v>
-      </c>
-      <c r="M254" t="inlineStr">
-        <is>
-          <t>https://ufa.autospot.ru/brands/mg/6/liftback/price/</t>
-        </is>
-      </c>
       <c r="P254" t="n">
         <v>1927500</v>
       </c>
@@ -14115,7 +14099,7 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>18990000</v>
+        <v>18500000</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
@@ -14123,7 +14107,7 @@
         </is>
       </c>
       <c r="L262" t="n">
-        <v>18990000</v>
+        <v>18500000</v>
       </c>
       <c r="M262" t="inlineStr">
         <is>
@@ -14148,7 +14132,7 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>18990000</v>
+        <v>18540000</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
@@ -14156,7 +14140,7 @@
         </is>
       </c>
       <c r="L263" t="n">
-        <v>18990000</v>
+        <v>18540000</v>
       </c>
       <c r="M263" t="inlineStr">
         <is>
@@ -17471,7 +17455,7 @@
         </is>
       </c>
       <c r="L338" t="n">
-        <v>4300000</v>
+        <v>4299000</v>
       </c>
       <c r="M338" t="inlineStr">
         <is>
@@ -17545,7 +17529,7 @@
         </is>
       </c>
       <c r="D340" t="n">
-        <v>6900000</v>
+        <v>6899000</v>
       </c>
       <c r="E340" t="inlineStr">
         <is>
@@ -17553,7 +17537,7 @@
         </is>
       </c>
       <c r="L340" t="n">
-        <v>6900000</v>
+        <v>6899000</v>
       </c>
       <c r="M340" t="inlineStr">
         <is>
@@ -17751,7 +17735,7 @@
         </is>
       </c>
       <c r="D346" t="n">
-        <v>1470000</v>
+        <v>1570000</v>
       </c>
       <c r="E346" t="inlineStr">
         <is>
@@ -17759,7 +17743,7 @@
         </is>
       </c>
       <c r="L346" t="n">
-        <v>1470000</v>
+        <v>1570000</v>
       </c>
       <c r="M346" t="inlineStr">
         <is>
@@ -17784,7 +17768,7 @@
         </is>
       </c>
       <c r="D347" t="n">
-        <v>1420000</v>
+        <v>1505000</v>
       </c>
       <c r="E347" t="inlineStr">
         <is>
@@ -17792,7 +17776,7 @@
         </is>
       </c>
       <c r="L347" t="n">
-        <v>1420000</v>
+        <v>1505000</v>
       </c>
       <c r="M347" t="inlineStr">
         <is>
@@ -18044,7 +18028,7 @@
         </is>
       </c>
       <c r="D353" t="n">
-        <v>1893000</v>
+        <v>1900000</v>
       </c>
       <c r="E353" t="inlineStr">
         <is>
@@ -18052,7 +18036,7 @@
         </is>
       </c>
       <c r="L353" t="n">
-        <v>1893000</v>
+        <v>1900000</v>
       </c>
       <c r="M353" t="inlineStr">
         <is>

--- a/xlsx/ufa.xlsx
+++ b/xlsx/ufa.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U370"/>
+  <dimension ref="A1:U369"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,7 +549,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://alga-auto.ru/auto/baic/bj40/</t>
+          <t>https://avtolininiya-rb.ru/auto/baic/bj40/</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -578,16 +578,6 @@
           <t>https://autofort-ufa.ru/avto-new/baic/bj40/</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>3089000</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/baic/bj40/</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -610,7 +600,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://alga-auto.ru/auto/baic/u5_plus/</t>
+          <t>https://avtolininiya-rb.ru/auto/baic/u5_plus/</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -647,16 +637,6 @@
           <t>https://autofort-ufa.ru/avto-new/baic/u5_plus/</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>1349000</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/baic/u5_plus/</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -716,16 +696,6 @@
           <t>https://autofort-ufa.ru/avto-new/baic/x35/</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>1349000</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/baic/x35/</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -748,7 +718,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://alga-auto.ru/auto/baic/x55/</t>
+          <t>https://avtolininiya-rb.ru/auto/baic/x55/</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -777,16 +747,6 @@
           <t>https://autofort-ufa.ru/avto-new/baic/x55/</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>1770000</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/baic/x55/</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1010,16 +970,6 @@
           <t>https://motors-ag.ru/catalog/changan/alsvin</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>1319900</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/changan/alsvin/</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1156,7 +1106,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://alga-auto.ru/auto/changan/cs35_plus/</t>
+          <t>https://avtolininiya-rb.ru/auto/changan/cs35_plus/</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1193,16 +1143,6 @@
           <t>https://motors-ag.ru/catalog/changan/cs35plus_2023MY</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>1696900</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/changan/cs35_plus/</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1225,7 +1165,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://alga-auto.ru/auto/changan/cs55/</t>
+          <t>https://avtolininiya-rb.ru/auto/changan/cs55/</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1270,16 +1210,6 @@
           <t>https://motors-ag.ru/catalog/changan/cs55</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>979900</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/changan/cs55/</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1355,16 +1285,6 @@
           <t>https://motors-ag.ru/catalog/changan/cs55_plus_2023MY</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>2079900</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/changan/cs55_plus/</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1473,11 +1393,11 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1159900</v>
+        <v>1169900</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://alga-auto.ru/auto/changan/cs75fl/</t>
+          <t>https://avrora-motors.ru/catalog/changan/cs75fl</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1522,16 +1442,6 @@
           <t>https://motors-ag.ru/catalog/changan/cs75fl</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>1159900</t>
-        </is>
-      </c>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/changan/cs75fl/</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1554,7 +1464,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://alga-auto.ru/auto/changan/cs85_coupe/</t>
+          <t>https://avtolininiya-rb.ru/auto/changan/cs85_coupe/</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1591,16 +1501,6 @@
           <t>https://autofort-ufa.ru/avto-new/changan/cs85coupe/</t>
         </is>
       </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>2225940</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/changan/cs85_coupe/</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1623,7 +1523,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://alga-auto.ru/auto/changan/cs95/</t>
+          <t>https://avtolininiya-rb.ru/auto/changan/cs95/</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1652,16 +1552,6 @@
           <t>https://autofort-ufa.ru/avto-new/changan/cs95/</t>
         </is>
       </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>2549940</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/changan/cs95/</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1725,7 +1615,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://alga-auto.ru/auto/changan/eado_plus/</t>
+          <t>https://avtolininiya-rb.ru/auto/changan/eado_plus/</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1778,16 +1668,6 @@
           <t>https://motors-ag.ru/catalog/changan/eadoplus</t>
         </is>
       </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>1397940</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/changan/eado_plus/</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1810,7 +1690,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://alga-auto.ru/auto/changan/hunter_plus/</t>
+          <t>https://avtolininiya-rb.ru/auto/changan/hunter_plus/</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1839,16 +1719,6 @@
           <t>https://ufa.autospot.ru/brands/changan/hunter/pickup/price/</t>
         </is>
       </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>2057940</t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/changan/hunter_plus/</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1871,7 +1741,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://alga-auto.ru/auto/changan/lamore/</t>
+          <t>https://avtolininiya-rb.ru/auto/changan/lamore/</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1924,16 +1794,6 @@
           <t>https://motors-ag.ru/catalog/changan/lamore</t>
         </is>
       </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>1673940</t>
-        </is>
-      </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/changan/lamore/</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2009,16 +1869,6 @@
           <t>https://motors-ag.ru/catalog/changan/uni-k</t>
         </is>
       </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>3469900</t>
-        </is>
-      </c>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/changan/uni-k/</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2082,7 +1932,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://alga-auto.ru/auto/changan/uni-t/</t>
+          <t>https://motors-ag.ru/catalog/changan/uni-t</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2135,16 +1985,6 @@
           <t>https://motors-ag.ru/catalog/changan/uni-t</t>
         </is>
       </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>1721940</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/changan/uni-t/</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2197,7 +2037,7 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2619900</v>
+        <v>2105000</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2220,16 +2060,6 @@
           <t>https://motors-ag.ru/catalog/changan/uni-v</t>
         </is>
       </c>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>2729900</t>
-        </is>
-      </c>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/changan/uni-v/</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2248,11 +2078,11 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>2009000</v>
+        <v>2046000</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/chery/arrizo8/sedan/price/</t>
+          <t>https://avtolininiya-rb.ru/auto/chery/arrizo_8/</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2282,7 +2112,7 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2009000</v>
+        <v>2150000</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -2305,16 +2135,6 @@
           <t>https://motors-ag.ru/catalog/chery/arrizo_8</t>
         </is>
       </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>2046000</t>
-        </is>
-      </c>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/chery/arrizo_8/</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2378,7 +2198,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://alga-auto.ru/auto/chery/tiggo_3/</t>
+          <t>https://avrora-motors.ru/catalog/chery/tiggo3</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2407,16 +2227,6 @@
           <t>https://motors-ag.ru/catalog/chery/tiggo3</t>
         </is>
       </c>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>609900</t>
-        </is>
-      </c>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/chery/tiggo_3/</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2439,7 +2249,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://alga-auto.ru/auto/chery/tiggo_4/</t>
+          <t>https://avtolininiya-rb.ru/auto/chery/tiggo_4/</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2484,16 +2294,6 @@
           <t>https://motors-ag.ru/catalog/chery/tiggo_4</t>
         </is>
       </c>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>744900</t>
-        </is>
-      </c>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/chery/tiggo_4/</t>
-        </is>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2516,7 +2316,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://alga-auto.ru/auto/chery/tiggo_4_pro/</t>
+          <t>https://avtolininiya-rb.ru/auto/chery/tiggo_4_pro/</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2569,16 +2369,6 @@
           <t>https://motors-ag.ru/catalog/chery/tiggo_4_pro</t>
         </is>
       </c>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>1319900</t>
-        </is>
-      </c>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/chery/tiggo_4_pro/</t>
-        </is>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2601,7 +2391,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://alga-auto.ru/auto/chery/tiggo_5/</t>
+          <t>https://avrora-motors.ru/catalog/chery/tiggo_5</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2630,16 +2420,6 @@
           <t>https://motors-ag.ru/catalog/chery/tiggo_5</t>
         </is>
       </c>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>806900</t>
-        </is>
-      </c>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/chery/tiggo_5/</t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2662,7 +2442,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://alga-auto.ru/auto/chery/tiggo_7/</t>
+          <t>https://avtolininiya-rb.ru/auto/chery/tiggo_7/</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2699,16 +2479,6 @@
           <t>https://motors-ag.ru/catalog/chery/tiggo_7</t>
         </is>
       </c>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>896900</t>
-        </is>
-      </c>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/chery/tiggo_7/</t>
-        </is>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2731,7 +2501,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://alga-auto.ru/auto/chery/tiggo_7_pro/</t>
+          <t>https://avtolininiya-rb.ru/auto/chery/tiggo_7_pro/</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2776,16 +2546,6 @@
           <t>https://motors-ag.ru/catalog/chery/tiggo7pro</t>
         </is>
       </c>
-      <c r="T36" t="inlineStr">
-        <is>
-          <t>1264900</t>
-        </is>
-      </c>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/chery/tiggo_7_pro/</t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2808,7 +2568,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://alga-auto.ru/auto/chery/tiggo_7_pro_max_1/</t>
+          <t>https://motors-ag.ru/catalog/chery/tiggo_7_pro_max</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2861,16 +2621,6 @@
           <t>https://motors-ag.ru/catalog/chery/tiggo_7_pro_max</t>
         </is>
       </c>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t>1454900</t>
-        </is>
-      </c>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/chery/tiggo_7_pro_max_1/</t>
-        </is>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2914,16 +2664,6 @@
           <t>https://ufa.autospot.ru/brands/chery/tiggo7promax_i/suv/price/</t>
         </is>
       </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>2346000</t>
-        </is>
-      </c>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/chery/tiggo_7_pro_max/</t>
-        </is>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2987,7 +2727,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://alga-auto.ru/auto/chery/tiggo_8/</t>
+          <t>https://avtolininiya-rb.ru/auto/chery/tiggo_8/</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3032,16 +2772,6 @@
           <t>https://motors-ag.ru/catalog/chery/tiggo_8</t>
         </is>
       </c>
-      <c r="T40" t="inlineStr">
-        <is>
-          <t>1204900</t>
-        </is>
-      </c>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/chery/tiggo_8/</t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3064,7 +2794,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://alga-auto.ru/auto/chery/tiggo_8_pro/</t>
+          <t>https://avtolininiya-rb.ru/auto/chery/tiggo_8_pro/</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3109,16 +2839,6 @@
           <t>https://motors-ag.ru/catalog/chery/tiggo_8_pro</t>
         </is>
       </c>
-      <c r="T41" t="inlineStr">
-        <is>
-          <t>1604900</t>
-        </is>
-      </c>
-      <c r="U41" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/chery/tiggo_8_pro/</t>
-        </is>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3141,7 +2861,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://alga-auto.ru/auto/chery/tiggo_8_pro_max_1/</t>
+          <t>https://avtolininiya-rb.ru/auto/chery/tiggo_8_pro_max_1/</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3194,16 +2914,6 @@
           <t>https://motors-ag.ru/catalog/chery/tiggo_8_pro_max_I_restailing_2023</t>
         </is>
       </c>
-      <c r="T42" t="inlineStr">
-        <is>
-          <t>2496000</t>
-        </is>
-      </c>
-      <c r="U42" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/chery/tiggo_8_pro_max_1/</t>
-        </is>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3255,16 +2965,6 @@
           <t>https://autofort-ufa.ru/avto-new/chery/new_tiggo8promax/</t>
         </is>
       </c>
-      <c r="T43" t="inlineStr">
-        <is>
-          <t>2675940</t>
-        </is>
-      </c>
-      <c r="U43" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/chery/tiggo_8_pro_max/</t>
-        </is>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4019,16 +3719,6 @@
           <t>https://motors-ag.ru/catalog/exeed/lx</t>
         </is>
       </c>
-      <c r="T61" t="inlineStr">
-        <is>
-          <t>2279900</t>
-        </is>
-      </c>
-      <c r="U61" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/exeed/lx/</t>
-        </is>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4084,7 +3774,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://alga-auto.ru/auto/exeed/rx/</t>
+          <t>https://avtolininiya-rb.ru/auto/exeed/rx/</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -4137,16 +3827,6 @@
           <t>https://motors-ag.ru/catalog/exeed/exeed_rx</t>
         </is>
       </c>
-      <c r="T63" t="inlineStr">
-        <is>
-          <t>3270000</t>
-        </is>
-      </c>
-      <c r="U63" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/exeed/rx/</t>
-        </is>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4222,16 +3902,6 @@
           <t>https://motors-ag.ru/catalog/chery/txl</t>
         </is>
       </c>
-      <c r="T64" t="inlineStr">
-        <is>
-          <t>3239900</t>
-        </is>
-      </c>
-      <c r="U64" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/exeed/txl/</t>
-        </is>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4348,16 +4018,6 @@
           <t>https://motors-ag.ru/catalog/exeed/vx</t>
         </is>
       </c>
-      <c r="T66" t="inlineStr">
-        <is>
-          <t>4079900</t>
-        </is>
-      </c>
-      <c r="U66" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/exeed/vx/</t>
-        </is>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4421,7 +4081,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://alga-auto.ru/auto/faw/bestune_b70/</t>
+          <t>https://avtolininiya-rb.ru/auto/faw/bestune_b70/</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -4474,16 +4134,6 @@
           <t>https://motors-ag.ru/catalog/faw/bestune_b70</t>
         </is>
       </c>
-      <c r="T68" t="inlineStr">
-        <is>
-          <t>1599600</t>
-        </is>
-      </c>
-      <c r="U68" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/faw/bestune_b70/</t>
-        </is>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4506,7 +4156,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://alga-auto.ru/auto/faw/bestune_t55/</t>
+          <t>https://avtolininiya-rb.ru/auto/faw/bestune_t55/</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -4551,16 +4201,6 @@
           <t>https://motors-ag.ru/catalog/faw/bestune_t55</t>
         </is>
       </c>
-      <c r="T69" t="inlineStr">
-        <is>
-          <t>1572300</t>
-        </is>
-      </c>
-      <c r="U69" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/faw/bestune_t55/</t>
-        </is>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4620,16 +4260,6 @@
           <t>https://autofort-ufa.ru/avto-new/faw/bestune_t77/</t>
         </is>
       </c>
-      <c r="T70" t="inlineStr">
-        <is>
-          <t>1789000</t>
-        </is>
-      </c>
-      <c r="U70" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/faw/besturn_t77/</t>
-        </is>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4652,7 +4282,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://alga-auto.ru/auto/faw/bestune_t99/</t>
+          <t>https://avtolininiya-rb.ru/auto/faw/bestune_t99/</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -4681,16 +4311,6 @@
           <t>https://autofort-ufa.ru/avto-new/faw/bestune_t99/</t>
         </is>
       </c>
-      <c r="T71" t="inlineStr">
-        <is>
-          <t>1770000</t>
-        </is>
-      </c>
-      <c r="U71" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/faw/bestune_t99/</t>
-        </is>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4893,7 +4513,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://alga-auto.ru/auto/faw/x40/</t>
+          <t>https://avtolininiya-rb.ru/auto/faw/x40/</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4904,16 +4524,6 @@
       <c r="G76" t="inlineStr">
         <is>
           <t>https://avtolininiya-rb.ru/auto/faw/x40/</t>
-        </is>
-      </c>
-      <c r="T76" t="inlineStr">
-        <is>
-          <t>724000</t>
-        </is>
-      </c>
-      <c r="U76" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/faw/x40/</t>
         </is>
       </c>
     </row>
@@ -4938,7 +4548,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://alga-auto.ru/auto/faw/x80/</t>
+          <t>https://avtolininiya-rb.ru/auto/faw/x80/</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4949,16 +4559,6 @@
       <c r="G77" t="inlineStr">
         <is>
           <t>https://avtolininiya-rb.ru/auto/faw/x80/</t>
-        </is>
-      </c>
-      <c r="T77" t="inlineStr">
-        <is>
-          <t>849000</t>
-        </is>
-      </c>
-      <c r="U77" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/faw/x80/</t>
         </is>
       </c>
     </row>
@@ -5669,7 +5269,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://alga-auto.ru/auto/geely/atlas_1/</t>
+          <t>https://avtolininiya-rb.ru/auto/geely/atlas_1/</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5722,16 +5322,6 @@
           <t>https://motors-ag.ru/catalog/geely/atlas_II</t>
         </is>
       </c>
-      <c r="T96" t="inlineStr">
-        <is>
-          <t>909990</t>
-        </is>
-      </c>
-      <c r="U96" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/geely/atlas_1/</t>
-        </is>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -5754,7 +5344,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://alga-auto.ru/auto/geely/atlas/</t>
+          <t>https://avtolininiya-rb.ru/auto/geely/atlas/</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5775,16 +5365,6 @@
           <t>https://autofort-ufa.ru/avto-new/geely/atlas_new/</t>
         </is>
       </c>
-      <c r="T97" t="inlineStr">
-        <is>
-          <t>1916994</t>
-        </is>
-      </c>
-      <c r="U97" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/geely/atlas/</t>
-        </is>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -5807,7 +5387,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://alga-auto.ru/auto/geely/atlas_pro/</t>
+          <t>https://motors-ag.ru/catalog/geely/atlas_pro</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5860,16 +5440,6 @@
           <t>https://motors-ag.ru/catalog/geely/atlas_pro</t>
         </is>
       </c>
-      <c r="T98" t="inlineStr">
-        <is>
-          <t>1033596</t>
-        </is>
-      </c>
-      <c r="U98" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/geely/atlas_pro/</t>
-        </is>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -5892,7 +5462,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://alga-auto.ru/auto/geely/belgee_x50/</t>
+          <t>https://avtolininiya-rb.ru/auto/geely/belgee_x50/</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -5929,16 +5499,6 @@
           <t>https://motors-ag.ru/catalog/geely/belgee_x50</t>
         </is>
       </c>
-      <c r="T99" t="inlineStr">
-        <is>
-          <t>1374594</t>
-        </is>
-      </c>
-      <c r="U99" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/geely/belgee_x50/</t>
-        </is>
-      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -5961,7 +5521,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://alga-auto.ru/auto/geely/coolray_1/</t>
+          <t>https://avtolininiya-rb.ru/auto/geely/coolray_1/</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -6014,16 +5574,6 @@
           <t>https://motors-ag.ru/catalog/geely/coolray</t>
         </is>
       </c>
-      <c r="T100" t="inlineStr">
-        <is>
-          <t>964990</t>
-        </is>
-      </c>
-      <c r="U100" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/geely/coolray_1/</t>
-        </is>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -6046,7 +5596,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://alga-auto.ru/auto/geely/coolray/</t>
+          <t>https://avtolininiya-rb.ru/auto/geely/coolray/</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -6099,16 +5649,6 @@
           <t>https://motors-ag.ru/catalog/geely/coolray_I_restailing_2023</t>
         </is>
       </c>
-      <c r="T101" t="inlineStr">
-        <is>
-          <t>1565994</t>
-        </is>
-      </c>
-      <c r="U101" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/geely/coolray/</t>
-        </is>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -6180,7 +5720,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://alga-auto.ru/auto/geely/emgrand/</t>
+          <t>https://avtolininiya-rb.ru/auto/geely/emgrand/</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -6191,16 +5731,6 @@
       <c r="G103" t="inlineStr">
         <is>
           <t>https://avtolininiya-rb.ru/auto/geely/emgrand/</t>
-        </is>
-      </c>
-      <c r="T103" t="inlineStr">
-        <is>
-          <t>1205994</t>
-        </is>
-      </c>
-      <c r="U103" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/geely/emgrand/</t>
         </is>
       </c>
     </row>
@@ -6225,7 +5755,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://alga-auto.ru/auto/geely/emgrand_x7/</t>
+          <t>https://avrora-motors.ru/catalog/geely/emgrand_x7_2019</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -6254,16 +5784,6 @@
           <t>https://motors-ag.ru/catalog/geely/emgrand_x7_2019</t>
         </is>
       </c>
-      <c r="T104" t="inlineStr">
-        <is>
-          <t>844990</t>
-        </is>
-      </c>
-      <c r="U104" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/geely/emgrand_x7/</t>
-        </is>
-      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -6286,7 +5806,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://alga-auto.ru/auto/geely/gs/</t>
+          <t>https://avrora-motors.ru/catalog/geely/gs</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -6323,16 +5843,6 @@
           <t>https://motors-ag.ru/catalog/geely/gs</t>
         </is>
       </c>
-      <c r="T105" t="inlineStr">
-        <is>
-          <t>974990</t>
-        </is>
-      </c>
-      <c r="U105" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/geely/gs/</t>
-        </is>
-      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -6408,16 +5918,6 @@
           <t>https://motors-ag.ru/catalog/geely/monjaro</t>
         </is>
       </c>
-      <c r="T106" t="inlineStr">
-        <is>
-          <t>4489990</t>
-        </is>
-      </c>
-      <c r="U106" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/geely/monjaro/</t>
-        </is>
-      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -6522,7 +6022,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://alga-auto.ru/auto/geely/okavango/</t>
+          <t>https://avtolininiya-rb.ru/auto/geely/okavango/</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -6543,16 +6043,6 @@
           <t>https://ufa.autospot.ru/brands/geely/okavango_i/suv/price/</t>
         </is>
       </c>
-      <c r="T109" t="inlineStr">
-        <is>
-          <t>2069994</t>
-        </is>
-      </c>
-      <c r="U109" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/geely/okavango/</t>
-        </is>
-      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -6636,7 +6126,7 @@
         </is>
       </c>
       <c r="L111" t="n">
-        <v>3674990</v>
+        <v>3759990</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
@@ -6681,7 +6171,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://alga-auto.ru/auto/geely/tugella/</t>
+          <t>https://avtolininiya-rb.ru/auto/geely/tugella/</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -6702,16 +6192,6 @@
           <t>https://autofort-ufa.ru/avto-new/geely/tugella_new/</t>
         </is>
       </c>
-      <c r="T112" t="inlineStr">
-        <is>
-          <t>2375994</t>
-        </is>
-      </c>
-      <c r="U112" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/geely/tugella/</t>
-        </is>
-      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -6947,7 +6427,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://alga-auto.ru/auto/haval/dargo/</t>
+          <t>https://avtolininiya-rb.ru/auto/haval/dargo/</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -7000,16 +6480,6 @@
           <t>https://motors-ag.ru/catalog/haval/dargo</t>
         </is>
       </c>
-      <c r="T118" t="inlineStr">
-        <is>
-          <t>1769000</t>
-        </is>
-      </c>
-      <c r="U118" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/haval/dargo/</t>
-        </is>
-      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -7032,7 +6502,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://alga-auto.ru/auto/haval/dargo_x/</t>
+          <t>https://avtolininiya-rb.ru/auto/haval/dargo_x/</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -7077,16 +6547,6 @@
           <t>https://motors-ag.ru/catalog/haval/dargo_x</t>
         </is>
       </c>
-      <c r="T119" t="inlineStr">
-        <is>
-          <t>1961400</t>
-        </is>
-      </c>
-      <c r="U119" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/haval/dargo_x/</t>
-        </is>
-      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -7174,7 +6634,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://alga-auto.ru/auto/haval/f7/</t>
+          <t>https://avtolininiya-rb.ru/auto/haval/f7/</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -7195,16 +6655,6 @@
           <t>https://autofort-ufa.ru/avto-new/haval/haval_f7_%D0%BD%D0%BE%D0%B2%D1%8B%D0%B9/</t>
         </is>
       </c>
-      <c r="T121" t="inlineStr">
-        <is>
-          <t>1149000</t>
-        </is>
-      </c>
-      <c r="U121" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/haval/f7/</t>
-        </is>
-      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -7292,7 +6742,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://alga-auto.ru/auto/haval/f7x/</t>
+          <t>https://avtolininiya-rb.ru/auto/haval/f7x/</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -7313,16 +6763,6 @@
           <t>https://ufa.autospot.ru/brands/haval/f7x_i/suv/price/</t>
         </is>
       </c>
-      <c r="T123" t="inlineStr">
-        <is>
-          <t>1219000</t>
-        </is>
-      </c>
-      <c r="U123" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/haval/f7x/</t>
-        </is>
-      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -7374,7 +6814,7 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>2845000</v>
+        <v>2899000</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -7382,7 +6822,7 @@
         </is>
       </c>
       <c r="L125" t="n">
-        <v>2845000</v>
+        <v>2899000</v>
       </c>
       <c r="M125" t="inlineStr">
         <is>
@@ -7509,7 +6949,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://alga-auto.ru/auto/haval/h5/</t>
+          <t>https://avrora-motors.ru/catalog/haval/h5</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -7538,16 +6978,6 @@
           <t>https://motors-ag.ru/catalog/haval/h5</t>
         </is>
       </c>
-      <c r="T128" t="inlineStr">
-        <is>
-          <t>964000</t>
-        </is>
-      </c>
-      <c r="U128" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/haval/h5/</t>
-        </is>
-      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -7656,16 +7086,6 @@
           <t>https://motors-ag.ru/catalog/haval/h9_2018</t>
         </is>
       </c>
-      <c r="T130" t="inlineStr">
-        <is>
-          <t>4089000</t>
-        </is>
-      </c>
-      <c r="U130" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/haval/h9/</t>
-        </is>
-      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -7684,7 +7104,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>4999000</v>
+        <v>4499000</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -7692,7 +7112,7 @@
         </is>
       </c>
       <c r="L131" t="n">
-        <v>4999000</v>
+        <v>4499000</v>
       </c>
       <c r="M131" t="inlineStr">
         <is>
@@ -7721,7 +7141,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://alga-auto.ru/auto/haval/jolion_1/</t>
+          <t>https://avtolininiya-rb.ru/auto/haval/jolion_1/</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -7774,16 +7194,6 @@
           <t>https://motors-ag.ru/catalog/haval/jolion</t>
         </is>
       </c>
-      <c r="T132" t="inlineStr">
-        <is>
-          <t>919000</t>
-        </is>
-      </c>
-      <c r="U132" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/haval/jolion_1/</t>
-        </is>
-      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -7806,7 +7216,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://alga-auto.ru/auto/haval/jolion/</t>
+          <t>https://avtolininiya-rb.ru/auto/haval/jolion/</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -7843,16 +7253,6 @@
           <t>https://autofort-ufa.ru/avto-new/haval/jolion_new/</t>
         </is>
       </c>
-      <c r="T133" t="inlineStr">
-        <is>
-          <t>1199400</t>
-        </is>
-      </c>
-      <c r="U133" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/haval/jolion/</t>
-        </is>
-      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -7910,16 +7310,6 @@
       <c r="Q134" t="inlineStr">
         <is>
           <t>https://autofort-ufa.ru/avto-new/haval/haval_m6/</t>
-        </is>
-      </c>
-      <c r="T134" t="inlineStr">
-        <is>
-          <t>1674000</t>
-        </is>
-      </c>
-      <c r="U134" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/haval/m6/</t>
         </is>
       </c>
     </row>
@@ -8821,7 +8211,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://alga-auto.ru/auto/jac/j7/</t>
+          <t>https://avtolininiya-rb.ru/auto/jac/j7/</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -8874,16 +8264,6 @@
           <t>https://motors-ag.ru/catalog/jac/j7</t>
         </is>
       </c>
-      <c r="T158" t="inlineStr">
-        <is>
-          <t>718000</t>
-        </is>
-      </c>
-      <c r="U158" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/jac/j7/</t>
-        </is>
-      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -9053,7 +8433,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://alga-auto.ru/auto/jac/s3/</t>
+          <t>https://avtolininiya-rb.ru/auto/jac/s3/</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -9090,16 +8470,6 @@
           <t>https://motors-ag.ru/catalog/jac/s3</t>
         </is>
       </c>
-      <c r="T162" t="inlineStr">
-        <is>
-          <t>668000</t>
-        </is>
-      </c>
-      <c r="U162" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/jac/s3/</t>
-        </is>
-      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -9196,7 +8566,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://alga-auto.ru/auto/jac/s7/</t>
+          <t>https://avtolininiya-rb.ru/auto/jac/s7/</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -9233,16 +8603,6 @@
           <t>https://motors-ag.ru/catalog/jac/s7</t>
         </is>
       </c>
-      <c r="T165" t="inlineStr">
-        <is>
-          <t>1219000</t>
-        </is>
-      </c>
-      <c r="U165" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/jac/s7/</t>
-        </is>
-      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -9470,7 +8830,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>https://alga-auto.ru/auto/jaecoo/j7/</t>
+          <t>https://motors-ag.ru/catalog/jaecoo/j7</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -9515,16 +8875,6 @@
           <t>https://motors-ag.ru/catalog/jaecoo/j7</t>
         </is>
       </c>
-      <c r="T171" t="inlineStr">
-        <is>
-          <t>2003940</t>
-        </is>
-      </c>
-      <c r="U171" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/jaecoo/j7/</t>
-        </is>
-      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -9588,7 +8938,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>https://alga-auto.ru/auto/jetour/dashing/</t>
+          <t>https://avtolininiya-rb.ru/auto/jetour/dashing/</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -9633,16 +8983,6 @@
           <t>https://autofort-ufa.ru/avto-new/jetour/dashing/</t>
         </is>
       </c>
-      <c r="T173" t="inlineStr">
-        <is>
-          <t>1463940</t>
-        </is>
-      </c>
-      <c r="U173" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/jetour/dashing/</t>
-        </is>
-      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -9714,7 +9054,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>https://alga-auto.ru/auto/jetour/x70_plus/</t>
+          <t>https://avtolininiya-rb.ru/auto/jetour/x70_plus/</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -9751,16 +9091,6 @@
           <t>https://autofort-ufa.ru/avto-new/jetour/X70Plus/</t>
         </is>
       </c>
-      <c r="T175" t="inlineStr">
-        <is>
-          <t>1649945</t>
-        </is>
-      </c>
-      <c r="U175" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/jetour/x70_plus/</t>
-        </is>
-      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -9783,7 +9113,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>https://alga-auto.ru/auto/jetour/x90_plus/</t>
+          <t>https://avtolininiya-rb.ru/auto/jetour/x90_plus/</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -9828,16 +9158,6 @@
           <t>https://autofort-ufa.ru/avto-new/jetour/x90plus/</t>
         </is>
       </c>
-      <c r="T176" t="inlineStr">
-        <is>
-          <t>2009940</t>
-        </is>
-      </c>
-      <c r="U176" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/jetour/x90_plus/</t>
-        </is>
-      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -9860,7 +9180,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>https://alga-auto.ru/auto/jetta/va3/</t>
+          <t>https://avtolininiya-rb.ru/auto/jetta/va3/</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -9889,16 +9209,6 @@
           <t>https://autofort-ufa.ru/avto-new/jetta/va3/</t>
         </is>
       </c>
-      <c r="T177" t="inlineStr">
-        <is>
-          <t>1202400</t>
-        </is>
-      </c>
-      <c r="U177" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/jetta/va3/</t>
-        </is>
-      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -9921,7 +9231,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>https://alga-auto.ru/auto/jetta/vs5/</t>
+          <t>https://avtolininiya-rb.ru/auto/jetta/vs5/</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -9950,16 +9260,6 @@
           <t>https://autofort-ufa.ru/avto-new/jetta/vs5/</t>
         </is>
       </c>
-      <c r="T178" t="inlineStr">
-        <is>
-          <t>1447200</t>
-        </is>
-      </c>
-      <c r="U178" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/jetta/vs5/</t>
-        </is>
-      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -9982,7 +9282,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>https://alga-auto.ru/auto/jetta/vs7/</t>
+          <t>https://avtolininiya-rb.ru/auto/jetta/vs7/</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -10019,16 +9319,6 @@
           <t>https://autofort-ufa.ru/avto-new/jetta/vs7/</t>
         </is>
       </c>
-      <c r="T179" t="inlineStr">
-        <is>
-          <t>1729800</t>
-        </is>
-      </c>
-      <c r="U179" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/jetta/vs7/</t>
-        </is>
-      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -10051,7 +9341,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>https://alga-auto.ru/auto/kaiyi/e5/</t>
+          <t>https://avtolininiya-rb.ru/auto/kaiyi/e5/</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -10096,16 +9386,6 @@
           <t>https://motors-ag.ru/catalog/kaiyi/kaiyi_e5</t>
         </is>
       </c>
-      <c r="T180" t="inlineStr">
-        <is>
-          <t>1341300</t>
-        </is>
-      </c>
-      <c r="U180" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/kaiyi/e5/</t>
-        </is>
-      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -10128,7 +9408,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>https://alga-auto.ru/auto/kaiyi/x3/</t>
+          <t>https://avtolininiya-rb.ru/auto/kaiyi/x3/</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -10173,16 +9453,6 @@
           <t>https://motors-ag.ru/catalog/kaiyi/x3</t>
         </is>
       </c>
-      <c r="T181" t="inlineStr">
-        <is>
-          <t>1342800</t>
-        </is>
-      </c>
-      <c r="U181" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/kaiyi/x3/</t>
-        </is>
-      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -10205,7 +9475,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>https://alga-auto.ru/auto/kaiyi/x3_pro/</t>
+          <t>https://avtolininiya-rb.ru/auto/kaiyi/x3_pro/</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -10250,16 +9520,6 @@
           <t>https://motors-ag.ru/catalog/kaiyi/x3_pro</t>
         </is>
       </c>
-      <c r="T182" t="inlineStr">
-        <is>
-          <t>1549900</t>
-        </is>
-      </c>
-      <c r="U182" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/kaiyi/x3_pro/</t>
-        </is>
-      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -10282,7 +9542,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>https://alga-auto.ru/auto/kaiyi/x7_kunlun/</t>
+          <t>https://avtolininiya-rb.ru/auto/kaiyi/x7_kunlun/</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -10311,16 +9571,6 @@
           <t>https://autofort-ufa.ru/avto-new/kaiyi/kaiyi_x7_kunlun/</t>
         </is>
       </c>
-      <c r="T183" t="inlineStr">
-        <is>
-          <t>1798740</t>
-        </is>
-      </c>
-      <c r="U183" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/kaiyi/x7_kunlun/</t>
-        </is>
-      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -10802,7 +10052,7 @@
         </is>
       </c>
       <c r="L197" t="n">
-        <v>1475000</v>
+        <v>1435000</v>
       </c>
       <c r="M197" t="inlineStr">
         <is>
@@ -11044,7 +10294,7 @@
         </is>
       </c>
       <c r="L201" t="n">
-        <v>1032000</v>
+        <v>992000</v>
       </c>
       <c r="M201" t="inlineStr">
         <is>
@@ -11861,7 +11111,7 @@
         </is>
       </c>
       <c r="L218" t="n">
-        <v>901000</v>
+        <v>911000</v>
       </c>
       <c r="M218" t="inlineStr">
         <is>
@@ -13104,7 +12354,7 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>https://alga-auto.ru/auto/lifan/murman/</t>
+          <t>https://avtolininiya-rb.ru/auto/lifan/murman/</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
@@ -13141,16 +12391,6 @@
           <t>https://motors-ag.ru/catalog/lifan/murman</t>
         </is>
       </c>
-      <c r="T243" t="inlineStr">
-        <is>
-          <t>814900</t>
-        </is>
-      </c>
-      <c r="U243" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/lifan/murman/</t>
-        </is>
-      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -13173,7 +12413,7 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>https://alga-auto.ru/auto/lifan/myway/</t>
+          <t>https://avtolininiya-rb.ru/auto/lifan/myway/</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
@@ -13210,16 +12450,6 @@
           <t>https://motors-ag.ru/catalog/lifan/myway</t>
         </is>
       </c>
-      <c r="T244" t="inlineStr">
-        <is>
-          <t>724900</t>
-        </is>
-      </c>
-      <c r="U244" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/lifan/myway/</t>
-        </is>
-      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -13242,7 +12472,7 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>https://alga-auto.ru/auto/lifan/solano_ii/</t>
+          <t>https://avtolininiya-rb.ru/auto/lifan/solano_ii/</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
@@ -13287,16 +12517,6 @@
           <t>https://motors-ag.ru/catalog/lifan/solano2</t>
         </is>
       </c>
-      <c r="T245" t="inlineStr">
-        <is>
-          <t>504900</t>
-        </is>
-      </c>
-      <c r="U245" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/lifan/solano_ii/</t>
-        </is>
-      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -13319,7 +12539,7 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>https://alga-auto.ru/auto/lifan/x50/</t>
+          <t>https://avtolininiya-rb.ru/auto/lifan/x50/</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
@@ -13364,16 +12584,6 @@
           <t>https://motors-ag.ru/catalog/lifan/x50</t>
         </is>
       </c>
-      <c r="T246" t="inlineStr">
-        <is>
-          <t>434900</t>
-        </is>
-      </c>
-      <c r="U246" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/lifan/x50/</t>
-        </is>
-      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -13396,7 +12606,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>https://alga-auto.ru/auto/lifan/x60/</t>
+          <t>https://avtolininiya-rb.ru/auto/lifan/x60/</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
@@ -13433,16 +12643,6 @@
           <t>https://motors-ag.ru/catalog/lifan/x60</t>
         </is>
       </c>
-      <c r="T247" t="inlineStr">
-        <is>
-          <t>564900</t>
-        </is>
-      </c>
-      <c r="U247" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/lifan/x60/</t>
-        </is>
-      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -13498,7 +12698,7 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>https://alga-auto.ru/auto/lifan/x70/</t>
+          <t>https://avrora-motors.ru/catalog/lifan/x70</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
@@ -13543,16 +12743,6 @@
           <t>https://motors-ag.ru/catalog/lifan/x70</t>
         </is>
       </c>
-      <c r="T249" t="inlineStr">
-        <is>
-          <t>594000</t>
-        </is>
-      </c>
-      <c r="U249" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/lifan/x70/</t>
-        </is>
-      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -13575,7 +12765,7 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>https://alga-auto.ru/auto/livan/s6pro/</t>
+          <t>https://avtolininiya-rb.ru/auto/livan/s6pro/</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
@@ -13620,16 +12810,6 @@
           <t>https://motors-ag.ru/catalog/livan/s6pro</t>
         </is>
       </c>
-      <c r="T250" t="inlineStr">
-        <is>
-          <t>1529940</t>
-        </is>
-      </c>
-      <c r="U250" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/livan/s6pro/</t>
-        </is>
-      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -13652,7 +12832,7 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>https://alga-auto.ru/auto/livan/x3pro/</t>
+          <t>https://avtolininiya-rb.ru/auto/livan/x3pro/</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
@@ -13689,16 +12869,6 @@
           <t>https://autofort-ufa.ru/avto-new/livan/x3pro/</t>
         </is>
       </c>
-      <c r="T251" t="inlineStr">
-        <is>
-          <t>1031940</t>
-        </is>
-      </c>
-      <c r="U251" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/livan/x3pro/</t>
-        </is>
-      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -13721,7 +12891,7 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>https://alga-auto.ru/auto/livan/x6pro/</t>
+          <t>https://avtolininiya-rb.ru/auto/livan/x6pro/</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
@@ -13766,16 +12936,6 @@
           <t>https://motors-ag.ru/catalog/livan/x6pro</t>
         </is>
       </c>
-      <c r="T252" t="inlineStr">
-        <is>
-          <t>1577940</t>
-        </is>
-      </c>
-      <c r="U252" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/livan/x6pro/</t>
-        </is>
-      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -14827,7 +13987,7 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>https://alga-auto.ru/auto/omoda/c5/</t>
+          <t>https://avtolininiya-rb.ru/auto/omoda/c5/</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
@@ -14880,16 +14040,6 @@
           <t>https://motors-ag.ru/catalog/omoda/c5</t>
         </is>
       </c>
-      <c r="T278" t="inlineStr">
-        <is>
-          <t>1749900</t>
-        </is>
-      </c>
-      <c r="U278" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/omoda/c5/</t>
-        </is>
-      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -14965,16 +14115,6 @@
           <t>https://motors-ag.ru/catalog/omoda/s5</t>
         </is>
       </c>
-      <c r="T279" t="inlineStr">
-        <is>
-          <t>1629900</t>
-        </is>
-      </c>
-      <c r="U279" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/omoda/s5/</t>
-        </is>
-      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -16863,6 +16003,14 @@
           <t>https://avtolininiya-rb.ru/auto/solaris/krx/</t>
         </is>
       </c>
+      <c r="P323" t="n">
+        <v>1570500</v>
+      </c>
+      <c r="Q323" t="inlineStr">
+        <is>
+          <t>https://autofort-ufa.ru/avto-new/solaris/krx/</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -17268,16 +16416,6 @@
           <t>https://motors-ag.ru/catalog/tank/tank_300</t>
         </is>
       </c>
-      <c r="T334" t="inlineStr">
-        <is>
-          <t>4099000</t>
-        </is>
-      </c>
-      <c r="U334" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/tank/300/</t>
-        </is>
-      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -17353,16 +16491,6 @@
           <t>https://motors-ag.ru/catalog/tank/tank_500</t>
         </is>
       </c>
-      <c r="T335" t="inlineStr">
-        <is>
-          <t>6299000</t>
-        </is>
-      </c>
-      <c r="U335" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/tank/500/</t>
-        </is>
-      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -17548,7 +16676,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>627</t>
+          <t>629</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -17558,30 +16686,30 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>Hilux</t>
+          <t>Land Cruiser 300</t>
         </is>
       </c>
       <c r="D341" t="n">
-        <v>6600000</v>
+        <v>14400000</v>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/toyota/hilux_viii_pi/pickup/parallel-price/</t>
+          <t>https://ufa.autospot.ru/brands/toyota/lc300_pi/suv/parallel-price/</t>
         </is>
       </c>
       <c r="L341" t="n">
-        <v>6600000</v>
+        <v>14400000</v>
       </c>
       <c r="M341" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/toyota/hilux_viii_pi/pickup/parallel-price/</t>
+          <t>https://ufa.autospot.ru/brands/toyota/lc300_pi/suv/parallel-price/</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>629</t>
+          <t>630</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -17591,30 +16719,30 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>Land Cruiser 300</t>
+          <t>Land Cruiser Prado</t>
         </is>
       </c>
       <c r="D342" t="n">
-        <v>14400000</v>
+        <v>9000000</v>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/toyota/lc300_pi/suv/parallel-price/</t>
+          <t>https://ufa.autospot.ru/brands/toyota/lc150_iii_pi/suv/parallel-price/</t>
         </is>
       </c>
       <c r="L342" t="n">
-        <v>14400000</v>
+        <v>9000000</v>
       </c>
       <c r="M342" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/toyota/lc300_pi/suv/parallel-price/</t>
+          <t>https://ufa.autospot.ru/brands/toyota/lc150_iii_pi/suv/parallel-price/</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>630</t>
+          <t>620</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -17624,71 +16752,71 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>Land Cruiser Prado</t>
+          <t>RAV4</t>
         </is>
       </c>
       <c r="D343" t="n">
-        <v>9000000</v>
+        <v>2003250</v>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/toyota/lc150_iii_pi/suv/parallel-price/</t>
+          <t>https://autofort-ufa.ru/avto-new/toyota/rav_4/</t>
         </is>
       </c>
       <c r="L343" t="n">
-        <v>9000000</v>
+        <v>4499000</v>
       </c>
       <c r="M343" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/toyota/lc150_iii_pi/suv/parallel-price/</t>
+          <t>https://ufa.autospot.ru/brands/toyota/rav4_v_pi/suv/parallel-price/</t>
+        </is>
+      </c>
+      <c r="P343" t="n">
+        <v>2003250</v>
+      </c>
+      <c r="Q343" t="inlineStr">
+        <is>
+          <t>https://autofort-ufa.ru/avto-new/toyota/rav_4/</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>620</t>
+          <t>694</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>RAV4</t>
+          <t>3909</t>
         </is>
       </c>
       <c r="D344" t="n">
-        <v>2003250</v>
+        <v>979000</v>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/toyota/rav_4/</t>
+          <t>https://ufa.autospot.ru/brands/uaz/3909/van/price/</t>
         </is>
       </c>
       <c r="L344" t="n">
-        <v>4499000</v>
+        <v>979000</v>
       </c>
       <c r="M344" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/toyota/rav4_v_pi/suv/parallel-price/</t>
-        </is>
-      </c>
-      <c r="P344" t="n">
-        <v>2003250</v>
-      </c>
-      <c r="Q344" t="inlineStr">
-        <is>
-          <t>https://autofort-ufa.ru/avto-new/toyota/rav_4/</t>
+          <t>https://ufa.autospot.ru/brands/uaz/3909/van/price/</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>694</t>
+          <t>696</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -17698,30 +16826,30 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>3909</t>
+          <t>3909 Микроавтобус</t>
         </is>
       </c>
       <c r="D345" t="n">
-        <v>979000</v>
+        <v>1570000</v>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/uaz/3909/van/price/</t>
+          <t>https://ufa.autospot.ru/brands/uaz/2206/microbus/price/</t>
         </is>
       </c>
       <c r="L345" t="n">
-        <v>979000</v>
+        <v>1570000</v>
       </c>
       <c r="M345" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/uaz/3909/van/price/</t>
+          <t>https://ufa.autospot.ru/brands/uaz/2206/microbus/price/</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>696</t>
+          <t>698</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -17731,30 +16859,30 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>3909 Микроавтобус</t>
+          <t>3909 Цельнометаллический фургон</t>
         </is>
       </c>
       <c r="D346" t="n">
-        <v>1570000</v>
+        <v>1505000</v>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/uaz/2206/microbus/price/</t>
+          <t>https://ufa.autospot.ru/brands/uaz/3741/van/price/</t>
         </is>
       </c>
       <c r="L346" t="n">
-        <v>1570000</v>
+        <v>1505000</v>
       </c>
       <c r="M346" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/uaz/2206/microbus/price/</t>
+          <t>https://ufa.autospot.ru/brands/uaz/3741/van/price/</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>633</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -17764,30 +16892,56 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>3909 Цельнометаллический фургон</t>
+          <t>Hunter</t>
         </is>
       </c>
       <c r="D347" t="n">
-        <v>1505000</v>
+        <v>837000</v>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/uaz/3741/van/price/</t>
+          <t>https://avtolininiya-rb.ru/auto/uaz/hunter/</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>837000</t>
+        </is>
+      </c>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>https://avtolininiya-rb.ru/auto/uaz/hunter/</t>
+        </is>
+      </c>
+      <c r="H347" t="n">
+        <v>994700</v>
+      </c>
+      <c r="I347" t="inlineStr">
+        <is>
+          <t>https://ufa.masmotors.ru/car/uaz/hunter</t>
         </is>
       </c>
       <c r="L347" t="n">
-        <v>1505000</v>
+        <v>1560000</v>
       </c>
       <c r="M347" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/uaz/3741/van/price/</t>
+          <t>https://ufa.autospot.ru/brands/uaz/hunter/suv/price/</t>
+        </is>
+      </c>
+      <c r="P347" t="n">
+        <v>1046250</v>
+      </c>
+      <c r="Q347" t="inlineStr">
+        <is>
+          <t>https://autofort-ufa.ru/avto-new/uaz/hunter/</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>634</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -17797,56 +16951,56 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>Hunter</t>
+          <t>Patriot</t>
         </is>
       </c>
       <c r="D348" t="n">
-        <v>837000</v>
+        <v>927000</v>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>https://avtolininiya-rb.ru/auto/uaz/hunter/</t>
+          <t>https://avtolininiya-rb.ru/auto/uaz/patriot/</t>
         </is>
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>837000</t>
+          <t>927000</t>
         </is>
       </c>
       <c r="G348" t="inlineStr">
         <is>
-          <t>https://avtolininiya-rb.ru/auto/uaz/hunter/</t>
+          <t>https://avtolininiya-rb.ru/auto/uaz/patriot/</t>
         </is>
       </c>
       <c r="H348" t="n">
-        <v>994700</v>
+        <v>1135200</v>
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/uaz/hunter</t>
+          <t>https://ufa.masmotors.ru/car/uaz/patriot</t>
         </is>
       </c>
       <c r="L348" t="n">
-        <v>1210000</v>
+        <v>1784000</v>
       </c>
       <c r="M348" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/uaz/hunter/suv/price/</t>
+          <t>https://ufa.autospot.ru/brands/uaz/patriot/suv/price/</t>
         </is>
       </c>
       <c r="P348" t="n">
-        <v>1046250</v>
+        <v>1158750</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/uaz/hunter/</t>
+          <t>https://autofort-ufa.ru/avto-new/uaz/patriot_new/</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>636</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -17856,56 +17010,40 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>Patriot</t>
+          <t>Patriot Pickup</t>
         </is>
       </c>
       <c r="D349" t="n">
-        <v>927000</v>
+        <v>942000</v>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>https://avtolininiya-rb.ru/auto/uaz/patriot/</t>
+          <t>https://avtolininiya-rb.ru/auto/uaz/patriot_pickup/</t>
         </is>
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>927000</t>
+          <t>942000</t>
         </is>
       </c>
       <c r="G349" t="inlineStr">
         <is>
-          <t>https://avtolininiya-rb.ru/auto/uaz/patriot/</t>
+          <t>https://avtolininiya-rb.ru/auto/uaz/patriot_pickup/</t>
         </is>
       </c>
       <c r="H349" t="n">
-        <v>1135200</v>
+        <v>1158200</v>
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/uaz/patriot</t>
-        </is>
-      </c>
-      <c r="L349" t="n">
-        <v>1651000</v>
-      </c>
-      <c r="M349" t="inlineStr">
-        <is>
-          <t>https://ufa.autospot.ru/brands/uaz/patriot/suv/price/</t>
-        </is>
-      </c>
-      <c r="P349" t="n">
-        <v>1158750</v>
-      </c>
-      <c r="Q349" t="inlineStr">
-        <is>
-          <t>https://autofort-ufa.ru/avto-new/uaz/patriot_new/</t>
+          <t>https://ufa.masmotors.ru/car/uaz/patriot-pikap</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>636</t>
+          <t>734</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -17915,40 +17053,30 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>Patriot Pickup</t>
+          <t>Patriot АКПП</t>
         </is>
       </c>
       <c r="D350" t="n">
-        <v>942000</v>
+        <v>1451250</v>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>https://avtolininiya-rb.ru/auto/uaz/patriot_pickup/</t>
-        </is>
-      </c>
-      <c r="F350" t="inlineStr">
-        <is>
-          <t>942000</t>
-        </is>
-      </c>
-      <c r="G350" t="inlineStr">
-        <is>
-          <t>https://avtolininiya-rb.ru/auto/uaz/patriot_pickup/</t>
-        </is>
-      </c>
-      <c r="H350" t="n">
-        <v>1158200</v>
-      </c>
-      <c r="I350" t="inlineStr">
-        <is>
-          <t>https://ufa.masmotors.ru/car/uaz/patriot-pikap</t>
+          <t>https://autofort-ufa.ru/avto-new/uaz/patrion_at/</t>
+        </is>
+      </c>
+      <c r="P350" t="n">
+        <v>1451250</v>
+      </c>
+      <c r="Q350" t="inlineStr">
+        <is>
+          <t>https://autofort-ufa.ru/avto-new/uaz/patrion_at/</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>734</t>
+          <t>637</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -17958,30 +17086,30 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>Patriot АКПП</t>
+          <t>Pickup</t>
         </is>
       </c>
       <c r="D351" t="n">
-        <v>1451250</v>
+        <v>1750000</v>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/uaz/patrion_at/</t>
-        </is>
-      </c>
-      <c r="P351" t="n">
-        <v>1451250</v>
-      </c>
-      <c r="Q351" t="inlineStr">
-        <is>
-          <t>https://autofort-ufa.ru/avto-new/uaz/patrion_at/</t>
+          <t>https://ufa.autospot.ru/brands/uaz/pickup/pickup/price/</t>
+        </is>
+      </c>
+      <c r="L351" t="n">
+        <v>1750000</v>
+      </c>
+      <c r="M351" t="inlineStr">
+        <is>
+          <t>https://ufa.autospot.ru/brands/uaz/pickup/pickup/price/</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>637</t>
+          <t>699</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -17991,104 +17119,104 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>Pickup</t>
+          <t>Профи</t>
         </is>
       </c>
       <c r="D352" t="n">
-        <v>1616000</v>
+        <v>1900000</v>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/uaz/pickup/pickup/price/</t>
+          <t>https://ufa.autospot.ru/brands/uaz/profi/truck/price/</t>
         </is>
       </c>
       <c r="L352" t="n">
-        <v>1616000</v>
+        <v>1900000</v>
       </c>
       <c r="M352" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/uaz/pickup/pickup/price/</t>
+          <t>https://ufa.autospot.ru/brands/uaz/profi/truck/price/</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>699</t>
+          <t>665</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>VOYAH</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>Профи</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D353" t="n">
-        <v>1900000</v>
+        <v>4790000</v>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/uaz/profi/truck/price/</t>
-        </is>
-      </c>
-      <c r="L353" t="n">
-        <v>1900000</v>
-      </c>
-      <c r="M353" t="inlineStr">
-        <is>
-          <t>https://ufa.autospot.ru/brands/uaz/profi/truck/price/</t>
+          <t>https://motors-ag.ru/catalog/voyah/free</t>
+        </is>
+      </c>
+      <c r="J353" t="n">
+        <v>4790000</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>https://avrora-motors.ru/catalog/voyah/free</t>
+        </is>
+      </c>
+      <c r="R353" t="n">
+        <v>4790000</v>
+      </c>
+      <c r="S353" t="inlineStr">
+        <is>
+          <t>https://motors-ag.ru/catalog/voyah/free</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>665</t>
+          <t>707</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>VOYAH</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Amarok</t>
         </is>
       </c>
       <c r="D354" t="n">
-        <v>4790000</v>
+        <v>2422300</v>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/voyah/free</t>
-        </is>
-      </c>
-      <c r="J354" t="n">
-        <v>4790000</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/voyah/free</t>
-        </is>
-      </c>
-      <c r="R354" t="n">
-        <v>4790000</v>
-      </c>
-      <c r="S354" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/voyah/free</t>
+          <t>https://ufa.masmotors.ru/car/volkswagen/amarok</t>
+        </is>
+      </c>
+      <c r="H354" t="n">
+        <v>2422300</v>
+      </c>
+      <c r="I354" t="inlineStr">
+        <is>
+          <t>https://ufa.masmotors.ru/car/volkswagen/amarok</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>707</t>
+          <t>639</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -18098,30 +17226,30 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>Amarok</t>
+          <t>Arteon</t>
         </is>
       </c>
       <c r="D355" t="n">
-        <v>2422300</v>
+        <v>2556500</v>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/volkswagen/amarok</t>
+          <t>https://ufa.masmotors.ru/car/volkswagen/arteon</t>
         </is>
       </c>
       <c r="H355" t="n">
-        <v>2422300</v>
+        <v>2556500</v>
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/volkswagen/amarok</t>
+          <t>https://ufa.masmotors.ru/car/volkswagen/arteon</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>639</t>
+          <t>642</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -18131,30 +17259,30 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>Arteon</t>
+          <t>Caddy</t>
         </is>
       </c>
       <c r="D356" t="n">
-        <v>2556500</v>
+        <v>2002800</v>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/volkswagen/arteon</t>
+          <t>https://ufa.masmotors.ru/car/volkswagen/caddy</t>
         </is>
       </c>
       <c r="H356" t="n">
-        <v>2556500</v>
+        <v>2002800</v>
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/volkswagen/arteon</t>
+          <t>https://ufa.masmotors.ru/car/volkswagen/caddy</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>642</t>
+          <t>706</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -18164,30 +17292,30 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>Caddy</t>
+          <t>Golf</t>
         </is>
       </c>
       <c r="D357" t="n">
-        <v>2002800</v>
+        <v>3896900</v>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/volkswagen/caddy</t>
+          <t>https://ufa.masmotors.ru/car/volkswagen/golf</t>
         </is>
       </c>
       <c r="H357" t="n">
-        <v>2002800</v>
+        <v>3896900</v>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/volkswagen/caddy</t>
+          <t>https://ufa.masmotors.ru/car/volkswagen/golf</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>706</t>
+          <t>645</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -18197,30 +17325,56 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>Golf</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="D358" t="n">
-        <v>3896900</v>
+        <v>1035000</v>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/volkswagen/golf</t>
+          <t>https://avtolininiya-rb.ru/auto/volkswagen/jetta/</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>1035000</t>
+        </is>
+      </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>https://avtolininiya-rb.ru/auto/volkswagen/jetta/</t>
         </is>
       </c>
       <c r="H358" t="n">
-        <v>3896900</v>
+        <v>1508800</v>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/volkswagen/golf</t>
+          <t>https://ufa.masmotors.ru/car/volkswagen/jetta</t>
+        </is>
+      </c>
+      <c r="J358" t="n">
+        <v>1045000</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>https://avrora-motors.ru/catalog/volkswagen/jetta</t>
+        </is>
+      </c>
+      <c r="R358" t="n">
+        <v>1065000</v>
+      </c>
+      <c r="S358" t="inlineStr">
+        <is>
+          <t>https://motors-ag.ru/catalog/volkswagen/jetta</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>649</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -18230,56 +17384,40 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Passat</t>
         </is>
       </c>
       <c r="D359" t="n">
-        <v>1035000</v>
+        <v>2131740</v>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>https://avtolininiya-rb.ru/auto/volkswagen/jetta/</t>
+          <t>https://avtolininiya-rb.ru/auto/volkswagen/passat/</t>
         </is>
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>1035000</t>
+          <t>2131740</t>
         </is>
       </c>
       <c r="G359" t="inlineStr">
         <is>
-          <t>https://avtolininiya-rb.ru/auto/volkswagen/jetta/</t>
+          <t>https://avtolininiya-rb.ru/auto/volkswagen/passat/</t>
         </is>
       </c>
       <c r="H359" t="n">
-        <v>1508800</v>
+        <v>2278700</v>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/volkswagen/jetta</t>
-        </is>
-      </c>
-      <c r="J359" t="n">
-        <v>1045000</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/volkswagen/jetta</t>
-        </is>
-      </c>
-      <c r="R359" t="n">
-        <v>1065000</v>
-      </c>
-      <c r="S359" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/volkswagen/jetta</t>
+          <t>https://ufa.masmotors.ru/car/volkswagen/passat</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>651</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -18289,40 +17427,30 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>Passat</t>
+          <t>Passat Alltrack New</t>
         </is>
       </c>
       <c r="D360" t="n">
-        <v>2131740</v>
+        <v>4212400</v>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>https://avtolininiya-rb.ru/auto/volkswagen/passat/</t>
-        </is>
-      </c>
-      <c r="F360" t="inlineStr">
-        <is>
-          <t>2131740</t>
-        </is>
-      </c>
-      <c r="G360" t="inlineStr">
-        <is>
-          <t>https://avtolininiya-rb.ru/auto/volkswagen/passat/</t>
+          <t>https://ufa.masmotors.ru/car/volkswagen/passat-alltrack</t>
         </is>
       </c>
       <c r="H360" t="n">
-        <v>2278700</v>
+        <v>4212400</v>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/volkswagen/passat</t>
+          <t>https://ufa.masmotors.ru/car/volkswagen/passat-alltrack</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>651</t>
+          <t>652</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -18332,30 +17460,40 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>Passat Alltrack New</t>
+          <t>Polo</t>
         </is>
       </c>
       <c r="D361" t="n">
-        <v>4212400</v>
+        <v>672900</v>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/volkswagen/passat-alltrack</t>
+          <t>https://avtolininiya-rb.ru/auto/volkswagen/polo/</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>672900</t>
+        </is>
+      </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>https://avtolininiya-rb.ru/auto/volkswagen/polo/</t>
         </is>
       </c>
       <c r="H361" t="n">
-        <v>4212400</v>
+        <v>1306100</v>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/volkswagen/passat-alltrack</t>
+          <t>https://ufa.masmotors.ru/car/volkswagen/polo</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>648</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -18365,40 +17503,38 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>Polo</t>
+          <t>Polo New</t>
         </is>
       </c>
       <c r="D362" t="n">
-        <v>672900</v>
+        <v>682900</v>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>https://avtolininiya-rb.ru/auto/volkswagen/polo/</t>
-        </is>
-      </c>
-      <c r="F362" t="inlineStr">
-        <is>
-          <t>672900</t>
-        </is>
-      </c>
-      <c r="G362" t="inlineStr">
-        <is>
-          <t>https://avtolininiya-rb.ru/auto/volkswagen/polo/</t>
-        </is>
-      </c>
-      <c r="H362" t="n">
-        <v>1306100</v>
-      </c>
-      <c r="I362" t="inlineStr">
-        <is>
-          <t>https://ufa.masmotors.ru/car/volkswagen/polo</t>
+          <t>https://avrora-motors.ru/catalog/volkswagen/polo_new</t>
+        </is>
+      </c>
+      <c r="J362" t="n">
+        <v>682900</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>https://avrora-motors.ru/catalog/volkswagen/polo_new</t>
+        </is>
+      </c>
+      <c r="R362" t="n">
+        <v>702900</v>
+      </c>
+      <c r="S362" t="inlineStr">
+        <is>
+          <t>https://motors-ag.ru/catalog/volkswagen/polo_new</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>648</t>
+          <t>653</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -18408,38 +17544,56 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>Polo New</t>
+          <t>Taos</t>
         </is>
       </c>
       <c r="D363" t="n">
-        <v>682900</v>
+        <v>1295900</v>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>https://avrora-motors.ru/catalog/volkswagen/polo_new</t>
+          <t>https://avtolininiya-rb.ru/auto/volkswagen/taos/</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>1295900</t>
+        </is>
+      </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>https://avtolininiya-rb.ru/auto/volkswagen/taos/</t>
+        </is>
+      </c>
+      <c r="H363" t="n">
+        <v>2478100</v>
+      </c>
+      <c r="I363" t="inlineStr">
+        <is>
+          <t>https://ufa.masmotors.ru/car/volkswagen/taos</t>
         </is>
       </c>
       <c r="J363" t="n">
-        <v>682900</v>
+        <v>1305900</v>
       </c>
       <c r="K363" t="inlineStr">
         <is>
-          <t>https://avrora-motors.ru/catalog/volkswagen/polo_new</t>
+          <t>https://avrora-motors.ru/catalog/volkswagen/taos</t>
         </is>
       </c>
       <c r="R363" t="n">
-        <v>702900</v>
+        <v>1325900</v>
       </c>
       <c r="S363" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/volkswagen/polo_new</t>
+          <t>https://motors-ag.ru/catalog/volkswagen/taos</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>655</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -18449,56 +17603,30 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>Taos</t>
+          <t>Teramont</t>
         </is>
       </c>
       <c r="D364" t="n">
-        <v>1295900</v>
+        <v>5697000</v>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>https://avtolininiya-rb.ru/auto/volkswagen/taos/</t>
-        </is>
-      </c>
-      <c r="F364" t="inlineStr">
-        <is>
-          <t>1295900</t>
-        </is>
-      </c>
-      <c r="G364" t="inlineStr">
-        <is>
-          <t>https://avtolininiya-rb.ru/auto/volkswagen/taos/</t>
+          <t>https://ufa.masmotors.ru/car/volkswagen/teramont</t>
         </is>
       </c>
       <c r="H364" t="n">
-        <v>2478100</v>
+        <v>5697000</v>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/volkswagen/taos</t>
-        </is>
-      </c>
-      <c r="J364" t="n">
-        <v>1305900</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/volkswagen/taos</t>
-        </is>
-      </c>
-      <c r="R364" t="n">
-        <v>1325900</v>
-      </c>
-      <c r="S364" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/volkswagen/taos</t>
+          <t>https://ufa.masmotors.ru/car/volkswagen/teramont</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>655</t>
+          <t>657</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -18508,30 +17636,46 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>Teramont</t>
+          <t>Tiguan</t>
         </is>
       </c>
       <c r="D365" t="n">
-        <v>5697000</v>
+        <v>1489900</v>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/volkswagen/teramont</t>
+          <t>https://avrora-motors.ru/catalog/volkswagen/tiguan_new</t>
         </is>
       </c>
       <c r="H365" t="n">
-        <v>5697000</v>
+        <v>3008800</v>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/volkswagen/teramont</t>
+          <t>https://ufa.masmotors.ru/car/volkswagen/tiguan</t>
+        </is>
+      </c>
+      <c r="J365" t="n">
+        <v>1489900</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>https://avrora-motors.ru/catalog/volkswagen/tiguan_new</t>
+        </is>
+      </c>
+      <c r="R365" t="n">
+        <v>1509900</v>
+      </c>
+      <c r="S365" t="inlineStr">
+        <is>
+          <t>https://motors-ag.ru/catalog/volkswagen/tiguan_new</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>657</t>
+          <t>658</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -18541,46 +17685,32 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>Tiguan</t>
+          <t>Tiguan New</t>
         </is>
       </c>
       <c r="D366" t="n">
-        <v>1489900</v>
+        <v>1479900</v>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>https://avrora-motors.ru/catalog/volkswagen/tiguan_new</t>
-        </is>
-      </c>
-      <c r="H366" t="n">
-        <v>3008800</v>
-      </c>
-      <c r="I366" t="inlineStr">
-        <is>
-          <t>https://ufa.masmotors.ru/car/volkswagen/tiguan</t>
-        </is>
-      </c>
-      <c r="J366" t="n">
-        <v>1489900</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/volkswagen/tiguan_new</t>
-        </is>
-      </c>
-      <c r="R366" t="n">
-        <v>1509900</v>
-      </c>
-      <c r="S366" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/volkswagen/tiguan_new</t>
+          <t>https://avtolininiya-rb.ru/auto/volkswagen/tiguan/</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>1479900</t>
+        </is>
+      </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>https://avtolininiya-rb.ru/auto/volkswagen/tiguan/</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>659</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -18590,65 +17720,89 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>Tiguan New</t>
+          <t>Touareg</t>
         </is>
       </c>
       <c r="D367" t="n">
-        <v>1479900</v>
+        <v>8145100</v>
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>https://avtolininiya-rb.ru/auto/volkswagen/tiguan/</t>
-        </is>
-      </c>
-      <c r="F367" t="inlineStr">
-        <is>
-          <t>1479900</t>
-        </is>
-      </c>
-      <c r="G367" t="inlineStr">
-        <is>
-          <t>https://avtolininiya-rb.ru/auto/volkswagen/tiguan/</t>
+          <t>https://ufa.masmotors.ru/car/volkswagen/touareg</t>
+        </is>
+      </c>
+      <c r="H367" t="n">
+        <v>8145100</v>
+      </c>
+      <c r="I367" t="inlineStr">
+        <is>
+          <t>https://ufa.masmotors.ru/car/volkswagen/touareg</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>659</t>
+          <t>672</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>Zotye</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>Touareg</t>
+          <t>Coupa</t>
         </is>
       </c>
       <c r="D368" t="n">
-        <v>8145100</v>
+        <v>960000</v>
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/volkswagen/touareg</t>
+          <t>https://avtolininiya-rb.ru/auto/zotye/coupa/</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>960000</t>
+        </is>
+      </c>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>https://avtolininiya-rb.ru/auto/zotye/coupa/</t>
         </is>
       </c>
       <c r="H368" t="n">
-        <v>8145100</v>
+        <v>1233900</v>
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/volkswagen/touareg</t>
+          <t>https://ufa.masmotors.ru/car/zotye/coupa</t>
+        </is>
+      </c>
+      <c r="J368" t="n">
+        <v>970000</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>https://avrora-motors.ru/catalog/zotye/coupa</t>
+        </is>
+      </c>
+      <c r="R368" t="n">
+        <v>990000</v>
+      </c>
+      <c r="S368" t="inlineStr">
+        <is>
+          <t>https://motors-ag.ru/catalog/zotye/coupa</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>674</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -18658,128 +17812,49 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>Coupa</t>
+          <t>T600</t>
         </is>
       </c>
       <c r="D369" t="n">
-        <v>960000</v>
+        <v>727000</v>
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>https://alga-auto.ru/auto/zotye/coupa/</t>
+          <t>https://avtolininiya-rb.ru/auto/zotye/t600/</t>
         </is>
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>960000</t>
+          <t>727000</t>
         </is>
       </c>
       <c r="G369" t="inlineStr">
         <is>
-          <t>https://avtolininiya-rb.ru/auto/zotye/coupa/</t>
+          <t>https://avtolininiya-rb.ru/auto/zotye/t600/</t>
         </is>
       </c>
       <c r="H369" t="n">
-        <v>1233900</v>
+        <v>958700</v>
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/zotye/coupa</t>
+          <t>https://ufa.masmotors.ru/car/zotye/t600</t>
         </is>
       </c>
       <c r="J369" t="n">
-        <v>970000</v>
+        <v>737000</v>
       </c>
       <c r="K369" t="inlineStr">
         <is>
-          <t>https://avrora-motors.ru/catalog/zotye/coupa</t>
+          <t>https://avrora-motors.ru/catalog/zotye/t600</t>
         </is>
       </c>
       <c r="R369" t="n">
-        <v>990000</v>
+        <v>757000</v>
       </c>
       <c r="S369" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/zotye/coupa</t>
-        </is>
-      </c>
-      <c r="T369" t="inlineStr">
-        <is>
-          <t>960000</t>
-        </is>
-      </c>
-      <c r="U369" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/zotye/coupa/</t>
-        </is>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" t="inlineStr">
-        <is>
-          <t>674</t>
-        </is>
-      </c>
-      <c r="B370" t="inlineStr">
-        <is>
-          <t>Zotye</t>
-        </is>
-      </c>
-      <c r="C370" t="inlineStr">
-        <is>
-          <t>T600</t>
-        </is>
-      </c>
-      <c r="D370" t="n">
-        <v>727000</v>
-      </c>
-      <c r="E370" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/zotye/t600/</t>
-        </is>
-      </c>
-      <c r="F370" t="inlineStr">
-        <is>
-          <t>727000</t>
-        </is>
-      </c>
-      <c r="G370" t="inlineStr">
-        <is>
-          <t>https://avtolininiya-rb.ru/auto/zotye/t600/</t>
-        </is>
-      </c>
-      <c r="H370" t="n">
-        <v>958700</v>
-      </c>
-      <c r="I370" t="inlineStr">
-        <is>
-          <t>https://ufa.masmotors.ru/car/zotye/t600</t>
-        </is>
-      </c>
-      <c r="J370" t="n">
-        <v>737000</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/zotye/t600</t>
-        </is>
-      </c>
-      <c r="R370" t="n">
-        <v>757000</v>
-      </c>
-      <c r="S370" t="inlineStr">
-        <is>
           <t>https://motors-ag.ru/catalog/zotye/t600</t>
-        </is>
-      </c>
-      <c r="T370" t="inlineStr">
-        <is>
-          <t>727000</t>
-        </is>
-      </c>
-      <c r="U370" t="inlineStr">
-        <is>
-          <t>https://alga-auto.ru/auto/zotye/t600/</t>
         </is>
       </c>
     </row>

--- a/xlsx/ufa.xlsx
+++ b/xlsx/ufa.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U369"/>
+  <dimension ref="A1:U370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1900990</v>
+        <v>1755990</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>1900990</v>
+        <v>1755990</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1098100</v>
+        <v>990000</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>1098100</v>
+        <v>990000</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -2078,11 +2078,11 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>2046000</v>
+        <v>2009000</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://avtolininiya-rb.ru/auto/chery/arrizo_8/</t>
+          <t>https://ufa.autospot.ru/brands/chery/arrizo8/sedan/price/</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2150000</v>
+        <v>2009000</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -5240,7 +5240,7 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>5499999</v>
+        <v>5399999</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
@@ -5299,7 +5299,7 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>2694990</v>
+        <v>2594990</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
@@ -5626,7 +5626,7 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>2159990</v>
+        <v>2139990</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         </is>
       </c>
       <c r="L108" t="n">
-        <v>2940000</v>
+        <v>2840000</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
         </is>
       </c>
       <c r="L109" t="n">
-        <v>2749990</v>
+        <v>2649990</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
@@ -6069,7 +6069,7 @@
         </is>
       </c>
       <c r="L110" t="n">
-        <v>2519990</v>
+        <v>2449990</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         </is>
       </c>
       <c r="L111" t="n">
-        <v>3759990</v>
+        <v>3389990</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
@@ -6276,11 +6276,11 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>2586800</v>
+        <v>2729000</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/greatwall/poer/pickup/price/</t>
+          <t>https://avrora-motors.ru/catalog/great-wall/poer</t>
         </is>
       </c>
       <c r="H115" t="n">
@@ -6300,7 +6300,7 @@
         </is>
       </c>
       <c r="L115" t="n">
-        <v>2586800</v>
+        <v>2828300</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
@@ -6333,11 +6333,11 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>2399300</v>
+        <v>2540100</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/greatwall/poerkingkong/pickup/price/</t>
+          <t>https://ufa.masmotors.ru/car/greatwall/poer-kingkong</t>
         </is>
       </c>
       <c r="H116" t="n">
@@ -6349,7 +6349,7 @@
         </is>
       </c>
       <c r="L116" t="n">
-        <v>2399300</v>
+        <v>2623300</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         </is>
       </c>
       <c r="L122" t="n">
-        <v>2899000</v>
+        <v>3074000</v>
       </c>
       <c r="M122" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         </is>
       </c>
       <c r="L127" t="n">
-        <v>1949300</v>
+        <v>2131300</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
@@ -7238,7 +7238,7 @@
         </is>
       </c>
       <c r="L133" t="n">
-        <v>1724000</v>
+        <v>1699000</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
@@ -8298,7 +8298,7 @@
         </is>
       </c>
       <c r="L159" t="n">
-        <v>1699000</v>
+        <v>1649000</v>
       </c>
       <c r="M159" t="inlineStr">
         <is>
@@ -8388,7 +8388,7 @@
         </is>
       </c>
       <c r="L161" t="n">
-        <v>2079000</v>
+        <v>1969000</v>
       </c>
       <c r="M161" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         </is>
       </c>
       <c r="L202" t="n">
-        <v>689900</v>
+        <v>629900</v>
       </c>
       <c r="M202" t="inlineStr">
         <is>
@@ -12284,7 +12284,7 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>1392100</v>
+        <v>1418100</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
@@ -12292,7 +12292,7 @@
         </is>
       </c>
       <c r="L241" t="n">
-        <v>1392100</v>
+        <v>1418100</v>
       </c>
       <c r="M241" t="inlineStr">
         <is>
@@ -12317,7 +12317,7 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>1382000</v>
+        <v>1473000</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -12325,7 +12325,7 @@
         </is>
       </c>
       <c r="L242" t="n">
-        <v>1382000</v>
+        <v>1473000</v>
       </c>
       <c r="M242" t="inlineStr">
         <is>
@@ -12962,7 +12962,7 @@
         </is>
       </c>
       <c r="L253" t="n">
-        <v>1819000</v>
+        <v>1849000</v>
       </c>
       <c r="M253" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         </is>
       </c>
       <c r="L270" t="n">
-        <v>1450000</v>
+        <v>1453870</v>
       </c>
       <c r="M270" t="inlineStr">
         <is>
@@ -16643,7 +16643,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>618</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -16653,30 +16653,30 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>Highlander</t>
+          <t>Fortuner</t>
         </is>
       </c>
       <c r="D340" t="n">
-        <v>6899000</v>
+        <v>6570000</v>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/toyota/highlander_iv_pi/suv/parallel-price/</t>
+          <t>https://ufa.autospot.ru/brands/toyota/fortuner_ii_pi/suv/parallel-price/</t>
         </is>
       </c>
       <c r="L340" t="n">
-        <v>6899000</v>
+        <v>6570000</v>
       </c>
       <c r="M340" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/toyota/highlander_iv_pi/suv/parallel-price/</t>
+          <t>https://ufa.autospot.ru/brands/toyota/fortuner_ii_pi/suv/parallel-price/</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>629</t>
+          <t>625</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -16686,30 +16686,30 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>Land Cruiser 300</t>
+          <t>Highlander</t>
         </is>
       </c>
       <c r="D341" t="n">
-        <v>14400000</v>
+        <v>6899000</v>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/toyota/lc300_pi/suv/parallel-price/</t>
+          <t>https://ufa.autospot.ru/brands/toyota/highlander_iv_pi/suv/parallel-price/</t>
         </is>
       </c>
       <c r="L341" t="n">
-        <v>14400000</v>
+        <v>6899000</v>
       </c>
       <c r="M341" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/toyota/lc300_pi/suv/parallel-price/</t>
+          <t>https://ufa.autospot.ru/brands/toyota/highlander_iv_pi/suv/parallel-price/</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>630</t>
+          <t>629</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -16719,30 +16719,30 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>Land Cruiser Prado</t>
+          <t>Land Cruiser 300</t>
         </is>
       </c>
       <c r="D342" t="n">
-        <v>9000000</v>
+        <v>14400000</v>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/toyota/lc150_iii_pi/suv/parallel-price/</t>
+          <t>https://ufa.autospot.ru/brands/toyota/lc300_pi/suv/parallel-price/</t>
         </is>
       </c>
       <c r="L342" t="n">
-        <v>9000000</v>
+        <v>14400000</v>
       </c>
       <c r="M342" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/toyota/lc150_iii_pi/suv/parallel-price/</t>
+          <t>https://ufa.autospot.ru/brands/toyota/lc300_pi/suv/parallel-price/</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>620</t>
+          <t>630</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -16752,71 +16752,71 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>RAV4</t>
+          <t>Land Cruiser Prado</t>
         </is>
       </c>
       <c r="D343" t="n">
-        <v>2003250</v>
+        <v>9000000</v>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/toyota/rav_4/</t>
+          <t>https://ufa.autospot.ru/brands/toyota/lc150_iii_pi/suv/parallel-price/</t>
         </is>
       </c>
       <c r="L343" t="n">
-        <v>4499000</v>
+        <v>9000000</v>
       </c>
       <c r="M343" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/toyota/rav4_v_pi/suv/parallel-price/</t>
-        </is>
-      </c>
-      <c r="P343" t="n">
-        <v>2003250</v>
-      </c>
-      <c r="Q343" t="inlineStr">
-        <is>
-          <t>https://autofort-ufa.ru/avto-new/toyota/rav_4/</t>
+          <t>https://ufa.autospot.ru/brands/toyota/lc150_iii_pi/suv/parallel-price/</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>694</t>
+          <t>620</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>3909</t>
+          <t>RAV4</t>
         </is>
       </c>
       <c r="D344" t="n">
-        <v>979000</v>
+        <v>2003250</v>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/uaz/3909/van/price/</t>
+          <t>https://autofort-ufa.ru/avto-new/toyota/rav_4/</t>
         </is>
       </c>
       <c r="L344" t="n">
-        <v>979000</v>
+        <v>4180000</v>
       </c>
       <c r="M344" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/uaz/3909/van/price/</t>
+          <t>https://ufa.autospot.ru/brands/toyota/rav4_v_pi/suv/parallel-price/</t>
+        </is>
+      </c>
+      <c r="P344" t="n">
+        <v>2003250</v>
+      </c>
+      <c r="Q344" t="inlineStr">
+        <is>
+          <t>https://autofort-ufa.ru/avto-new/toyota/rav_4/</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>696</t>
+          <t>694</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -16826,30 +16826,30 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>3909 Микроавтобус</t>
+          <t>3909</t>
         </is>
       </c>
       <c r="D345" t="n">
-        <v>1570000</v>
+        <v>979000</v>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/uaz/2206/microbus/price/</t>
+          <t>https://ufa.autospot.ru/brands/uaz/3909/van/price/</t>
         </is>
       </c>
       <c r="L345" t="n">
-        <v>1570000</v>
+        <v>979000</v>
       </c>
       <c r="M345" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/uaz/2206/microbus/price/</t>
+          <t>https://ufa.autospot.ru/brands/uaz/3909/van/price/</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>696</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -16859,30 +16859,30 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>3909 Цельнометаллический фургон</t>
+          <t>3909 Микроавтобус</t>
         </is>
       </c>
       <c r="D346" t="n">
-        <v>1505000</v>
+        <v>1570000</v>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/uaz/3741/van/price/</t>
+          <t>https://ufa.autospot.ru/brands/uaz/2206/microbus/price/</t>
         </is>
       </c>
       <c r="L346" t="n">
-        <v>1505000</v>
+        <v>1570000</v>
       </c>
       <c r="M346" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/uaz/3741/van/price/</t>
+          <t>https://ufa.autospot.ru/brands/uaz/2206/microbus/price/</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>698</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -16892,56 +16892,30 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>Hunter</t>
+          <t>3909 Цельнометаллический фургон</t>
         </is>
       </c>
       <c r="D347" t="n">
-        <v>837000</v>
+        <v>1505000</v>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>https://avtolininiya-rb.ru/auto/uaz/hunter/</t>
-        </is>
-      </c>
-      <c r="F347" t="inlineStr">
-        <is>
-          <t>837000</t>
-        </is>
-      </c>
-      <c r="G347" t="inlineStr">
-        <is>
-          <t>https://avtolininiya-rb.ru/auto/uaz/hunter/</t>
-        </is>
-      </c>
-      <c r="H347" t="n">
-        <v>994700</v>
-      </c>
-      <c r="I347" t="inlineStr">
-        <is>
-          <t>https://ufa.masmotors.ru/car/uaz/hunter</t>
+          <t>https://ufa.autospot.ru/brands/uaz/3741/van/price/</t>
         </is>
       </c>
       <c r="L347" t="n">
-        <v>1560000</v>
+        <v>1505000</v>
       </c>
       <c r="M347" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/uaz/hunter/suv/price/</t>
-        </is>
-      </c>
-      <c r="P347" t="n">
-        <v>1046250</v>
-      </c>
-      <c r="Q347" t="inlineStr">
-        <is>
-          <t>https://autofort-ufa.ru/avto-new/uaz/hunter/</t>
+          <t>https://ufa.autospot.ru/brands/uaz/3741/van/price/</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>633</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -16951,56 +16925,56 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>Patriot</t>
+          <t>Hunter</t>
         </is>
       </c>
       <c r="D348" t="n">
-        <v>927000</v>
+        <v>837000</v>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>https://avtolininiya-rb.ru/auto/uaz/patriot/</t>
+          <t>https://avtolininiya-rb.ru/auto/uaz/hunter/</t>
         </is>
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>927000</t>
+          <t>837000</t>
         </is>
       </c>
       <c r="G348" t="inlineStr">
         <is>
-          <t>https://avtolininiya-rb.ru/auto/uaz/patriot/</t>
+          <t>https://avtolininiya-rb.ru/auto/uaz/hunter/</t>
         </is>
       </c>
       <c r="H348" t="n">
-        <v>1135200</v>
+        <v>994700</v>
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/uaz/patriot</t>
+          <t>https://ufa.masmotors.ru/car/uaz/hunter</t>
         </is>
       </c>
       <c r="L348" t="n">
-        <v>1784000</v>
+        <v>1560000</v>
       </c>
       <c r="M348" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/uaz/patriot/suv/price/</t>
+          <t>https://ufa.autospot.ru/brands/uaz/hunter/suv/price/</t>
         </is>
       </c>
       <c r="P348" t="n">
-        <v>1158750</v>
+        <v>1046250</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/uaz/patriot_new/</t>
+          <t>https://autofort-ufa.ru/avto-new/uaz/hunter/</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>636</t>
+          <t>634</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -17010,40 +16984,56 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>Patriot Pickup</t>
+          <t>Patriot</t>
         </is>
       </c>
       <c r="D349" t="n">
-        <v>942000</v>
+        <v>927000</v>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>https://avtolininiya-rb.ru/auto/uaz/patriot_pickup/</t>
+          <t>https://avtolininiya-rb.ru/auto/uaz/patriot/</t>
         </is>
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>942000</t>
+          <t>927000</t>
         </is>
       </c>
       <c r="G349" t="inlineStr">
         <is>
-          <t>https://avtolininiya-rb.ru/auto/uaz/patriot_pickup/</t>
+          <t>https://avtolininiya-rb.ru/auto/uaz/patriot/</t>
         </is>
       </c>
       <c r="H349" t="n">
-        <v>1158200</v>
+        <v>1135200</v>
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/uaz/patriot-pikap</t>
+          <t>https://ufa.masmotors.ru/car/uaz/patriot</t>
+        </is>
+      </c>
+      <c r="L349" t="n">
+        <v>1784000</v>
+      </c>
+      <c r="M349" t="inlineStr">
+        <is>
+          <t>https://ufa.autospot.ru/brands/uaz/patriot/suv/price/</t>
+        </is>
+      </c>
+      <c r="P349" t="n">
+        <v>1158750</v>
+      </c>
+      <c r="Q349" t="inlineStr">
+        <is>
+          <t>https://autofort-ufa.ru/avto-new/uaz/patriot_new/</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>734</t>
+          <t>636</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -17053,30 +17043,40 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>Patriot АКПП</t>
+          <t>Patriot Pickup</t>
         </is>
       </c>
       <c r="D350" t="n">
-        <v>1451250</v>
+        <v>942000</v>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/uaz/patrion_at/</t>
-        </is>
-      </c>
-      <c r="P350" t="n">
-        <v>1451250</v>
-      </c>
-      <c r="Q350" t="inlineStr">
-        <is>
-          <t>https://autofort-ufa.ru/avto-new/uaz/patrion_at/</t>
+          <t>https://avtolininiya-rb.ru/auto/uaz/patriot_pickup/</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>942000</t>
+        </is>
+      </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>https://avtolininiya-rb.ru/auto/uaz/patriot_pickup/</t>
+        </is>
+      </c>
+      <c r="H350" t="n">
+        <v>1158200</v>
+      </c>
+      <c r="I350" t="inlineStr">
+        <is>
+          <t>https://ufa.masmotors.ru/car/uaz/patriot-pikap</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>637</t>
+          <t>734</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -17086,30 +17086,30 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>Pickup</t>
+          <t>Patriot АКПП</t>
         </is>
       </c>
       <c r="D351" t="n">
-        <v>1750000</v>
+        <v>1451250</v>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/uaz/pickup/pickup/price/</t>
-        </is>
-      </c>
-      <c r="L351" t="n">
-        <v>1750000</v>
-      </c>
-      <c r="M351" t="inlineStr">
-        <is>
-          <t>https://ufa.autospot.ru/brands/uaz/pickup/pickup/price/</t>
+          <t>https://autofort-ufa.ru/avto-new/uaz/patrion_at/</t>
+        </is>
+      </c>
+      <c r="P351" t="n">
+        <v>1451250</v>
+      </c>
+      <c r="Q351" t="inlineStr">
+        <is>
+          <t>https://autofort-ufa.ru/avto-new/uaz/patrion_at/</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>699</t>
+          <t>637</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -17119,104 +17119,104 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>Профи</t>
+          <t>Pickup</t>
         </is>
       </c>
       <c r="D352" t="n">
-        <v>1900000</v>
+        <v>1750000</v>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/uaz/profi/truck/price/</t>
+          <t>https://ufa.autospot.ru/brands/uaz/pickup/pickup/price/</t>
         </is>
       </c>
       <c r="L352" t="n">
-        <v>1900000</v>
+        <v>1750000</v>
       </c>
       <c r="M352" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/uaz/profi/truck/price/</t>
+          <t>https://ufa.autospot.ru/brands/uaz/pickup/pickup/price/</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>665</t>
+          <t>699</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>VOYAH</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Профи</t>
         </is>
       </c>
       <c r="D353" t="n">
-        <v>4790000</v>
+        <v>1900000</v>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/voyah/free</t>
-        </is>
-      </c>
-      <c r="J353" t="n">
-        <v>4790000</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/voyah/free</t>
-        </is>
-      </c>
-      <c r="R353" t="n">
-        <v>4790000</v>
-      </c>
-      <c r="S353" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/voyah/free</t>
+          <t>https://ufa.autospot.ru/brands/uaz/profi/truck/price/</t>
+        </is>
+      </c>
+      <c r="L353" t="n">
+        <v>1900000</v>
+      </c>
+      <c r="M353" t="inlineStr">
+        <is>
+          <t>https://ufa.autospot.ru/brands/uaz/profi/truck/price/</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>707</t>
+          <t>665</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>VOYAH</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>Amarok</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D354" t="n">
-        <v>2422300</v>
+        <v>4790000</v>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/volkswagen/amarok</t>
-        </is>
-      </c>
-      <c r="H354" t="n">
-        <v>2422300</v>
-      </c>
-      <c r="I354" t="inlineStr">
-        <is>
-          <t>https://ufa.masmotors.ru/car/volkswagen/amarok</t>
+          <t>https://motors-ag.ru/catalog/voyah/free</t>
+        </is>
+      </c>
+      <c r="J354" t="n">
+        <v>4790000</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>https://avrora-motors.ru/catalog/voyah/free</t>
+        </is>
+      </c>
+      <c r="R354" t="n">
+        <v>4790000</v>
+      </c>
+      <c r="S354" t="inlineStr">
+        <is>
+          <t>https://motors-ag.ru/catalog/voyah/free</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>639</t>
+          <t>707</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -17226,30 +17226,30 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>Arteon</t>
+          <t>Amarok</t>
         </is>
       </c>
       <c r="D355" t="n">
-        <v>2556500</v>
+        <v>2422300</v>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/volkswagen/arteon</t>
+          <t>https://ufa.masmotors.ru/car/volkswagen/amarok</t>
         </is>
       </c>
       <c r="H355" t="n">
-        <v>2556500</v>
+        <v>2422300</v>
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/volkswagen/arteon</t>
+          <t>https://ufa.masmotors.ru/car/volkswagen/amarok</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>642</t>
+          <t>639</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -17259,30 +17259,30 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>Caddy</t>
+          <t>Arteon</t>
         </is>
       </c>
       <c r="D356" t="n">
-        <v>2002800</v>
+        <v>2556500</v>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/volkswagen/caddy</t>
+          <t>https://ufa.masmotors.ru/car/volkswagen/arteon</t>
         </is>
       </c>
       <c r="H356" t="n">
-        <v>2002800</v>
+        <v>2556500</v>
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/volkswagen/caddy</t>
+          <t>https://ufa.masmotors.ru/car/volkswagen/arteon</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>706</t>
+          <t>642</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -17292,30 +17292,30 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>Golf</t>
+          <t>Caddy</t>
         </is>
       </c>
       <c r="D357" t="n">
-        <v>3896900</v>
+        <v>2002800</v>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/volkswagen/golf</t>
+          <t>https://ufa.masmotors.ru/car/volkswagen/caddy</t>
         </is>
       </c>
       <c r="H357" t="n">
-        <v>3896900</v>
+        <v>2002800</v>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/volkswagen/golf</t>
+          <t>https://ufa.masmotors.ru/car/volkswagen/caddy</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>706</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -17325,56 +17325,30 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Golf</t>
         </is>
       </c>
       <c r="D358" t="n">
-        <v>1035000</v>
+        <v>3896900</v>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>https://avtolininiya-rb.ru/auto/volkswagen/jetta/</t>
-        </is>
-      </c>
-      <c r="F358" t="inlineStr">
-        <is>
-          <t>1035000</t>
-        </is>
-      </c>
-      <c r="G358" t="inlineStr">
-        <is>
-          <t>https://avtolininiya-rb.ru/auto/volkswagen/jetta/</t>
+          <t>https://ufa.masmotors.ru/car/volkswagen/golf</t>
         </is>
       </c>
       <c r="H358" t="n">
-        <v>1508800</v>
+        <v>3896900</v>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/volkswagen/jetta</t>
-        </is>
-      </c>
-      <c r="J358" t="n">
-        <v>1045000</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/volkswagen/jetta</t>
-        </is>
-      </c>
-      <c r="R358" t="n">
-        <v>1065000</v>
-      </c>
-      <c r="S358" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/volkswagen/jetta</t>
+          <t>https://ufa.masmotors.ru/car/volkswagen/golf</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>645</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -17384,40 +17358,56 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>Passat</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="D359" t="n">
-        <v>2131740</v>
+        <v>1035000</v>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>https://avtolininiya-rb.ru/auto/volkswagen/passat/</t>
+          <t>https://avtolininiya-rb.ru/auto/volkswagen/jetta/</t>
         </is>
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>2131740</t>
+          <t>1035000</t>
         </is>
       </c>
       <c r="G359" t="inlineStr">
         <is>
-          <t>https://avtolininiya-rb.ru/auto/volkswagen/passat/</t>
+          <t>https://avtolininiya-rb.ru/auto/volkswagen/jetta/</t>
         </is>
       </c>
       <c r="H359" t="n">
-        <v>2278700</v>
+        <v>1508800</v>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/volkswagen/passat</t>
+          <t>https://ufa.masmotors.ru/car/volkswagen/jetta</t>
+        </is>
+      </c>
+      <c r="J359" t="n">
+        <v>1045000</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>https://avrora-motors.ru/catalog/volkswagen/jetta</t>
+        </is>
+      </c>
+      <c r="R359" t="n">
+        <v>1065000</v>
+      </c>
+      <c r="S359" t="inlineStr">
+        <is>
+          <t>https://motors-ag.ru/catalog/volkswagen/jetta</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>651</t>
+          <t>649</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -17427,30 +17417,40 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>Passat Alltrack New</t>
+          <t>Passat</t>
         </is>
       </c>
       <c r="D360" t="n">
-        <v>4212400</v>
+        <v>2131740</v>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/volkswagen/passat-alltrack</t>
+          <t>https://avtolininiya-rb.ru/auto/volkswagen/passat/</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>2131740</t>
+        </is>
+      </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>https://avtolininiya-rb.ru/auto/volkswagen/passat/</t>
         </is>
       </c>
       <c r="H360" t="n">
-        <v>4212400</v>
+        <v>2278700</v>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/volkswagen/passat-alltrack</t>
+          <t>https://ufa.masmotors.ru/car/volkswagen/passat</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>651</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -17460,40 +17460,30 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>Polo</t>
+          <t>Passat Alltrack New</t>
         </is>
       </c>
       <c r="D361" t="n">
-        <v>672900</v>
+        <v>4212400</v>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>https://avtolininiya-rb.ru/auto/volkswagen/polo/</t>
-        </is>
-      </c>
-      <c r="F361" t="inlineStr">
-        <is>
-          <t>672900</t>
-        </is>
-      </c>
-      <c r="G361" t="inlineStr">
-        <is>
-          <t>https://avtolininiya-rb.ru/auto/volkswagen/polo/</t>
+          <t>https://ufa.masmotors.ru/car/volkswagen/passat-alltrack</t>
         </is>
       </c>
       <c r="H361" t="n">
-        <v>1306100</v>
+        <v>4212400</v>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/volkswagen/polo</t>
+          <t>https://ufa.masmotors.ru/car/volkswagen/passat-alltrack</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>648</t>
+          <t>652</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -17503,38 +17493,40 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>Polo New</t>
+          <t>Polo</t>
         </is>
       </c>
       <c r="D362" t="n">
-        <v>682900</v>
+        <v>672900</v>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>https://avrora-motors.ru/catalog/volkswagen/polo_new</t>
-        </is>
-      </c>
-      <c r="J362" t="n">
-        <v>682900</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/volkswagen/polo_new</t>
-        </is>
-      </c>
-      <c r="R362" t="n">
-        <v>702900</v>
-      </c>
-      <c r="S362" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/volkswagen/polo_new</t>
+          <t>https://avtolininiya-rb.ru/auto/volkswagen/polo/</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>672900</t>
+        </is>
+      </c>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>https://avtolininiya-rb.ru/auto/volkswagen/polo/</t>
+        </is>
+      </c>
+      <c r="H362" t="n">
+        <v>1306100</v>
+      </c>
+      <c r="I362" t="inlineStr">
+        <is>
+          <t>https://ufa.masmotors.ru/car/volkswagen/polo</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>648</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -17544,56 +17536,38 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>Taos</t>
+          <t>Polo New</t>
         </is>
       </c>
       <c r="D363" t="n">
-        <v>1295900</v>
+        <v>682900</v>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>https://avtolininiya-rb.ru/auto/volkswagen/taos/</t>
-        </is>
-      </c>
-      <c r="F363" t="inlineStr">
-        <is>
-          <t>1295900</t>
-        </is>
-      </c>
-      <c r="G363" t="inlineStr">
-        <is>
-          <t>https://avtolininiya-rb.ru/auto/volkswagen/taos/</t>
-        </is>
-      </c>
-      <c r="H363" t="n">
-        <v>2478100</v>
-      </c>
-      <c r="I363" t="inlineStr">
-        <is>
-          <t>https://ufa.masmotors.ru/car/volkswagen/taos</t>
+          <t>https://avrora-motors.ru/catalog/volkswagen/polo_new</t>
         </is>
       </c>
       <c r="J363" t="n">
-        <v>1305900</v>
+        <v>682900</v>
       </c>
       <c r="K363" t="inlineStr">
         <is>
-          <t>https://avrora-motors.ru/catalog/volkswagen/taos</t>
+          <t>https://avrora-motors.ru/catalog/volkswagen/polo_new</t>
         </is>
       </c>
       <c r="R363" t="n">
-        <v>1325900</v>
+        <v>702900</v>
       </c>
       <c r="S363" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/volkswagen/taos</t>
+          <t>https://motors-ag.ru/catalog/volkswagen/polo_new</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>655</t>
+          <t>653</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -17603,30 +17577,56 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>Teramont</t>
+          <t>Taos</t>
         </is>
       </c>
       <c r="D364" t="n">
-        <v>5697000</v>
+        <v>1295900</v>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/volkswagen/teramont</t>
+          <t>https://avtolininiya-rb.ru/auto/volkswagen/taos/</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>1295900</t>
+        </is>
+      </c>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>https://avtolininiya-rb.ru/auto/volkswagen/taos/</t>
         </is>
       </c>
       <c r="H364" t="n">
-        <v>5697000</v>
+        <v>2478100</v>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/volkswagen/teramont</t>
+          <t>https://ufa.masmotors.ru/car/volkswagen/taos</t>
+        </is>
+      </c>
+      <c r="J364" t="n">
+        <v>1305900</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>https://avrora-motors.ru/catalog/volkswagen/taos</t>
+        </is>
+      </c>
+      <c r="R364" t="n">
+        <v>1325900</v>
+      </c>
+      <c r="S364" t="inlineStr">
+        <is>
+          <t>https://motors-ag.ru/catalog/volkswagen/taos</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>657</t>
+          <t>655</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -17636,46 +17636,30 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>Tiguan</t>
+          <t>Teramont</t>
         </is>
       </c>
       <c r="D365" t="n">
-        <v>1489900</v>
+        <v>5697000</v>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>https://avrora-motors.ru/catalog/volkswagen/tiguan_new</t>
+          <t>https://ufa.masmotors.ru/car/volkswagen/teramont</t>
         </is>
       </c>
       <c r="H365" t="n">
-        <v>3008800</v>
+        <v>5697000</v>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/volkswagen/tiguan</t>
-        </is>
-      </c>
-      <c r="J365" t="n">
-        <v>1489900</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/volkswagen/tiguan_new</t>
-        </is>
-      </c>
-      <c r="R365" t="n">
-        <v>1509900</v>
-      </c>
-      <c r="S365" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/volkswagen/tiguan_new</t>
+          <t>https://ufa.masmotors.ru/car/volkswagen/teramont</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>657</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -17685,32 +17669,46 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>Tiguan New</t>
+          <t>Tiguan</t>
         </is>
       </c>
       <c r="D366" t="n">
-        <v>1479900</v>
+        <v>1489900</v>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>https://avtolininiya-rb.ru/auto/volkswagen/tiguan/</t>
-        </is>
-      </c>
-      <c r="F366" t="inlineStr">
-        <is>
-          <t>1479900</t>
-        </is>
-      </c>
-      <c r="G366" t="inlineStr">
-        <is>
-          <t>https://avtolininiya-rb.ru/auto/volkswagen/tiguan/</t>
+          <t>https://avrora-motors.ru/catalog/volkswagen/tiguan_new</t>
+        </is>
+      </c>
+      <c r="H366" t="n">
+        <v>3008800</v>
+      </c>
+      <c r="I366" t="inlineStr">
+        <is>
+          <t>https://ufa.masmotors.ru/car/volkswagen/tiguan</t>
+        </is>
+      </c>
+      <c r="J366" t="n">
+        <v>1489900</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>https://avrora-motors.ru/catalog/volkswagen/tiguan_new</t>
+        </is>
+      </c>
+      <c r="R366" t="n">
+        <v>1509900</v>
+      </c>
+      <c r="S366" t="inlineStr">
+        <is>
+          <t>https://motors-ag.ru/catalog/volkswagen/tiguan_new</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>659</t>
+          <t>658</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -17720,139 +17718,174 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>Touareg</t>
+          <t>Tiguan New</t>
         </is>
       </c>
       <c r="D367" t="n">
-        <v>8145100</v>
+        <v>1479900</v>
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/volkswagen/touareg</t>
-        </is>
-      </c>
-      <c r="H367" t="n">
-        <v>8145100</v>
-      </c>
-      <c r="I367" t="inlineStr">
-        <is>
-          <t>https://ufa.masmotors.ru/car/volkswagen/touareg</t>
+          <t>https://avtolininiya-rb.ru/auto/volkswagen/tiguan/</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>1479900</t>
+        </is>
+      </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>https://avtolininiya-rb.ru/auto/volkswagen/tiguan/</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>659</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Zotye</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>Coupa</t>
+          <t>Touareg</t>
         </is>
       </c>
       <c r="D368" t="n">
-        <v>960000</v>
+        <v>8145100</v>
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>https://avtolininiya-rb.ru/auto/zotye/coupa/</t>
-        </is>
-      </c>
-      <c r="F368" t="inlineStr">
-        <is>
-          <t>960000</t>
-        </is>
-      </c>
-      <c r="G368" t="inlineStr">
-        <is>
-          <t>https://avtolininiya-rb.ru/auto/zotye/coupa/</t>
+          <t>https://ufa.masmotors.ru/car/volkswagen/touareg</t>
         </is>
       </c>
       <c r="H368" t="n">
-        <v>1233900</v>
+        <v>8145100</v>
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/zotye/coupa</t>
-        </is>
-      </c>
-      <c r="J368" t="n">
-        <v>970000</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/zotye/coupa</t>
-        </is>
-      </c>
-      <c r="R368" t="n">
-        <v>990000</v>
-      </c>
-      <c r="S368" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/zotye/coupa</t>
+          <t>https://ufa.masmotors.ru/car/volkswagen/touareg</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
+          <t>672</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>Zotye</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>Coupa</t>
+        </is>
+      </c>
+      <c r="D369" t="n">
+        <v>960000</v>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>https://avtolininiya-rb.ru/auto/zotye/coupa/</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>960000</t>
+        </is>
+      </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>https://avtolininiya-rb.ru/auto/zotye/coupa/</t>
+        </is>
+      </c>
+      <c r="H369" t="n">
+        <v>1233900</v>
+      </c>
+      <c r="I369" t="inlineStr">
+        <is>
+          <t>https://ufa.masmotors.ru/car/zotye/coupa</t>
+        </is>
+      </c>
+      <c r="J369" t="n">
+        <v>970000</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>https://avrora-motors.ru/catalog/zotye/coupa</t>
+        </is>
+      </c>
+      <c r="R369" t="n">
+        <v>990000</v>
+      </c>
+      <c r="S369" t="inlineStr">
+        <is>
+          <t>https://motors-ag.ru/catalog/zotye/coupa</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
           <t>674</t>
         </is>
       </c>
-      <c r="B369" t="inlineStr">
+      <c r="B370" t="inlineStr">
         <is>
           <t>Zotye</t>
         </is>
       </c>
-      <c r="C369" t="inlineStr">
+      <c r="C370" t="inlineStr">
         <is>
           <t>T600</t>
         </is>
       </c>
-      <c r="D369" t="n">
+      <c r="D370" t="n">
         <v>727000</v>
       </c>
-      <c r="E369" t="inlineStr">
+      <c r="E370" t="inlineStr">
         <is>
           <t>https://avtolininiya-rb.ru/auto/zotye/t600/</t>
         </is>
       </c>
-      <c r="F369" t="inlineStr">
+      <c r="F370" t="inlineStr">
         <is>
           <t>727000</t>
         </is>
       </c>
-      <c r="G369" t="inlineStr">
+      <c r="G370" t="inlineStr">
         <is>
           <t>https://avtolininiya-rb.ru/auto/zotye/t600/</t>
         </is>
       </c>
-      <c r="H369" t="n">
+      <c r="H370" t="n">
         <v>958700</v>
       </c>
-      <c r="I369" t="inlineStr">
+      <c r="I370" t="inlineStr">
         <is>
           <t>https://ufa.masmotors.ru/car/zotye/t600</t>
         </is>
       </c>
-      <c r="J369" t="n">
+      <c r="J370" t="n">
         <v>737000</v>
       </c>
-      <c r="K369" t="inlineStr">
+      <c r="K370" t="inlineStr">
         <is>
           <t>https://avrora-motors.ru/catalog/zotye/t600</t>
         </is>
       </c>
-      <c r="R369" t="n">
+      <c r="R370" t="n">
         <v>757000</v>
       </c>
-      <c r="S369" t="inlineStr">
+      <c r="S370" t="inlineStr">
         <is>
           <t>https://motors-ag.ru/catalog/zotye/t600</t>
         </is>

--- a/xlsx/ufa.xlsx
+++ b/xlsx/ufa.xlsx
@@ -1879,7 +1879,7 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2775000</v>
+        <v>2925000</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -2111,11 +2111,11 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>2009000</v>
+        <v>2041000</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/chery/arrizo8/sedan/price/</t>
+          <t>https://motors-ag.ru/catalog/chery/arrizo_8</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2145,7 +2145,7 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2009000</v>
+        <v>2241500</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>1918000</v>
+        <v>1955000</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1953000</v>
+        <v>1970000</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>1953000</v>
+        <v>1970000</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2749000</v>
+        <v>2926000</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>3643200</v>
+        <v>3543200</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
@@ -10175,7 +10175,7 @@
         </is>
       </c>
       <c r="L200" t="n">
-        <v>1435000</v>
+        <v>1475000</v>
       </c>
       <c r="M200" t="inlineStr">
         <is>
@@ -10417,7 +10417,7 @@
         </is>
       </c>
       <c r="L204" t="n">
-        <v>992000</v>
+        <v>1032000</v>
       </c>
       <c r="M204" t="inlineStr">
         <is>
@@ -10492,7 +10492,7 @@
         </is>
       </c>
       <c r="L205" t="n">
-        <v>689900</v>
+        <v>786000</v>
       </c>
       <c r="M205" t="inlineStr">
         <is>
@@ -11234,7 +11234,7 @@
         </is>
       </c>
       <c r="L221" t="n">
-        <v>931000</v>
+        <v>949000</v>
       </c>
       <c r="M221" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         </is>
       </c>
       <c r="L225" t="n">
-        <v>1085900</v>
+        <v>1085040</v>
       </c>
       <c r="M225" t="inlineStr">
         <is>
@@ -11988,7 +11988,7 @@
         </is>
       </c>
       <c r="L235" t="n">
-        <v>1363900</v>
+        <v>1426420</v>
       </c>
       <c r="M235" t="inlineStr">
         <is>
@@ -16193,7 +16193,7 @@
         </is>
       </c>
       <c r="D328" t="n">
-        <v>2101000</v>
+        <v>2293000</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
@@ -16201,7 +16201,7 @@
         </is>
       </c>
       <c r="L328" t="n">
-        <v>2101000</v>
+        <v>2293000</v>
       </c>
       <c r="M328" t="inlineStr">
         <is>
@@ -16259,7 +16259,7 @@
         </is>
       </c>
       <c r="D330" t="n">
-        <v>2559000</v>
+        <v>2609000</v>
       </c>
       <c r="E330" t="inlineStr">
         <is>
@@ -16267,7 +16267,7 @@
         </is>
       </c>
       <c r="L330" t="n">
-        <v>2559000</v>
+        <v>2609000</v>
       </c>
       <c r="M330" t="inlineStr">
         <is>
@@ -16325,7 +16325,7 @@
         </is>
       </c>
       <c r="D332" t="n">
-        <v>2559000</v>
+        <v>2659000</v>
       </c>
       <c r="E332" t="inlineStr">
         <is>
@@ -16333,7 +16333,7 @@
         </is>
       </c>
       <c r="L332" t="n">
-        <v>2559000</v>
+        <v>2659000</v>
       </c>
       <c r="M332" t="inlineStr">
         <is>
@@ -16358,7 +16358,7 @@
         </is>
       </c>
       <c r="D333" t="n">
-        <v>1750000</v>
+        <v>1900000</v>
       </c>
       <c r="E333" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         </is>
       </c>
       <c r="L333" t="n">
-        <v>1750000</v>
+        <v>1900000</v>
       </c>
       <c r="M333" t="inlineStr">
         <is>

--- a/xlsx/ufa.xlsx
+++ b/xlsx/ufa.xlsx
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1700990</v>
+        <v>1605990</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -888,7 +888,7 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>1700990</v>
+        <v>1605990</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2054990</v>
+        <v>1854990</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>2054990</v>
+        <v>1854990</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>5019900</v>
+        <v>4579900</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2926000</v>
+        <v>3270000</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -3076,40 +3076,58 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>677</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Chery</t>
+          <t>Chevrolet</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Tiggo 8 Pro e+ Hybrid</t>
+          <t>Cobalt</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>3300000</v>
+        <v>599900</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/chery/tiggo8proeplus/suv/price/</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>3300000</v>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>https://ufa.autospot.ru/brands/chery/tiggo8proeplus/suv/price/</t>
+          <t>https://motors-ag.ru/catalog/chevrolet/cobalt</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>604900</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>https://avtolininiya-rb.ru/auto/chevrolet/cobalt/</t>
+        </is>
+      </c>
+      <c r="J47" t="n">
+        <v>599900</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>https://avrora-motors.ru/catalog/chevrolet/cobalt</t>
+        </is>
+      </c>
+      <c r="R47" t="n">
+        <v>599900</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>https://motors-ag.ru/catalog/chevrolet/cobalt</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3119,48 +3137,48 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Cobalt</t>
+          <t>Nexia</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>599900</v>
+        <v>559900</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/chevrolet/cobalt</t>
+          <t>https://motors-ag.ru/catalog/chevrolet/nexia</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>604900</t>
+          <t>564900</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>https://avtolininiya-rb.ru/auto/chevrolet/cobalt/</t>
+          <t>https://avtolininiya-rb.ru/auto/chevrolet/nexia/</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>599900</v>
+        <v>559900</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>https://avrora-motors.ru/catalog/chevrolet/cobalt</t>
+          <t>https://avrora-motors.ru/catalog/chevrolet/nexia</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>599900</v>
+        <v>559900</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/chevrolet/cobalt</t>
+          <t>https://motors-ag.ru/catalog/chevrolet/nexia</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3170,99 +3188,89 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Nexia</t>
+          <t>Spark</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>559900</v>
+        <v>579900</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/chevrolet/nexia</t>
+          <t>https://motors-ag.ru/catalog/chevrolet/spark</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>564900</t>
+          <t>584900</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>https://avtolininiya-rb.ru/auto/chevrolet/nexia/</t>
+          <t>https://avtolininiya-rb.ru/auto/chevrolet/spark/</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>559900</v>
+        <v>579900</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>https://avrora-motors.ru/catalog/chevrolet/nexia</t>
+          <t>https://avrora-motors.ru/catalog/chevrolet/spark</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>559900</v>
+        <v>579900</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/chevrolet/nexia</t>
+          <t>https://motors-ag.ru/catalog/chevrolet/spark</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Chevrolet</t>
+          <t>DFM</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Spark</t>
+          <t>580</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>579900</v>
+        <v>2220000</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/chevrolet/spark</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>584900</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>https://avtolininiya-rb.ru/auto/chevrolet/spark/</t>
+          <t>https://avrora-motors.ru/catalog/dfm/580</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>579900</v>
+        <v>2220000</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>https://avrora-motors.ru/catalog/chevrolet/spark</t>
+          <t>https://avrora-motors.ru/catalog/dfm/580</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>579900</v>
+        <v>2240000</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/chevrolet/spark</t>
+          <t>https://motors-ag.ru/catalog/dfm/580</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3272,112 +3280,120 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>AX7</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2220000</v>
+        <v>471600</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://avrora-motors.ru/catalog/dfm/580</t>
+          <t>https://avrora-motors.ru/catalog/dfm/dfm_ax7</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>2220000</v>
+        <v>471600</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>https://avrora-motors.ru/catalog/dfm/580</t>
+          <t>https://avrora-motors.ru/catalog/dfm/dfm_ax7</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>2240000</v>
+        <v>491600</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/dfm/580</t>
+          <t>https://motors-ag.ru/catalog/dfm/dfm_ax7</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>DFM</t>
+          <t>DWHover</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>AX7</t>
+          <t>H3</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>471600</v>
+        <v>899250</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://avrora-motors.ru/catalog/dfm/dfm_ax7</t>
-        </is>
-      </c>
-      <c r="J52" t="n">
-        <v>471600</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/dfm/dfm_ax7</t>
-        </is>
-      </c>
-      <c r="R52" t="n">
-        <v>491600</v>
-      </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/dfm/dfm_ax7</t>
+          <t>https://autofort-ufa.ru/avto-new/dw_hower/h3/</t>
+        </is>
+      </c>
+      <c r="P52" t="n">
+        <v>899250</v>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>https://autofort-ufa.ru/avto-new/dw_hower/h3/</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>DWHover</t>
+          <t>Datsun</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>H3</t>
+          <t>MI-DO</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>899250</v>
+        <v>324000</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/dw_hower/h3/</t>
-        </is>
-      </c>
-      <c r="P53" t="n">
-        <v>899250</v>
-      </c>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>https://autofort-ufa.ru/avto-new/dw_hower/h3/</t>
+          <t>https://avrora-motors.ru/catalog/datsun/mi_do</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>578300</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://ufa.masmotors.ru/car/datsun/mi-do</t>
+        </is>
+      </c>
+      <c r="J53" t="n">
+        <v>324000</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>https://avrora-motors.ru/catalog/datsun/mi_do</t>
+        </is>
+      </c>
+      <c r="R53" t="n">
+        <v>344000</v>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>https://motors-ag.ru/catalog/datsun/mi_do</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3387,95 +3403,79 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>MI-DO</t>
+          <t>ON-DO</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>324000</v>
+        <v>224000</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://avrora-motors.ru/catalog/datsun/mi_do</t>
+          <t>https://avrora-motors.ru/catalog/datsun/on_do</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>578300</v>
+        <v>549400</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/datsun/mi-do</t>
+          <t>https://ufa.masmotors.ru/car/datsun/on-do</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>324000</v>
+        <v>224000</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>https://avrora-motors.ru/catalog/datsun/mi_do</t>
+          <t>https://avrora-motors.ru/catalog/datsun/on_do</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>344000</v>
+        <v>244000</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/datsun/mi_do</t>
+          <t>https://motors-ag.ru/catalog/datsun/on_do</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Datsun</t>
+          <t>Dongfeng</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>ON-DO</t>
+          <t>580</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>224000</v>
+        <v>1605000</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://avrora-motors.ru/catalog/datsun/on_do</t>
+          <t>https://ufa.masmotors.ru/car/dongfeng/580</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>549400</v>
+        <v>1605000</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/datsun/on-do</t>
-        </is>
-      </c>
-      <c r="J55" t="n">
-        <v>224000</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/datsun/on_do</t>
-        </is>
-      </c>
-      <c r="R55" t="n">
-        <v>244000</v>
-      </c>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/datsun/on_do</t>
+          <t>https://ufa.masmotors.ru/car/dongfeng/580</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3485,30 +3485,30 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>580 New</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>1605000</v>
+        <v>1446750</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/dongfeng/580</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>1605000</v>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>https://ufa.masmotors.ru/car/dongfeng/580</t>
+          <t>https://autofort-ufa.ru/avto-new/dongfeng/580_new/</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>1446750</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>https://autofort-ufa.ru/avto-new/dongfeng/580_new/</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3518,30 +3518,38 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>580 New</t>
+          <t>AX7</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1446750</v>
+        <v>771675</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/dongfeng/580_new/</t>
+          <t>https://autofort-ufa.ru/avto-new/dongfeng/ax7/</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1284000</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://ufa.masmotors.ru/car/dongfeng/ax7</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>1446750</v>
+        <v>771675</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/dongfeng/580_new/</t>
+          <t>https://autofort-ufa.ru/avto-new/dongfeng/ax7/</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>711</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3551,38 +3559,30 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>AX7</t>
+          <t>Aeolus Shine Max</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>771675</v>
+        <v>1650000</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/dongfeng/ax7/</t>
+          <t>https://ufa.masmotors.ru/car/dongfeng/aeolus-shine-max</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>1284000</v>
+        <v>1650000</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/dongfeng/ax7</t>
-        </is>
-      </c>
-      <c r="P58" t="n">
-        <v>771675</v>
-      </c>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>https://autofort-ufa.ru/avto-new/dongfeng/ax7/</t>
+          <t>https://ufa.masmotors.ru/car/dongfeng/aeolus-shine-max</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>711</t>
+          <t>750</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3592,23 +3592,23 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Aeolus Shine Max</t>
+          <t>DFSK 500</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1650000</v>
+        <v>1649250</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/dongfeng/aeolus-shine-max</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>1650000</v>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>https://ufa.masmotors.ru/car/dongfeng/aeolus-shine-max</t>
+          <t>https://autofort-ufa.ru/avto-new/dongfeng/DFSK%20500/</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>1649250</v>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>https://autofort-ufa.ru/avto-new/dongfeng/DFSK%20500/</t>
         </is>
       </c>
     </row>
@@ -3803,7 +3803,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>2190590</v>
+        <v>2169590</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2190590</v>
+        <v>2169590</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>3543200</v>
+        <v>3527713</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>2594990</v>
+        <v>2494990</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>2033990</v>
+        <v>1983990</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>1569990</v>
+        <v>1519990</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
@@ -5935,11 +5935,11 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>3149993</v>
+        <v>3144990</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://avtolininiya-rb.ru/auto/geely/monjaro/</t>
+          <t>https://ufa.autospot.ru/brands/geely/monjaro/suv/price/</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -5969,7 +5969,7 @@
         </is>
       </c>
       <c r="L108" t="n">
-        <v>3194990</v>
+        <v>3144990</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
@@ -6010,7 +6010,7 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>3400000</v>
+        <v>3450000</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         </is>
       </c>
       <c r="L109" t="n">
-        <v>3400000</v>
+        <v>3450000</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
@@ -6043,11 +6043,11 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>2587493</v>
+        <v>2579990</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/geely/okavango/</t>
+          <t>https://ufa.autospot.ru/brands/geely/okavango_i/suv/price/</t>
         </is>
       </c>
       <c r="H110" t="n">
@@ -6059,7 +6059,7 @@
         </is>
       </c>
       <c r="L110" t="n">
-        <v>2679990</v>
+        <v>2579990</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
@@ -6135,7 +6135,7 @@
         </is>
       </c>
       <c r="L112" t="n">
-        <v>2449990</v>
+        <v>2519990</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
@@ -6365,14 +6365,6 @@
           <t>https://avrora-motors.ru/catalog/great-wall/poer</t>
         </is>
       </c>
-      <c r="L117" t="n">
-        <v>2828300</v>
-      </c>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>https://ufa.autospot.ru/brands/greatwall/poer/pickup/price/</t>
-        </is>
-      </c>
       <c r="R117" t="n">
         <v>2749000</v>
       </c>
@@ -6415,7 +6407,7 @@
         </is>
       </c>
       <c r="L118" t="n">
-        <v>2694150</v>
+        <v>2867626</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
@@ -6523,7 +6515,7 @@
         </is>
       </c>
       <c r="L120" t="n">
-        <v>2249250</v>
+        <v>2459457</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
@@ -6655,7 +6647,7 @@
         </is>
       </c>
       <c r="L122" t="n">
-        <v>1949250</v>
+        <v>2799000</v>
       </c>
       <c r="M122" t="inlineStr">
         <is>
@@ -6830,7 +6822,7 @@
         </is>
       </c>
       <c r="L125" t="n">
-        <v>2234250</v>
+        <v>2078307</v>
       </c>
       <c r="M125" t="inlineStr">
         <is>
@@ -7186,7 +7178,7 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>4499000</v>
+        <v>4999000</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -7194,7 +7186,7 @@
         </is>
       </c>
       <c r="L133" t="n">
-        <v>4499000</v>
+        <v>4999000</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
@@ -7253,7 +7245,7 @@
         </is>
       </c>
       <c r="L134" t="n">
-        <v>1769250</v>
+        <v>1634787</v>
       </c>
       <c r="M134" t="inlineStr">
         <is>
@@ -7320,7 +7312,7 @@
         </is>
       </c>
       <c r="L135" t="n">
-        <v>1724250</v>
+        <v>1593207</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
@@ -7353,11 +7345,11 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1634250</v>
+        <v>1593207</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/haval/haval_m6/</t>
+          <t>https://ufa.autospot.ru/brands/haval/m6/suv/price/</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -7379,7 +7371,7 @@
         </is>
       </c>
       <c r="L136" t="n">
-        <v>1634250</v>
+        <v>1593207</v>
       </c>
       <c r="M136" t="inlineStr">
         <is>
@@ -7505,7 +7497,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>715</t>
+          <t>716</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -7515,30 +7507,30 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>E-HS9</t>
+          <t>H5</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>10190000</v>
+        <v>3590000</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/hongqi/ehs9/suv/price/</t>
+          <t>https://ufa.autospot.ru/brands/hongqi/h5/sedan/price/</t>
         </is>
       </c>
       <c r="L140" t="n">
-        <v>10190000</v>
+        <v>3590000</v>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/hongqi/ehs9/suv/price/</t>
+          <t>https://ufa.autospot.ru/brands/hongqi/h5/sedan/price/</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>716</t>
+          <t>717</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -7548,30 +7540,30 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>H5</t>
+          <t>H9</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>3590000</v>
+        <v>6450000</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/hongqi/h5/sedan/price/</t>
+          <t>https://ufa.autospot.ru/brands/hongqi/h9/sedan/price/</t>
         </is>
       </c>
       <c r="L141" t="n">
-        <v>3590000</v>
+        <v>6450000</v>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/hongqi/h5/sedan/price/</t>
+          <t>https://ufa.autospot.ru/brands/hongqi/h9/sedan/price/</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>717</t>
+          <t>718</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -7581,30 +7573,30 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>H9</t>
+          <t>HQ9</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>6450000</v>
+        <v>7440000</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/hongqi/h9/sedan/price/</t>
+          <t>https://ufa.autospot.ru/brands/hongqi/hq9/minivan/price/</t>
         </is>
       </c>
       <c r="L142" t="n">
-        <v>6450000</v>
+        <v>7440000</v>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/hongqi/h9/sedan/price/</t>
+          <t>https://ufa.autospot.ru/brands/hongqi/hq9/minivan/price/</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>718</t>
+          <t>749</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -7614,23 +7606,23 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>HQ9</t>
+          <t>HS3</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>7440000</v>
+        <v>3290000</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/hongqi/hq9/minivan/price/</t>
+          <t>https://ufa.autospot.ru/brands/hongqi/hs3/suv/price/</t>
         </is>
       </c>
       <c r="L143" t="n">
-        <v>7440000</v>
+        <v>3290000</v>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/hongqi/hq9/minivan/price/</t>
+          <t>https://ufa.autospot.ru/brands/hongqi/hs3/suv/price/</t>
         </is>
       </c>
     </row>
@@ -8975,7 +8967,7 @@
         </is>
       </c>
       <c r="L174" t="n">
-        <v>2449900</v>
+        <v>2349900</v>
       </c>
       <c r="M174" t="inlineStr">
         <is>
@@ -9090,14 +9082,6 @@
           <t>https://avrora-motors.ru/catalog/jetour/dashing</t>
         </is>
       </c>
-      <c r="L176" t="n">
-        <v>1869900</v>
-      </c>
-      <c r="M176" t="inlineStr">
-        <is>
-          <t>https://ufa.autospot.ru/brands/jetour/dashing/suv/price/</t>
-        </is>
-      </c>
       <c r="P176" t="n">
         <v>1754925</v>
       </c>
@@ -9131,6 +9115,16 @@
           <t>https://autofort-ufa.ru/avto-new/jetour/t2/</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>2744250</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>https://avtolininiya-rb.ru/auto/jetour/t2/</t>
+        </is>
+      </c>
       <c r="H177" t="n">
         <v>3073100</v>
       </c>
@@ -10242,7 +10236,7 @@
         </is>
       </c>
       <c r="L201" t="n">
-        <v>980000</v>
+        <v>877500</v>
       </c>
       <c r="M201" t="inlineStr">
         <is>
@@ -10492,7 +10486,7 @@
         </is>
       </c>
       <c r="L205" t="n">
-        <v>786000</v>
+        <v>524925</v>
       </c>
       <c r="M205" t="inlineStr">
         <is>
@@ -10872,7 +10866,7 @@
         </is>
       </c>
       <c r="L213" t="n">
-        <v>1495000</v>
+        <v>1301250</v>
       </c>
       <c r="M213" t="inlineStr">
         <is>
@@ -11234,7 +11228,7 @@
         </is>
       </c>
       <c r="L221" t="n">
-        <v>949000</v>
+        <v>764250</v>
       </c>
       <c r="M221" t="inlineStr">
         <is>
@@ -11460,7 +11454,7 @@
         </is>
       </c>
       <c r="L225" t="n">
-        <v>1085040</v>
+        <v>946080</v>
       </c>
       <c r="M225" t="inlineStr">
         <is>
@@ -11609,7 +11603,7 @@
         </is>
       </c>
       <c r="L228" t="n">
-        <v>1289900</v>
+        <v>1359900</v>
       </c>
       <c r="M228" t="inlineStr">
         <is>
@@ -11929,7 +11923,7 @@
         </is>
       </c>
       <c r="L234" t="n">
-        <v>2384000</v>
+        <v>2352900</v>
       </c>
       <c r="M234" t="inlineStr">
         <is>
@@ -11988,7 +11982,7 @@
         </is>
       </c>
       <c r="L235" t="n">
-        <v>1426420</v>
+        <v>1503900</v>
       </c>
       <c r="M235" t="inlineStr">
         <is>
@@ -12415,7 +12409,7 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>1433100</v>
+        <v>1392100</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
@@ -12423,7 +12417,7 @@
         </is>
       </c>
       <c r="L244" t="n">
-        <v>1433100</v>
+        <v>1392100</v>
       </c>
       <c r="M244" t="inlineStr">
         <is>
@@ -12993,7 +12987,7 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>1289925</v>
+        <v>1254000</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
@@ -16160,7 +16154,7 @@
         </is>
       </c>
       <c r="D327" t="n">
-        <v>2320000</v>
+        <v>2442000</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
@@ -16168,7 +16162,7 @@
         </is>
       </c>
       <c r="L327" t="n">
-        <v>2320000</v>
+        <v>2442000</v>
       </c>
       <c r="M327" t="inlineStr">
         <is>
@@ -16226,7 +16220,7 @@
         </is>
       </c>
       <c r="D329" t="n">
-        <v>2034000</v>
+        <v>2214000</v>
       </c>
       <c r="E329" t="inlineStr">
         <is>
@@ -16234,7 +16228,7 @@
         </is>
       </c>
       <c r="L329" t="n">
-        <v>2034000</v>
+        <v>2214000</v>
       </c>
       <c r="M329" t="inlineStr">
         <is>
@@ -16358,7 +16352,7 @@
         </is>
       </c>
       <c r="D333" t="n">
-        <v>1900000</v>
+        <v>1925000</v>
       </c>
       <c r="E333" t="inlineStr">
         <is>
@@ -16366,7 +16360,7 @@
         </is>
       </c>
       <c r="L333" t="n">
-        <v>1900000</v>
+        <v>1925000</v>
       </c>
       <c r="M333" t="inlineStr">
         <is>
@@ -16937,7 +16931,7 @@
         </is>
       </c>
       <c r="D348" t="n">
-        <v>4449000</v>
+        <v>4499000</v>
       </c>
       <c r="E348" t="inlineStr">
         <is>
@@ -16945,7 +16939,7 @@
         </is>
       </c>
       <c r="L348" t="n">
-        <v>4449000</v>
+        <v>4499000</v>
       </c>
       <c r="M348" t="inlineStr">
         <is>
@@ -17026,14 +17020,6 @@
       <c r="I350" t="inlineStr">
         <is>
           <t>https://ufa.masmotors.ru/car/uaz/hunter</t>
-        </is>
-      </c>
-      <c r="L350" t="n">
-        <v>1224000</v>
-      </c>
-      <c r="M350" t="inlineStr">
-        <is>
-          <t>https://ufa.autospot.ru/brands/uaz/hunter/suv/price/</t>
         </is>
       </c>
       <c r="P350" t="n">

--- a/xlsx/ufa.xlsx
+++ b/xlsx/ufa.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U371"/>
+  <dimension ref="A1:U381"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1605990</v>
+        <v>1643990</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -888,7 +888,7 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>1605990</v>
+        <v>1643990</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1854990</v>
+        <v>1892990</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>1854990</v>
+        <v>1892990</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1995,7 +1995,7 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1980000</v>
+        <v>2080000</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="L118" t="n">
-        <v>2867626</v>
+        <v>2694150</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         </is>
       </c>
       <c r="L121" t="n">
-        <v>2949000</v>
+        <v>2815510</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="L123" t="n">
-        <v>2699000</v>
+        <v>2470010</v>
       </c>
       <c r="M123" t="inlineStr">
         <is>
@@ -6847,7 +6847,7 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>3189000</v>
+        <v>3051110</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         </is>
       </c>
       <c r="L126" t="n">
-        <v>3189000</v>
+        <v>3051110</v>
       </c>
       <c r="M126" t="inlineStr">
         <is>
@@ -7036,6 +7036,14 @@
           <t>https://avrora-motors.ru/catalog/haval/h5</t>
         </is>
       </c>
+      <c r="L130" t="n">
+        <v>3699000</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>https://ufa.autospot.ru/brands/haval/h5_ii/suv/price/</t>
+        </is>
+      </c>
       <c r="P130" t="n">
         <v>2774250</v>
       </c>
@@ -7178,7 +7186,7 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>4999000</v>
+        <v>4299000</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -7186,7 +7194,7 @@
         </is>
       </c>
       <c r="L133" t="n">
-        <v>4999000</v>
+        <v>4299000</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
@@ -7312,7 +7320,7 @@
         </is>
       </c>
       <c r="L135" t="n">
-        <v>1593207</v>
+        <v>1579010</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
@@ -11713,7 +11721,7 @@
         </is>
       </c>
       <c r="L230" t="n">
-        <v>1525000</v>
+        <v>1635000</v>
       </c>
       <c r="M230" t="inlineStr">
         <is>
@@ -16286,7 +16294,7 @@
         </is>
       </c>
       <c r="D331" t="n">
-        <v>4159000</v>
+        <v>4430000</v>
       </c>
       <c r="E331" t="inlineStr">
         <is>
@@ -16294,7 +16302,7 @@
         </is>
       </c>
       <c r="L331" t="n">
-        <v>4159000</v>
+        <v>4430000</v>
       </c>
       <c r="M331" t="inlineStr">
         <is>
@@ -16352,7 +16360,7 @@
         </is>
       </c>
       <c r="D333" t="n">
-        <v>1925000</v>
+        <v>1825000</v>
       </c>
       <c r="E333" t="inlineStr">
         <is>
@@ -16360,7 +16368,7 @@
         </is>
       </c>
       <c r="L333" t="n">
-        <v>1925000</v>
+        <v>1825000</v>
       </c>
       <c r="M333" t="inlineStr">
         <is>
@@ -16592,11 +16600,11 @@
         </is>
       </c>
       <c r="N339" t="n">
-        <v>3649000</v>
+        <v>3699000</v>
       </c>
       <c r="O339" t="inlineStr">
         <is>
-          <t>https://alfa-tank.ru/models/tank-300</t>
+          <t>https://alfa-tank.ru/test-drive</t>
         </is>
       </c>
       <c r="R339" t="n">
@@ -16667,11 +16675,11 @@
         </is>
       </c>
       <c r="N340" t="n">
-        <v>5599000</v>
+        <v>5649000</v>
       </c>
       <c r="O340" t="inlineStr">
         <is>
-          <t>https://alfa-tank.ru/models/tank-500</t>
+          <t>https://alfa-tank.ru/test-drive</t>
         </is>
       </c>
       <c r="R340" t="n">
@@ -16752,7 +16760,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>618</t>
+          <t>625</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -16762,30 +16770,30 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>Fortuner</t>
+          <t>Highlander</t>
         </is>
       </c>
       <c r="D343" t="n">
-        <v>7469000</v>
+        <v>6899000</v>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/toyota/fortuner_ii_pi/suv/parallel-price/</t>
+          <t>https://ufa.autospot.ru/brands/toyota/highlander_iv_pi/suv/parallel-price/</t>
         </is>
       </c>
       <c r="L343" t="n">
-        <v>7469000</v>
+        <v>6899000</v>
       </c>
       <c r="M343" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/toyota/fortuner_ii_pi/suv/parallel-price/</t>
+          <t>https://ufa.autospot.ru/brands/toyota/highlander_iv_pi/suv/parallel-price/</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>627</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -16795,30 +16803,30 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>Highlander</t>
+          <t>Hilux</t>
         </is>
       </c>
       <c r="D344" t="n">
-        <v>6899000</v>
+        <v>7299000</v>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/toyota/highlander_iv_pi/suv/parallel-price/</t>
+          <t>https://ufa.autospot.ru/brands/toyota/hilux_viii_pi/pickup/parallel-price/</t>
         </is>
       </c>
       <c r="L344" t="n">
-        <v>6899000</v>
+        <v>7299000</v>
       </c>
       <c r="M344" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/toyota/highlander_iv_pi/suv/parallel-price/</t>
+          <t>https://ufa.autospot.ru/brands/toyota/hilux_viii_pi/pickup/parallel-price/</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>627</t>
+          <t>629</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -16828,30 +16836,30 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>Hilux</t>
+          <t>Land Cruiser 300</t>
         </is>
       </c>
       <c r="D345" t="n">
-        <v>7299000</v>
+        <v>14795000</v>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/toyota/hilux_viii_pi/pickup/parallel-price/</t>
+          <t>https://ufa.autospot.ru/brands/toyota/lc300_pi/suv/parallel-price/</t>
         </is>
       </c>
       <c r="L345" t="n">
-        <v>7299000</v>
+        <v>14795000</v>
       </c>
       <c r="M345" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/toyota/hilux_viii_pi/pickup/parallel-price/</t>
+          <t>https://ufa.autospot.ru/brands/toyota/lc300_pi/suv/parallel-price/</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>629</t>
+          <t>630</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -16861,30 +16869,30 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>Land Cruiser 300</t>
+          <t>Land Cruiser Prado</t>
         </is>
       </c>
       <c r="D346" t="n">
-        <v>14400000</v>
+        <v>10499000</v>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/toyota/lc300_pi/suv/parallel-price/</t>
+          <t>https://ufa.autospot.ru/brands/toyota/lc150_iii_pi/suv/parallel-price/</t>
         </is>
       </c>
       <c r="L346" t="n">
-        <v>14400000</v>
+        <v>10499000</v>
       </c>
       <c r="M346" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/toyota/lc300_pi/suv/parallel-price/</t>
+          <t>https://ufa.autospot.ru/brands/toyota/lc150_iii_pi/suv/parallel-price/</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>630</t>
+          <t>620</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -16894,63 +16902,63 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>Land Cruiser Prado</t>
+          <t>RAV4</t>
         </is>
       </c>
       <c r="D347" t="n">
-        <v>10500000</v>
+        <v>4499000</v>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/toyota/lc150_iii_pi/suv/parallel-price/</t>
+          <t>https://ufa.autospot.ru/brands/toyota/rav4_v_pi/suv/parallel-price/</t>
         </is>
       </c>
       <c r="L347" t="n">
-        <v>10500000</v>
+        <v>4499000</v>
       </c>
       <c r="M347" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/toyota/lc150_iii_pi/suv/parallel-price/</t>
+          <t>https://ufa.autospot.ru/brands/toyota/rav4_v_pi/suv/parallel-price/</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>620</t>
+          <t>694</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>RAV4</t>
+          <t>3909</t>
         </is>
       </c>
       <c r="D348" t="n">
-        <v>4499000</v>
+        <v>979000</v>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/toyota/rav4_v_pi/suv/parallel-price/</t>
+          <t>https://ufa.autospot.ru/brands/uaz/3909/van/price/</t>
         </is>
       </c>
       <c r="L348" t="n">
-        <v>4499000</v>
+        <v>979000</v>
       </c>
       <c r="M348" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/toyota/rav4_v_pi/suv/parallel-price/</t>
+          <t>https://ufa.autospot.ru/brands/uaz/3909/van/price/</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>694</t>
+          <t>633</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -16960,30 +16968,48 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>3909</t>
+          <t>Hunter</t>
         </is>
       </c>
       <c r="D349" t="n">
-        <v>979000</v>
+        <v>837000</v>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/uaz/3909/van/price/</t>
-        </is>
-      </c>
-      <c r="L349" t="n">
-        <v>979000</v>
-      </c>
-      <c r="M349" t="inlineStr">
-        <is>
-          <t>https://ufa.autospot.ru/brands/uaz/3909/van/price/</t>
+          <t>https://avtolininiya-rb.ru/auto/uaz/hunter/</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>837000</t>
+        </is>
+      </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>https://avtolininiya-rb.ru/auto/uaz/hunter/</t>
+        </is>
+      </c>
+      <c r="H349" t="n">
+        <v>994700</v>
+      </c>
+      <c r="I349" t="inlineStr">
+        <is>
+          <t>https://ufa.masmotors.ru/car/uaz/hunter</t>
+        </is>
+      </c>
+      <c r="P349" t="n">
+        <v>1046250</v>
+      </c>
+      <c r="Q349" t="inlineStr">
+        <is>
+          <t>https://autofort-ufa.ru/avto-new/uaz/hunter/</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>634</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -16993,48 +17019,56 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>Hunter</t>
+          <t>Patriot</t>
         </is>
       </c>
       <c r="D350" t="n">
-        <v>837000</v>
+        <v>927000</v>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>https://avtolininiya-rb.ru/auto/uaz/hunter/</t>
+          <t>https://avtolininiya-rb.ru/auto/uaz/patriot/</t>
         </is>
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t>837000</t>
+          <t>927000</t>
         </is>
       </c>
       <c r="G350" t="inlineStr">
         <is>
-          <t>https://avtolininiya-rb.ru/auto/uaz/hunter/</t>
+          <t>https://avtolininiya-rb.ru/auto/uaz/patriot/</t>
         </is>
       </c>
       <c r="H350" t="n">
-        <v>994700</v>
+        <v>1135200</v>
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/uaz/hunter</t>
+          <t>https://ufa.masmotors.ru/car/uaz/patriot</t>
+        </is>
+      </c>
+      <c r="L350" t="n">
+        <v>1851000</v>
+      </c>
+      <c r="M350" t="inlineStr">
+        <is>
+          <t>https://ufa.autospot.ru/brands/uaz/patriot/suv/price/</t>
         </is>
       </c>
       <c r="P350" t="n">
-        <v>1046250</v>
+        <v>1158750</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/uaz/hunter/</t>
+          <t>https://autofort-ufa.ru/avto-new/uaz/patriot_new/</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>636</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -17044,56 +17078,40 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>Patriot</t>
+          <t>Patriot Pickup</t>
         </is>
       </c>
       <c r="D351" t="n">
-        <v>927000</v>
+        <v>942000</v>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>https://avtolininiya-rb.ru/auto/uaz/patriot/</t>
+          <t>https://avtolininiya-rb.ru/auto/uaz/patriot_pickup/</t>
         </is>
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>927000</t>
+          <t>942000</t>
         </is>
       </c>
       <c r="G351" t="inlineStr">
         <is>
-          <t>https://avtolininiya-rb.ru/auto/uaz/patriot/</t>
+          <t>https://avtolininiya-rb.ru/auto/uaz/patriot_pickup/</t>
         </is>
       </c>
       <c r="H351" t="n">
-        <v>1135200</v>
+        <v>1158200</v>
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/uaz/patriot</t>
-        </is>
-      </c>
-      <c r="L351" t="n">
-        <v>1851000</v>
-      </c>
-      <c r="M351" t="inlineStr">
-        <is>
-          <t>https://ufa.autospot.ru/brands/uaz/patriot/suv/price/</t>
-        </is>
-      </c>
-      <c r="P351" t="n">
-        <v>1158750</v>
-      </c>
-      <c r="Q351" t="inlineStr">
-        <is>
-          <t>https://autofort-ufa.ru/avto-new/uaz/patriot_new/</t>
+          <t>https://ufa.masmotors.ru/car/uaz/patriot-pikap</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>636</t>
+          <t>734</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -17103,40 +17121,30 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>Patriot Pickup</t>
+          <t>Patriot АКПП</t>
         </is>
       </c>
       <c r="D352" t="n">
-        <v>942000</v>
+        <v>1451250</v>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>https://avtolininiya-rb.ru/auto/uaz/patriot_pickup/</t>
-        </is>
-      </c>
-      <c r="F352" t="inlineStr">
-        <is>
-          <t>942000</t>
-        </is>
-      </c>
-      <c r="G352" t="inlineStr">
-        <is>
-          <t>https://avtolininiya-rb.ru/auto/uaz/patriot_pickup/</t>
-        </is>
-      </c>
-      <c r="H352" t="n">
-        <v>1158200</v>
-      </c>
-      <c r="I352" t="inlineStr">
-        <is>
-          <t>https://ufa.masmotors.ru/car/uaz/patriot-pikap</t>
+          <t>https://autofort-ufa.ru/avto-new/uaz/patrion_at/</t>
+        </is>
+      </c>
+      <c r="P352" t="n">
+        <v>1451250</v>
+      </c>
+      <c r="Q352" t="inlineStr">
+        <is>
+          <t>https://autofort-ufa.ru/avto-new/uaz/patrion_at/</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>734</t>
+          <t>637</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -17146,104 +17154,104 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>Patriot АКПП</t>
+          <t>Pickup</t>
         </is>
       </c>
       <c r="D353" t="n">
-        <v>1451250</v>
+        <v>1626000</v>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/uaz/patrion_at/</t>
-        </is>
-      </c>
-      <c r="P353" t="n">
-        <v>1451250</v>
-      </c>
-      <c r="Q353" t="inlineStr">
-        <is>
-          <t>https://autofort-ufa.ru/avto-new/uaz/patrion_at/</t>
+          <t>https://ufa.autospot.ru/brands/uaz/pickup/pickup/price/</t>
+        </is>
+      </c>
+      <c r="L353" t="n">
+        <v>1626000</v>
+      </c>
+      <c r="M353" t="inlineStr">
+        <is>
+          <t>https://ufa.autospot.ru/brands/uaz/pickup/pickup/price/</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>637</t>
+          <t>665</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>VOYAH</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>Pickup</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D354" t="n">
-        <v>1626000</v>
+        <v>4790000</v>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/uaz/pickup/pickup/price/</t>
-        </is>
-      </c>
-      <c r="L354" t="n">
-        <v>1626000</v>
-      </c>
-      <c r="M354" t="inlineStr">
-        <is>
-          <t>https://ufa.autospot.ru/brands/uaz/pickup/pickup/price/</t>
+          <t>https://motors-ag.ru/catalog/voyah/free</t>
+        </is>
+      </c>
+      <c r="J354" t="n">
+        <v>4790000</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>https://avrora-motors.ru/catalog/voyah/free</t>
+        </is>
+      </c>
+      <c r="R354" t="n">
+        <v>4790000</v>
+      </c>
+      <c r="S354" t="inlineStr">
+        <is>
+          <t>https://motors-ag.ru/catalog/voyah/free</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>665</t>
+          <t>707</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>VOYAH</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Amarok</t>
         </is>
       </c>
       <c r="D355" t="n">
-        <v>4790000</v>
+        <v>2422300</v>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/voyah/free</t>
-        </is>
-      </c>
-      <c r="J355" t="n">
-        <v>4790000</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/voyah/free</t>
-        </is>
-      </c>
-      <c r="R355" t="n">
-        <v>4790000</v>
-      </c>
-      <c r="S355" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/voyah/free</t>
+          <t>https://ufa.masmotors.ru/car/volkswagen/amarok</t>
+        </is>
+      </c>
+      <c r="H355" t="n">
+        <v>2422300</v>
+      </c>
+      <c r="I355" t="inlineStr">
+        <is>
+          <t>https://ufa.masmotors.ru/car/volkswagen/amarok</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>707</t>
+          <t>639</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -17253,30 +17261,30 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>Amarok</t>
+          <t>Arteon</t>
         </is>
       </c>
       <c r="D356" t="n">
-        <v>2422300</v>
+        <v>2556500</v>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/volkswagen/amarok</t>
+          <t>https://ufa.masmotors.ru/car/volkswagen/arteon</t>
         </is>
       </c>
       <c r="H356" t="n">
-        <v>2422300</v>
+        <v>2556500</v>
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/volkswagen/amarok</t>
+          <t>https://ufa.masmotors.ru/car/volkswagen/arteon</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>639</t>
+          <t>642</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -17286,30 +17294,30 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>Arteon</t>
+          <t>Caddy</t>
         </is>
       </c>
       <c r="D357" t="n">
-        <v>2556500</v>
+        <v>2002800</v>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/volkswagen/arteon</t>
+          <t>https://ufa.masmotors.ru/car/volkswagen/caddy</t>
         </is>
       </c>
       <c r="H357" t="n">
-        <v>2556500</v>
+        <v>2002800</v>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/volkswagen/arteon</t>
+          <t>https://ufa.masmotors.ru/car/volkswagen/caddy</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>642</t>
+          <t>706</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -17319,30 +17327,30 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>Caddy</t>
+          <t>Golf</t>
         </is>
       </c>
       <c r="D358" t="n">
-        <v>2002800</v>
+        <v>3896900</v>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/volkswagen/caddy</t>
+          <t>https://ufa.masmotors.ru/car/volkswagen/golf</t>
         </is>
       </c>
       <c r="H358" t="n">
-        <v>2002800</v>
+        <v>3896900</v>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/volkswagen/caddy</t>
+          <t>https://ufa.masmotors.ru/car/volkswagen/golf</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>706</t>
+          <t>645</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -17352,30 +17360,56 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>Golf</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="D359" t="n">
-        <v>3896900</v>
+        <v>1030000</v>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/volkswagen/golf</t>
+          <t>https://motors-ag.ru/catalog/volkswagen/jetta</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>1035000</t>
+        </is>
+      </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>https://avtolininiya-rb.ru/auto/volkswagen/jetta/</t>
         </is>
       </c>
       <c r="H359" t="n">
-        <v>3896900</v>
+        <v>1508800</v>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/volkswagen/golf</t>
+          <t>https://ufa.masmotors.ru/car/volkswagen/jetta</t>
+        </is>
+      </c>
+      <c r="J359" t="n">
+        <v>1030000</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>https://avrora-motors.ru/catalog/volkswagen/jetta</t>
+        </is>
+      </c>
+      <c r="R359" t="n">
+        <v>1030000</v>
+      </c>
+      <c r="S359" t="inlineStr">
+        <is>
+          <t>https://motors-ag.ru/catalog/volkswagen/jetta</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>649</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -17385,56 +17419,40 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Passat</t>
         </is>
       </c>
       <c r="D360" t="n">
-        <v>1030000</v>
+        <v>2131740</v>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/volkswagen/jetta</t>
+          <t>https://avtolininiya-rb.ru/auto/volkswagen/passat/</t>
         </is>
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>1035000</t>
+          <t>2131740</t>
         </is>
       </c>
       <c r="G360" t="inlineStr">
         <is>
-          <t>https://avtolininiya-rb.ru/auto/volkswagen/jetta/</t>
+          <t>https://avtolininiya-rb.ru/auto/volkswagen/passat/</t>
         </is>
       </c>
       <c r="H360" t="n">
-        <v>1508800</v>
+        <v>2278700</v>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/volkswagen/jetta</t>
-        </is>
-      </c>
-      <c r="J360" t="n">
-        <v>1030000</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/volkswagen/jetta</t>
-        </is>
-      </c>
-      <c r="R360" t="n">
-        <v>1030000</v>
-      </c>
-      <c r="S360" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/volkswagen/jetta</t>
+          <t>https://ufa.masmotors.ru/car/volkswagen/passat</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>651</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -17444,40 +17462,30 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>Passat</t>
+          <t>Passat Alltrack New</t>
         </is>
       </c>
       <c r="D361" t="n">
-        <v>2131740</v>
+        <v>4212400</v>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>https://avtolininiya-rb.ru/auto/volkswagen/passat/</t>
-        </is>
-      </c>
-      <c r="F361" t="inlineStr">
-        <is>
-          <t>2131740</t>
-        </is>
-      </c>
-      <c r="G361" t="inlineStr">
-        <is>
-          <t>https://avtolininiya-rb.ru/auto/volkswagen/passat/</t>
+          <t>https://ufa.masmotors.ru/car/volkswagen/passat-alltrack</t>
         </is>
       </c>
       <c r="H361" t="n">
-        <v>2278700</v>
+        <v>4212400</v>
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/volkswagen/passat</t>
+          <t>https://ufa.masmotors.ru/car/volkswagen/passat-alltrack</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>651</t>
+          <t>652</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -17487,30 +17495,40 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>Passat Alltrack New</t>
+          <t>Polo</t>
         </is>
       </c>
       <c r="D362" t="n">
-        <v>4212400</v>
+        <v>672900</v>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/volkswagen/passat-alltrack</t>
+          <t>https://avtolininiya-rb.ru/auto/volkswagen/polo/</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>672900</t>
+        </is>
+      </c>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>https://avtolininiya-rb.ru/auto/volkswagen/polo/</t>
         </is>
       </c>
       <c r="H362" t="n">
-        <v>4212400</v>
+        <v>1306100</v>
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/volkswagen/passat-alltrack</t>
+          <t>https://ufa.masmotors.ru/car/volkswagen/polo</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>648</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -17520,40 +17538,38 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>Polo</t>
+          <t>Polo New</t>
         </is>
       </c>
       <c r="D363" t="n">
-        <v>672900</v>
+        <v>667900</v>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>https://avtolininiya-rb.ru/auto/volkswagen/polo/</t>
-        </is>
-      </c>
-      <c r="F363" t="inlineStr">
-        <is>
-          <t>672900</t>
-        </is>
-      </c>
-      <c r="G363" t="inlineStr">
-        <is>
-          <t>https://avtolininiya-rb.ru/auto/volkswagen/polo/</t>
-        </is>
-      </c>
-      <c r="H363" t="n">
-        <v>1306100</v>
-      </c>
-      <c r="I363" t="inlineStr">
-        <is>
-          <t>https://ufa.masmotors.ru/car/volkswagen/polo</t>
+          <t>https://motors-ag.ru/catalog/volkswagen/polo_new</t>
+        </is>
+      </c>
+      <c r="J363" t="n">
+        <v>667900</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>https://avrora-motors.ru/catalog/volkswagen/polo_new</t>
+        </is>
+      </c>
+      <c r="R363" t="n">
+        <v>667900</v>
+      </c>
+      <c r="S363" t="inlineStr">
+        <is>
+          <t>https://motors-ag.ru/catalog/volkswagen/polo_new</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>648</t>
+          <t>653</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -17563,38 +17579,56 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>Polo New</t>
+          <t>Taos</t>
         </is>
       </c>
       <c r="D364" t="n">
-        <v>667900</v>
+        <v>1290900</v>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/volkswagen/polo_new</t>
+          <t>https://motors-ag.ru/catalog/volkswagen/taos</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>1295900</t>
+        </is>
+      </c>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>https://avtolininiya-rb.ru/auto/volkswagen/taos/</t>
+        </is>
+      </c>
+      <c r="H364" t="n">
+        <v>2478100</v>
+      </c>
+      <c r="I364" t="inlineStr">
+        <is>
+          <t>https://ufa.masmotors.ru/car/volkswagen/taos</t>
         </is>
       </c>
       <c r="J364" t="n">
-        <v>667900</v>
+        <v>1290900</v>
       </c>
       <c r="K364" t="inlineStr">
         <is>
-          <t>https://avrora-motors.ru/catalog/volkswagen/polo_new</t>
+          <t>https://avrora-motors.ru/catalog/volkswagen/taos</t>
         </is>
       </c>
       <c r="R364" t="n">
-        <v>667900</v>
+        <v>1290900</v>
       </c>
       <c r="S364" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/volkswagen/polo_new</t>
+          <t>https://motors-ag.ru/catalog/volkswagen/taos</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>655</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -17604,56 +17638,30 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>Taos</t>
+          <t>Teramont</t>
         </is>
       </c>
       <c r="D365" t="n">
-        <v>1290900</v>
+        <v>5697000</v>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/volkswagen/taos</t>
-        </is>
-      </c>
-      <c r="F365" t="inlineStr">
-        <is>
-          <t>1295900</t>
-        </is>
-      </c>
-      <c r="G365" t="inlineStr">
-        <is>
-          <t>https://avtolininiya-rb.ru/auto/volkswagen/taos/</t>
+          <t>https://ufa.masmotors.ru/car/volkswagen/teramont</t>
         </is>
       </c>
       <c r="H365" t="n">
-        <v>2478100</v>
+        <v>5697000</v>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/volkswagen/taos</t>
-        </is>
-      </c>
-      <c r="J365" t="n">
-        <v>1290900</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/volkswagen/taos</t>
-        </is>
-      </c>
-      <c r="R365" t="n">
-        <v>1290900</v>
-      </c>
-      <c r="S365" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/volkswagen/taos</t>
+          <t>https://ufa.masmotors.ru/car/volkswagen/teramont</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>655</t>
+          <t>657</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -17663,30 +17671,46 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>Teramont</t>
+          <t>Tiguan</t>
         </is>
       </c>
       <c r="D366" t="n">
-        <v>5697000</v>
+        <v>1474900</v>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/volkswagen/teramont</t>
+          <t>https://motors-ag.ru/catalog/volkswagen/tiguan_new</t>
         </is>
       </c>
       <c r="H366" t="n">
-        <v>5697000</v>
+        <v>3008800</v>
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/volkswagen/teramont</t>
+          <t>https://ufa.masmotors.ru/car/volkswagen/tiguan</t>
+        </is>
+      </c>
+      <c r="J366" t="n">
+        <v>1474900</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>https://avrora-motors.ru/catalog/volkswagen/tiguan_new</t>
+        </is>
+      </c>
+      <c r="R366" t="n">
+        <v>1474900</v>
+      </c>
+      <c r="S366" t="inlineStr">
+        <is>
+          <t>https://motors-ag.ru/catalog/volkswagen/tiguan_new</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>657</t>
+          <t>658</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -17696,46 +17720,32 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>Tiguan</t>
+          <t>Tiguan New</t>
         </is>
       </c>
       <c r="D367" t="n">
-        <v>1474900</v>
+        <v>1479900</v>
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/volkswagen/tiguan_new</t>
-        </is>
-      </c>
-      <c r="H367" t="n">
-        <v>3008800</v>
-      </c>
-      <c r="I367" t="inlineStr">
-        <is>
-          <t>https://ufa.masmotors.ru/car/volkswagen/tiguan</t>
-        </is>
-      </c>
-      <c r="J367" t="n">
-        <v>1474900</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/volkswagen/tiguan_new</t>
-        </is>
-      </c>
-      <c r="R367" t="n">
-        <v>1474900</v>
-      </c>
-      <c r="S367" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/volkswagen/tiguan_new</t>
+          <t>https://avtolininiya-rb.ru/auto/volkswagen/tiguan/</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>1479900</t>
+        </is>
+      </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>https://avtolininiya-rb.ru/auto/volkswagen/tiguan/</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>659</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -17745,65 +17755,89 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>Tiguan New</t>
+          <t>Touareg</t>
         </is>
       </c>
       <c r="D368" t="n">
-        <v>1479900</v>
+        <v>8145100</v>
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>https://avtolininiya-rb.ru/auto/volkswagen/tiguan/</t>
-        </is>
-      </c>
-      <c r="F368" t="inlineStr">
-        <is>
-          <t>1479900</t>
-        </is>
-      </c>
-      <c r="G368" t="inlineStr">
-        <is>
-          <t>https://avtolininiya-rb.ru/auto/volkswagen/tiguan/</t>
+          <t>https://ufa.masmotors.ru/car/volkswagen/touareg</t>
+        </is>
+      </c>
+      <c r="H368" t="n">
+        <v>8145100</v>
+      </c>
+      <c r="I368" t="inlineStr">
+        <is>
+          <t>https://ufa.masmotors.ru/car/volkswagen/touareg</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>659</t>
+          <t>672</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>Zotye</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>Touareg</t>
+          <t>Coupa</t>
         </is>
       </c>
       <c r="D369" t="n">
-        <v>8145100</v>
+        <v>955000</v>
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/volkswagen/touareg</t>
+          <t>https://motors-ag.ru/catalog/zotye/coupa</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>960000</t>
+        </is>
+      </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>https://avtolininiya-rb.ru/auto/zotye/coupa/</t>
         </is>
       </c>
       <c r="H369" t="n">
-        <v>8145100</v>
+        <v>1233900</v>
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/volkswagen/touareg</t>
+          <t>https://ufa.masmotors.ru/car/zotye/coupa</t>
+        </is>
+      </c>
+      <c r="J369" t="n">
+        <v>955000</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>https://avrora-motors.ru/catalog/zotye/coupa</t>
+        </is>
+      </c>
+      <c r="R369" t="n">
+        <v>955000</v>
+      </c>
+      <c r="S369" t="inlineStr">
+        <is>
+          <t>https://motors-ag.ru/catalog/zotye/coupa</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>674</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -17813,108 +17847,412 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>Coupa</t>
+          <t>T600</t>
         </is>
       </c>
       <c r="D370" t="n">
-        <v>955000</v>
+        <v>722000</v>
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/zotye/coupa</t>
+          <t>https://motors-ag.ru/catalog/zotye/t600</t>
         </is>
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>960000</t>
+          <t>727000</t>
         </is>
       </c>
       <c r="G370" t="inlineStr">
         <is>
-          <t>https://avtolininiya-rb.ru/auto/zotye/coupa/</t>
+          <t>https://avtolininiya-rb.ru/auto/zotye/t600/</t>
         </is>
       </c>
       <c r="H370" t="n">
-        <v>1233900</v>
+        <v>958700</v>
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/zotye/coupa</t>
+          <t>https://ufa.masmotors.ru/car/zotye/t600</t>
         </is>
       </c>
       <c r="J370" t="n">
-        <v>955000</v>
+        <v>722000</v>
       </c>
       <c r="K370" t="inlineStr">
         <is>
-          <t>https://avrora-motors.ru/catalog/zotye/coupa</t>
+          <t>https://avrora-motors.ru/catalog/zotye/t600</t>
         </is>
       </c>
       <c r="R370" t="n">
-        <v>955000</v>
+        <v>722000</v>
       </c>
       <c r="S370" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/zotye/coupa</t>
+          <t>https://motors-ag.ru/catalog/zotye/t600</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>674</t>
+          <t>Новая машина, необходимо назначить id</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Zotye</t>
+          <t>bmw</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>T600</t>
+          <t>3серия</t>
         </is>
       </c>
       <c r="D371" t="n">
-        <v>722000</v>
+        <v>4087000</v>
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/zotye/t600</t>
-        </is>
-      </c>
-      <c r="F371" t="inlineStr">
-        <is>
-          <t>727000</t>
-        </is>
-      </c>
-      <c r="G371" t="inlineStr">
-        <is>
-          <t>https://avtolininiya-rb.ru/auto/zotye/t600/</t>
-        </is>
-      </c>
-      <c r="H371" t="n">
-        <v>958700</v>
-      </c>
-      <c r="I371" t="inlineStr">
-        <is>
-          <t>https://ufa.masmotors.ru/car/zotye/t600</t>
-        </is>
-      </c>
-      <c r="J371" t="n">
-        <v>722000</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/zotye/t600</t>
-        </is>
-      </c>
-      <c r="R371" t="n">
-        <v>722000</v>
-      </c>
-      <c r="S371" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/zotye/t600</t>
+          <t>https://ufa.autospot.ru/brands/bmw/3/sedan/price/</t>
+        </is>
+      </c>
+      <c r="L371" t="n">
+        <v>4087000</v>
+      </c>
+      <c r="M371" t="inlineStr">
+        <is>
+          <t>https://ufa.autospot.ru/brands/bmw/3/sedan/price/</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Новая машина, необходимо назначить id</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>bmw</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>4серия</t>
+        </is>
+      </c>
+      <c r="D372" t="n">
+        <v>10703583</v>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>https://ufa.autospot.ru/brands/bmw/4_ii_pi/liftback/parallel-price/</t>
+        </is>
+      </c>
+      <c r="L372" t="n">
+        <v>10703583</v>
+      </c>
+      <c r="M372" t="inlineStr">
+        <is>
+          <t>https://ufa.autospot.ru/brands/bmw/4_ii_pi/liftback/parallel-price/</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Новая машина, необходимо назначить id</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>bmw</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>5серия</t>
+        </is>
+      </c>
+      <c r="D373" t="n">
+        <v>10214733</v>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>https://ufa.autospot.ru/brands/bmw/5_vii_pi/sedan/parallel-price/</t>
+        </is>
+      </c>
+      <c r="L373" t="n">
+        <v>10214733</v>
+      </c>
+      <c r="M373" t="inlineStr">
+        <is>
+          <t>https://ufa.autospot.ru/brands/bmw/5_vii_pi/sedan/parallel-price/</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Новая машина, необходимо назначить id</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>bmw</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>m4</t>
+        </is>
+      </c>
+      <c r="D374" t="n">
+        <v>18680000</v>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>https://ufa.autospot.ru/brands/bmw/m4_ii_pi/coupe/parallel-price/</t>
+        </is>
+      </c>
+      <c r="L374" t="n">
+        <v>18680000</v>
+      </c>
+      <c r="M374" t="inlineStr">
+        <is>
+          <t>https://ufa.autospot.ru/brands/bmw/m4_ii_pi/coupe/parallel-price/</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Новая машина, необходимо назначить id</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>bmw</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>x1</t>
+        </is>
+      </c>
+      <c r="D375" t="n">
+        <v>6830000</v>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>https://ufa.autospot.ru/brands/bmw/x1_iii_pi/suv/parallel-price/</t>
+        </is>
+      </c>
+      <c r="L375" t="n">
+        <v>6830000</v>
+      </c>
+      <c r="M375" t="inlineStr">
+        <is>
+          <t>https://ufa.autospot.ru/brands/bmw/x1_iii_pi/suv/parallel-price/</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Новая машина, необходимо назначить id</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>bmw</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
+      </c>
+      <c r="D376" t="n">
+        <v>7636887</v>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>https://ufa.autospot.ru/brands/bmw/x2_i_pi/suv/parallel-price/</t>
+        </is>
+      </c>
+      <c r="L376" t="n">
+        <v>7636887</v>
+      </c>
+      <c r="M376" t="inlineStr">
+        <is>
+          <t>https://ufa.autospot.ru/brands/bmw/x2_i_pi/suv/parallel-price/</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Новая машина, необходимо назначить id</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>bmw</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>x3</t>
+        </is>
+      </c>
+      <c r="D377" t="n">
+        <v>4649000</v>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>https://ufa.autospot.ru/brands/bmw/x3/suv/price/</t>
+        </is>
+      </c>
+      <c r="L377" t="n">
+        <v>4649000</v>
+      </c>
+      <c r="M377" t="inlineStr">
+        <is>
+          <t>https://ufa.autospot.ru/brands/bmw/x3/suv/price/</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Новая машина, необходимо назначить id</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>bmw</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>x5</t>
+        </is>
+      </c>
+      <c r="D378" t="n">
+        <v>14995926</v>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>https://ufa.autospot.ru/brands/bmw/x5_iv_pi/suv/parallel-price/</t>
+        </is>
+      </c>
+      <c r="L378" t="n">
+        <v>14995926</v>
+      </c>
+      <c r="M378" t="inlineStr">
+        <is>
+          <t>https://ufa.autospot.ru/brands/bmw/x5_iv_pi/suv/parallel-price/</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Новая машина, необходимо назначить id</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>bmw</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>x6</t>
+        </is>
+      </c>
+      <c r="D379" t="n">
+        <v>16483500</v>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>https://ufa.autospot.ru/brands/bmw/x6_iii_pi/suv/parallel-price/</t>
+        </is>
+      </c>
+      <c r="L379" t="n">
+        <v>16483500</v>
+      </c>
+      <c r="M379" t="inlineStr">
+        <is>
+          <t>https://ufa.autospot.ru/brands/bmw/x6_iii_pi/suv/parallel-price/</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Новая машина, необходимо назначить id</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>bmw</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>x7</t>
+        </is>
+      </c>
+      <c r="D380" t="n">
+        <v>18306000</v>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>https://ufa.autospot.ru/brands/bmw/x7_g07_pi/suv/parallel-price/</t>
+        </is>
+      </c>
+      <c r="L380" t="n">
+        <v>18306000</v>
+      </c>
+      <c r="M380" t="inlineStr">
+        <is>
+          <t>https://ufa.autospot.ru/brands/bmw/x7_g07_pi/suv/parallel-price/</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Новая машина, необходимо назначить id</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>tank</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>700</t>
+        </is>
+      </c>
+      <c r="D381" t="n">
+        <v>8499000</v>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>https://alfa-tank.ru/models/tank-700</t>
+        </is>
+      </c>
+      <c r="N381" t="n">
+        <v>8499000</v>
+      </c>
+      <c r="O381" t="inlineStr">
+        <is>
+          <t>https://alfa-tank.ru/models/tank-700</t>
         </is>
       </c>
     </row>

--- a/xlsx/ufa.xlsx
+++ b/xlsx/ufa.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U372"/>
+  <dimension ref="A1:U373"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1944,7 +1944,7 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>4579900</v>
+        <v>4569900</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>2793280</v>
+        <v>2665000</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2756,7 +2756,7 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2793280</v>
+        <v>2665000</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>2500990</v>
+        <v>2099990</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
@@ -5826,11 +5826,11 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1584743</v>
+        <v>1562990</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/geely/emgrand_NEW/</t>
+          <t>https://ufa.autospot.ru/brands/geely/emgrand/sedan/price/</t>
         </is>
       </c>
       <c r="H107" t="n">
@@ -5842,7 +5842,7 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>1612990</v>
+        <v>1562990</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
@@ -9606,7 +9606,7 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>1646250</v>
+        <v>1586250</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
@@ -10263,7 +10263,7 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>3365990</v>
+        <v>3465990</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="L204" t="n">
-        <v>3365990</v>
+        <v>3465990</v>
       </c>
       <c r="M204" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>1699900</v>
+        <v>1599900</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
@@ -14334,7 +14334,7 @@
         </is>
       </c>
       <c r="L287" t="n">
-        <v>1699900</v>
+        <v>1599900</v>
       </c>
       <c r="M287" t="inlineStr">
         <is>
@@ -14409,7 +14409,7 @@
         </is>
       </c>
       <c r="L288" t="n">
-        <v>1489000</v>
+        <v>1389000</v>
       </c>
       <c r="M288" t="inlineStr">
         <is>
@@ -17830,116 +17830,149 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>675</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Zotye</t>
+          <t>XCite</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>Coupa</t>
+          <t>X-Cross 7</t>
         </is>
       </c>
       <c r="D371" t="n">
-        <v>955000</v>
+        <v>2499000</v>
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/zotye/coupa</t>
-        </is>
-      </c>
-      <c r="F371" t="inlineStr">
-        <is>
-          <t>960000</t>
-        </is>
-      </c>
-      <c r="G371" t="inlineStr">
-        <is>
-          <t>https://avtolininiya-rb.ru/auto/zotye/coupa/</t>
-        </is>
-      </c>
-      <c r="H371" t="n">
-        <v>1233900</v>
-      </c>
-      <c r="I371" t="inlineStr">
-        <is>
-          <t>https://ufa.masmotors.ru/car/zotye/coupa</t>
-        </is>
-      </c>
-      <c r="J371" t="n">
-        <v>955000</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/zotye/coupa</t>
-        </is>
-      </c>
-      <c r="R371" t="n">
-        <v>955000</v>
-      </c>
-      <c r="S371" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/zotye/coupa</t>
+          <t>https://ufa.autospot.ru/brands/xcite/xcross7/suv/price/</t>
+        </is>
+      </c>
+      <c r="L371" t="n">
+        <v>2499000</v>
+      </c>
+      <c r="M371" t="inlineStr">
+        <is>
+          <t>https://ufa.autospot.ru/brands/xcite/xcross7/suv/price/</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
+          <t>672</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>Zotye</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>Coupa</t>
+        </is>
+      </c>
+      <c r="D372" t="n">
+        <v>955000</v>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>https://motors-ag.ru/catalog/zotye/coupa</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>960000</t>
+        </is>
+      </c>
+      <c r="G372" t="inlineStr">
+        <is>
+          <t>https://avtolininiya-rb.ru/auto/zotye/coupa/</t>
+        </is>
+      </c>
+      <c r="H372" t="n">
+        <v>1233900</v>
+      </c>
+      <c r="I372" t="inlineStr">
+        <is>
+          <t>https://ufa.masmotors.ru/car/zotye/coupa</t>
+        </is>
+      </c>
+      <c r="J372" t="n">
+        <v>955000</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>https://avrora-motors.ru/catalog/zotye/coupa</t>
+        </is>
+      </c>
+      <c r="R372" t="n">
+        <v>955000</v>
+      </c>
+      <c r="S372" t="inlineStr">
+        <is>
+          <t>https://motors-ag.ru/catalog/zotye/coupa</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
           <t>674</t>
         </is>
       </c>
-      <c r="B372" t="inlineStr">
+      <c r="B373" t="inlineStr">
         <is>
           <t>Zotye</t>
         </is>
       </c>
-      <c r="C372" t="inlineStr">
+      <c r="C373" t="inlineStr">
         <is>
           <t>T600</t>
         </is>
       </c>
-      <c r="D372" t="n">
+      <c r="D373" t="n">
         <v>722000</v>
       </c>
-      <c r="E372" t="inlineStr">
+      <c r="E373" t="inlineStr">
         <is>
           <t>https://motors-ag.ru/catalog/zotye/t600</t>
         </is>
       </c>
-      <c r="F372" t="inlineStr">
+      <c r="F373" t="inlineStr">
         <is>
           <t>727000</t>
         </is>
       </c>
-      <c r="G372" t="inlineStr">
+      <c r="G373" t="inlineStr">
         <is>
           <t>https://avtolininiya-rb.ru/auto/zotye/t600/</t>
         </is>
       </c>
-      <c r="H372" t="n">
+      <c r="H373" t="n">
         <v>958700</v>
       </c>
-      <c r="I372" t="inlineStr">
+      <c r="I373" t="inlineStr">
         <is>
           <t>https://ufa.masmotors.ru/car/zotye/t600</t>
         </is>
       </c>
-      <c r="J372" t="n">
+      <c r="J373" t="n">
         <v>722000</v>
       </c>
-      <c r="K372" t="inlineStr">
+      <c r="K373" t="inlineStr">
         <is>
           <t>https://avrora-motors.ru/catalog/zotye/t600</t>
         </is>
       </c>
-      <c r="R372" t="n">
+      <c r="R373" t="n">
         <v>722000</v>
       </c>
-      <c r="S372" t="inlineStr">
+      <c r="S373" t="inlineStr">
         <is>
           <t>https://motors-ag.ru/catalog/zotye/t600</t>
         </is>

--- a/xlsx/ufa.xlsx
+++ b/xlsx/ufa.xlsx
@@ -604,14 +604,6 @@
           <t>https://autofort-ufa.ru/avto-new/baic/bj40/</t>
         </is>
       </c>
-      <c r="R2" t="n">
-        <v>4350000</v>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/baic/bj40_I_restailing</t>
-        </is>
-      </c>
       <c r="X2" t="n">
         <v>4050000</v>
       </c>
@@ -662,7 +654,7 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>1305000</v>
+        <v>1499900</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -677,14 +669,6 @@
           <t>https://autofort-ufa.ru/avto-new/baic/u5_plus/</t>
         </is>
       </c>
-      <c r="R3" t="n">
-        <v>2080000</v>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/baic/u5_plus</t>
-        </is>
-      </c>
       <c r="X3" t="n">
         <v>1780000</v>
       </c>
@@ -768,7 +752,7 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1475000</v>
+        <v>1650000</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -783,14 +767,6 @@
           <t>https://autofort-ufa.ru/avto-new/baic/x35/</t>
         </is>
       </c>
-      <c r="R5" t="n">
-        <v>2225000</v>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/baic/x35</t>
-        </is>
-      </c>
       <c r="X5" t="n">
         <v>1925000</v>
       </c>
@@ -1038,11 +1014,11 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>990000</v>
+        <v>1112000</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/changan/alsvin/sedan/price/</t>
+          <t>https://ufabm.ru/cars/changan/alsvin/350245/</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -1070,7 +1046,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>990000</v>
+        <v>1404900</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1085,14 +1061,6 @@
           <t>https://autofort-ufa.ru/avto-new/changan/alsvin/</t>
         </is>
       </c>
-      <c r="R11" t="n">
-        <v>1314900</v>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/changan/alsvin</t>
-        </is>
-      </c>
       <c r="T11" t="n">
         <v>1112000</v>
       </c>
@@ -1142,14 +1110,6 @@
           <t>https://autofort-ufa.ru/avto-new/changan/cs35/</t>
         </is>
       </c>
-      <c r="R12" t="n">
-        <v>728900</v>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/changan/cs35</t>
-        </is>
-      </c>
       <c r="V12" t="n">
         <v>690900</v>
       </c>
@@ -1215,14 +1175,6 @@
           <t>https://autofort-ufa.ru/avto-new/changan/cs35plus/</t>
         </is>
       </c>
-      <c r="R13" t="n">
-        <v>955900</v>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/changan/cs35plus</t>
-        </is>
-      </c>
       <c r="T13" t="n">
         <v>976000</v>
       </c>
@@ -1261,7 +1213,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/changan/cs35plus_2023MY</t>
+          <t>https://avrora-motors.ru/catalog/changan/cs35plus_2023MY</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1288,14 +1240,6 @@
           <t>https://autofort-ufa.ru/avto-new/changan/changan_cs35plus/</t>
         </is>
       </c>
-      <c r="R14" t="n">
-        <v>1691900</v>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/changan/cs35plus_2023MY</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1318,7 +1262,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/changan/cs55</t>
+          <t>https://avrora-motors.ru/catalog/changan/cs55</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1353,14 +1297,6 @@
           <t>https://autofort-ufa.ru/avto-new/changan/cs55/</t>
         </is>
       </c>
-      <c r="R15" t="n">
-        <v>974900</v>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/changan/cs55</t>
-        </is>
-      </c>
       <c r="V15" t="n">
         <v>1114900</v>
       </c>
@@ -1434,14 +1370,6 @@
           <t>https://autofort-ufa.ru/avto-new/changan/cs55plus/</t>
         </is>
       </c>
-      <c r="R16" t="n">
-        <v>2074900</v>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/changan/cs55_plus_2023MY</t>
-        </is>
-      </c>
       <c r="T16" t="n">
         <v>1712000</v>
       </c>
@@ -1491,14 +1419,6 @@
           <t>https://autofort-ufa.ru/avto-new/changan/cs75/</t>
         </is>
       </c>
-      <c r="R17" t="n">
-        <v>839920</v>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/changan/cs75</t>
-        </is>
-      </c>
       <c r="V17" t="n">
         <v>970000</v>
       </c>
@@ -1578,7 +1498,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/changan/cs75fl</t>
+          <t>https://avrora-motors.ru/catalog/changan/cs75fl</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1613,14 +1533,6 @@
           <t>https://autofort-ufa.ru/avto-new/changan/cs75fl/</t>
         </is>
       </c>
-      <c r="R19" t="n">
-        <v>1154900</v>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/changan/cs75fl</t>
-        </is>
-      </c>
       <c r="V19" t="n">
         <v>1434900</v>
       </c>
@@ -2020,14 +1932,6 @@
           <t>https://autofort-ufa.ru/avto-new/changan/uni_k/</t>
         </is>
       </c>
-      <c r="R26" t="n">
-        <v>3464900</v>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/changan/uni-k</t>
-        </is>
-      </c>
       <c r="T26" t="n">
         <v>2888000</v>
       </c>
@@ -2111,7 +2015,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>2079900</v>
+        <v>2439900</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2119,7 +2023,7 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2079900</v>
+        <v>2439900</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2264,14 +2168,6 @@
           <t>https://autofort-ufa.ru/avto-new/changan/uni_v/</t>
         </is>
       </c>
-      <c r="R30" t="n">
-        <v>2729900</v>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/changan/uni-v</t>
-        </is>
-      </c>
       <c r="T30" t="n">
         <v>2296000</v>
       </c>
@@ -2394,14 +2290,6 @@
           <t>https://avrora-motors.ru/catalog/chery/tiggo2</t>
         </is>
       </c>
-      <c r="R32" t="n">
-        <v>699900</v>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/chery/tiggo2</t>
-        </is>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2424,7 +2312,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/chery/tiggo3</t>
+          <t>https://avrora-motors.ru/catalog/chery/tiggo3</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -2443,14 +2331,6 @@
           <t>https://avrora-motors.ru/catalog/chery/tiggo3</t>
         </is>
       </c>
-      <c r="R33" t="n">
-        <v>604900</v>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/chery/tiggo3</t>
-        </is>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2516,14 +2396,6 @@
           <t>https://autofort-ufa.ru/avto-new/chery/tiggo4/</t>
         </is>
       </c>
-      <c r="R34" t="n">
-        <v>739900</v>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/chery/tiggo_4</t>
-        </is>
-      </c>
       <c r="V34" t="n">
         <v>709900</v>
       </c>
@@ -2623,7 +2495,7 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1344000</v>
+        <v>1445000</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -2638,14 +2510,6 @@
           <t>https://autofort-ufa.ru/avto-new/chery/tiggo4_pro/</t>
         </is>
       </c>
-      <c r="R36" t="n">
-        <v>1314900</v>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/chery/tiggo_4_pro</t>
-        </is>
-      </c>
       <c r="T36" t="n">
         <v>1024000</v>
       </c>
@@ -2676,7 +2540,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/chery/tiggo_5</t>
+          <t>https://avrora-motors.ru/catalog/chery/tiggo_5</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -2695,14 +2559,6 @@
           <t>https://avrora-motors.ru/catalog/chery/tiggo_5</t>
         </is>
       </c>
-      <c r="R37" t="n">
-        <v>801900</v>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/chery/tiggo_5</t>
-        </is>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2752,14 +2608,6 @@
           <t>https://autofort-ufa.ru/avto-new/chery/tiggo7/</t>
         </is>
       </c>
-      <c r="R38" t="n">
-        <v>891900</v>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/chery/tiggo_7</t>
-        </is>
-      </c>
       <c r="V38" t="n">
         <v>869900</v>
       </c>
@@ -2825,14 +2673,6 @@
           <t>https://autofort-ufa.ru/avto-new/chery/tiggo7pro/</t>
         </is>
       </c>
-      <c r="R39" t="n">
-        <v>1259900</v>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/chery/tiggo7pro</t>
-        </is>
-      </c>
       <c r="T39" t="n">
         <v>1008000</v>
       </c>
@@ -2922,14 +2762,6 @@
           <t>https://autofort-ufa.ru/avto-new/chery/tiggo7pro_max/</t>
         </is>
       </c>
-      <c r="R40" t="n">
-        <v>1449900</v>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/chery/tiggo_7_pro_max</t>
-        </is>
-      </c>
       <c r="T40" t="n">
         <v>1400000</v>
       </c>
@@ -2964,7 +2796,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1929000</v>
+        <v>1925000</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2980,7 +2812,7 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>1929000</v>
+        <v>1925000</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -3058,7 +2890,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/chery/tiggo_8</t>
+          <t>https://avrora-motors.ru/catalog/chery/tiggo_8</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -3093,14 +2925,6 @@
           <t>https://autofort-ufa.ru/avto-new/chery/tiggo8/</t>
         </is>
       </c>
-      <c r="R43" t="n">
-        <v>1199900</v>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/chery/tiggo_8</t>
-        </is>
-      </c>
       <c r="V43" t="n">
         <v>1319900</v>
       </c>
@@ -3166,14 +2990,6 @@
           <t>https://autofort-ufa.ru/avto-new/chery/tiggo8pro/</t>
         </is>
       </c>
-      <c r="R44" t="n">
-        <v>1599900</v>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/chery/tiggo_8_pro</t>
-        </is>
-      </c>
       <c r="T44" t="n">
         <v>1312000</v>
       </c>
@@ -3441,7 +3257,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/chevrolet/cobalt</t>
+          <t>https://avrora-motors.ru/catalog/chevrolet/cobalt</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -3460,14 +3276,6 @@
           <t>https://avrora-motors.ru/catalog/chevrolet/cobalt</t>
         </is>
       </c>
-      <c r="R50" t="n">
-        <v>599900</v>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/chevrolet/cobalt</t>
-        </is>
-      </c>
       <c r="V50" t="n">
         <v>619900</v>
       </c>
@@ -3498,7 +3306,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/chevrolet/nexia</t>
+          <t>https://avrora-motors.ru/catalog/chevrolet/nexia</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -3517,14 +3325,6 @@
           <t>https://avrora-motors.ru/catalog/chevrolet/nexia</t>
         </is>
       </c>
-      <c r="R51" t="n">
-        <v>559900</v>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/chevrolet/nexia</t>
-        </is>
-      </c>
       <c r="V51" t="n">
         <v>569900</v>
       </c>
@@ -3555,7 +3355,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/chevrolet/spark</t>
+          <t>https://avrora-motors.ru/catalog/chevrolet/spark</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -3574,14 +3374,6 @@
           <t>https://avrora-motors.ru/catalog/chevrolet/spark</t>
         </is>
       </c>
-      <c r="R52" t="n">
-        <v>579900</v>
-      </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/chevrolet/spark</t>
-        </is>
-      </c>
       <c r="V52" t="n">
         <v>589900</v>
       </c>
@@ -3730,14 +3522,6 @@
           <t>https://avrora-motors.ru/catalog/datsun/mi_do</t>
         </is>
       </c>
-      <c r="R56" t="n">
-        <v>344000</v>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/datsun/mi_do</t>
-        </is>
-      </c>
       <c r="V56" t="n">
         <v>295000</v>
       </c>
@@ -3787,14 +3571,6 @@
           <t>https://avrora-motors.ru/catalog/datsun/on_do</t>
         </is>
       </c>
-      <c r="R57" t="n">
-        <v>244000</v>
-      </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/datsun/on_do</t>
-        </is>
-      </c>
       <c r="V57" t="n">
         <v>236000</v>
       </c>
@@ -3836,14 +3612,6 @@
           <t>https://ufa.masmotors.ru/car/dongfeng/580</t>
         </is>
       </c>
-      <c r="R58" t="n">
-        <v>2240000</v>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/dong-feng/580</t>
-        </is>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3895,11 +3663,11 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>491600</v>
+        <v>771675</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/dong-feng/dfm_ax7</t>
+          <t>https://autofort-ufa.ru/avto-new/dongfeng/ax7/</t>
         </is>
       </c>
       <c r="H60" t="n">
@@ -3918,14 +3686,6 @@
           <t>https://autofort-ufa.ru/avto-new/dongfeng/ax7/</t>
         </is>
       </c>
-      <c r="R60" t="n">
-        <v>491600</v>
-      </c>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/dong-feng/dfm_ax7</t>
-        </is>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4156,14 +3916,6 @@
           <t>https://autofort-ufa.ru/avto-new/exeed/lx/</t>
         </is>
       </c>
-      <c r="R66" t="n">
-        <v>2274900</v>
-      </c>
-      <c r="S66" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/exeed/lx</t>
-        </is>
-      </c>
       <c r="T66" t="n">
         <v>1824800</v>
       </c>
@@ -4328,11 +4080,11 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>809960</v>
+        <v>879960</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/chery/txl</t>
+          <t>https://avrora-motors.ru/catalog/chery/txl</t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -4375,14 +4127,6 @@
           <t>https://autofort-ufa.ru/avto-new/exeed/txl/</t>
         </is>
       </c>
-      <c r="R69" t="n">
-        <v>809960</v>
-      </c>
-      <c r="S69" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/chery/txl</t>
-        </is>
-      </c>
       <c r="T69" t="n">
         <v>2416000</v>
       </c>
@@ -4521,14 +4265,6 @@
           <t>https://autofort-ufa.ru/avto-new/exeed/vx/</t>
         </is>
       </c>
-      <c r="R71" t="n">
-        <v>4074900</v>
-      </c>
-      <c r="S71" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/exeed/vx</t>
-        </is>
-      </c>
       <c r="T71" t="n">
         <v>3064000</v>
       </c>
@@ -4682,7 +4418,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/faw/bestune_b70</t>
+          <t>https://avrora-motors.ru/catalog/faw/bestune_b70</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -4725,14 +4461,6 @@
           <t>https://autofort-ufa.ru/avto-new/faw/bestune_b70/</t>
         </is>
       </c>
-      <c r="R75" t="n">
-        <v>1594600</v>
-      </c>
-      <c r="S75" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/faw/bestune_b70</t>
-        </is>
-      </c>
       <c r="X75" t="n">
         <v>2150000</v>
       </c>
@@ -4763,7 +4491,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/faw/bestune_t55</t>
+          <t>https://avrora-motors.ru/catalog/faw/bestune_t55</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -4798,14 +4526,6 @@
           <t>https://autofort-ufa.ru/avto-new/faw/bestune_t55/</t>
         </is>
       </c>
-      <c r="R76" t="n">
-        <v>1567300</v>
-      </c>
-      <c r="S76" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/faw/bestune_t55</t>
-        </is>
-      </c>
       <c r="X76" t="n">
         <v>2111000</v>
       </c>
@@ -4871,14 +4591,6 @@
           <t>https://autofort-ufa.ru/avto-new/faw/bestune_t77/</t>
         </is>
       </c>
-      <c r="R77" t="n">
-        <v>1784000</v>
-      </c>
-      <c r="S77" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/faw/besturn_t77</t>
-        </is>
-      </c>
       <c r="V77" t="n">
         <v>950000</v>
       </c>
@@ -5067,14 +4779,6 @@
           <t>https://autofort-ufa.ru/avto-new/faw/faw_besturn_x40/</t>
         </is>
       </c>
-      <c r="R81" t="n">
-        <v>754000</v>
-      </c>
-      <c r="S81" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/faw/besturn_x40</t>
-        </is>
-      </c>
       <c r="V81" t="n">
         <v>595000</v>
       </c>
@@ -5124,14 +4828,6 @@
           <t>https://avrora-motors.ru/catalog/faw/besturn_x80_new</t>
         </is>
       </c>
-      <c r="R82" t="n">
-        <v>844000</v>
-      </c>
-      <c r="S82" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/faw/besturn_x80_new</t>
-        </is>
-      </c>
       <c r="V82" t="n">
         <v>839000</v>
       </c>
@@ -5676,14 +5372,6 @@
           <t>https://avrora-motors.ru/catalog/gac/gn8</t>
         </is>
       </c>
-      <c r="R98" t="n">
-        <v>3399000</v>
-      </c>
-      <c r="S98" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/gac/gn8</t>
-        </is>
-      </c>
       <c r="V98" t="n">
         <v>2769000</v>
       </c>
@@ -5831,14 +5519,6 @@
           <t>https://avrora-motors.ru/catalog/gac/gs5</t>
         </is>
       </c>
-      <c r="R101" t="n">
-        <v>1709800</v>
-      </c>
-      <c r="S101" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/gac/gs5</t>
-        </is>
-      </c>
       <c r="V101" t="n">
         <v>1469000</v>
       </c>
@@ -5869,7 +5549,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/gac/gs8</t>
+          <t>https://avrora-motors.ru/catalog/gac/gs8</t>
         </is>
       </c>
       <c r="F102" t="n">
@@ -5904,14 +5584,6 @@
           <t>https://ufa.autospot.ru/brands/gac/gs8_ii/suv/price/</t>
         </is>
       </c>
-      <c r="R102" t="n">
-        <v>1952300</v>
-      </c>
-      <c r="S102" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/gac/gs8</t>
-        </is>
-      </c>
       <c r="T102" t="n">
         <v>2912000</v>
       </c>
@@ -6075,14 +5747,6 @@
           <t>https://autofort-ufa.ru/avto-new/geely/atlas/</t>
         </is>
       </c>
-      <c r="R105" t="n">
-        <v>2228990</v>
-      </c>
-      <c r="S105" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/geely/atlas</t>
-        </is>
-      </c>
       <c r="V105" t="n">
         <v>890990</v>
       </c>
@@ -6197,14 +5861,6 @@
           <t>https://autofort-ufa.ru/avto-new/geely/atlas_pro/</t>
         </is>
       </c>
-      <c r="R107" t="n">
-        <v>1028596</v>
-      </c>
-      <c r="S107" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/geely/atlas_pro</t>
-        </is>
-      </c>
       <c r="T107" t="n">
         <v>1016800</v>
       </c>
@@ -6288,7 +5944,7 @@
         </is>
       </c>
       <c r="L109" t="n">
-        <v>2148190</v>
+        <v>2118190</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
@@ -6368,14 +6024,6 @@
           <t>https://autofort-ufa.ru/avto-new/geely/coolray/</t>
         </is>
       </c>
-      <c r="R110" t="n">
-        <v>959990</v>
-      </c>
-      <c r="S110" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/geely/coolray</t>
-        </is>
-      </c>
       <c r="T110" t="n">
         <v>784800</v>
       </c>
@@ -6596,14 +6244,6 @@
           <t>https://avrora-motors.ru/catalog/geely/emgrand_x7_2019</t>
         </is>
       </c>
-      <c r="R114" t="n">
-        <v>839990</v>
-      </c>
-      <c r="S114" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/geely/emgrand_x7</t>
-        </is>
-      </c>
       <c r="V114" t="n">
         <v>820990</v>
       </c>
@@ -6661,14 +6301,6 @@
           <t>https://autofort-ufa.ru/avto-new/geely/gs/</t>
         </is>
       </c>
-      <c r="R115" t="n">
-        <v>969990</v>
-      </c>
-      <c r="S115" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/geely/gs</t>
-        </is>
-      </c>
       <c r="V115" t="n">
         <v>959990</v>
       </c>
@@ -6742,14 +6374,6 @@
           <t>https://autofort-ufa.ru/avto-new/geely/monjaro/</t>
         </is>
       </c>
-      <c r="R116" t="n">
-        <v>4484990</v>
-      </c>
-      <c r="S116" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/geely/monjaro</t>
-        </is>
-      </c>
       <c r="T116" t="n">
         <v>3848000</v>
       </c>
@@ -7095,19 +6719,11 @@
         </is>
       </c>
       <c r="L124" t="n">
-        <v>3147690</v>
+        <v>3114300</v>
       </c>
       <c r="M124" t="inlineStr">
         <is>
           <t>https://ufa.autospot.ru/brands/greatwall/poer/pickup/price/</t>
-        </is>
-      </c>
-      <c r="R124" t="n">
-        <v>2749000</v>
-      </c>
-      <c r="S124" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/greatwall/poer</t>
         </is>
       </c>
     </row>
@@ -7192,14 +6808,6 @@
           <t>https://avrora-motors.ru/catalog/great-wall/wingle7</t>
         </is>
       </c>
-      <c r="R126" t="n">
-        <v>2099000</v>
-      </c>
-      <c r="S126" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/greatwall/wingle7</t>
-        </is>
-      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -7222,7 +6830,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/haval/dargo</t>
+          <t>https://avrora-motors.ru/catalog/haval/dargo</t>
         </is>
       </c>
       <c r="F127" t="n">
@@ -7265,14 +6873,6 @@
           <t>https://autofort-ufa.ru/avto-new/haval/dargo/</t>
         </is>
       </c>
-      <c r="R127" t="n">
-        <v>1764000</v>
-      </c>
-      <c r="S127" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/haval/dargo</t>
-        </is>
-      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -7395,14 +6995,6 @@
           <t>https://autofort-ufa.ru/avto-new/haval/haval_f7/</t>
         </is>
       </c>
-      <c r="R129" t="n">
-        <v>1179000</v>
-      </c>
-      <c r="S129" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/haval/f7</t>
-        </is>
-      </c>
       <c r="T129" t="n">
         <v>1328800</v>
       </c>
@@ -7437,7 +7029,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>1802310</v>
+        <v>1870407</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -7453,7 +7045,7 @@
         </is>
       </c>
       <c r="L130" t="n">
-        <v>1802310</v>
+        <v>1870407</v>
       </c>
       <c r="M130" t="inlineStr">
         <is>
@@ -7533,14 +7125,6 @@
           <t>https://autofort-ufa.ru/avto-new/haval/haval_f7x/</t>
         </is>
       </c>
-      <c r="R131" t="n">
-        <v>1279000</v>
-      </c>
-      <c r="S131" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/haval/f7x</t>
-        </is>
-      </c>
       <c r="T131" t="n">
         <v>1328800</v>
       </c>
@@ -7649,7 +7233,7 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>2799000</v>
+        <v>2849000</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -7657,7 +7241,7 @@
         </is>
       </c>
       <c r="L134" t="n">
-        <v>2799000</v>
+        <v>2849000</v>
       </c>
       <c r="M134" t="inlineStr">
         <is>
@@ -7697,14 +7281,6 @@
           <t>https://avrora-motors.ru/catalog/haval/h2</t>
         </is>
       </c>
-      <c r="R135" t="n">
-        <v>973400</v>
-      </c>
-      <c r="S135" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/haval/h2</t>
-        </is>
-      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -7792,7 +7368,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/haval/h5</t>
+          <t>https://avrora-motors.ru/catalog/haval/h5</t>
         </is>
       </c>
       <c r="F137" t="n">
@@ -7827,14 +7403,6 @@
           <t>https://autofort-ufa.ru/avto-new/haval/haval_h5/</t>
         </is>
       </c>
-      <c r="R137" t="n">
-        <v>959000</v>
-      </c>
-      <c r="S137" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/haval/h5</t>
-        </is>
-      </c>
       <c r="V137" t="n">
         <v>969000</v>
       </c>
@@ -7909,14 +7477,6 @@
           <t>https://avrora-motors.ru/catalog/haval/h6</t>
         </is>
       </c>
-      <c r="R139" t="n">
-        <v>1078000</v>
-      </c>
-      <c r="S139" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/haval/h6</t>
-        </is>
-      </c>
       <c r="V139" t="n">
         <v>932000</v>
       </c>
@@ -7982,14 +7542,6 @@
           <t>https://autofort-ufa.ru/avto-new/haval/haval_h9/</t>
         </is>
       </c>
-      <c r="R140" t="n">
-        <v>4084000</v>
-      </c>
-      <c r="S140" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/haval/h9_II</t>
-        </is>
-      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -8053,7 +7605,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/haval/jolion</t>
+          <t>https://avrora-motors.ru/catalog/haval/jolion</t>
         </is>
       </c>
       <c r="F142" t="n">
@@ -8096,14 +7648,6 @@
           <t>https://autofort-ufa.ru/avto-new/haval/jolion/</t>
         </is>
       </c>
-      <c r="R142" t="n">
-        <v>914000</v>
-      </c>
-      <c r="S142" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/haval/jolion</t>
-        </is>
-      </c>
       <c r="T142" t="n">
         <v>1032800</v>
       </c>
@@ -8280,7 +7824,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/haval/m6_II</t>
+          <t>https://avrora-motors.ru/catalog/haval/m6_II</t>
         </is>
       </c>
       <c r="J145" t="n">
@@ -8291,14 +7835,6 @@
           <t>https://avrora-motors.ru/catalog/haval/m6_II</t>
         </is>
       </c>
-      <c r="R145" t="n">
-        <v>1669000</v>
-      </c>
-      <c r="S145" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/haval/m6_II</t>
-        </is>
-      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -8637,14 +8173,6 @@
           <t>https://avrora-motors.ru/catalog/hyundai/creta</t>
         </is>
       </c>
-      <c r="R155" t="n">
-        <v>665000</v>
-      </c>
-      <c r="S155" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/hyundai/creta</t>
-        </is>
-      </c>
       <c r="T155" t="n">
         <v>1108000</v>
       </c>
@@ -9158,14 +8686,6 @@
       <c r="K166" t="inlineStr">
         <is>
           <t>https://avrora-motors.ru/catalog/hyundai/tucson_new</t>
-        </is>
-      </c>
-      <c r="R166" t="n">
-        <v>1464000</v>
-      </c>
-      <c r="S166" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/hyundai/tucson_new</t>
         </is>
       </c>
       <c r="T166" t="n">
@@ -9268,7 +8788,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/jac/j7</t>
+          <t>https://avrora-motors.ru/catalog/jac/j7</t>
         </is>
       </c>
       <c r="F169" t="n">
@@ -9311,14 +8831,6 @@
           <t>https://autofort-ufa.ru/avto-new/jac/j7/</t>
         </is>
       </c>
-      <c r="R169" t="n">
-        <v>713000</v>
-      </c>
-      <c r="S169" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/jac/j7</t>
-        </is>
-      </c>
       <c r="V169" t="n">
         <v>799000</v>
       </c>
@@ -9507,14 +9019,6 @@
           <t>https://autofort-ufa.ru/avto-new/jac/js6/</t>
         </is>
       </c>
-      <c r="R173" t="n">
-        <v>1819300</v>
-      </c>
-      <c r="S173" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/jac/js6</t>
-        </is>
-      </c>
       <c r="X173" t="n">
         <v>2099000</v>
       </c>
@@ -9613,14 +9117,6 @@
           <t>https://autofort-ufa.ru/avto-new/jac/s3/</t>
         </is>
       </c>
-      <c r="R175" t="n">
-        <v>663000</v>
-      </c>
-      <c r="S175" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/jac/s3</t>
-        </is>
-      </c>
       <c r="V175" t="n">
         <v>594000</v>
       </c>
@@ -9670,14 +9166,6 @@
           <t>https://autofort-ufa.ru/avto-new/jac/s5/</t>
         </is>
       </c>
-      <c r="R176" t="n">
-        <v>1624900</v>
-      </c>
-      <c r="S176" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/jac/s5</t>
-        </is>
-      </c>
       <c r="V176" t="n">
         <v>694000</v>
       </c>
@@ -9741,7 +9229,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/jac/s7</t>
+          <t>https://avrora-motors.ru/catalog/jac/s7</t>
         </is>
       </c>
       <c r="F178" t="n">
@@ -9768,14 +9256,6 @@
           <t>https://avrora-motors.ru/catalog/jac/s7</t>
         </is>
       </c>
-      <c r="R178" t="n">
-        <v>1214000</v>
-      </c>
-      <c r="S178" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/jac/s7</t>
-        </is>
-      </c>
       <c r="V178" t="n">
         <v>1219000</v>
       </c>
@@ -9825,14 +9305,6 @@
           <t>https://avrora-motors.ru/catalog/jac/t_6</t>
         </is>
       </c>
-      <c r="R179" t="n">
-        <v>2270000</v>
-      </c>
-      <c r="S179" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/jac/t_6</t>
-        </is>
-      </c>
       <c r="V179" t="n">
         <v>1269000</v>
       </c>
@@ -10217,14 +9689,6 @@
           <t>https://autofort-ufa.ru/avto-new/jetour/dashing/</t>
         </is>
       </c>
-      <c r="R187" t="n">
-        <v>2489900</v>
-      </c>
-      <c r="S187" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/jetour/dashing</t>
-        </is>
-      </c>
       <c r="T187" t="n">
         <v>1571200</v>
       </c>
@@ -10469,14 +9933,6 @@
           <t>https://autofort-ufa.ru/avto-new/jetour/x90plus/</t>
         </is>
       </c>
-      <c r="R191" t="n">
-        <v>3399900</v>
-      </c>
-      <c r="S191" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/jetour/x90plus</t>
-        </is>
-      </c>
       <c r="X191" t="n">
         <v>3099900</v>
       </c>
@@ -10534,14 +9990,6 @@
           <t>https://autofort-ufa.ru/avto-new/jetta/va3/</t>
         </is>
       </c>
-      <c r="R192" t="n">
-        <v>1928000</v>
-      </c>
-      <c r="S192" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/jetta/va3</t>
-        </is>
-      </c>
       <c r="X192" t="n">
         <v>1390000</v>
       </c>
@@ -10599,14 +10047,6 @@
           <t>https://autofort-ufa.ru/avto-new/jetta/vs5/</t>
         </is>
       </c>
-      <c r="R193" t="n">
-        <v>1928000</v>
-      </c>
-      <c r="S193" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/jetta/vs5</t>
-        </is>
-      </c>
       <c r="T193" t="n">
         <v>1270400</v>
       </c>
@@ -10705,14 +10145,6 @@
           <t>https://autofort-ufa.ru/avto-new/jetta/vs7/</t>
         </is>
       </c>
-      <c r="R195" t="n">
-        <v>3127000</v>
-      </c>
-      <c r="S195" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/jetta/vs7</t>
-        </is>
-      </c>
       <c r="X195" t="n">
         <v>1849000</v>
       </c>
@@ -10796,7 +10228,7 @@
         </is>
       </c>
       <c r="L197" t="n">
-        <v>1550000</v>
+        <v>1740000</v>
       </c>
       <c r="M197" t="inlineStr">
         <is>
@@ -10811,14 +10243,6 @@
           <t>https://autofort-ufa.ru/avto-new/kaiyi/e5/</t>
         </is>
       </c>
-      <c r="R197" t="n">
-        <v>1336300</v>
-      </c>
-      <c r="S197" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/kaiyi/kaiyi_e5</t>
-        </is>
-      </c>
       <c r="T197" t="n">
         <v>1232000</v>
       </c>
@@ -10876,14 +10300,6 @@
           <t>https://avrora-motors.ru/catalog/kaiyi/x3</t>
         </is>
       </c>
-      <c r="L198" t="n">
-        <v>1885000</v>
-      </c>
-      <c r="M198" t="inlineStr">
-        <is>
-          <t>https://ufa.autospot.ru/brands/kaiyi/x3/suv/price/</t>
-        </is>
-      </c>
       <c r="P198" t="n">
         <v>1678500</v>
       </c>
@@ -10941,14 +10357,6 @@
           <t>https://avrora-motors.ru/catalog/kaiyi/x3_pro</t>
         </is>
       </c>
-      <c r="L199" t="n">
-        <v>2314900</v>
-      </c>
-      <c r="M199" t="inlineStr">
-        <is>
-          <t>https://ufa.autospot.ru/brands/kaiyi/x3pro/suv/price/</t>
-        </is>
-      </c>
       <c r="P199" t="n">
         <v>1886175</v>
       </c>
@@ -10998,14 +10406,6 @@
           <t>https://avtolininiya-rb.ru/auto/kaiyi/x7_kunlun/</t>
         </is>
       </c>
-      <c r="L200" t="n">
-        <v>3475000</v>
-      </c>
-      <c r="M200" t="inlineStr">
-        <is>
-          <t>https://ufa.autospot.ru/brands/kaiyi/x7kunlun/suv/price/</t>
-        </is>
-      </c>
       <c r="P200" t="n">
         <v>2248425</v>
       </c>
@@ -11469,7 +10869,7 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>3123190</v>
+        <v>3265990</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -11477,7 +10877,7 @@
         </is>
       </c>
       <c r="L214" t="n">
-        <v>3123190</v>
+        <v>3265990</v>
       </c>
       <c r="M214" t="inlineStr">
         <is>
@@ -11608,7 +11008,7 @@
         </is>
       </c>
       <c r="L217" t="n">
-        <v>936400</v>
+        <v>951000</v>
       </c>
       <c r="M217" t="inlineStr">
         <is>
@@ -11958,7 +11358,7 @@
         </is>
       </c>
       <c r="L223" t="n">
-        <v>597500</v>
+        <v>629900</v>
       </c>
       <c r="M223" t="inlineStr">
         <is>
@@ -14395,14 +13795,6 @@
           <t>https://autofort-ufa.ru/avto-new/lifan/murman/</t>
         </is>
       </c>
-      <c r="R269" t="n">
-        <v>809900</v>
-      </c>
-      <c r="S269" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/lifan/murman</t>
-        </is>
-      </c>
       <c r="V269" t="n">
         <v>733000</v>
       </c>
@@ -14460,14 +13852,6 @@
           <t>https://autofort-ufa.ru/avto-new/lifan/myway/</t>
         </is>
       </c>
-      <c r="R270" t="n">
-        <v>719900</v>
-      </c>
-      <c r="S270" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/lifan/myway</t>
-        </is>
-      </c>
       <c r="V270" t="n">
         <v>654000</v>
       </c>
@@ -14533,14 +13917,6 @@
           <t>https://autofort-ufa.ru/avto-new/lifan/solano2/</t>
         </is>
       </c>
-      <c r="R271" t="n">
-        <v>499900</v>
-      </c>
-      <c r="S271" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/lifan/solano2</t>
-        </is>
-      </c>
       <c r="V271" t="n">
         <v>373000</v>
       </c>
@@ -14571,7 +13947,7 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/lifan/x50</t>
+          <t>https://avrora-motors.ru/catalog/lifan/x50</t>
         </is>
       </c>
       <c r="F272" t="n">
@@ -14606,14 +13982,6 @@
           <t>https://autofort-ufa.ru/avto-new/lifan/x50/</t>
         </is>
       </c>
-      <c r="R272" t="n">
-        <v>429900</v>
-      </c>
-      <c r="S272" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/lifan/x50</t>
-        </is>
-      </c>
       <c r="V272" t="n">
         <v>484900</v>
       </c>
@@ -14671,14 +14039,6 @@
           <t>https://autofort-ufa.ru/avto-new/lifan/x60/</t>
         </is>
       </c>
-      <c r="R273" t="n">
-        <v>559900</v>
-      </c>
-      <c r="S273" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/lifan/x60</t>
-        </is>
-      </c>
       <c r="V273" t="n">
         <v>554900</v>
       </c>
@@ -14742,7 +14102,7 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/lifan/x70</t>
+          <t>https://avrora-motors.ru/catalog/lifan/x70</t>
         </is>
       </c>
       <c r="F275" t="n">
@@ -14777,14 +14137,6 @@
           <t>https://autofort-ufa.ru/avto-new/lifan/x70/</t>
         </is>
       </c>
-      <c r="R275" t="n">
-        <v>589000</v>
-      </c>
-      <c r="S275" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/lifan/x70</t>
-        </is>
-      </c>
       <c r="V275" t="n">
         <v>652000</v>
       </c>
@@ -14907,14 +14259,6 @@
           <t>https://autofort-ufa.ru/avto-new/livan/x3pro/</t>
         </is>
       </c>
-      <c r="R277" t="n">
-        <v>1672000</v>
-      </c>
-      <c r="S277" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/livan/x3pro</t>
-        </is>
-      </c>
       <c r="X277" t="n">
         <v>1589900</v>
       </c>
@@ -15713,7 +15057,7 @@
         </is>
       </c>
       <c r="L298" t="n">
-        <v>1300000</v>
+        <v>1280000</v>
       </c>
       <c r="M298" t="inlineStr">
         <is>
@@ -15728,14 +15072,6 @@
           <t>https://autofort-ufa.ru/avto-new/moskvich/moskvich_3/</t>
         </is>
       </c>
-      <c r="R298" t="n">
-        <v>1409000</v>
-      </c>
-      <c r="S298" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/moskvic/moskvish_3</t>
-        </is>
-      </c>
       <c r="T298" t="n">
         <v>1760000</v>
       </c>
@@ -15774,7 +15110,7 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/moskvic/moskvish_3e</t>
+          <t>https://avrora-motors.ru/catalog/moskvic/moskvish_3e</t>
         </is>
       </c>
       <c r="F299" t="n">
@@ -15809,14 +15145,6 @@
           <t>https://autofort-ufa.ru/avto-new/moskvich/moskvich_3e/</t>
         </is>
       </c>
-      <c r="R299" t="n">
-        <v>2415000</v>
-      </c>
-      <c r="S299" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/moskvic/moskvish_3e</t>
-        </is>
-      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -15978,7 +15306,7 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/nissan/qashqai_new</t>
+          <t>https://avrora-motors.ru/catalog/nissan/qashqai_new</t>
         </is>
       </c>
       <c r="F303" t="n">
@@ -16005,14 +15333,6 @@
           <t>https://avrora-motors.ru/catalog/nissan/qashqai_new</t>
         </is>
       </c>
-      <c r="R303" t="n">
-        <v>917000</v>
-      </c>
-      <c r="S303" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/nissan/qashqai_new</t>
-        </is>
-      </c>
       <c r="V303" t="n">
         <v>975000</v>
       </c>
@@ -16043,7 +15363,7 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/nissan/terrano</t>
+          <t>https://avrora-motors.ru/catalog/nissan/terrano</t>
         </is>
       </c>
       <c r="F304" t="n">
@@ -16070,14 +15390,6 @@
           <t>https://avrora-motors.ru/catalog/nissan/terrano</t>
         </is>
       </c>
-      <c r="R304" t="n">
-        <v>667000</v>
-      </c>
-      <c r="S304" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/nissan/terrano</t>
-        </is>
-      </c>
       <c r="V304" t="n">
         <v>710000</v>
       </c>
@@ -16135,14 +15447,6 @@
           <t>https://avrora-motors.ru/catalog/nissan/x-trail_new</t>
         </is>
       </c>
-      <c r="R305" t="n">
-        <v>1472000</v>
-      </c>
-      <c r="S305" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/nissan/x-trail_new</t>
-        </is>
-      </c>
       <c r="V305" t="n">
         <v>1266000</v>
       </c>
@@ -16216,14 +15520,6 @@
           <t>https://autofort-ufa.ru/avto-new/omoda/omoda_c5/</t>
         </is>
       </c>
-      <c r="R306" t="n">
-        <v>1744900</v>
-      </c>
-      <c r="S306" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/omoda/c5</t>
-        </is>
-      </c>
       <c r="T306" t="n">
         <v>1520800</v>
       </c>
@@ -16305,14 +15601,6 @@
           <t>https://autofort-ufa.ru/avto-new/omoda/omoda_s5/</t>
         </is>
       </c>
-      <c r="R307" t="n">
-        <v>1624900</v>
-      </c>
-      <c r="S307" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/omoda/omoda_s5</t>
-        </is>
-      </c>
       <c r="X307" t="n">
         <v>1949900</v>
       </c>
@@ -16782,14 +16070,6 @@
           <t>https://avrora-motors.ru/catalog/ravon/nexia_r3</t>
         </is>
       </c>
-      <c r="R320" t="n">
-        <v>321000</v>
-      </c>
-      <c r="S320" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/ravon/nexia_r3</t>
-        </is>
-      </c>
       <c r="V320" t="n">
         <v>304000</v>
       </c>
@@ -16847,14 +16127,6 @@
           <t>https://avrora-motors.ru/catalog/ravon/r2</t>
         </is>
       </c>
-      <c r="R321" t="n">
-        <v>311000</v>
-      </c>
-      <c r="S321" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/ravon/r2</t>
-        </is>
-      </c>
       <c r="V321" t="n">
         <v>284000</v>
       </c>
@@ -16885,7 +16157,7 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/ravon/r4</t>
+          <t>https://avrora-motors.ru/catalog/ravon/r4</t>
         </is>
       </c>
       <c r="F322" t="n">
@@ -16912,14 +16184,6 @@
           <t>https://avrora-motors.ru/catalog/ravon/r4</t>
         </is>
       </c>
-      <c r="R322" t="n">
-        <v>331000</v>
-      </c>
-      <c r="S322" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/ravon/r4</t>
-        </is>
-      </c>
       <c r="V322" t="n">
         <v>354000</v>
       </c>
@@ -16977,14 +16241,6 @@
           <t>https://avrora-motors.ru/catalog/renault/arkana</t>
         </is>
       </c>
-      <c r="R323" t="n">
-        <v>839000</v>
-      </c>
-      <c r="S323" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/renault/arkana</t>
-        </is>
-      </c>
       <c r="V323" t="n">
         <v>837000</v>
       </c>
@@ -17034,14 +16290,6 @@
           <t>https://avrora-motors.ru/catalog/renault/duster</t>
         </is>
       </c>
-      <c r="R324" t="n">
-        <v>514000</v>
-      </c>
-      <c r="S324" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/renault/duster</t>
-        </is>
-      </c>
       <c r="T324" t="n">
         <v>600000</v>
       </c>
@@ -17080,7 +16328,7 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/renault/duster_new</t>
+          <t>https://avrora-motors.ru/catalog/renault/duster_new</t>
         </is>
       </c>
       <c r="F325" t="n">
@@ -17099,14 +16347,6 @@
           <t>https://avrora-motors.ru/catalog/renault/duster_new</t>
         </is>
       </c>
-      <c r="R325" t="n">
-        <v>512000</v>
-      </c>
-      <c r="S325" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/renault/duster_new</t>
-        </is>
-      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -17156,14 +16396,6 @@
           <t>https://avrora-motors.ru/catalog/renault/kaptur</t>
         </is>
       </c>
-      <c r="R326" t="n">
-        <v>749000</v>
-      </c>
-      <c r="S326" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/renault/kaptur</t>
-        </is>
-      </c>
       <c r="V326" t="n">
         <v>855000</v>
       </c>
@@ -17190,11 +16422,11 @@
         </is>
       </c>
       <c r="D327" t="n">
-        <v>326000</v>
+        <v>397600</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/renault/logan_new</t>
+          <t>https://ufabm.ru/cars/renault/logan/350266/</t>
         </is>
       </c>
       <c r="F327" t="n">
@@ -17221,14 +16453,6 @@
           <t>https://avrora-motors.ru/catalog/renault/logan_new</t>
         </is>
       </c>
-      <c r="R327" t="n">
-        <v>326000</v>
-      </c>
-      <c r="S327" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/renault/logan_new</t>
-        </is>
-      </c>
       <c r="T327" t="n">
         <v>397600</v>
       </c>
@@ -17267,7 +16491,7 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/renault/logan_stepway</t>
+          <t>https://avrora-motors.ru/catalog/renault/logan_stepway</t>
         </is>
       </c>
       <c r="F328" t="n">
@@ -17294,14 +16518,6 @@
           <t>https://avrora-motors.ru/catalog/renault/logan_stepway</t>
         </is>
       </c>
-      <c r="R328" t="n">
-        <v>503000</v>
-      </c>
-      <c r="S328" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/renault/logan_stepway</t>
-        </is>
-      </c>
       <c r="V328" t="n">
         <v>534000</v>
       </c>
@@ -17332,7 +16548,7 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/renault/logan_stepway_city_2018</t>
+          <t>https://avrora-motors.ru/catalog/renault/logan_stepway_city_2018</t>
         </is>
       </c>
       <c r="F329" t="n">
@@ -17351,14 +16567,6 @@
           <t>https://avrora-motors.ru/catalog/renault/logan_stepway_city_2018</t>
         </is>
       </c>
-      <c r="R329" t="n">
-        <v>668990</v>
-      </c>
-      <c r="S329" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/renault/logan_stepway_city_2018</t>
-        </is>
-      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -17381,7 +16589,7 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/renault/sandero_new</t>
+          <t>https://avrora-motors.ru/catalog/renault/sandero_new</t>
         </is>
       </c>
       <c r="F330" t="n">
@@ -17408,14 +16616,6 @@
           <t>https://avrora-motors.ru/catalog/renault/sandero_new</t>
         </is>
       </c>
-      <c r="R330" t="n">
-        <v>404000</v>
-      </c>
-      <c r="S330" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/renault/sandero_new</t>
-        </is>
-      </c>
       <c r="T330" t="n">
         <v>544000</v>
       </c>
@@ -17454,7 +16654,7 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/renault/sandero_stepway</t>
+          <t>https://avrora-motors.ru/catalog/renault/sandero_stepway</t>
         </is>
       </c>
       <c r="F331" t="n">
@@ -17481,14 +16681,6 @@
           <t>https://avrora-motors.ru/catalog/renault/sandero_stepway</t>
         </is>
       </c>
-      <c r="R331" t="n">
-        <v>492000</v>
-      </c>
-      <c r="S331" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/renault/sandero_stepway</t>
-        </is>
-      </c>
       <c r="V331" t="n">
         <v>568000</v>
       </c>
@@ -17519,7 +16711,7 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/renault/sandero_stepway_city_2018</t>
+          <t>https://avrora-motors.ru/catalog/renault/sandero_stepway_city_2018</t>
         </is>
       </c>
       <c r="F332" t="n">
@@ -17538,14 +16730,6 @@
           <t>https://avrora-motors.ru/catalog/renault/sandero_stepway_city_2018</t>
         </is>
       </c>
-      <c r="R332" t="n">
-        <v>631993</v>
-      </c>
-      <c r="S332" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/renault/sandero_stepway_city_2018</t>
-        </is>
-      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -17568,7 +16752,7 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/swm/g01</t>
+          <t>https://avrora-motors.ru/catalog/swm/g01</t>
         </is>
       </c>
       <c r="J333" t="n">
@@ -17579,14 +16763,6 @@
           <t>https://avrora-motors.ru/catalog/swm/g01</t>
         </is>
       </c>
-      <c r="R333" t="n">
-        <v>1709600</v>
-      </c>
-      <c r="S333" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/swm/g01</t>
-        </is>
-      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -17609,7 +16785,7 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/swm/g01f</t>
+          <t>https://avrora-motors.ru/catalog/swm/g01f</t>
         </is>
       </c>
       <c r="J334" t="n">
@@ -17620,14 +16796,6 @@
           <t>https://avrora-motors.ru/catalog/swm/g01f</t>
         </is>
       </c>
-      <c r="R334" t="n">
-        <v>1950200</v>
-      </c>
-      <c r="S334" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/swm/g01f</t>
-        </is>
-      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -17650,7 +16818,7 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/swm/g05_pro</t>
+          <t>https://avrora-motors.ru/catalog/swm/g05_pro</t>
         </is>
       </c>
       <c r="J335" t="n">
@@ -17661,14 +16829,6 @@
           <t>https://avrora-motors.ru/catalog/swm/g05_pro</t>
         </is>
       </c>
-      <c r="R335" t="n">
-        <v>1964000</v>
-      </c>
-      <c r="S335" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/swm/g05_pro</t>
-        </is>
-      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -17718,14 +16878,6 @@
           <t>https://avrora-motors.ru/catalog/skoda/karoq</t>
         </is>
       </c>
-      <c r="R336" t="n">
-        <v>1670000</v>
-      </c>
-      <c r="S336" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/skoda/karoq</t>
-        </is>
-      </c>
       <c r="V336" t="n">
         <v>1209000</v>
       </c>
@@ -17989,14 +17141,6 @@
           <t>https://avrora-motors.ru/catalog/skoda/octavia_hockey_edition</t>
         </is>
       </c>
-      <c r="R343" t="n">
-        <v>543800</v>
-      </c>
-      <c r="S343" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/skoda/octavia_hockey_edition</t>
-        </is>
-      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -18019,7 +17163,7 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/skoda/octavia_new</t>
+          <t>https://avrora-motors.ru/catalog/skoda/octavia_new</t>
         </is>
       </c>
       <c r="F344" t="n">
@@ -18038,14 +17182,6 @@
           <t>https://avrora-motors.ru/catalog/skoda/octavia_new</t>
         </is>
       </c>
-      <c r="R344" t="n">
-        <v>1204000</v>
-      </c>
-      <c r="S344" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/skoda/octavia_new</t>
-        </is>
-      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -18125,7 +17261,7 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/skoda/rapid_new</t>
+          <t>https://avrora-motors.ru/catalog/skoda/rapid_new</t>
         </is>
       </c>
       <c r="J346" t="n">
@@ -18136,14 +17272,6 @@
           <t>https://avrora-motors.ru/catalog/skoda/rapid_new</t>
         </is>
       </c>
-      <c r="R346" t="n">
-        <v>401000</v>
-      </c>
-      <c r="S346" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/skoda/rapid_new</t>
-        </is>
-      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -18284,14 +17412,6 @@
           <t>https://avrora-motors.ru/catalog/skoda/superb_new</t>
         </is>
       </c>
-      <c r="R350" t="n">
-        <v>3386000</v>
-      </c>
-      <c r="S350" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/skoda/superb_new</t>
-        </is>
-      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -18347,7 +17467,7 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/solaris/hc</t>
+          <t>https://avrora-motors.ru/catalog/solaris/hc</t>
         </is>
       </c>
       <c r="F352" t="n">
@@ -18374,14 +17494,6 @@
           <t>https://autofort-ufa.ru/avto-new/solaris/solaris_hc/</t>
         </is>
       </c>
-      <c r="R352" t="n">
-        <v>1763000</v>
-      </c>
-      <c r="S352" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/solaris/hc</t>
-        </is>
-      </c>
       <c r="X352" t="n">
         <v>2199000</v>
       </c>
@@ -18412,7 +17524,7 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/solaris/hs</t>
+          <t>https://avrora-motors.ru/catalog/solaris/hs</t>
         </is>
       </c>
       <c r="F353" t="n">
@@ -18439,14 +17551,6 @@
           <t>https://autofort-ufa.ru/avto-new/solaris/solaris_hs/</t>
         </is>
       </c>
-      <c r="R353" t="n">
-        <v>1390000</v>
-      </c>
-      <c r="S353" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/solaris/hs</t>
-        </is>
-      </c>
       <c r="X353" t="n">
         <v>1710000</v>
       </c>
@@ -18477,7 +17581,7 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/solaris/krs</t>
+          <t>https://avrora-motors.ru/catalog/solaris/krs</t>
         </is>
       </c>
       <c r="F354" t="n">
@@ -18504,14 +17608,6 @@
           <t>https://autofort-ufa.ru/avto-new/solaris/krs/</t>
         </is>
       </c>
-      <c r="R354" t="n">
-        <v>1448000</v>
-      </c>
-      <c r="S354" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/solaris/krs</t>
-        </is>
-      </c>
       <c r="X354" t="n">
         <v>1738000</v>
       </c>
@@ -18542,7 +17638,7 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/solaris/krx</t>
+          <t>https://avrora-motors.ru/catalog/solaris/krx</t>
         </is>
       </c>
       <c r="F355" t="n">
@@ -18569,14 +17665,6 @@
           <t>https://autofort-ufa.ru/avto-new/solaris/krx/</t>
         </is>
       </c>
-      <c r="R355" t="n">
-        <v>1464000</v>
-      </c>
-      <c r="S355" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/solaris/krx</t>
-        </is>
-      </c>
       <c r="X355" t="n">
         <v>1764000</v>
       </c>
@@ -19131,11 +18219,11 @@
         </is>
       </c>
       <c r="D372" t="n">
-        <v>2869300</v>
+        <v>3368100</v>
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/tank/tank_300</t>
+          <t>https://ufa.masmotors.ru/car/tank/300</t>
         </is>
       </c>
       <c r="F372" t="n">
@@ -19178,14 +18266,6 @@
           <t>https://alfa-tank.ru/test-drive</t>
         </is>
       </c>
-      <c r="R372" t="n">
-        <v>2869300</v>
-      </c>
-      <c r="S372" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/tank/tank_300</t>
-        </is>
-      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -19204,11 +18284,11 @@
         </is>
       </c>
       <c r="D373" t="n">
-        <v>4209300</v>
+        <v>4924100</v>
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/tank/tank_500</t>
+          <t>https://ufa.masmotors.ru/car/tank/500</t>
         </is>
       </c>
       <c r="F373" t="n">
@@ -19251,14 +18331,6 @@
           <t>https://alfa-tank.ru/test-drive</t>
         </is>
       </c>
-      <c r="R373" t="n">
-        <v>4209300</v>
-      </c>
-      <c r="S373" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/tank/tank_500</t>
-        </is>
-      </c>
       <c r="T373" t="n">
         <v>5519200</v>
       </c>
@@ -20169,7 +19241,7 @@
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/volkswagen/jetta</t>
+          <t>https://avrora-motors.ru/catalog/volkswagen/jetta</t>
         </is>
       </c>
       <c r="F398" t="n">
@@ -20196,14 +19268,6 @@
           <t>https://avrora-motors.ru/catalog/volkswagen/jetta</t>
         </is>
       </c>
-      <c r="R398" t="n">
-        <v>1030000</v>
-      </c>
-      <c r="S398" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/volkswagen/jetta</t>
-        </is>
-      </c>
       <c r="V398" t="n">
         <v>1323000</v>
       </c>
@@ -20365,7 +19429,7 @@
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/volkswagen/polo_new</t>
+          <t>https://avrora-motors.ru/catalog/volkswagen/polo_new</t>
         </is>
       </c>
       <c r="J402" t="n">
@@ -20376,14 +19440,6 @@
           <t>https://avrora-motors.ru/catalog/volkswagen/polo_new</t>
         </is>
       </c>
-      <c r="R402" t="n">
-        <v>667900</v>
-      </c>
-      <c r="S402" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/volkswagen/polo_new</t>
-        </is>
-      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -20406,7 +19462,7 @@
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/volkswagen/taos</t>
+          <t>https://avrora-motors.ru/catalog/volkswagen/taos</t>
         </is>
       </c>
       <c r="F403" t="n">
@@ -20433,14 +19489,6 @@
           <t>https://avrora-motors.ru/catalog/volkswagen/taos</t>
         </is>
       </c>
-      <c r="R403" t="n">
-        <v>1290900</v>
-      </c>
-      <c r="S403" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/volkswagen/taos</t>
-        </is>
-      </c>
       <c r="V403" t="n">
         <v>1295900</v>
       </c>
@@ -20523,14 +19571,6 @@
           <t>https://avrora-motors.ru/catalog/volkswagen/tiguan_new</t>
         </is>
       </c>
-      <c r="R405" t="n">
-        <v>1474900</v>
-      </c>
-      <c r="S405" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/volkswagen/tiguan_new</t>
-        </is>
-      </c>
       <c r="V405" t="n">
         <v>1079900</v>
       </c>
@@ -20660,7 +19700,7 @@
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/zotye/coupa</t>
+          <t>https://avrora-motors.ru/catalog/zotye/coupa</t>
         </is>
       </c>
       <c r="F409" t="n">
@@ -20687,14 +19727,6 @@
           <t>https://avrora-motors.ru/catalog/zotye/coupa</t>
         </is>
       </c>
-      <c r="R409" t="n">
-        <v>955000</v>
-      </c>
-      <c r="S409" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/zotye/coupa</t>
-        </is>
-      </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -20717,7 +19749,7 @@
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/zotye/t600</t>
+          <t>https://avrora-motors.ru/catalog/zotye/t600</t>
         </is>
       </c>
       <c r="F410" t="n">
@@ -20742,14 +19774,6 @@
       <c r="K410" t="inlineStr">
         <is>
           <t>https://avrora-motors.ru/catalog/zotye/t600</t>
-        </is>
-      </c>
-      <c r="R410" t="n">
-        <v>722000</v>
-      </c>
-      <c r="S410" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/zotye/t600</t>
         </is>
       </c>
     </row>

--- a/xlsx/ufa.xlsx
+++ b/xlsx/ufa.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y393"/>
+  <dimension ref="A1:W393"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,12 +449,12 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>avtolininiya-rb.ru_price</t>
+          <t>bashautomarket.ru_price</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>avtolininiya-rb.ru</t>
+          <t>bashautomarket.ru.ru</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
@@ -535,16 +535,6 @@
       <c r="W1" t="inlineStr">
         <is>
           <t>ufa-automarket.ru</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>bashautomarket.ru_price</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>bashautomarket.ru</t>
         </is>
       </c>
     </row>
@@ -572,6 +562,14 @@
           <t>https://avrora-motors.ru/catalog/baic/bj40_I_restailing</t>
         </is>
       </c>
+      <c r="F2" t="n">
+        <v>4050000</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/baic/suv/suv-1gen-rest</t>
+        </is>
+      </c>
       <c r="J2" t="n">
         <v>3084000</v>
       </c>
@@ -604,14 +602,6 @@
           <t>https://motors-ag.ru/catalog/baic/bj40_I_restailing</t>
         </is>
       </c>
-      <c r="X2" t="n">
-        <v>4050000</v>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/baic/suv/suv-1gen-rest</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -637,6 +627,14 @@
           <t>https://avrora-motors.ru/catalog/baic/u5_plus</t>
         </is>
       </c>
+      <c r="F3" t="n">
+        <v>1780000</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/baic/sedan/sedan-1gen</t>
+        </is>
+      </c>
       <c r="J3" t="n">
         <v>1344000</v>
       </c>
@@ -669,14 +667,6 @@
           <t>https://motors-ag.ru/catalog/baic/u5_plus</t>
         </is>
       </c>
-      <c r="X3" t="n">
-        <v>1780000</v>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/baic/sedan/sedan-1gen</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -735,6 +725,14 @@
           <t>https://autofort-ufa.ru/avto-new/baic/x35/</t>
         </is>
       </c>
+      <c r="F5" t="n">
+        <v>1925000</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/baic/cuv/suv-1gen</t>
+        </is>
+      </c>
       <c r="J5" t="n">
         <v>1344000</v>
       </c>
@@ -767,14 +765,6 @@
           <t>https://motors-ag.ru/catalog/baic/x35</t>
         </is>
       </c>
-      <c r="X5" t="n">
-        <v>1925000</v>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/baic/cuv/suv-1gen</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -800,6 +790,14 @@
           <t>https://autofort-ufa.ru/avto-new/baic/x55/</t>
         </is>
       </c>
+      <c r="F6" t="n">
+        <v>2670000</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/baic/x55/suv-1gen</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>2281781</v>
       </c>
@@ -816,14 +814,6 @@
           <t>https://autofort-ufa.ru/avto-new/baic/x55/</t>
         </is>
       </c>
-      <c r="X6" t="n">
-        <v>2670000</v>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/baic/x55/suv-1gen</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -849,6 +839,14 @@
           <t>https://autofort-ufa.ru/avto-new/baic/x7/</t>
         </is>
       </c>
+      <c r="F7" t="n">
+        <v>2800000</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/baic/x7/suv-1gen</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>2570370</v>
       </c>
@@ -865,14 +863,6 @@
           <t>https://autofort-ufa.ru/avto-new/baic/x7/</t>
         </is>
       </c>
-      <c r="X7" t="n">
-        <v>2800000</v>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/baic/x7/suv-1gen</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -898,6 +888,14 @@
           <t>https://autofort-ufa.ru/avto-new/baic/x75/</t>
         </is>
       </c>
+      <c r="F8" t="n">
+        <v>2690000</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/baic/x75/suv-1gen</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>2699000</v>
       </c>
@@ -914,14 +912,6 @@
           <t>https://autofort-ufa.ru/avto-new/baic/x75/</t>
         </is>
       </c>
-      <c r="X8" t="n">
-        <v>2690000</v>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/baic/x75/suv-1gen</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1860,6 +1850,14 @@
           <t>https://autofort-ufa.ru/avto-new/changan/uni_k/</t>
         </is>
       </c>
+      <c r="F26" t="n">
+        <v>3339900</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/changan/uni-k/suv</t>
+        </is>
+      </c>
       <c r="H26" t="n">
         <v>3041200</v>
       </c>
@@ -1908,14 +1906,6 @@
           <t>https://ufabm.ru/cars/changan/uni-k/350219/</t>
         </is>
       </c>
-      <c r="X26" t="n">
-        <v>3339900</v>
-      </c>
-      <c r="Y26" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/changan/uni-k/suv</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1942,7 +1932,7 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>4549900</v>
+        <v>4399900</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -1975,7 +1965,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>2489900</v>
+        <v>2429900</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1983,7 +1973,7 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2489900</v>
+        <v>2429900</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2015,6 +2005,14 @@
           <t>https://avrora-motors.ru/catalog/changan/uni-t</t>
         </is>
       </c>
+      <c r="F29" t="n">
+        <v>2569900</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/changan/UNI-T/SUV_5D</t>
+        </is>
+      </c>
       <c r="H29" t="n">
         <v>2432200</v>
       </c>
@@ -2047,14 +2045,6 @@
           <t>https://autofort-ufa.ru/avto-new/changan/uni_t/</t>
         </is>
       </c>
-      <c r="X29" t="n">
-        <v>2569900</v>
-      </c>
-      <c r="Y29" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/changan/UNI-T/SUV_5D</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2080,6 +2070,14 @@
           <t>https://ufa.autospot.ru/brands/changan/uni_v/liftback/price/</t>
         </is>
       </c>
+      <c r="F30" t="n">
+        <v>2559900</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/changan/uni-v/liftback</t>
+        </is>
+      </c>
       <c r="H30" t="n">
         <v>2417300</v>
       </c>
@@ -2128,14 +2126,6 @@
           <t>https://ufabm.ru/cars/changan/uni-v/350220/</t>
         </is>
       </c>
-      <c r="X30" t="n">
-        <v>2559900</v>
-      </c>
-      <c r="Y30" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/changan/uni-v/liftback</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2161,6 +2151,14 @@
           <t>https://ufa.autospot.ru/brands/chery/arrizo8/sedan/price/</t>
         </is>
       </c>
+      <c r="F31" t="n">
+        <v>2650000</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/chery/arrizo-8/sedan-1gen</t>
+        </is>
+      </c>
       <c r="H31" t="n">
         <v>3012400</v>
       </c>
@@ -2193,14 +2191,6 @@
           <t>https://autofort-ufa.ru/avto-new/chery/arrizo_8/</t>
         </is>
       </c>
-      <c r="X31" t="n">
-        <v>2650000</v>
-      </c>
-      <c r="Y31" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/chery/arrizo-8/sedan-1gen</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2593,6 +2583,14 @@
           <t>https://ufabm.ru/cars/chery/tiggo-7-pro/350274/</t>
         </is>
       </c>
+      <c r="F39" t="n">
+        <v>2270000</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/chery/tiggo-7-pro/cuv</t>
+        </is>
+      </c>
       <c r="H39" t="n">
         <v>2283500</v>
       </c>
@@ -2641,14 +2639,6 @@
           <t>https://ufa-automarket.ru/cars/chery/tiggo7pro</t>
         </is>
       </c>
-      <c r="X39" t="n">
-        <v>2270000</v>
-      </c>
-      <c r="Y39" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/chery/tiggo-7-pro/cuv</t>
-        </is>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2674,6 +2664,14 @@
           <t>https://ufabm.ru/cars/chery/tiggo-7-pro-max/350225/</t>
         </is>
       </c>
+      <c r="F40" t="n">
+        <v>2420000</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/chery/tiggo-7-pro-max/tiggo-7-pro-max</t>
+        </is>
+      </c>
       <c r="H40" t="n">
         <v>2427000</v>
       </c>
@@ -2722,14 +2720,6 @@
           <t>https://ufabm.ru/cars/chery/tiggo-7-pro-max/350225/</t>
         </is>
       </c>
-      <c r="X40" t="n">
-        <v>2420000</v>
-      </c>
-      <c r="Y40" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/chery/tiggo-7-pro-max/tiggo-7-pro-max</t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2755,6 +2745,14 @@
           <t>https://ufa.autospot.ru/brands/chery/tiggo7promax_i/suv/price/</t>
         </is>
       </c>
+      <c r="F41" t="n">
+        <v>2470000</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/chery/tiggo-7-pro-max/suv-1gen-rest</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1930000</v>
       </c>
@@ -2763,14 +2761,6 @@
           <t>https://ufa.autospot.ru/brands/chery/tiggo7promax_i/suv/price/</t>
         </is>
       </c>
-      <c r="X41" t="n">
-        <v>2470000</v>
-      </c>
-      <c r="Y41" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/chery/tiggo-7-pro-max/suv-1gen-rest</t>
-        </is>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2902,6 +2892,14 @@
           <t>https://ufabm.ru/cars/chery/tiggo-8-pro/350226/</t>
         </is>
       </c>
+      <c r="F44" t="n">
+        <v>3130000</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/chery/tiggo-8-pro/cuv</t>
+        </is>
+      </c>
       <c r="H44" t="n">
         <v>2859900</v>
       </c>
@@ -2950,14 +2948,6 @@
           <t>https://ufa-automarket.ru/cars/chery/tiggo_8_pro</t>
         </is>
       </c>
-      <c r="X44" t="n">
-        <v>3130000</v>
-      </c>
-      <c r="Y44" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/chery/tiggo-8-pro/cuv</t>
-        </is>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2983,6 +2973,14 @@
           <t>https://avrora-motors.ru/catalog/chery/tiggo_8_pro_max_I_restailing_2023</t>
         </is>
       </c>
+      <c r="F45" t="n">
+        <v>3860000</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/chery/tiggo-8-pro-max-new/suv-1gen-3rest</t>
+        </is>
+      </c>
       <c r="H45" t="n">
         <v>3633100</v>
       </c>
@@ -3015,14 +3013,6 @@
           <t>https://autofort-ufa.ru/avto-new/chery/tiggo8pro_max/</t>
         </is>
       </c>
-      <c r="X45" t="n">
-        <v>3860000</v>
-      </c>
-      <c r="Y45" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/chery/tiggo-8-pro-max-new/suv-1gen-3rest</t>
-        </is>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3796,6 +3786,14 @@
           <t>https://ufabm.ru/cars/exeed/lx/350275/</t>
         </is>
       </c>
+      <c r="F66" t="n">
+        <v>2760000</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/exeed/lx/suv</t>
+        </is>
+      </c>
       <c r="H66" t="n">
         <v>2513500</v>
       </c>
@@ -3852,14 +3850,6 @@
           <t>https://ufa-automarket.ru/cars/exeed/lx</t>
         </is>
       </c>
-      <c r="X66" t="n">
-        <v>2760000</v>
-      </c>
-      <c r="Y66" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/exeed/lx/suv</t>
-        </is>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3926,6 +3916,14 @@
           <t>https://ufabm.ru/cars/exeed/rx/350276/</t>
         </is>
       </c>
+      <c r="F68" t="n">
+        <v>3890000</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/exeed/rx/suv-1gen</t>
+        </is>
+      </c>
       <c r="H68" t="n">
         <v>3996700</v>
       </c>
@@ -3966,14 +3964,6 @@
           <t>https://ufabm.ru/cars/exeed/rx/350276/</t>
         </is>
       </c>
-      <c r="X68" t="n">
-        <v>3890000</v>
-      </c>
-      <c r="Y68" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/exeed/rx/suv-1gen</t>
-        </is>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3999,6 +3989,14 @@
           <t>https://motors-ag.ru/catalog/chery/txl</t>
         </is>
       </c>
+      <c r="F69" t="n">
+        <v>3699900</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/exeed/txl/cuv</t>
+        </is>
+      </c>
       <c r="H69" t="n">
         <v>3500500</v>
       </c>
@@ -4055,14 +4053,6 @@
           <t>https://ufa-automarket.ru/cars/exeed/txl</t>
         </is>
       </c>
-      <c r="X69" t="n">
-        <v>3699900</v>
-      </c>
-      <c r="Y69" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/exeed/txl/cuv</t>
-        </is>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4088,6 +4078,14 @@
           <t>https://autofort-ufa.ru/avto-new/exeed/chery__txl/</t>
         </is>
       </c>
+      <c r="F70" t="n">
+        <v>3960000</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/exeed/txl-new/suv</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>3180000</v>
       </c>
@@ -4104,14 +4102,6 @@
           <t>https://autofort-ufa.ru/avto-new/exeed/chery__txl/</t>
         </is>
       </c>
-      <c r="X70" t="n">
-        <v>3960000</v>
-      </c>
-      <c r="Y70" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/exeed/txl-new/suv</t>
-        </is>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4137,6 +4127,14 @@
           <t>https://ufabm.ru/cars/exeed/vx/350228/</t>
         </is>
       </c>
+      <c r="F71" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/exeed/vx/cuv</t>
+        </is>
+      </c>
       <c r="H71" t="n">
         <v>5330000</v>
       </c>
@@ -4193,14 +4191,6 @@
           <t>https://ufa-automarket.ru/cars/exeed/vx</t>
         </is>
       </c>
-      <c r="X71" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="Y71" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/exeed/vx/cuv</t>
-        </is>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4226,6 +4216,14 @@
           <t>https://autofort-ufa.ru/avto-new/exeed/vx_%D0%BD%D0%BE%D0%B2%D1%8B%D0%B9/</t>
         </is>
       </c>
+      <c r="F72" t="n">
+        <v>6200000</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/exeed/vx-new/suv-1gen-rest</t>
+        </is>
+      </c>
       <c r="P72" t="n">
         <v>4200000</v>
       </c>
@@ -4234,14 +4232,6 @@
           <t>https://autofort-ufa.ru/avto-new/exeed/vx_%D0%BD%D0%BE%D0%B2%D1%8B%D0%B9/</t>
         </is>
       </c>
-      <c r="X72" t="n">
-        <v>6200000</v>
-      </c>
-      <c r="Y72" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/exeed/vx-new/suv-1gen-rest</t>
-        </is>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4333,6 +4323,14 @@
           <t>https://motors-ag.ru/catalog/faw/bestune_b70</t>
         </is>
       </c>
+      <c r="F75" t="n">
+        <v>2150000</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/faw/bestune-b70/liftback-1gen</t>
+        </is>
+      </c>
       <c r="H75" t="n">
         <v>2111100</v>
       </c>
@@ -4373,14 +4371,6 @@
           <t>https://motors-ag.ru/catalog/faw/bestune_b70</t>
         </is>
       </c>
-      <c r="X75" t="n">
-        <v>2150000</v>
-      </c>
-      <c r="Y75" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/faw/bestune-b70/liftback-1gen</t>
-        </is>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4406,6 +4396,14 @@
           <t>https://motors-ag.ru/catalog/faw/bestune_t55</t>
         </is>
       </c>
+      <c r="F76" t="n">
+        <v>2111000</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/faw/bestune-t55/SUV_5D</t>
+        </is>
+      </c>
       <c r="H76" t="n">
         <v>2075200</v>
       </c>
@@ -4438,14 +4436,6 @@
           <t>https://motors-ag.ru/catalog/faw/bestune_t55</t>
         </is>
       </c>
-      <c r="X76" t="n">
-        <v>2111000</v>
-      </c>
-      <c r="Y76" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/faw/bestune-t55/SUV_5D</t>
-        </is>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4471,6 +4461,14 @@
           <t>https://ufa-automarket.ru/cars/faw/bestune_t77</t>
         </is>
       </c>
+      <c r="F77" t="n">
+        <v>2564000</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/faw/bestune-t77/cuv</t>
+        </is>
+      </c>
       <c r="H77" t="n">
         <v>2150000</v>
       </c>
@@ -4511,14 +4509,6 @@
           <t>https://ufa-automarket.ru/cars/faw/bestune_t77</t>
         </is>
       </c>
-      <c r="X77" t="n">
-        <v>2564000</v>
-      </c>
-      <c r="Y77" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/faw/bestune-t77/cuv</t>
-        </is>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4544,6 +4534,14 @@
           <t>https://autofort-ufa.ru/avto-new/faw/bestune_t99/</t>
         </is>
       </c>
+      <c r="F78" t="n">
+        <v>2740000</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/faw/bestune-t99/SUV_5D</t>
+        </is>
+      </c>
       <c r="H78" t="n">
         <v>2683700</v>
       </c>
@@ -4560,14 +4558,6 @@
           <t>https://autofort-ufa.ru/avto-new/faw/bestune_t99/</t>
         </is>
       </c>
-      <c r="X78" t="n">
-        <v>2740000</v>
-      </c>
-      <c r="Y78" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/faw/bestune-t99/SUV_5D</t>
-        </is>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4659,6 +4649,14 @@
           <t>https://ufa-automarket.ru/cars/faw/besturn_t99</t>
         </is>
       </c>
+      <c r="F81" t="n">
+        <v>2773000</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/faw/besturn-t99/suv_5d-1gen-rest</t>
+        </is>
+      </c>
       <c r="V81" t="n">
         <v>1829000</v>
       </c>
@@ -4667,14 +4665,6 @@
           <t>https://ufa-automarket.ru/cars/faw/besturn_t99</t>
         </is>
       </c>
-      <c r="X81" t="n">
-        <v>2773000</v>
-      </c>
-      <c r="Y81" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/faw/besturn-t99/suv_5d-1gen-rest</t>
-        </is>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -5235,6 +5225,14 @@
           <t>https://ufa.masmotors.ru/car/gac/gn8</t>
         </is>
       </c>
+      <c r="F97" t="n">
+        <v>3099000</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/gac/gn-8/van-1gen</t>
+        </is>
+      </c>
       <c r="H97" t="n">
         <v>2860600</v>
       </c>
@@ -5259,14 +5257,6 @@
           <t>https://motors-ag.ru/catalog/gac/gn8</t>
         </is>
       </c>
-      <c r="X97" t="n">
-        <v>3099000</v>
-      </c>
-      <c r="Y97" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/gac/gn-8/van-1gen</t>
-        </is>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -5333,10 +5323,10 @@
           <t>https://bashautomarket.ru/auto/gac/gs3/suv-1gen</t>
         </is>
       </c>
-      <c r="X99" t="n">
+      <c r="F99" t="n">
         <v>1999000</v>
       </c>
-      <c r="Y99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>https://bashautomarket.ru/auto/gac/gs3/suv-1gen</t>
         </is>
@@ -5782,6 +5772,14 @@
           <t>https://bashautomarket.ru/auto/geely/cityray/suv-1gen</t>
         </is>
       </c>
+      <c r="F108" t="n">
+        <v>1474990</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/geely/cityray/suv-1gen</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>2118190</v>
       </c>
@@ -5798,14 +5796,6 @@
           <t>https://autofort-ufa.ru/avto-new/geely/Cityray/</t>
         </is>
       </c>
-      <c r="X108" t="n">
-        <v>1474990</v>
-      </c>
-      <c r="Y108" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/geely/cityray/suv-1gen</t>
-        </is>
-      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -5831,6 +5821,14 @@
           <t>https://ufabm.ru/cars/geely/coolray/350232/</t>
         </is>
       </c>
+      <c r="F109" t="n">
+        <v>2039990</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/geely/coolray-new/suv-5d</t>
+        </is>
+      </c>
       <c r="H109" t="n">
         <v>1859490</v>
       </c>
@@ -5879,14 +5877,6 @@
           <t>https://ufa-automarket.ru/cars/geely/coolray</t>
         </is>
       </c>
-      <c r="X109" t="n">
-        <v>2039990</v>
-      </c>
-      <c r="Y109" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/geely/coolray-new/suv-5d</t>
-        </is>
-      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -5969,6 +5959,14 @@
           <t>https://bashautomarket.ru/auto/geely/emgrand/sedan-2gen</t>
         </is>
       </c>
+      <c r="F111" t="n">
+        <v>1389990</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/geely/emgrand/sedan-2gen</t>
+        </is>
+      </c>
       <c r="H111" t="n">
         <v>1670990</v>
       </c>
@@ -5993,14 +5991,6 @@
           <t>https://autofort-ufa.ru/avto-new/geely/emgrand_NEW/</t>
         </is>
       </c>
-      <c r="X111" t="n">
-        <v>1389990</v>
-      </c>
-      <c r="Y111" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/geely/emgrand/sedan-2gen</t>
-        </is>
-      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -6287,10 +6277,10 @@
           <t>https://bashautomarket.ru/auto/geely/okavango/suv-1gen-rest</t>
         </is>
       </c>
-      <c r="X117" t="n">
+      <c r="F117" t="n">
         <v>2729990</v>
       </c>
-      <c r="Y117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>https://bashautomarket.ru/auto/geely/okavango/suv-1gen-rest</t>
         </is>
@@ -6320,6 +6310,14 @@
           <t>https://autofort-ufa.ru/avto-new/geely/preface/</t>
         </is>
       </c>
+      <c r="F118" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/geely/preface/sedan-1gen-rest</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>2200313</v>
       </c>
@@ -6336,14 +6334,6 @@
           <t>https://autofort-ufa.ru/avto-new/geely/preface/</t>
         </is>
       </c>
-      <c r="X118" t="n">
-        <v>2000000</v>
-      </c>
-      <c r="Y118" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/geely/preface/sedan-1gen-rest</t>
-        </is>
-      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -6868,15 +6858,23 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>1870407</v>
+        <v>1802310</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
           <t>https://ufa.autospot.ru/brands/haval/f7_ii/suv/price/</t>
         </is>
       </c>
+      <c r="F129" t="n">
+        <v>2099000</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/haval/new-f-7/cuv</t>
+        </is>
+      </c>
       <c r="L129" t="n">
-        <v>1870407</v>
+        <v>1802310</v>
       </c>
       <c r="M129" t="inlineStr">
         <is>
@@ -6891,14 +6889,6 @@
           <t>https://autofort-ufa.ru/avto-new/haval/haval_f7_%D0%BD%D0%BE%D0%B2%D1%8B%D0%B9/</t>
         </is>
       </c>
-      <c r="X129" t="n">
-        <v>2099000</v>
-      </c>
-      <c r="Y129" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/haval/new-f-7/cuv</t>
-        </is>
-      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -7005,10 +6995,10 @@
           <t>https://bashautomarket.ru/auto/haval/new-f-7-x/cuv</t>
         </is>
       </c>
-      <c r="X131" t="n">
+      <c r="F131" t="n">
         <v>2149000</v>
       </c>
-      <c r="Y131" t="inlineStr">
+      <c r="G131" t="inlineStr">
         <is>
           <t>https://bashautomarket.ru/auto/haval/new-f-7-x/cuv</t>
         </is>
@@ -7145,6 +7135,14 @@
           <t>https://avrora-motors.ru/catalog/haval/h3</t>
         </is>
       </c>
+      <c r="F135" t="n">
+        <v>2299000</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/haval/h3/suv-1gen</t>
+        </is>
+      </c>
       <c r="J135" t="n">
         <v>1744300</v>
       </c>
@@ -7169,14 +7167,6 @@
           <t>https://autofort-ufa.ru/avto-new/haval/haval_h3/</t>
         </is>
       </c>
-      <c r="X135" t="n">
-        <v>2299000</v>
-      </c>
-      <c r="Y135" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/haval/h3/suv-1gen</t>
-        </is>
-      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -7259,10 +7249,10 @@
           <t>https://bashautomarket.ru/auto/haval/h-5/suv-2gen</t>
         </is>
       </c>
-      <c r="X137" t="n">
+      <c r="F137" t="n">
         <v>3399000</v>
       </c>
-      <c r="Y137" t="inlineStr">
+      <c r="G137" t="inlineStr">
         <is>
           <t>https://bashautomarket.ru/auto/haval/h-5/suv-2gen</t>
         </is>
@@ -7390,6 +7380,14 @@
           <t>https://ufa.autospot.ru/brands/haval/h9_ii/suv/price/</t>
         </is>
       </c>
+      <c r="F140" t="n">
+        <v>3999000</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/haval/h9/suv-2gen</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>3519200</v>
       </c>
@@ -7398,14 +7396,6 @@
           <t>https://ufa.autospot.ru/brands/haval/h9_ii/suv/price/</t>
         </is>
       </c>
-      <c r="X140" t="n">
-        <v>3999000</v>
-      </c>
-      <c r="Y140" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/haval/h9/suv-2gen</t>
-        </is>
-      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -7431,6 +7421,14 @@
           <t>https://motors-ag.ru/catalog/haval/jolion</t>
         </is>
       </c>
+      <c r="F141" t="n">
+        <v>1649000</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/haval/jolion/cuv</t>
+        </is>
+      </c>
       <c r="H141" t="n">
         <v>1619000</v>
       </c>
@@ -7487,14 +7485,6 @@
           <t>https://ufa-automarket.ru/cars/haval/jolion</t>
         </is>
       </c>
-      <c r="X141" t="n">
-        <v>1649000</v>
-      </c>
-      <c r="Y141" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/haval/jolion/cuv</t>
-        </is>
-      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -7569,6 +7559,14 @@
           <t>https://ufabm.ru/cars/haval/m6/350251/</t>
         </is>
       </c>
+      <c r="F143" t="n">
+        <v>1879000</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/haval/m6/wagon-1gen</t>
+        </is>
+      </c>
       <c r="H143" t="n">
         <v>1835700</v>
       </c>
@@ -7599,14 +7597,6 @@
       <c r="U143" t="inlineStr">
         <is>
           <t>https://ufabm.ru/cars/haval/m6/350251/</t>
-        </is>
-      </c>
-      <c r="X143" t="n">
-        <v>1879000</v>
-      </c>
-      <c r="Y143" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/haval/m6/wagon-1gen</t>
         </is>
       </c>
     </row>
@@ -8622,10 +8612,10 @@
           <t>https://bashautomarket.ru/auto/jac/js3/suv-1gen</t>
         </is>
       </c>
-      <c r="X168" t="n">
+      <c r="F168" t="n">
         <v>1549000</v>
       </c>
-      <c r="Y168" t="inlineStr">
+      <c r="G168" t="inlineStr">
         <is>
           <t>https://bashautomarket.ru/auto/jac/js3/suv-1gen</t>
         </is>
@@ -8655,6 +8645,14 @@
           <t>https://autofort-ufa.ru/avto-new/jac/js4/</t>
         </is>
       </c>
+      <c r="F169" t="n">
+        <v>1849000</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/jac/js4/wagon-1gen</t>
+        </is>
+      </c>
       <c r="P169" t="n">
         <v>1296750</v>
       </c>
@@ -8663,14 +8661,6 @@
           <t>https://autofort-ufa.ru/avto-new/jac/js4/</t>
         </is>
       </c>
-      <c r="X169" t="n">
-        <v>1849000</v>
-      </c>
-      <c r="Y169" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/jac/js4/wagon-1gen</t>
-        </is>
-      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -8689,11 +8679,19 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>1799250</v>
+        <v>1799300</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/jac/js6/</t>
+          <t>https://avrora-motors.ru/catalog/jac/js6</t>
+        </is>
+      </c>
+      <c r="F170" t="n">
+        <v>2099000</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/jac/js6/wagon-1gen</t>
         </is>
       </c>
       <c r="H170" t="n">
@@ -8721,7 +8719,7 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>1799250</v>
+        <v>2106750</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
@@ -8736,14 +8734,6 @@
           <t>https://motors-ag.ru/catalog/jac/js6</t>
         </is>
       </c>
-      <c r="X170" t="n">
-        <v>2099000</v>
-      </c>
-      <c r="Y170" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/jac/js6/wagon-1gen</t>
-        </is>
-      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -9039,6 +9029,14 @@
           <t>https://ufa.autospot.ru/brands/jac/t8/pickup/price/</t>
         </is>
       </c>
+      <c r="F177" t="n">
+        <v>2699000</v>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/jac/t8/pickup-1gen</t>
+        </is>
+      </c>
       <c r="H177" t="n">
         <v>2609100</v>
       </c>
@@ -9055,14 +9053,6 @@
           <t>https://ufa.autospot.ru/brands/jac/t8/pickup/price/</t>
         </is>
       </c>
-      <c r="X177" t="n">
-        <v>2699000</v>
-      </c>
-      <c r="Y177" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/jac/t8/pickup-1gen</t>
-        </is>
-      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -9088,6 +9078,14 @@
           <t>https://ufa.masmotors.ru/car/jac/t8-pro</t>
         </is>
       </c>
+      <c r="F178" t="n">
+        <v>2899000</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/jac/t8-pro/pickup-1gen</t>
+        </is>
+      </c>
       <c r="H178" t="n">
         <v>2774100</v>
       </c>
@@ -9104,14 +9102,6 @@
           <t>https://ufa.autospot.ru/brands/jac/t8pro/pickup/price/</t>
         </is>
       </c>
-      <c r="X178" t="n">
-        <v>2899000</v>
-      </c>
-      <c r="Y178" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/jac/t8-pro/pickup-1gen</t>
-        </is>
-      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -9170,10 +9160,10 @@
           <t>https://bashautomarket.ru/auto/jac/t9/pickup-1gen</t>
         </is>
       </c>
-      <c r="X180" t="n">
+      <c r="F180" t="n">
         <v>3099000</v>
       </c>
-      <c r="Y180" t="inlineStr">
+      <c r="G180" t="inlineStr">
         <is>
           <t>https://bashautomarket.ru/auto/jac/t9/pickup-1gen</t>
         </is>
@@ -9236,6 +9226,14 @@
           <t>https://avrora-motors.ru/catalog/jaecoo/j7</t>
         </is>
       </c>
+      <c r="F182" t="n">
+        <v>3039900</v>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/jaecoo/j-7/suv-1gen</t>
+        </is>
+      </c>
       <c r="J182" t="n">
         <v>1998940</v>
       </c>
@@ -9260,14 +9258,6 @@
           <t>https://autofort-ufa.ru/avto-new/jaecoo/jaecoo_j7/</t>
         </is>
       </c>
-      <c r="X182" t="n">
-        <v>3039900</v>
-      </c>
-      <c r="Y182" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/jaecoo/j-7/suv-1gen</t>
-        </is>
-      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -9293,6 +9283,14 @@
           <t>https://autofort-ufa.ru/avto-new/jaecoo/jaecoo_j8/</t>
         </is>
       </c>
+      <c r="F183" t="n">
+        <v>4099000</v>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/jaecoo/j8/suv-1gen</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>3449000</v>
       </c>
@@ -9309,14 +9307,6 @@
           <t>https://autofort-ufa.ru/avto-new/jaecoo/jaecoo_j8/</t>
         </is>
       </c>
-      <c r="X183" t="n">
-        <v>4099000</v>
-      </c>
-      <c r="Y183" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/jaecoo/j8/suv-1gen</t>
-        </is>
-      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -9342,6 +9332,14 @@
           <t>https://avrora-motors.ru/catalog/jetour/dashing</t>
         </is>
       </c>
+      <c r="F184" t="n">
+        <v>2189900</v>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/jetour/dashing/dashing</t>
+        </is>
+      </c>
       <c r="H184" t="n">
         <v>2017100</v>
       </c>
@@ -9398,14 +9396,6 @@
           <t>https://ufa-automarket.ru/cars/jetour/dashing</t>
         </is>
       </c>
-      <c r="X184" t="n">
-        <v>2189900</v>
-      </c>
-      <c r="Y184" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/jetour/dashing/dashing</t>
-        </is>
-      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -9480,6 +9470,14 @@
           <t>https://autofort-ufa.ru/avto-new/jetour/X-50/</t>
         </is>
       </c>
+      <c r="F186" t="n">
+        <v>1690000</v>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/jetour/x50/cuv-1gen</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1990000</v>
       </c>
@@ -9496,14 +9494,6 @@
           <t>https://autofort-ufa.ru/avto-new/jetour/X-50/</t>
         </is>
       </c>
-      <c r="X186" t="n">
-        <v>1690000</v>
-      </c>
-      <c r="Y186" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/jetour/x50/cuv-1gen</t>
-        </is>
-      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -9578,6 +9568,14 @@
           <t>https://avrora-motors.ru/catalog/jetour/x90plus</t>
         </is>
       </c>
+      <c r="F188" t="n">
+        <v>3099900</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/jetour/x90plus/x90plus</t>
+        </is>
+      </c>
       <c r="H188" t="n">
         <v>2854300</v>
       </c>
@@ -9626,14 +9624,6 @@
           <t>https://ufa-automarket.ru/cars/jetour/x90plus</t>
         </is>
       </c>
-      <c r="X188" t="n">
-        <v>3099900</v>
-      </c>
-      <c r="Y188" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/jetour/x90plus/x90plus</t>
-        </is>
-      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -9659,6 +9649,14 @@
           <t>https://ufa-automarket.ru/cars/jetta/va_3</t>
         </is>
       </c>
+      <c r="F189" t="n">
+        <v>1390000</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/jetta/va3/va3</t>
+        </is>
+      </c>
       <c r="J189" t="n">
         <v>1197400</v>
       </c>
@@ -9691,14 +9689,6 @@
           <t>https://ufa-automarket.ru/cars/jetta/va_3</t>
         </is>
       </c>
-      <c r="X189" t="n">
-        <v>1390000</v>
-      </c>
-      <c r="Y189" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/jetta/va3/va3</t>
-        </is>
-      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -9724,6 +9714,14 @@
           <t>https://ufa-automarket.ru/cars/jetta/vs5</t>
         </is>
       </c>
+      <c r="F190" t="n">
+        <v>1690000</v>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/jetta/vs5/vs5</t>
+        </is>
+      </c>
       <c r="J190" t="n">
         <v>1442200</v>
       </c>
@@ -9764,14 +9762,6 @@
           <t>https://ufa-automarket.ru/cars/jetta/vs5</t>
         </is>
       </c>
-      <c r="X190" t="n">
-        <v>1690000</v>
-      </c>
-      <c r="Y190" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/jetta/vs5/vs5</t>
-        </is>
-      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -9830,6 +9820,14 @@
           <t>https://ufa-automarket.ru/cars/jetta/vs7</t>
         </is>
       </c>
+      <c r="F192" t="n">
+        <v>1849000</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/jetta/vs7/vs7</t>
+        </is>
+      </c>
       <c r="J192" t="n">
         <v>1724800</v>
       </c>
@@ -9862,14 +9860,6 @@
           <t>https://ufa-automarket.ru/cars/jetta/vs7</t>
         </is>
       </c>
-      <c r="X192" t="n">
-        <v>1849000</v>
-      </c>
-      <c r="Y192" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/jetta/vs7/vs7</t>
-        </is>
-      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -9928,6 +9918,14 @@
           <t>https://ufabm.ru/cars/kaiyi/kaiyi-e5/350283/</t>
         </is>
       </c>
+      <c r="F194" t="n">
+        <v>1945000</v>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/kaiyi/e5/e5</t>
+        </is>
+      </c>
       <c r="J194" t="n">
         <v>1336300</v>
       </c>
@@ -9976,14 +9974,6 @@
           <t>https://ufa-automarket.ru/cars/kaiyi/e5</t>
         </is>
       </c>
-      <c r="X194" t="n">
-        <v>1945000</v>
-      </c>
-      <c r="Y194" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/kaiyi/e5/e5</t>
-        </is>
-      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -10009,6 +9999,14 @@
           <t>https://avrora-motors.ru/catalog/kaiyi/x3</t>
         </is>
       </c>
+      <c r="F195" t="n">
+        <v>1931650</v>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/kaiyi/x3/suv-1gen</t>
+        </is>
+      </c>
       <c r="J195" t="n">
         <v>1337800</v>
       </c>
@@ -10025,14 +10023,6 @@
           <t>https://autofort-ufa.ru/avto-new/kaiyi/kaiyi_x3/</t>
         </is>
       </c>
-      <c r="X195" t="n">
-        <v>1931650</v>
-      </c>
-      <c r="Y195" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/kaiyi/x3/suv-1gen</t>
-        </is>
-      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -10058,6 +10048,14 @@
           <t>https://avrora-motors.ru/catalog/kaiyi/x3_pro</t>
         </is>
       </c>
+      <c r="F196" t="n">
+        <v>2214900</v>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/kaiyi/x3-pro/suv-1gen</t>
+        </is>
+      </c>
       <c r="J196" t="n">
         <v>1544900</v>
       </c>
@@ -10074,14 +10072,6 @@
           <t>https://autofort-ufa.ru/avto-new/kaiyi/kaiyi_x3_pro/</t>
         </is>
       </c>
-      <c r="X196" t="n">
-        <v>2214900</v>
-      </c>
-      <c r="Y196" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/kaiyi/x3-pro/suv-1gen</t>
-        </is>
-      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -10107,6 +10097,14 @@
           <t>https://autofort-ufa.ru/avto-new/kaiyi/kaiyi_x7_kunlun/</t>
         </is>
       </c>
+      <c r="F197" t="n">
+        <v>2697900</v>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/kaiyi/x7-kunlun/suv-1gen</t>
+        </is>
+      </c>
       <c r="P197" t="n">
         <v>2248425</v>
       </c>
@@ -10115,14 +10113,6 @@
           <t>https://autofort-ufa.ru/avto-new/kaiyi/kaiyi_x7_kunlun/</t>
         </is>
       </c>
-      <c r="X197" t="n">
-        <v>2697900</v>
-      </c>
-      <c r="Y197" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/kaiyi/x7-kunlun/suv-1gen</t>
-        </is>
-      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -10437,7 +10427,7 @@
         </is>
       </c>
       <c r="L206" t="n">
-        <v>951000</v>
+        <v>902000</v>
       </c>
       <c r="M206" t="inlineStr">
         <is>
@@ -10591,10 +10581,10 @@
           <t>https://bashautomarket.ru/auto/lada/new-granta/hatchback</t>
         </is>
       </c>
-      <c r="X209" t="n">
+      <c r="F209" t="n">
         <v>478500</v>
       </c>
-      <c r="Y209" t="inlineStr">
+      <c r="G209" t="inlineStr">
         <is>
           <t>https://bashautomarket.ru/auto/lada/new-granta/hatchback</t>
         </is>
@@ -10649,7 +10639,7 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>371900</v>
+        <v>674000</v>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
@@ -10705,10 +10695,10 @@
           <t>https://bashautomarket.ru/auto/lada/new-granta/liftback</t>
         </is>
       </c>
-      <c r="X211" t="n">
+      <c r="F211" t="n">
         <v>468900</v>
       </c>
-      <c r="Y211" t="inlineStr">
+      <c r="G211" t="inlineStr">
         <is>
           <t>https://bashautomarket.ru/auto/lada/new-granta/liftback</t>
         </is>
@@ -10876,6 +10866,14 @@
           <t>https://bashautomarket.ru/auto/lada/new-granta/sedan</t>
         </is>
       </c>
+      <c r="F214" t="n">
+        <v>399900</v>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/lada/new-granta/sedan</t>
+        </is>
+      </c>
       <c r="T214" t="n">
         <v>443200</v>
       </c>
@@ -10884,14 +10882,6 @@
           <t>https://ufabm.ru/cars/lada/granta-sedan-new/350259/</t>
         </is>
       </c>
-      <c r="X214" t="n">
-        <v>399900</v>
-      </c>
-      <c r="Y214" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/lada/new-granta/sedan</t>
-        </is>
-      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -11187,10 +11177,10 @@
           <t>https://bashautomarket.ru/auto/lada/new-granta/wagon</t>
         </is>
       </c>
-      <c r="X221" t="n">
+      <c r="F221" t="n">
         <v>485500</v>
       </c>
-      <c r="Y221" t="inlineStr">
+      <c r="G221" t="inlineStr">
         <is>
           <t>https://bashautomarket.ru/auto/lada/new-granta/wagon</t>
         </is>
@@ -11220,6 +11210,14 @@
           <t>https://bashautomarket.ru/auto/lada/largus/wagon</t>
         </is>
       </c>
+      <c r="F222" t="n">
+        <v>780540</v>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/lada/largus/wagon</t>
+        </is>
+      </c>
       <c r="H222" t="n">
         <v>1141900</v>
       </c>
@@ -11244,14 +11242,6 @@
           <t>https://ufa-automarket.ru/cars/lada/largus_21</t>
         </is>
       </c>
-      <c r="X222" t="n">
-        <v>780540</v>
-      </c>
-      <c r="Y222" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/lada/largus/wagon</t>
-        </is>
-      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -11277,10 +11267,10 @@
           <t>https://bashautomarket.ru/auto/lada/largus/wag</t>
         </is>
       </c>
-      <c r="X223" t="n">
+      <c r="F223" t="n">
         <v>799740</v>
       </c>
-      <c r="Y223" t="inlineStr">
+      <c r="G223" t="inlineStr">
         <is>
           <t>https://bashautomarket.ru/auto/lada/largus/wag</t>
         </is>
@@ -11310,6 +11300,14 @@
           <t>https://bashautomarket.ru/auto/lada/largus/wag%20cross</t>
         </is>
       </c>
+      <c r="F224" t="n">
+        <v>865740</v>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/lada/largus/wag%20cross</t>
+        </is>
+      </c>
       <c r="H224" t="n">
         <v>1280500</v>
       </c>
@@ -11326,14 +11324,6 @@
           <t>https://ufa-automarket.ru/cars/lada/largus_cross_21</t>
         </is>
       </c>
-      <c r="X224" t="n">
-        <v>865740</v>
-      </c>
-      <c r="Y224" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/lada/largus/wag%20cross</t>
-        </is>
-      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -11359,6 +11349,14 @@
           <t>https://bashautomarket.ru/auto/lada/largus/wagon%20cross</t>
         </is>
       </c>
+      <c r="F225" t="n">
+        <v>884940</v>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/lada/largus/wagon%20cross</t>
+        </is>
+      </c>
       <c r="H225" t="n">
         <v>1313600</v>
       </c>
@@ -11367,14 +11365,6 @@
           <t>https://ufa.masmotors.ru/car/lada/largus-cross7</t>
         </is>
       </c>
-      <c r="X225" t="n">
-        <v>884940</v>
-      </c>
-      <c r="Y225" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/lada/largus/wagon%20cross</t>
-        </is>
-      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -11482,6 +11472,14 @@
           <t>https://bashautomarket.ru/auto/lada/largus/van%20rest</t>
         </is>
       </c>
+      <c r="F228" t="n">
+        <v>1001900</v>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/lada/largus/van%20rest</t>
+        </is>
+      </c>
       <c r="H228" t="n">
         <v>1142800</v>
       </c>
@@ -11498,14 +11496,6 @@
           <t>https://ufa.autospot.ru/brands/lada/largus_i/van/price/</t>
         </is>
       </c>
-      <c r="X228" t="n">
-        <v>1001900</v>
-      </c>
-      <c r="Y228" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/lada/largus/van%20rest</t>
-        </is>
-      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -11605,6 +11595,14 @@
           <t>https://motors-ag.ru/catalog/lada/legend_3</t>
         </is>
       </c>
+      <c r="F231" t="n">
+        <v>529900</v>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/lada/niva-legend/suv</t>
+        </is>
+      </c>
       <c r="H231" t="n">
         <v>630900</v>
       </c>
@@ -11661,14 +11659,6 @@
           <t>https://ufa-automarket.ru/cars/lada/4x4_3dr</t>
         </is>
       </c>
-      <c r="X231" t="n">
-        <v>529900</v>
-      </c>
-      <c r="Y231" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/lada/niva-legend/suv</t>
-        </is>
-      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -11694,6 +11684,14 @@
           <t>https://motors-ag.ru/catalog/lada/legend_5</t>
         </is>
       </c>
+      <c r="F232" t="n">
+        <v>618900</v>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/lada/niva-legend/cuv</t>
+        </is>
+      </c>
       <c r="H232" t="n">
         <v>771300</v>
       </c>
@@ -11734,14 +11732,6 @@
           <t>https://ufa-automarket.ru/cars/lada/4x4_5dr</t>
         </is>
       </c>
-      <c r="X232" t="n">
-        <v>618900</v>
-      </c>
-      <c r="Y232" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/lada/niva-legend/cuv</t>
-        </is>
-      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -11800,10 +11790,10 @@
           <t>https://bashautomarket.ru/auto/lada/niva-legend/cuv-urban5</t>
         </is>
       </c>
-      <c r="X234" t="n">
+      <c r="F234" t="n">
         <v>689900</v>
       </c>
-      <c r="Y234" t="inlineStr">
+      <c r="G234" t="inlineStr">
         <is>
           <t>https://bashautomarket.ru/auto/lada/niva-legend/cuv-urban5</t>
         </is>
@@ -11833,6 +11823,14 @@
           <t>https://bashautomarket.ru/auto/lada/niva-new/suv</t>
         </is>
       </c>
+      <c r="F235" t="n">
+        <v>494400</v>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/lada/niva-new/suv</t>
+        </is>
+      </c>
       <c r="H235" t="n">
         <v>863000</v>
       </c>
@@ -11857,14 +11855,6 @@
           <t>https://ufa-automarket.ru/cars/lada/niva_off</t>
         </is>
       </c>
-      <c r="X235" t="n">
-        <v>494400</v>
-      </c>
-      <c r="Y235" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/lada/niva-new/suv</t>
-        </is>
-      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -11890,6 +11880,14 @@
           <t>https://motors-ag.ru/catalog/lada/travel</t>
         </is>
       </c>
+      <c r="F236" t="n">
+        <v>792900</v>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/lada/niva-travel/suv</t>
+        </is>
+      </c>
       <c r="H236" t="n">
         <v>830200</v>
       </c>
@@ -11946,14 +11944,6 @@
           <t>https://ufa-automarket.ru/cars/lada/travel</t>
         </is>
       </c>
-      <c r="X236" t="n">
-        <v>792900</v>
-      </c>
-      <c r="Y236" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/lada/niva-travel/suv</t>
-        </is>
-      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -12061,6 +12051,14 @@
           <t>https://ufabm.ru/cars/lada/vesta-cross/350263/</t>
         </is>
       </c>
+      <c r="F239" t="n">
+        <v>1433900</v>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/lada/vesta/cross-1gen-rest</t>
+        </is>
+      </c>
       <c r="J239" t="n">
         <v>557900</v>
       </c>
@@ -12109,14 +12107,6 @@
           <t>https://ufa-automarket.ru/cars/lada/vesta_cross</t>
         </is>
       </c>
-      <c r="X239" t="n">
-        <v>1433900</v>
-      </c>
-      <c r="Y239" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/lada/vesta/cross-1gen-rest</t>
-        </is>
-      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -12175,6 +12165,14 @@
           <t>https://motors-ag.ru/catalog/lada/vesta_sw</t>
         </is>
       </c>
+      <c r="F241" t="n">
+        <v>1339900</v>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/lada/vesta/sw-1gen-rest</t>
+        </is>
+      </c>
       <c r="J241" t="n">
         <v>441900</v>
       </c>
@@ -12215,14 +12213,6 @@
           <t>https://ufa-automarket.ru/cars/lada/vesta_sw</t>
         </is>
       </c>
-      <c r="X241" t="n">
-        <v>1339900</v>
-      </c>
-      <c r="Y241" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/lada/vesta/sw-1gen-rest</t>
-        </is>
-      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -12248,6 +12238,14 @@
           <t>https://motors-ag.ru/catalog/lada/vesta_sw_cross</t>
         </is>
       </c>
+      <c r="F242" t="n">
+        <v>1553900</v>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/lada/vesta/sw-cross-1gen-rest</t>
+        </is>
+      </c>
       <c r="J242" t="n">
         <v>539900</v>
       </c>
@@ -12288,14 +12286,6 @@
           <t>https://ufa-automarket.ru/cars/lada/vesta_sw_cross</t>
         </is>
       </c>
-      <c r="X242" t="n">
-        <v>1553900</v>
-      </c>
-      <c r="Y242" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/lada/vesta/sw-cross-1gen-rest</t>
-        </is>
-      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -12436,6 +12426,14 @@
           <t>https://motors-ag.ru/catalog/lada/vesta</t>
         </is>
       </c>
+      <c r="F246" t="n">
+        <v>939900</v>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/lada/vesta/sedan-1gen-rest</t>
+        </is>
+      </c>
       <c r="J246" t="n">
         <v>361900</v>
       </c>
@@ -12476,14 +12474,6 @@
           <t>https://ufa-automarket.ru/cars/lada/vesta</t>
         </is>
       </c>
-      <c r="X246" t="n">
-        <v>939900</v>
-      </c>
-      <c r="Y246" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/lada/vesta/sedan-1gen-rest</t>
-        </is>
-      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -13302,6 +13292,14 @@
           <t>https://avrora-motors.ru/catalog/livan/s6pro</t>
         </is>
       </c>
+      <c r="F264" t="n">
+        <v>2249900</v>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/livan/s6pro/sedan-1gen</t>
+        </is>
+      </c>
       <c r="J264" t="n">
         <v>1524940</v>
       </c>
@@ -13318,14 +13316,6 @@
           <t>https://autofort-ufa.ru/avto-new/livan/S6PRO/</t>
         </is>
       </c>
-      <c r="X264" t="n">
-        <v>2249900</v>
-      </c>
-      <c r="Y264" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/livan/s6pro/sedan-1gen</t>
-        </is>
-      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -13351,6 +13341,14 @@
           <t>https://avrora-motors.ru/catalog/livan/x3pro</t>
         </is>
       </c>
+      <c r="F265" t="n">
+        <v>1589900</v>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/livan/x3pro/suv-1gen</t>
+        </is>
+      </c>
       <c r="J265" t="n">
         <v>1026940</v>
       </c>
@@ -13383,14 +13381,6 @@
           <t>https://motors-ag.ru/catalog/livan/x3pro</t>
         </is>
       </c>
-      <c r="X265" t="n">
-        <v>1589900</v>
-      </c>
-      <c r="Y265" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/livan/x3pro/suv-1gen</t>
-        </is>
-      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -13416,6 +13406,14 @@
           <t>https://avrora-motors.ru/catalog/livan/x6pro</t>
         </is>
       </c>
+      <c r="F266" t="n">
+        <v>2329900</v>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/livan/x6pro/suv-1gen</t>
+        </is>
+      </c>
       <c r="J266" t="n">
         <v>1572940</v>
       </c>
@@ -13440,14 +13438,6 @@
           <t>https://autofort-ufa.ru/avto-new/livan/%D0%A56PRO/</t>
         </is>
       </c>
-      <c r="X266" t="n">
-        <v>2329900</v>
-      </c>
-      <c r="Y266" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/livan/x6pro/suv-1gen</t>
-        </is>
-      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -13473,6 +13463,14 @@
           <t>https://autofort-ufa.ru/avto-new/mg/mg_5/</t>
         </is>
       </c>
+      <c r="F267" t="n">
+        <v>1943000</v>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/mg/5/sedan-2gen</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1849000</v>
       </c>
@@ -13489,14 +13487,6 @@
           <t>https://autofort-ufa.ru/avto-new/mg/mg_5/</t>
         </is>
       </c>
-      <c r="X267" t="n">
-        <v>1943000</v>
-      </c>
-      <c r="Y267" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/mg/5/sedan-2gen</t>
-        </is>
-      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -13522,6 +13512,14 @@
           <t>https://autofort-ufa.ru/avto-new/mg/mg_6/</t>
         </is>
       </c>
+      <c r="F268" t="n">
+        <v>2189000</v>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/mg/6/liftback-2gen-rest</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>2649000</v>
       </c>
@@ -13538,14 +13536,6 @@
           <t>https://autofort-ufa.ru/avto-new/mg/mg_6/</t>
         </is>
       </c>
-      <c r="X268" t="n">
-        <v>2189000</v>
-      </c>
-      <c r="Y268" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/mg/6/liftback-2gen-rest</t>
-        </is>
-      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -13604,10 +13594,10 @@
           <t>https://bashautomarket.ru/auto/mg/hs/suv_5d-1gen</t>
         </is>
       </c>
-      <c r="X270" t="n">
+      <c r="F270" t="n">
         <v>2559000</v>
       </c>
-      <c r="Y270" t="inlineStr">
+      <c r="G270" t="inlineStr">
         <is>
           <t>https://bashautomarket.ru/auto/mg/hs/suv_5d-1gen</t>
         </is>
@@ -13637,6 +13627,14 @@
           <t>https://autofort-ufa.ru/avto-new/mg/mg_zs/</t>
         </is>
       </c>
+      <c r="F271" t="n">
+        <v>1980000</v>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/mg/zs/cuv-2gen-rest</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>2699000</v>
       </c>
@@ -13653,14 +13651,6 @@
           <t>https://autofort-ufa.ru/avto-new/mg/mg_zs/</t>
         </is>
       </c>
-      <c r="X271" t="n">
-        <v>1980000</v>
-      </c>
-      <c r="Y271" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/mg/zs/cuv-2gen-rest</t>
-        </is>
-      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -14148,6 +14138,14 @@
           <t>https://ufa-automarket.ru/cars/moskvich/moskvich_3</t>
         </is>
       </c>
+      <c r="F286" t="n">
+        <v>1390000</v>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/moskvich/moskvich3/cuv</t>
+        </is>
+      </c>
       <c r="H286" t="n">
         <v>1694000</v>
       </c>
@@ -14204,14 +14202,6 @@
           <t>https://ufa-automarket.ru/cars/moskvich/moskvich_3</t>
         </is>
       </c>
-      <c r="X286" t="n">
-        <v>1390000</v>
-      </c>
-      <c r="Y286" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/moskvich/moskvich3/cuv</t>
-        </is>
-      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -14294,6 +14284,14 @@
           <t>https://avrora-motors.ru/catalog/moskvic/moskvish_6</t>
         </is>
       </c>
+      <c r="F288" t="n">
+        <v>1836000</v>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/moskvich/moskvich6/liftback-1gen</t>
+        </is>
+      </c>
       <c r="H288" t="n">
         <v>2246900</v>
       </c>
@@ -14326,14 +14324,6 @@
           <t>https://autofort-ufa.ru/avto-new/moskvich/moskvich_6/</t>
         </is>
       </c>
-      <c r="X288" t="n">
-        <v>1836000</v>
-      </c>
-      <c r="Y288" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/moskvich/moskvich6/liftback-1gen</t>
-        </is>
-      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -14572,6 +14562,14 @@
           <t>https://ufabm.ru/cars/omoda/c5/350240/</t>
         </is>
       </c>
+      <c r="F294" t="n">
+        <v>2379900</v>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/omoda/c5/cuv</t>
+        </is>
+      </c>
       <c r="H294" t="n">
         <v>2052700</v>
       </c>
@@ -14628,14 +14626,6 @@
           <t>https://ufa-automarket.ru/cars/omoda/c5</t>
         </is>
       </c>
-      <c r="X294" t="n">
-        <v>2379900</v>
-      </c>
-      <c r="Y294" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/omoda/c5/cuv</t>
-        </is>
-      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -14661,6 +14651,14 @@
           <t>https://ufa-automarket.ru/cars/omoda/s5</t>
         </is>
       </c>
+      <c r="F295" t="n">
+        <v>1949900</v>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/omoda/s5-2023/SEDAN</t>
+        </is>
+      </c>
       <c r="H295" t="n">
         <v>1741700</v>
       </c>
@@ -14709,14 +14707,6 @@
           <t>https://ufa-automarket.ru/cars/omoda/s5</t>
         </is>
       </c>
-      <c r="X295" t="n">
-        <v>1949900</v>
-      </c>
-      <c r="Y295" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/omoda/s5-2023/SEDAN</t>
-        </is>
-      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -16415,6 +16405,14 @@
           <t>https://ufa-automarket.ru/cars/solaris/hc</t>
         </is>
       </c>
+      <c r="F337" t="n">
+        <v>2199000</v>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/solaris/hc/suv-1gen</t>
+        </is>
+      </c>
       <c r="J337" t="n">
         <v>1763000</v>
       </c>
@@ -16447,14 +16445,6 @@
           <t>https://ufa-automarket.ru/cars/solaris/hc</t>
         </is>
       </c>
-      <c r="X337" t="n">
-        <v>2199000</v>
-      </c>
-      <c r="Y337" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/solaris/hc/suv-1gen</t>
-        </is>
-      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -16480,6 +16470,14 @@
           <t>https://ufa-automarket.ru/cars/solaris/hs</t>
         </is>
       </c>
+      <c r="F338" t="n">
+        <v>1710000</v>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/solaris/hs/sedan-1gen</t>
+        </is>
+      </c>
       <c r="J338" t="n">
         <v>1390000</v>
       </c>
@@ -16512,14 +16510,6 @@
           <t>https://ufa-automarket.ru/cars/solaris/hs</t>
         </is>
       </c>
-      <c r="X338" t="n">
-        <v>1710000</v>
-      </c>
-      <c r="Y338" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/solaris/hs/sedan-1gen</t>
-        </is>
-      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -16545,6 +16535,14 @@
           <t>https://ufa-automarket.ru/cars/solaris/krs</t>
         </is>
       </c>
+      <c r="F339" t="n">
+        <v>1738000</v>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/solaris/krs/sedan-1gen</t>
+        </is>
+      </c>
       <c r="J339" t="n">
         <v>1448000</v>
       </c>
@@ -16577,14 +16575,6 @@
           <t>https://ufa-automarket.ru/cars/solaris/krs</t>
         </is>
       </c>
-      <c r="X339" t="n">
-        <v>1738000</v>
-      </c>
-      <c r="Y339" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/solaris/krs/sedan-1gen</t>
-        </is>
-      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -16610,6 +16600,14 @@
           <t>https://ufa-automarket.ru/cars/solaris/krx</t>
         </is>
       </c>
+      <c r="F340" t="n">
+        <v>1764000</v>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/solaris/krx/hatchback-1gen</t>
+        </is>
+      </c>
       <c r="J340" t="n">
         <v>1464000</v>
       </c>
@@ -16642,14 +16640,6 @@
           <t>https://ufa-automarket.ru/cars/solaris/krx</t>
         </is>
       </c>
-      <c r="X340" t="n">
-        <v>1764000</v>
-      </c>
-      <c r="Y340" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/solaris/krx/hatchback-1gen</t>
-        </is>
-      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -17712,6 +17702,14 @@
           <t>https://ufa-automarket.ru/cars/uaz/hunter</t>
         </is>
       </c>
+      <c r="F370" t="n">
+        <v>707000</v>
+      </c>
+      <c r="G370" t="inlineStr">
+        <is>
+          <t>https://bashautomarket.ru/auto/uaz/hunter/suv</t>
+        </is>
+      </c>
       <c r="H370" t="n">
         <v>994700</v>
       </c>
@@ -17736,14 +17734,6 @@
           <t>https://ufa-automarket.ru/cars/uaz/hunter</t>
         </is>
       </c>
-      <c r="X370" t="n">
-        <v>707000</v>
-      </c>
-      <c r="Y370" t="inlineStr">
-        <is>
-          <t>https://bashautomarket.ru/auto/uaz/hunter/suv</t>
-        </is>
-      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -17818,10 +17808,10 @@
           <t>https://bashautomarket.ru/auto/uaz/patriot-new/suv</t>
         </is>
       </c>
-      <c r="X372" t="n">
+      <c r="F372" t="n">
         <v>834000</v>
       </c>
-      <c r="Y372" t="inlineStr">
+      <c r="G372" t="inlineStr">
         <is>
           <t>https://bashautomarket.ru/auto/uaz/patriot-new/suv</t>
         </is>
@@ -17950,10 +17940,10 @@
           <t>https://bashautomarket.ru/auto/uaz/pickup-new/suv</t>
         </is>
       </c>
-      <c r="X376" t="n">
+      <c r="F376" t="n">
         <v>859000</v>
       </c>
-      <c r="Y376" t="inlineStr">
+      <c r="G376" t="inlineStr">
         <is>
           <t>https://bashautomarket.ru/auto/uaz/pickup-new/suv</t>
         </is>

--- a/xlsx/ufa.xlsx
+++ b/xlsx/ufa.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W395"/>
+  <dimension ref="A1:W396"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1337,7 +1337,7 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2339900</v>
+        <v>2239900</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1581,7 +1581,7 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>3299900</v>
+        <v>2999900</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>4059900</v>
+        <v>3989900</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>2359900</v>
+        <v>2239900</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2359900</v>
+        <v>2239900</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         </is>
       </c>
       <c r="L112" t="n">
-        <v>2749990</v>
+        <v>2450000</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         </is>
       </c>
       <c r="L185" t="n">
-        <v>2289900</v>
+        <v>2198900</v>
       </c>
       <c r="M185" t="inlineStr">
         <is>
@@ -14759,6 +14759,14 @@
           <t>https://ufa.autospot.ru/brands/omoda/c5_i/suv/price/</t>
         </is>
       </c>
+      <c r="P295" t="n">
+        <v>1927425</v>
+      </c>
+      <c r="Q295" t="inlineStr">
+        <is>
+          <t>https://autofort-ufa.ru/avto-new/omoda/omoda_c5_new/</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -18777,6 +18785,39 @@
       <c r="S395" t="inlineStr">
         <is>
           <t>https://motors-ag.ru/catalog/zotye/t600</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Новая машина, необходимо назначить id</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>mg</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>rx8</t>
+        </is>
+      </c>
+      <c r="D396" t="n">
+        <v>3180000</v>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>https://autofort-ufa.ru/avto-new/mg/RX8/</t>
+        </is>
+      </c>
+      <c r="P396" t="n">
+        <v>3180000</v>
+      </c>
+      <c r="Q396" t="inlineStr">
+        <is>
+          <t>https://autofort-ufa.ru/avto-new/mg/RX8/</t>
         </is>
       </c>
     </row>

--- a/xlsx/ufa.xlsx
+++ b/xlsx/ufa.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S375"/>
+  <dimension ref="A1:S374"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -568,19 +568,11 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3084000</v>
+        <v>3262500</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://avrora-motors.ru/catalog/baic/bj40_I_restailing</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
-        <v>3084000</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/baic/bj40_I_restailing</t>
+          <t>https://autofort-ufa.ru/avto-new/baic/bj40/</t>
         </is>
       </c>
       <c r="P3" t="n">
@@ -617,19 +609,11 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1344000</v>
+        <v>1560000</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://avrora-motors.ru/catalog/baic/u5_plus</t>
-        </is>
-      </c>
-      <c r="J4" t="n">
-        <v>1344000</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/baic/u5_plus</t>
+          <t>https://autofort-ufa.ru/avto-new/baic/u5_plus/</t>
         </is>
       </c>
       <c r="L4" t="n">
@@ -714,14 +698,6 @@
           <t>https://autofort-ufa.ru/avto-new/baic/x35/</t>
         </is>
       </c>
-      <c r="J6" t="n">
-        <v>1344000</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/baic/x35</t>
-        </is>
-      </c>
       <c r="P6" t="n">
         <v>1274175</v>
       </c>
@@ -944,14 +920,6 @@
           <t>https://ufa.masmotors.ru/car/changan/alsvin</t>
         </is>
       </c>
-      <c r="J12" t="n">
-        <v>1314900</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/changan/alsvin</t>
-        </is>
-      </c>
       <c r="L12" t="n">
         <v>1224900</v>
       </c>
@@ -1001,14 +969,6 @@
           <t>https://autofort-ufa.ru/avto-new/changan/cs35/</t>
         </is>
       </c>
-      <c r="J13" t="n">
-        <v>708900</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/changan/cs35</t>
-        </is>
-      </c>
       <c r="P13" t="n">
         <v>659925</v>
       </c>
@@ -1043,11 +1003,11 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>935900</v>
+        <v>955900</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://avrora-motors.ru/catalog/changan/cs35plus</t>
+          <t>https://motors-ag.ru/catalog/changan/cs35plus</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1066,14 +1026,6 @@
           <t>https://ufa.masmotors.ru/car/changan/cs35-plus</t>
         </is>
       </c>
-      <c r="J14" t="n">
-        <v>935900</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/changan/cs35plus</t>
-        </is>
-      </c>
       <c r="L14" t="n">
         <v>1669900</v>
       </c>
@@ -1123,14 +1075,6 @@
           <t>https://motors-ag.ru/catalog/changan/cs35plus_2023MY</t>
         </is>
       </c>
-      <c r="J15" t="n">
-        <v>1691900</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/changan/cs35plus_2023MY</t>
-        </is>
-      </c>
       <c r="P15" t="n">
         <v>1927425</v>
       </c>
@@ -1172,14 +1116,6 @@
           <t>https://motors-ag.ru/catalog/changan/cs55</t>
         </is>
       </c>
-      <c r="J16" t="n">
-        <v>974900</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/changan/cs55</t>
-        </is>
-      </c>
       <c r="P16" t="n">
         <v>1642425</v>
       </c>
@@ -1229,14 +1165,6 @@
           <t>https://ufabm.ru/cars/changan/cs55-plus/350281/</t>
         </is>
       </c>
-      <c r="J17" t="n">
-        <v>2074900</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/changan/cs55_plus_2023MY</t>
-        </is>
-      </c>
       <c r="L17" t="n">
         <v>1848900</v>
       </c>
@@ -1286,14 +1214,6 @@
           <t>https://autofort-ufa.ru/avto-new/changan/cs75/</t>
         </is>
       </c>
-      <c r="J18" t="n">
-        <v>819920</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/changan/cs75</t>
-        </is>
-      </c>
       <c r="P18" t="n">
         <v>787425</v>
       </c>
@@ -1371,7 +1291,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>136</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1381,54 +1301,30 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CS75FL</t>
+          <t>CS75 Plus New</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1154900</v>
+        <v>2999900</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/changan/cs75fl</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>1869900</v>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>https://ufa.masmotors.ru/car/changan/cs75fl</t>
-        </is>
-      </c>
-      <c r="J20" t="n">
-        <v>1154900</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/changan/cs75fl</t>
-        </is>
-      </c>
-      <c r="P20" t="n">
-        <v>1852425</v>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>https://autofort-ufa.ru/avto-new/changan/cs75fl/</t>
-        </is>
-      </c>
-      <c r="R20" t="n">
-        <v>1154900</v>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/changan/cs75fl</t>
+          <t>https://ufa.autospot.ru/brands/changan/cs75plus_iii/suv/price/</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>2999900</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>https://ufa.autospot.ru/brands/changan/cs75plus_iii/suv/price/</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>118</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1438,30 +1334,46 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CS85 Coupe</t>
+          <t>CS75FL</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2782425</v>
+        <v>1154900</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/changan/cs85coupe/</t>
+          <t>https://motors-ag.ru/catalog/changan/cs75fl</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1869900</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://ufa.masmotors.ru/car/changan/cs75fl</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>2782425</v>
+        <v>1852425</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/changan/cs85coupe/</t>
+          <t>https://autofort-ufa.ru/avto-new/changan/cs75fl/</t>
+        </is>
+      </c>
+      <c r="R21" t="n">
+        <v>1154900</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>https://motors-ag.ru/catalog/changan/cs75fl</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>124</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1471,38 +1383,30 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CS95</t>
+          <t>CS85 Coupe</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>3262425</v>
+        <v>2782425</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/changan/cs95/</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>3429900</v>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>https://ufa.masmotors.ru/car/changan/cs95</t>
+          <t>https://autofort-ufa.ru/avto-new/changan/cs85coupe/</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3262425</v>
+        <v>2782425</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/changan/cs95/</t>
+          <t>https://autofort-ufa.ru/avto-new/changan/cs85coupe/</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>125</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1512,38 +1416,38 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CS95 New</t>
+          <t>CS95</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>3397425</v>
+        <v>3262425</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/changan/CS95NEW/</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>3864907</v>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>https://ufa.autospot.ru/brands/changan/cs95_i/suv/price/</t>
+          <t>https://autofort-ufa.ru/avto-new/changan/cs95/</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3429900</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://ufa.masmotors.ru/car/changan/cs95</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3397425</v>
+        <v>3262425</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/changan/CS95NEW/</t>
+          <t>https://autofort-ufa.ru/avto-new/changan/cs95/</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>140</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1553,54 +1457,38 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Eado Plus</t>
+          <t>CS95 New</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1392940</v>
+        <v>3397425</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://avrora-motors.ru/catalog/changan/eadoplus</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>1729900</v>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>https://ufa.masmotors.ru/car/changan/eadoplus</t>
-        </is>
-      </c>
-      <c r="J24" t="n">
-        <v>1392940</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/changan/eadoplus</t>
+          <t>https://autofort-ufa.ru/avto-new/changan/CS95NEW/</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1809900</v>
+        <v>3864907</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/changan/eadoplus/sedan/price/</t>
+          <t>https://ufa.autospot.ru/brands/changan/cs95_i/suv/price/</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>1829925</v>
+        <v>3397425</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/changan/eado-plus/</t>
+          <t>https://autofort-ufa.ru/avto-new/changan/CS95NEW/</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>128</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1610,38 +1498,46 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Hunter Plus</t>
+          <t>Eado Plus</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>2779900</v>
+        <v>1729900</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/changan/hunterplus</t>
+          <t>https://ufa.masmotors.ru/car/changan/eadoplus</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>2779900</v>
+        <v>1729900</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/changan/hunterplus</t>
+          <t>https://ufa.masmotors.ru/car/changan/eadoplus</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>3289900</v>
+        <v>1809900</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/changan/hunter/pickup/price/</t>
+          <t>https://ufa.autospot.ru/brands/changan/eadoplus/sedan/price/</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
+        <v>1829925</v>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>https://autofort-ufa.ru/avto-new/changan/eado-plus/</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>141</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1651,54 +1547,38 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Lamore</t>
+          <t>Hunter Plus</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1668940</v>
+        <v>2779900</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://avrora-motors.ru/catalog/changan/lamore</t>
+          <t>https://ufa.masmotors.ru/car/changan/hunterplus</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>2089900</v>
+        <v>2779900</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/changan/lamore</t>
-        </is>
-      </c>
-      <c r="J26" t="n">
-        <v>1668940</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/changan/lamore</t>
+          <t>https://ufa.masmotors.ru/car/changan/hunterplus</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2369900</v>
+        <v>3289900</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/changan/lamore/sedan/price/</t>
-        </is>
-      </c>
-      <c r="P26" t="n">
-        <v>2152425</v>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>https://autofort-ufa.ru/avto-new/changan/Lamore/</t>
+          <t>https://ufa.autospot.ru/brands/changan/hunter/pickup/price/</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>130</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1708,70 +1588,46 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>UNI-K</t>
+          <t>Lamore</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2888000</v>
+        <v>2089900</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://ufabm.ru/cars/changan/uni-k/350219/</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>2888000</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>https://ufabm.ru/cars/changan/uni-k/350219/</t>
+          <t>https://ufa.masmotors.ru/car/changan/lamore</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>2889900</v>
+        <v>2089900</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/changan/uni-k</t>
-        </is>
-      </c>
-      <c r="J27" t="n">
-        <v>3464900</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/changan/uni-k</t>
+          <t>https://ufa.masmotors.ru/car/changan/lamore</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>3200000</v>
+        <v>2369900</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/changan/uni_k/suv/price/</t>
+          <t>https://ufa.autospot.ru/brands/changan/lamore/sedan/price/</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>2977425</v>
+        <v>2152425</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/changan/uni_k/</t>
-        </is>
-      </c>
-      <c r="R27" t="n">
-        <v>3464900</v>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/changan/uni-k</t>
+          <t>https://autofort-ufa.ru/avto-new/changan/Lamore/</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>713</t>
+          <t>120</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1781,38 +1637,62 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>UNI-K iDD Hybrid</t>
+          <t>UNI-K</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3914925</v>
+        <v>2888000</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/changan/uni_k_idd/</t>
+          <t>https://ufabm.ru/cars/changan/uni-k/350219/</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>2888000</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>https://ufabm.ru/cars/changan/uni-k/350219/</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2889900</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://ufa.masmotors.ru/car/changan/uni-k</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>4349900</v>
+        <v>3200000</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/changan/unikidd/suv/price/</t>
+          <t>https://ufa.autospot.ru/brands/changan/uni_k/suv/price/</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3914925</v>
+        <v>2977425</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/changan/uni_k_idd/</t>
+          <t>https://autofort-ufa.ru/avto-new/changan/uni_k/</t>
+        </is>
+      </c>
+      <c r="R28" t="n">
+        <v>3464900</v>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>https://motors-ag.ru/catalog/changan/uni-k</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>713</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1822,38 +1702,38 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>UNI-S</t>
+          <t>UNI-K iDD Hybrid</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1929900</v>
+        <v>3914925</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/changan/uni-s</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>1929900</v>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>https://ufa.masmotors.ru/car/changan/uni-s</t>
+          <t>https://autofort-ufa.ru/avto-new/changan/uni_k_idd/</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2079900</v>
+        <v>4349900</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/changan/uni_s/suv/price/</t>
+          <t>https://ufa.autospot.ru/brands/changan/unikidd/suv/price/</t>
+        </is>
+      </c>
+      <c r="P29" t="n">
+        <v>3914925</v>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>https://autofort-ufa.ru/avto-new/changan/uni_k_idd/</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>127</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1863,54 +1743,38 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>UNI-T</t>
+          <t>UNI-S</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1716940</v>
+        <v>1929900</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://avrora-motors.ru/catalog/changan/uni-t</t>
+          <t>https://ufa.masmotors.ru/car/changan/uni-s</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>2169900</v>
+        <v>1929900</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/changan/uni-t</t>
-        </is>
-      </c>
-      <c r="J30" t="n">
-        <v>1716940</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/changan/uni-t</t>
+          <t>https://ufa.masmotors.ru/car/changan/uni-s</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2472892</v>
+        <v>2079900</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/changan/uni_t/suv/price/</t>
-        </is>
-      </c>
-      <c r="P30" t="n">
-        <v>2302425</v>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>https://autofort-ufa.ru/avto-new/changan/uni_t/</t>
+          <t>https://ufa.autospot.ru/brands/changan/uni_s/suv/price/</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>126</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1920,47 +1784,31 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>UNI-V</t>
+          <t>UNI-T</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>2159900</v>
+        <v>2169900</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/changan/uni-v</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>2296000</v>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>https://ufabm.ru/cars/changan/uni-v/350220/</t>
+          <t>https://ufa.masmotors.ru/car/changan/uni-t</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>2159900</v>
+        <v>2169900</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/changan/uni-v</t>
-        </is>
-      </c>
-      <c r="J31" t="n">
-        <v>2724900</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/changan/uni-v</t>
+          <t>https://ufa.masmotors.ru/car/changan/uni-t</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2599900</v>
+        <v>2472892</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/changan/uni_v/liftback/price/</t>
+          <t>https://ufa.autospot.ru/brands/changan/uni_t/suv/price/</t>
         </is>
       </c>
       <c r="P31" t="n">
@@ -1968,71 +1816,79 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/changan/uni_v/</t>
-        </is>
-      </c>
-      <c r="R31" t="n">
-        <v>2729900</v>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/changan/uni-v</t>
+          <t>https://autofort-ufa.ru/avto-new/changan/uni_t/</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>123</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Chery</t>
+          <t>Changan</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Arrizo 8</t>
+          <t>UNI-V</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>2041000</v>
+        <v>2159900</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://avrora-motors.ru/catalog/chery/arrizo_8</t>
+          <t>https://ufa.masmotors.ru/car/changan/uni-v</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>2296000</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>https://ufabm.ru/cars/changan/uni-v/350220/</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>2150000</v>
+        <v>2159900</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/chery/arrizo-8</t>
-        </is>
-      </c>
-      <c r="J32" t="n">
-        <v>2041000</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/chery/arrizo_8</t>
+          <t>https://ufa.masmotors.ru/car/changan/uni-v</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>2599900</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>https://ufa.autospot.ru/brands/changan/uni_v/liftback/price/</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>2175000</v>
+        <v>2302425</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/chery/arrizo_8/</t>
+          <t>https://autofort-ufa.ru/avto-new/changan/uni_v/</t>
+        </is>
+      </c>
+      <c r="R32" t="n">
+        <v>2729900</v>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>https://motors-ag.ru/catalog/changan/uni-v</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>143</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2042,38 +1898,46 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Tiggo 2</t>
+          <t>Arrizo 8</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>679900</v>
+        <v>2044000</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://avrora-motors.ru/catalog/chery/tiggo2</t>
-        </is>
-      </c>
-      <c r="J33" t="n">
-        <v>679900</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/chery/tiggo2</t>
-        </is>
-      </c>
-      <c r="R33" t="n">
-        <v>699900</v>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/chery/tiggo2</t>
+          <t>https://ufa.autospot.ru/brands/chery/arrizo8/sedan/price/</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2150000</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://ufa.masmotors.ru/car/chery/arrizo-8</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>2044000</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>https://ufa.autospot.ru/brands/chery/arrizo8/sedan/price/</t>
+        </is>
+      </c>
+      <c r="P33" t="n">
+        <v>2175000</v>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>https://autofort-ufa.ru/avto-new/chery/arrizo_8/</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>146</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2083,38 +1947,30 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Tiggo 3</t>
+          <t>Tiggo 2</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>604900</v>
+        <v>699900</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/chery/tiggo3</t>
-        </is>
-      </c>
-      <c r="J34" t="n">
-        <v>604900</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/chery/tiggo3</t>
+          <t>https://motors-ag.ru/catalog/chery/tiggo2</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>604900</v>
+        <v>699900</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/chery/tiggo3</t>
+          <t>https://motors-ag.ru/catalog/chery/tiggo2</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>147</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2124,54 +1980,30 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Tiggo 4</t>
+          <t>Tiggo 3</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>739900</v>
+        <v>604900</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/chery/tiggo_4</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>1780000</v>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>https://ufa.masmotors.ru/car/chery/tiggo4</t>
-        </is>
-      </c>
-      <c r="J35" t="n">
-        <v>739900</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/chery/tiggo_4</t>
-        </is>
-      </c>
-      <c r="P35" t="n">
-        <v>1499925</v>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>https://autofort-ufa.ru/avto-new/chery/tiggo4/</t>
+          <t>https://motors-ag.ru/catalog/chery/tiggo3</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>739900</v>
+        <v>604900</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/chery/tiggo_4</t>
+          <t>https://motors-ag.ru/catalog/chery/tiggo3</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>149</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2181,30 +2013,54 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Tiggo 4 New</t>
+          <t>Tiggo 4</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1785000</v>
+        <v>739900</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/chery/Tiggo%204%20new/</t>
+          <t>https://motors-ag.ru/catalog/chery/tiggo_4</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1780000</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://ufa.masmotors.ru/car/chery/tiggo4</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1678000</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>https://ufa.autospot.ru/brands/chery/tiggo4_i/suv/price/</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>1785000</v>
+        <v>1499925</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/chery/Tiggo%204%20new/</t>
+          <t>https://autofort-ufa.ru/avto-new/chery/tiggo4/</t>
+        </is>
+      </c>
+      <c r="R36" t="n">
+        <v>739900</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>https://motors-ag.ru/catalog/chery/tiggo_4</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2214,54 +2070,30 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Tiggo 4 Pro</t>
+          <t>Tiggo 4 New</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1024000</v>
+        <v>1785000</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://ufabm.ru/cars/chery/tiggo-4-pro/350273/</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>1024000</v>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>https://ufabm.ru/cars/chery/tiggo-4-pro/350273/</t>
-        </is>
-      </c>
-      <c r="J37" t="n">
-        <v>1314900</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/chery/tiggo_4_pro</t>
+          <t>https://autofort-ufa.ru/avto-new/chery/Tiggo%204%20new/</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>1590000</v>
+        <v>1785000</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/chery/tiggo4_pro/</t>
-        </is>
-      </c>
-      <c r="R37" t="n">
-        <v>1185000</v>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/chery/tiggo_4_pro</t>
+          <t>https://autofort-ufa.ru/avto-new/chery/Tiggo%204%20new/</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>151</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2271,38 +2103,54 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Tiggo 5</t>
+          <t>Tiggo 4 Pro</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>801900</v>
+        <v>1024000</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/chery/tiggo_5</t>
-        </is>
-      </c>
-      <c r="J38" t="n">
-        <v>801900</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/chery/tiggo_5</t>
+          <t>https://ufabm.ru/cars/chery/tiggo-4-pro/350273/</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>1024000</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>https://ufabm.ru/cars/chery/tiggo-4-pro/350273/</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1389000</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>https://ufa.autospot.ru/brands/chery/tiggo4pro/suv/price/</t>
+        </is>
+      </c>
+      <c r="P38" t="n">
+        <v>1590000</v>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>https://autofort-ufa.ru/avto-new/chery/tiggo4_pro/</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>801900</v>
+        <v>1185000</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/chery/tiggo_5</t>
+          <t>https://motors-ag.ru/catalog/chery/tiggo_4_pro</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>153</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2312,46 +2160,30 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Tiggo 7</t>
+          <t>Tiggo 5</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>891900</v>
+        <v>801900</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/chery/tiggo_7</t>
-        </is>
-      </c>
-      <c r="J39" t="n">
-        <v>891900</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/chery/tiggo_7</t>
-        </is>
-      </c>
-      <c r="P39" t="n">
-        <v>1199175</v>
-      </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>https://autofort-ufa.ru/avto-new/chery/tiggo7/</t>
+          <t>https://motors-ag.ru/catalog/chery/tiggo_5</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>891900</v>
+        <v>801900</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/chery/tiggo_7</t>
+          <t>https://motors-ag.ru/catalog/chery/tiggo_5</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>154</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2361,62 +2193,38 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Tiggo 7 Pro</t>
+          <t>Tiggo 7</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1008000</v>
+        <v>891900</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://ufabm.ru/cars/chery/tiggo-7-pro/350274/</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>1008000</v>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>https://ufabm.ru/cars/chery/tiggo-7-pro/350274/</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>1870000</v>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>https://ufa.masmotors.ru/car/chery/tiggo7pro</t>
-        </is>
-      </c>
-      <c r="J40" t="n">
-        <v>1259900</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/chery/tiggo7pro</t>
+          <t>https://motors-ag.ru/catalog/chery/tiggo_7</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>1927500</v>
+        <v>1199175</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/chery/tiggo7pro/</t>
+          <t>https://autofort-ufa.ru/avto-new/chery/tiggo7/</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>1259900</v>
+        <v>891900</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/chery/tiggo7pro</t>
+          <t>https://motors-ag.ru/catalog/chery/tiggo_7</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>155</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2426,62 +2234,54 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Tiggo 7 Pro Max</t>
+          <t>Tiggo 7 Pro</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1400000</v>
+        <v>1008000</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://ufabm.ru/cars/chery/tiggo-7-pro-max/350225/</t>
+          <t>https://ufabm.ru/cars/chery/tiggo-7-pro/350274/</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1400000</v>
+        <v>1008000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://ufabm.ru/cars/chery/tiggo-7-pro-max/350225/</t>
+          <t>https://ufabm.ru/cars/chery/tiggo-7-pro/350274/</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>2120000</v>
+        <v>1870000</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/chery/tiggo7promax</t>
-        </is>
-      </c>
-      <c r="J41" t="n">
-        <v>1449900</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/chery/tiggo_7_pro_max</t>
+          <t>https://ufa.masmotors.ru/car/chery/tiggo7pro</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>2085000</v>
+        <v>1927500</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/chery/tiggo7pro_max/</t>
+          <t>https://autofort-ufa.ru/avto-new/chery/tiggo7pro/</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>1449900</v>
+        <v>1259900</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/chery/tiggo_7_pro_max</t>
+          <t>https://motors-ag.ru/catalog/chery/tiggo7pro</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>679</t>
+          <t>156</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2491,30 +2291,62 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Tiggo 7 Pro Plug-In-Hybrid</t>
+          <t>Tiggo 7 Pro Max</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>3000000</v>
+        <v>1400000</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/chery/new_tiggo7pro_plugin_hybrid/</t>
+          <t>https://ufabm.ru/cars/chery/tiggo-7-pro-max/350225/</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>1400000</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>https://ufabm.ru/cars/chery/tiggo-7-pro-max/350225/</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2120000</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>https://ufa.masmotors.ru/car/chery/tiggo7promax</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>2069000</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>https://ufa.autospot.ru/brands/chery/tiggo7promax/suv/price/</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3000000</v>
+        <v>2085000</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/chery/new_tiggo7pro_plugin_hybrid/</t>
+          <t>https://autofort-ufa.ru/avto-new/chery/tiggo7pro_max/</t>
+        </is>
+      </c>
+      <c r="R42" t="n">
+        <v>1449900</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>https://motors-ag.ru/catalog/chery/tiggo_7_pro_max</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>157</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2524,54 +2356,30 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Tiggo 8</t>
+          <t>Tiggo 7 Pro Max New</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1199900</v>
+        <v>1836800</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/chery/tiggo_8</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>2409900</v>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>https://ufa.masmotors.ru/car/chery/tiggo-8</t>
-        </is>
-      </c>
-      <c r="J43" t="n">
-        <v>1199900</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/chery/tiggo_8</t>
-        </is>
-      </c>
-      <c r="P43" t="n">
-        <v>2227500</v>
-      </c>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>https://autofort-ufa.ru/avto-new/chery/tiggo8/</t>
-        </is>
-      </c>
-      <c r="R43" t="n">
-        <v>1199900</v>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/chery/tiggo_8</t>
+          <t>https://ufa.autospot.ru/brands/chery/tiggo7promax_i/suv/price/</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1836800</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>https://ufa.autospot.ru/brands/chery/tiggo7promax_i/suv/price/</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>679</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2581,62 +2389,38 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Tiggo 8 Pro</t>
+          <t>Tiggo 7 Pro Plug-In-Hybrid</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1312000</v>
+        <v>3000000</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://ufabm.ru/cars/chery/tiggo-8-pro/350226/</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>1312000</v>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>https://ufabm.ru/cars/chery/tiggo-8-pro/350226/</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>2959900</v>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>https://ufa.masmotors.ru/car/chery/tiggo8pro</t>
-        </is>
-      </c>
-      <c r="J44" t="n">
-        <v>1599900</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/chery/tiggo_8_pro</t>
+          <t>https://autofort-ufa.ru/avto-new/chery/new_tiggo7pro_plugin_hybrid/</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>3259000</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>https://ufa.autospot.ru/brands/chery/tiggo7propluginhybrid/suv/price/</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>2572500</v>
+        <v>3000000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/chery/tiggo8pro/</t>
-        </is>
-      </c>
-      <c r="R44" t="n">
-        <v>1599900</v>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/chery/tiggo_8_pro</t>
+          <t>https://autofort-ufa.ru/avto-new/chery/new_tiggo7pro_plugin_hybrid/</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>158</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2646,46 +2430,46 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Tiggo 8 Pro Max</t>
+          <t>Tiggo 8</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>2500000</v>
+        <v>1199900</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/chery/tiggo8promax</t>
+          <t>https://motors-ag.ru/catalog/chery/tiggo_8</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>2500000</v>
+        <v>2409900</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/chery/tiggo8promax</t>
-        </is>
-      </c>
-      <c r="J45" t="n">
-        <v>2670940</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/chery/tiggo_8_pro_max_I_restailing_2023</t>
+          <t>https://ufa.masmotors.ru/car/chery/tiggo-8</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>2955000</v>
+        <v>2227500</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/chery/tiggo8pro_max/</t>
+          <t>https://autofort-ufa.ru/avto-new/chery/tiggo8/</t>
+        </is>
+      </c>
+      <c r="R45" t="n">
+        <v>1199900</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>https://motors-ag.ru/catalog/chery/tiggo_8</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>159</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2695,30 +2479,54 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Tiggo 8 Pro Max New</t>
+          <t>Tiggo 8 Pro</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>2527500</v>
+        <v>1312000</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/chery/new_tiggo8promax/</t>
+          <t>https://ufabm.ru/cars/chery/tiggo-8-pro/350226/</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>1312000</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>https://ufabm.ru/cars/chery/tiggo-8-pro/350226/</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2959900</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>https://ufa.masmotors.ru/car/chery/tiggo8pro</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>2527500</v>
+        <v>2572500</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/chery/new_tiggo8promax/</t>
+          <t>https://autofort-ufa.ru/avto-new/chery/tiggo8pro/</t>
+        </is>
+      </c>
+      <c r="R46" t="n">
+        <v>1599900</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>https://motors-ag.ru/catalog/chery/tiggo_8_pro</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>678</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2728,30 +2536,46 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Tiggo 8 Pro Plug-In-Hybrid</t>
+          <t>Tiggo 8 Pro Max</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>3637500</v>
+        <v>2500000</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/chery/new_tiggo8pro_plugin_hybrid/</t>
+          <t>https://ufa.masmotors.ru/car/chery/tiggo8promax</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>https://ufa.masmotors.ru/car/chery/tiggo8promax</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>2728000</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>https://ufa.autospot.ru/brands/chery/tiggo8promax/suv/price/</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3637500</v>
+        <v>2955000</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/chery/new_tiggo8pro_plugin_hybrid/</t>
+          <t>https://autofort-ufa.ru/avto-new/chery/tiggo8pro_max/</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>164</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2761,30 +2585,38 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Tiggo 8 Pro e+</t>
+          <t>Tiggo 8 Pro Max New</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>3697500</v>
+        <v>2213655</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/chery/tiggo_8_pro_%D0%B5%2B/</t>
+          <t>https://ufa.autospot.ru/brands/chery/tiggo8promax_i/suv/price/</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>2213655</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>https://ufa.autospot.ru/brands/chery/tiggo8promax_i/suv/price/</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3697500</v>
+        <v>2527500</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/chery/tiggo_8_pro_%D0%B5%2B/</t>
+          <t>https://autofort-ufa.ru/avto-new/chery/new_tiggo8promax/</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>678</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2794,424 +2626,376 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Tiggo 9</t>
+          <t>Tiggo 8 Pro Plug-In-Hybrid</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>3562500</v>
+        <v>3637500</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/chery/tiggo9/</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>4000000</v>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>https://ufa.masmotors.ru/car/chery/tiggo-9</t>
+          <t>https://autofort-ufa.ru/avto-new/chery/new_tiggo8pro_plugin_hybrid/</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3562500</v>
+        <v>3637500</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/chery/tiggo9/</t>
+          <t>https://autofort-ufa.ru/avto-new/chery/new_tiggo8pro_plugin_hybrid/</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>160</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Chevrolet</t>
+          <t>Chery</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Cobalt</t>
+          <t>Tiggo 8 Pro e+</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>599900</v>
+        <v>3697500</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/chevrolet/cobalt</t>
-        </is>
-      </c>
-      <c r="J50" t="n">
-        <v>599900</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/chevrolet/cobalt</t>
-        </is>
-      </c>
-      <c r="R50" t="n">
-        <v>599900</v>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/chevrolet/cobalt</t>
+          <t>https://autofort-ufa.ru/avto-new/chery/tiggo_8_pro_%D0%B5%2B/</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>3697500</v>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>https://autofort-ufa.ru/avto-new/chery/tiggo_8_pro_%D0%B5%2B/</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>677</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Chevrolet</t>
+          <t>Chery</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Nexia</t>
+          <t>Tiggo 8 Pro e+ Hybrid</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>559900</v>
+        <v>3451000</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/chevrolet/nexia</t>
-        </is>
-      </c>
-      <c r="J51" t="n">
-        <v>559900</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/chevrolet/nexia</t>
-        </is>
-      </c>
-      <c r="R51" t="n">
-        <v>559900</v>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/chevrolet/nexia</t>
+          <t>https://ufa.autospot.ru/brands/chery/tiggo8proeplus/suv/price/</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>3451000</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>https://ufa.autospot.ru/brands/chery/tiggo8proeplus/suv/price/</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>165</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Chevrolet</t>
+          <t>Chery</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Spark</t>
+          <t>Tiggo 9</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>579900</v>
+        <v>3349000</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/chevrolet/spark</t>
-        </is>
-      </c>
-      <c r="J52" t="n">
-        <v>579900</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/chevrolet/spark</t>
-        </is>
-      </c>
-      <c r="R52" t="n">
-        <v>579900</v>
-      </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/chevrolet/spark</t>
+          <t>https://ufa.autospot.ru/brands/chery/tiggo9/suv/price/</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>https://ufa.masmotors.ru/car/chery/tiggo-9</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>3349000</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>https://ufa.autospot.ru/brands/chery/tiggo9/suv/price/</t>
+        </is>
+      </c>
+      <c r="P52" t="n">
+        <v>3562500</v>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>https://autofort-ufa.ru/avto-new/chery/tiggo9/</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Citroen</t>
+          <t>Chevrolet</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>Cobalt</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1749000</v>
+        <v>599900</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/citroen/c4_sedan_2018</t>
-        </is>
-      </c>
-      <c r="J53" t="n">
-        <v>1749000</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/citroen/c4_sedan_2018</t>
+          <t>https://motors-ag.ru/catalog/chevrolet/cobalt</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>1749000</v>
+        <v>599900</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/citroen/c4_sedan_2018</t>
+          <t>https://motors-ag.ru/catalog/chevrolet/cobalt</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Citroen</t>
+          <t>Chevrolet</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>C5 Aircross</t>
+          <t>Nexia</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1810000</v>
+        <v>559900</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/citroen/c5-aircross</t>
-        </is>
-      </c>
-      <c r="J54" t="n">
-        <v>1810000</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/citroen/c5-aircross</t>
+          <t>https://motors-ag.ru/catalog/chevrolet/nexia</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>1810000</v>
+        <v>559900</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/citroen/c5-aircross</t>
+          <t>https://motors-ag.ru/catalog/chevrolet/nexia</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Citroen</t>
+          <t>Chevrolet</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Spacetourer</t>
+          <t>Spark</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>3489900</v>
+        <v>579900</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/citroen/spacetourer</t>
-        </is>
-      </c>
-      <c r="J55" t="n">
-        <v>3489900</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/citroen/spacetourer</t>
+          <t>https://motors-ag.ru/catalog/chevrolet/spark</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>3489900</v>
+        <v>579900</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/citroen/spacetourer</t>
+          <t>https://motors-ag.ru/catalog/chevrolet/spark</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>DFM</t>
+          <t>Citroen</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>C4</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>2220000</v>
+        <v>1749000</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://avrora-motors.ru/catalog/dfm/580</t>
-        </is>
-      </c>
-      <c r="J56" t="n">
-        <v>2220000</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/dfm/580</t>
+          <t>https://motors-ag.ru/catalog/citroen/c4_sedan_2018</t>
+        </is>
+      </c>
+      <c r="R56" t="n">
+        <v>1749000</v>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>https://motors-ag.ru/catalog/citroen/c4_sedan_2018</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>DFM</t>
+          <t>Citroen</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>AX7</t>
+          <t>C5 Aircross</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>471600</v>
+        <v>1810000</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://avrora-motors.ru/catalog/dfm/dfm_ax7</t>
-        </is>
-      </c>
-      <c r="J57" t="n">
-        <v>471600</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/dfm/dfm_ax7</t>
+          <t>https://motors-ag.ru/catalog/citroen/c5-aircross</t>
+        </is>
+      </c>
+      <c r="R57" t="n">
+        <v>1810000</v>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>https://motors-ag.ru/catalog/citroen/c5-aircross</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>DWHover</t>
+          <t>Citroen</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>H3</t>
+          <t>Spacetourer</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>899250</v>
+        <v>3489900</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/dw_hower/h3/</t>
-        </is>
-      </c>
-      <c r="P58" t="n">
-        <v>899250</v>
-      </c>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>https://autofort-ufa.ru/avto-new/dw_hower/h3/</t>
+          <t>https://motors-ag.ru/catalog/citroen/spacetourer</t>
+        </is>
+      </c>
+      <c r="R58" t="n">
+        <v>3489900</v>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>https://motors-ag.ru/catalog/citroen/spacetourer</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Datsun</t>
+          <t>DWHover</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>MI-DO</t>
+          <t>H3</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>324000</v>
+        <v>899250</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://avrora-motors.ru/catalog/datsun/mi_do</t>
-        </is>
-      </c>
-      <c r="J59" t="n">
-        <v>324000</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/datsun/mi_do</t>
-        </is>
-      </c>
-      <c r="R59" t="n">
-        <v>344000</v>
-      </c>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/datsun/mi_do</t>
+          <t>https://autofort-ufa.ru/avto-new/dw_hower/h3/</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>899250</v>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>https://autofort-ufa.ru/avto-new/dw_hower/h3/</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3221,87 +3005,87 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>ON-DO</t>
+          <t>MI-DO</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>224000</v>
+        <v>324000</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://avrora-motors.ru/catalog/datsun/on_do</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>700000</v>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>https://ufa.masmotors.ru/car/datsun/on-do</t>
+          <t>https://avrora-motors.ru/catalog/datsun/mi_do</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>224000</v>
+        <v>324000</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>https://avrora-motors.ru/catalog/datsun/on_do</t>
+          <t>https://avrora-motors.ru/catalog/datsun/mi_do</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>244000</v>
+        <v>344000</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/datsun/on_do</t>
+          <t>https://motors-ag.ru/catalog/datsun/mi_do</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Dongfeng</t>
+          <t>Datsun</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>ON-DO</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1618000</v>
+        <v>224000</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/dongfeng/580</t>
+          <t>https://avrora-motors.ru/catalog/datsun/on_do</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>1618000</v>
+        <v>700000</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/dongfeng/580</t>
+          <t>https://ufa.masmotors.ru/car/datsun/on-do</t>
+        </is>
+      </c>
+      <c r="J61" t="n">
+        <v>224000</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>https://avrora-motors.ru/catalog/datsun/on_do</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>2240000</v>
+        <v>244000</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/dong-feng/580</t>
+          <t>https://motors-ag.ru/catalog/datsun/on_do</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3311,30 +3095,38 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>580 New</t>
+          <t>580</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1446750</v>
+        <v>1618000</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/dongfeng/580_new/</t>
-        </is>
-      </c>
-      <c r="P62" t="n">
-        <v>1446750</v>
-      </c>
-      <c r="Q62" t="inlineStr">
-        <is>
-          <t>https://autofort-ufa.ru/avto-new/dongfeng/580_new/</t>
+          <t>https://ufa.masmotors.ru/car/dongfeng/580</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1618000</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://ufa.masmotors.ru/car/dongfeng/580</t>
+        </is>
+      </c>
+      <c r="R62" t="n">
+        <v>2240000</v>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>https://motors-ag.ru/catalog/dong-feng/580</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3344,38 +3136,30 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>AX7</t>
+          <t>580 New</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>491600</v>
+        <v>1446750</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/dong-feng/dfm_ax7</t>
+          <t>https://autofort-ufa.ru/avto-new/dongfeng/580_new/</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>771675</v>
+        <v>1446750</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/dongfeng/ax7/</t>
-        </is>
-      </c>
-      <c r="R63" t="n">
-        <v>491600</v>
-      </c>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/dong-feng/dfm_ax7</t>
+          <t>https://autofort-ufa.ru/avto-new/dongfeng/580_new/</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3385,38 +3169,38 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>DFSK 500</t>
+          <t>AX7</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1599000</v>
+        <v>491600</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/dongfeng/dfsk-500</t>
-        </is>
-      </c>
-      <c r="H64" t="n">
-        <v>1599000</v>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>https://ufa.masmotors.ru/car/dongfeng/dfsk-500</t>
+          <t>https://motors-ag.ru/catalog/dong-feng/dfm_ax7</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>1649250</v>
+        <v>771675</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/dongfeng/DFSK%20500/</t>
+          <t>https://autofort-ufa.ru/avto-new/dongfeng/ax7/</t>
+        </is>
+      </c>
+      <c r="R64" t="n">
+        <v>491600</v>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>https://motors-ag.ru/catalog/dong-feng/dfm_ax7</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>750</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3426,30 +3210,38 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>DFSK IX5</t>
+          <t>DFSK 500</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1792500</v>
+        <v>1599000</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/dongfeng/DFSK_ix5/</t>
+          <t>https://ufa.masmotors.ru/car/dongfeng/dfsk-500</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1599000</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>https://ufa.masmotors.ru/car/dongfeng/dfsk-500</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>1792500</v>
+        <v>1649250</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/dongfeng/DFSK_ix5/</t>
+          <t>https://autofort-ufa.ru/avto-new/dongfeng/DFSK%20500/</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3459,30 +3251,30 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>DFSK IX7</t>
+          <t>DFSK IX5</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>2692500</v>
+        <v>1792500</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/dongfeng/DFSK_ix7/</t>
+          <t>https://autofort-ufa.ru/avto-new/dongfeng/DFSK_ix5/</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>2692500</v>
+        <v>1792500</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/dongfeng/DFSK_ix7/</t>
+          <t>https://autofort-ufa.ru/avto-new/dongfeng/DFSK_ix5/</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3492,111 +3284,71 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Shine Max</t>
+          <t>DFSK IX7</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1599000</v>
+        <v>2692500</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/dongfeng/aeolus-shine-max</t>
-        </is>
-      </c>
-      <c r="H67" t="n">
-        <v>1599000</v>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>https://ufa.masmotors.ru/car/dongfeng/aeolus-shine-max</t>
+          <t>https://autofort-ufa.ru/avto-new/dongfeng/DFSK_ix7/</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>1649250</v>
+        <v>2692500</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/dongfeng/Shine_Max/</t>
+          <t>https://autofort-ufa.ru/avto-new/dongfeng/DFSK_ix7/</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>EXEED</t>
+          <t>Dongfeng</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>LX</t>
+          <t>Shine Max</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1824800</v>
+        <v>1599000</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://ufabm.ru/cars/exeed/lx/350275/</t>
-        </is>
-      </c>
-      <c r="F68" t="n">
-        <v>1824800</v>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>https://ufabm.ru/cars/exeed/lx/350275/</t>
+          <t>https://ufa.masmotors.ru/car/dongfeng/aeolus-shine-max</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>2390000</v>
+        <v>1599000</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/exeed/lx</t>
-        </is>
-      </c>
-      <c r="J68" t="n">
-        <v>2274900</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/exeed/lx</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>3450000</v>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>https://ufa.autospot.ru/brands/exeed/lx/suv/price/</t>
+          <t>https://ufa.masmotors.ru/car/dongfeng/aeolus-shine-max</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>2535000</v>
+        <v>1649250</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/exeed/lx/</t>
-        </is>
-      </c>
-      <c r="R68" t="n">
-        <v>2274900</v>
-      </c>
-      <c r="S68" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/exeed/lx</t>
+          <t>https://autofort-ufa.ru/avto-new/dongfeng/Shine_Max/</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3606,38 +3358,62 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>LX New</t>
+          <t>LX</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>2190000</v>
+        <v>1824800</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/exeed/lx_i/suv/price/</t>
+          <t>https://ufabm.ru/cars/exeed/lx/350275/</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>1824800</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>https://ufabm.ru/cars/exeed/lx/350275/</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2390000</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>https://ufa.masmotors.ru/car/exeed/lx</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2190000</v>
+        <v>3450000</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/exeed/lx_i/suv/price/</t>
+          <t>https://ufa.autospot.ru/brands/exeed/lx/suv/price/</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>2317500</v>
+        <v>2535000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/exeed/lx_%D0%BD%D0%BE%D0%B2%D1%8B%D0%B9/</t>
+          <t>https://autofort-ufa.ru/avto-new/exeed/lx/</t>
+        </is>
+      </c>
+      <c r="R69" t="n">
+        <v>2274900</v>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>https://motors-ag.ru/catalog/exeed/lx</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3647,62 +3423,38 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>RX</t>
+          <t>LX New</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>3128000</v>
+        <v>2190000</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://ufabm.ru/cars/exeed/rx/350276/</t>
-        </is>
-      </c>
-      <c r="F70" t="n">
-        <v>3128000</v>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>https://ufabm.ru/cars/exeed/rx/350276/</t>
-        </is>
-      </c>
-      <c r="H70" t="n">
-        <v>4600000</v>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>https://ufa.masmotors.ru/car/exeed/rx</t>
-        </is>
-      </c>
-      <c r="J70" t="n">
-        <v>3265000</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/exeed/exeed_rx</t>
+          <t>https://ufa.autospot.ru/brands/exeed/lx_i/suv/price/</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>3558000</v>
+        <v>2190000</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/cheryexeed/rx/suv/price/</t>
+          <t>https://ufa.autospot.ru/brands/exeed/lx_i/suv/price/</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3562500</v>
+        <v>2317500</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/exeed/rx/</t>
+          <t>https://autofort-ufa.ru/avto-new/exeed/lx_%D0%BD%D0%BE%D0%B2%D1%8B%D0%B9/</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3712,70 +3464,54 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>TXL</t>
+          <t>RX</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>809960</v>
+        <v>3128000</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/chery/txl</t>
+          <t>https://ufabm.ru/cars/exeed/rx/350276/</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>2416000</v>
+        <v>3128000</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>https://ufabm.ru/cars/exeed/txl/350264/</t>
+          <t>https://ufabm.ru/cars/exeed/rx/350276/</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>3380000</v>
+        <v>4600000</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/exeed/txl</t>
-        </is>
-      </c>
-      <c r="J71" t="n">
-        <v>879960</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/chery/txl</t>
+          <t>https://ufa.masmotors.ru/car/exeed/rx</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>3302000</v>
+        <v>3558000</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/cheryexeed/txl/suv/price/</t>
+          <t>https://ufa.autospot.ru/brands/cheryexeed/rx/suv/price/</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>2249925</v>
+        <v>3562500</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/exeed/txl/</t>
-        </is>
-      </c>
-      <c r="R71" t="n">
-        <v>809960</v>
-      </c>
-      <c r="S71" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/chery/txl</t>
+          <t>https://autofort-ufa.ru/avto-new/exeed/rx/</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3785,38 +3521,62 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>TXL New</t>
+          <t>TXL</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3060000</v>
+        <v>809960</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/exeed/chery__txl/</t>
+          <t>https://motors-ag.ru/catalog/chery/txl</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>2416000</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>https://ufabm.ru/cars/exeed/txl/350264/</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3380000</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>https://ufa.masmotors.ru/car/exeed/txl</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>3100800</v>
+        <v>3302000</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/exeed/txl_i/suv/price/</t>
+          <t>https://ufa.autospot.ru/brands/cheryexeed/txl/suv/price/</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3060000</v>
+        <v>2249925</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/exeed/chery__txl/</t>
+          <t>https://autofort-ufa.ru/avto-new/exeed/txl/</t>
+        </is>
+      </c>
+      <c r="R72" t="n">
+        <v>809960</v>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>https://motors-ag.ru/catalog/chery/txl</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3826,70 +3586,38 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>VX</t>
+          <t>TXL New</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>3064000</v>
+        <v>3010800</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://ufabm.ru/cars/exeed/vx/350228/</t>
-        </is>
-      </c>
-      <c r="F73" t="n">
-        <v>3064000</v>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>https://ufabm.ru/cars/exeed/vx/350228/</t>
-        </is>
-      </c>
-      <c r="H73" t="n">
-        <v>5650000</v>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>https://ufa.masmotors.ru/car/exeed/vx</t>
-        </is>
-      </c>
-      <c r="J73" t="n">
-        <v>4074900</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/exeed/vx</t>
+          <t>https://ufa.autospot.ru/brands/exeed/txl_i/suv/price/</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>5300000</v>
+        <v>3010800</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/cheryexeed/vx/suv/price/</t>
+          <t>https://ufa.autospot.ru/brands/exeed/txl_i/suv/price/</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3142500</v>
+        <v>3060000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/exeed/vx/</t>
-        </is>
-      </c>
-      <c r="R73" t="n">
-        <v>4074900</v>
-      </c>
-      <c r="S73" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/exeed/vx</t>
+          <t>https://autofort-ufa.ru/avto-new/exeed/chery__txl/</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3899,30 +3627,62 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>VX New</t>
+          <t>VX</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>4260000</v>
+        <v>3064000</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/exeed/vx_%D0%BD%D0%BE%D0%B2%D1%8B%D0%B9/</t>
+          <t>https://ufabm.ru/cars/exeed/vx/350228/</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>3064000</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>https://ufabm.ru/cars/exeed/vx/350228/</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5650000</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>https://ufa.masmotors.ru/car/exeed/vx</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>5300000</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>https://ufa.autospot.ru/brands/cheryexeed/vx/suv/price/</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>4260000</v>
+        <v>3142500</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/exeed/vx_%D0%BD%D0%BE%D0%B2%D1%8B%D0%B9/</t>
+          <t>https://autofort-ufa.ru/avto-new/exeed/vx/</t>
+        </is>
+      </c>
+      <c r="R74" t="n">
+        <v>4074900</v>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>https://motors-ag.ru/catalog/exeed/vx</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3932,63 +3692,63 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>VX Restyling</t>
+          <t>VX New</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>4826000</v>
+        <v>4260000</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/exeed/vx_i/suv/price/</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>4826000</v>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>https://ufa.autospot.ru/brands/exeed/vx_i/suv/price/</t>
+          <t>https://autofort-ufa.ru/avto-new/exeed/vx_%D0%BD%D0%BE%D0%B2%D1%8B%D0%B9/</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>4260000</v>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>https://autofort-ufa.ru/avto-new/exeed/vx_%D0%BD%D0%BE%D0%B2%D1%8B%D0%B9/</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Evolute</t>
+          <t>EXEED</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>i-PRO</t>
+          <t>VX Restyling</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>2990000</v>
+        <v>4616000</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/evolute/ipro/sedan/price/</t>
+          <t>https://ufa.autospot.ru/brands/exeed/vx_i/suv/price/</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2990000</v>
+        <v>4616000</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/evolute/ipro/sedan/price/</t>
+          <t>https://ufa.autospot.ru/brands/exeed/vx_i/suv/price/</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3998,87 +3758,63 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>i-SPACE</t>
+          <t>i-PRO</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>2790000</v>
+        <v>2850000</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/evolute/ispace/suv/price/</t>
+          <t>https://ufa.autospot.ru/brands/evolute/ipro/sedan/price/</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2790000</v>
+        <v>2850000</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>https://ufa.autospot.ru/brands/evolute/ispace/suv/price/</t>
+          <t>https://ufa.autospot.ru/brands/evolute/ipro/sedan/price/</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>FAW</t>
+          <t>Evolute</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Bestune B70</t>
+          <t>i-SPACE</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>1594600</v>
+        <v>2790000</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/faw/bestune_b70</t>
-        </is>
-      </c>
-      <c r="H78" t="n">
-        <v>1850000</v>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>https://ufa.masmotors.ru/car/faw/bestune-b70</t>
-        </is>
-      </c>
-      <c r="J78" t="n">
-        <v>1594600</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/faw/bestune_b70</t>
-        </is>
-      </c>
-      <c r="P78" t="n">
-        <v>1746000</v>
-      </c>
-      <c r="Q78" t="inlineStr">
-        <is>
-          <t>https://autofort-ufa.ru/avto-new/faw/bestune_b70/</t>
-        </is>
-      </c>
-      <c r="R78" t="n">
-        <v>1594600</v>
-      </c>
-      <c r="S78" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/faw/bestune_b70</t>
+          <t>https://ufa.autospot.ru/brands/evolute/ispace/suv/price/</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>2790000</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>https://ufa.autospot.ru/brands/evolute/ispace/suv/price/</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>829</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -4088,30 +3824,46 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Bestune B70 New</t>
+          <t>Bestune B70</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>1874993</v>
+        <v>1594600</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/faw/bestune_b70_new/</t>
+          <t>https://motors-ag.ru/catalog/faw/bestune_b70</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>1850000</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>https://ufa.masmotors.ru/car/faw/bestune-b70</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>1874993</v>
+        <v>1746000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/faw/bestune_b70_new/</t>
+          <t>https://autofort-ufa.ru/avto-new/faw/bestune_b70/</t>
+        </is>
+      </c>
+      <c r="R79" t="n">
+        <v>1594600</v>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>https://motors-ag.ru/catalog/faw/bestune_b70</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>829</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -4121,54 +3873,30 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Bestune T55</t>
+          <t>Bestune B70 New</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1567300</v>
+        <v>1874993</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/faw/bestune_t55</t>
-        </is>
-      </c>
-      <c r="H80" t="n">
-        <v>1811000</v>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>https://ufa.masmotors.ru/car/faw/bestune-t55</t>
-        </is>
-      </c>
-      <c r="J80" t="n">
-        <v>1567300</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/faw/bestune_t55</t>
+          <t>https://autofort-ufa.ru/avto-new/faw/bestune_b70_new/</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>1716750</v>
+        <v>1874993</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/faw/bestune_t55/</t>
-        </is>
-      </c>
-      <c r="R80" t="n">
-        <v>1567300</v>
-      </c>
-      <c r="S80" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/faw/bestune_t55</t>
+          <t>https://autofort-ufa.ru/avto-new/faw/bestune_b70_new/</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -4178,54 +3906,46 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Bestune T77</t>
+          <t>Bestune T55</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>1387900</v>
+        <v>1567300</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/faw/bestune-t77</t>
+          <t>https://motors-ag.ru/catalog/faw/bestune_t55</t>
         </is>
       </c>
       <c r="H81" t="n">
-        <v>1387900</v>
+        <v>1811000</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/faw/bestune-t77</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>2124000</v>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>https://ufa.autospot.ru/brands/faw/t77/suv/price/</t>
+          <t>https://ufa.masmotors.ru/car/faw/bestune-t55</t>
         </is>
       </c>
       <c r="P81" t="n">
-        <v>1626750</v>
+        <v>1716750</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/faw/bestune_t77/</t>
+          <t>https://autofort-ufa.ru/avto-new/faw/bestune_t55/</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>1784000</v>
+        <v>1567300</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/faw/besturn_t77</t>
+          <t>https://motors-ag.ru/catalog/faw/bestune_t55</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>833</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -4235,30 +3955,54 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Bestune T90 New</t>
+          <t>Bestune T77</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>2084993</v>
+        <v>1387900</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/faw/bestune_t90_new/</t>
+          <t>https://ufa.masmotors.ru/car/faw/bestune-t77</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>1387900</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>https://ufa.masmotors.ru/car/faw/bestune-t77</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>2124000</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>https://ufa.autospot.ru/brands/faw/t77/suv/price/</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>2084993</v>
+        <v>1626750</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/faw/bestune_t90_new/</t>
+          <t>https://autofort-ufa.ru/avto-new/faw/bestune_t77/</t>
+        </is>
+      </c>
+      <c r="R82" t="n">
+        <v>1784000</v>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>https://motors-ag.ru/catalog/faw/besturn_t77</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>833</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -4268,30 +4012,30 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Bestune T99</t>
+          <t>Bestune T90 New</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>2212500</v>
+        <v>2084993</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/faw/bestune_t99/</t>
+          <t>https://autofort-ufa.ru/avto-new/faw/bestune_t90_new/</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>2212500</v>
+        <v>2084993</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/faw/bestune_t99/</t>
+          <t>https://autofort-ufa.ru/avto-new/faw/bestune_t90_new/</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -4301,23 +4045,23 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Besturn T77</t>
+          <t>Bestune T99</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1784000</v>
+        <v>2212500</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://avrora-motors.ru/catalog/faw/besturn_t77</t>
-        </is>
-      </c>
-      <c r="J84" t="n">
-        <v>1784000</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/faw/besturn_t77</t>
+          <t>https://autofort-ufa.ru/avto-new/faw/bestune_t99/</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>2212500</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>https://autofort-ufa.ru/avto-new/faw/bestune_t99/</t>
         </is>
       </c>
     </row>
@@ -4338,19 +4082,11 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>719000</v>
+        <v>754000</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://avrora-motors.ru/catalog/faw/besturn_x40</t>
-        </is>
-      </c>
-      <c r="J85" t="n">
-        <v>719000</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/faw/besturn_x40</t>
+          <t>https://motors-ag.ru/catalog/faw/besturn_x40</t>
         </is>
       </c>
       <c r="P85" t="n">
@@ -4394,14 +4130,6 @@
           <t>https://motors-ag.ru/catalog/faw/besturn_x80_new</t>
         </is>
       </c>
-      <c r="J86" t="n">
-        <v>844000</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/faw/besturn_x80_new</t>
-        </is>
-      </c>
       <c r="R86" t="n">
         <v>844000</v>
       </c>
@@ -4468,14 +4196,6 @@
           <t>https://motors-ag.ru/catalog/ford/ecosport_2017</t>
         </is>
       </c>
-      <c r="J88" t="n">
-        <v>1116000</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/ford/ecosport_2017</t>
-        </is>
-      </c>
       <c r="R88" t="n">
         <v>1116000</v>
       </c>
@@ -4509,14 +4229,6 @@
           <t>https://motors-ag.ru/catalog/ford/explorer_2017</t>
         </is>
       </c>
-      <c r="J89" t="n">
-        <v>3010000</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/ford/explorer_2017</t>
-        </is>
-      </c>
       <c r="R89" t="n">
         <v>3010000</v>
       </c>
@@ -4550,14 +4262,6 @@
           <t>https://motors-ag.ru/catalog/ford/fiesta_hatch_5</t>
         </is>
       </c>
-      <c r="J90" t="n">
-        <v>875000</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/ford/fiesta_hatch_5</t>
-        </is>
-      </c>
       <c r="R90" t="n">
         <v>875000</v>
       </c>
@@ -4591,14 +4295,6 @@
           <t>https://motors-ag.ru/catalog/ford/fiesta_sedan</t>
         </is>
       </c>
-      <c r="J91" t="n">
-        <v>885000</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/ford/fiesta_sedan</t>
-        </is>
-      </c>
       <c r="R91" t="n">
         <v>885000</v>
       </c>
@@ -4632,14 +4328,6 @@
           <t>https://motors-ag.ru/catalog/ford/focus_hatchback_new</t>
         </is>
       </c>
-      <c r="J92" t="n">
-        <v>1033000</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/ford/focus_hatchback_new</t>
-        </is>
-      </c>
       <c r="R92" t="n">
         <v>1033000</v>
       </c>
@@ -4681,14 +4369,6 @@
           <t>https://ufa.masmotors.ru/car/ford/focus</t>
         </is>
       </c>
-      <c r="J93" t="n">
-        <v>1043000</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/ford/focus_sedan_new</t>
-        </is>
-      </c>
       <c r="R93" t="n">
         <v>1043000</v>
       </c>
@@ -4722,14 +4402,6 @@
           <t>https://motors-ag.ru/catalog/ford/focus_wagon_new</t>
         </is>
       </c>
-      <c r="J94" t="n">
-        <v>1113000</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/ford/focus_wagon_new</t>
-        </is>
-      </c>
       <c r="R94" t="n">
         <v>1113000</v>
       </c>
@@ -4771,14 +4443,6 @@
           <t>https://ufa.masmotors.ru/car/ford/kuga</t>
         </is>
       </c>
-      <c r="J95" t="n">
-        <v>1609000</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/ford/kuga_2016</t>
-        </is>
-      </c>
       <c r="R95" t="n">
         <v>1609000</v>
       </c>
@@ -4820,14 +4484,6 @@
           <t>https://ufa.masmotors.ru/car/ford/mondeo-sedan</t>
         </is>
       </c>
-      <c r="J96" t="n">
-        <v>1612000</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/ford/mondeo_new</t>
-        </is>
-      </c>
       <c r="R96" t="n">
         <v>1612000</v>
       </c>
@@ -4902,14 +4558,6 @@
           <t>https://ufa.masmotors.ru/car/gac/gn8</t>
         </is>
       </c>
-      <c r="J98" t="n">
-        <v>3399000</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/gac/gn8</t>
-        </is>
-      </c>
       <c r="R98" t="n">
         <v>3399000</v>
       </c>
@@ -4985,19 +4633,11 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>1389800</v>
+        <v>1709800</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://avrora-motors.ru/catalog/gac/gs5</t>
-        </is>
-      </c>
-      <c r="J100" t="n">
-        <v>1389800</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/gac/gs5</t>
+          <t>https://motors-ag.ru/catalog/gac/gs5</t>
         </is>
       </c>
       <c r="R100" t="n">
@@ -5049,14 +4689,6 @@
           <t>https://ufa.masmotors.ru/car/gac/gs8</t>
         </is>
       </c>
-      <c r="J101" t="n">
-        <v>1952300</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/gac/gs8</t>
-        </is>
-      </c>
       <c r="L101" t="n">
         <v>3320000</v>
       </c>
@@ -5188,12 +4820,12 @@
           <t>https://ufa.masmotors.ru/car/geely/atlas</t>
         </is>
       </c>
-      <c r="J104" t="n">
-        <v>1911994</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/geely/atlas_II</t>
+      <c r="L104" t="n">
+        <v>2568233</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>https://ufa.autospot.ru/brands/geely/atlas_ii/suv/price/</t>
         </is>
       </c>
       <c r="P104" t="n">
@@ -5278,12 +4910,12 @@
           <t>https://ufabm.ru/cars/geely/atlas-pro/350246/</t>
         </is>
       </c>
-      <c r="J106" t="n">
-        <v>1028596</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/geely/atlas_pro</t>
+      <c r="L106" t="n">
+        <v>2042633</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>https://ufa.autospot.ru/brands/geely/atlas_pro/suv/price/</t>
         </is>
       </c>
       <c r="P106" t="n">
@@ -5306,7 +4938,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>772</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -5316,30 +4948,46 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Belgee X50</t>
+          <t>Cityray</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1369594</v>
+        <v>1999990</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://avrora-motors.ru/catalog/geely/belgee_x50</t>
-        </is>
-      </c>
-      <c r="J107" t="n">
-        <v>1369594</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/geely/belgee_x50</t>
+          <t>https://ufa.masmotors.ru/car/geely/cityray</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>1999990</v>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>https://ufa.masmotors.ru/car/geely/cityray</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>2160713</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>https://ufa.autospot.ru/brands/geely/cityray/suv/price/</t>
+        </is>
+      </c>
+      <c r="P107" t="n">
+        <v>2137493</v>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>https://autofort-ufa.ru/avto-new/geely/Cityray/</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>772</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -5349,38 +4997,54 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Cityray</t>
+          <t>Coolray</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>1999990</v>
+        <v>784800</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/geely/cityray</t>
+          <t>https://ufabm.ru/cars/geely/coolray/350232/</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>784800</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>https://ufabm.ru/cars/geely/coolray/350232/</t>
         </is>
       </c>
       <c r="H108" t="n">
-        <v>1999990</v>
+        <v>2099190</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/geely/cityray</t>
+          <t>https://ufa.masmotors.ru/car/geely/coolray</t>
         </is>
       </c>
       <c r="P108" t="n">
-        <v>2137493</v>
+        <v>1758743</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/geely/Cityray/</t>
+          <t>https://autofort-ufa.ru/avto-new/geely/coolray/</t>
+        </is>
+      </c>
+      <c r="R108" t="n">
+        <v>959990</v>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>https://motors-ag.ru/catalog/geely/coolray</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -5390,62 +5054,38 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Coolray</t>
+          <t>Coolray New</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>784800</v>
+        <v>1991513</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://ufabm.ru/cars/geely/coolray/350232/</t>
-        </is>
-      </c>
-      <c r="F109" t="n">
-        <v>784800</v>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>https://ufabm.ru/cars/geely/coolray/350232/</t>
-        </is>
-      </c>
-      <c r="H109" t="n">
-        <v>2099190</v>
-      </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>https://ufa.masmotors.ru/car/geely/coolray</t>
-        </is>
-      </c>
-      <c r="J109" t="n">
-        <v>959990</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/geely/coolray</t>
+          <t>https://ufa.autospot.ru/brands/geely/coolray_i/suv/price/</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1991513</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>https://ufa.autospot.ru/brands/geely/coolray_i/suv/price/</t>
         </is>
       </c>
       <c r="P109" t="n">
-        <v>1758743</v>
+        <v>2096243</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/geely/coolray/</t>
-        </is>
-      </c>
-      <c r="R109" t="n">
-        <v>959990</v>
-      </c>
-      <c r="S109" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/geely/coolray</t>
+          <t>https://autofort-ufa.ru/avto-new/geely/new-coolray/</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>881</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -5455,38 +5095,30 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Coolray New</t>
+          <t>EX5</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>1560994</v>
+        <v>3074993</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://avrora-motors.ru/catalog/geely/coolray_I_restailing_2023</t>
-        </is>
-      </c>
-      <c r="J110" t="n">
-        <v>1560994</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/geely/coolray_I_restailing_2023</t>
+          <t>https://autofort-ufa.ru/avto-new/geely/ex5/</t>
         </is>
       </c>
       <c r="P110" t="n">
-        <v>2096243</v>
+        <v>3074993</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/geely/new-coolray/</t>
+          <t>https://autofort-ufa.ru/avto-new/geely/ex5/</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>881</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -5496,30 +5128,46 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>EX5</t>
+          <t>Emgrand</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>3074993</v>
+        <v>1583990</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/geely/ex5/</t>
+          <t>https://ufa.masmotors.ru/car/geely/emgrand</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>1583990</v>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>https://ufa.masmotors.ru/car/geely/emgrand</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1634393</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>https://ufa.autospot.ru/brands/geely/emgrand/sedan/price/</t>
         </is>
       </c>
       <c r="P111" t="n">
-        <v>3074993</v>
+        <v>1634993</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/geely/ex5/</t>
+          <t>https://autofort-ufa.ru/avto-new/geely/emgrand_NEW/</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -5529,38 +5177,30 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Emgrand</t>
+          <t>Emgrand X7</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>1583990</v>
+        <v>839990</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/geely/emgrand</t>
-        </is>
-      </c>
-      <c r="H112" t="n">
-        <v>1583990</v>
-      </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>https://ufa.masmotors.ru/car/geely/emgrand</t>
-        </is>
-      </c>
-      <c r="P112" t="n">
-        <v>1634993</v>
-      </c>
-      <c r="Q112" t="inlineStr">
-        <is>
-          <t>https://autofort-ufa.ru/avto-new/geely/emgrand_NEW/</t>
+          <t>https://motors-ag.ru/catalog/geely/emgrand_x7</t>
+        </is>
+      </c>
+      <c r="R112" t="n">
+        <v>839990</v>
+      </c>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>https://motors-ag.ru/catalog/geely/emgrand_x7</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -5570,38 +5210,38 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Emgrand X7</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>839990</v>
+        <v>969990</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/geely/emgrand_x7</t>
-        </is>
-      </c>
-      <c r="J113" t="n">
-        <v>839990</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/geely/emgrand_x7_2019</t>
+          <t>https://motors-ag.ru/catalog/geely/gs</t>
+        </is>
+      </c>
+      <c r="P113" t="n">
+        <v>1443000</v>
+      </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>https://autofort-ufa.ru/avto-new/geely/gs/</t>
         </is>
       </c>
       <c r="R113" t="n">
-        <v>839990</v>
+        <v>969990</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/geely/emgrand_x7</t>
+          <t>https://motors-ag.ru/catalog/geely/gs</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -5611,46 +5251,62 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>Monjaro</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>969990</v>
+        <v>3407753</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/geely/gs</t>
-        </is>
-      </c>
-      <c r="J114" t="n">
-        <v>969990</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/geely/gs</t>
+          <t>https://ufa.autospot.ru/brands/geely/monjaro/suv/price/</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>3848000</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>https://ufabm.ru/cars/geely/monjaro/350279/</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>3802190</v>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>https://ufa.masmotors.ru/car/geely/monjaro</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>3407753</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>https://ufa.autospot.ru/brands/geely/monjaro/suv/price/</t>
         </is>
       </c>
       <c r="P114" t="n">
-        <v>1443000</v>
+        <v>3412493</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/geely/gs/</t>
+          <t>https://autofort-ufa.ru/avto-new/geely/monjaro/</t>
         </is>
       </c>
       <c r="R114" t="n">
-        <v>969990</v>
+        <v>4484990</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
-          <t>https://motors-ag.ru/catalog/geely/gs</t>
+          <t>https://motors-ag.ru/catalog/geely/monjaro</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -5660,62 +5316,38 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Monjaro</t>
+          <t>Okavango</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>3412493</v>
+        <v>2749990</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/geely/monjaro/</t>
-        </is>
-      </c>
-      <c r="F115" t="n">
-        <v>3848000</v>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>https://ufabm.ru/cars/geely/monjaro/350279/</t>
+          <t>https://ufa.masmotors.ru/car/geely/okavango</t>
         </is>
       </c>
       <c r="H115" t="n">
-        <v>3802190</v>
+        <v>2749990</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/geely/monjaro</t>
-        </is>
-      </c>
-      <c r="J115" t="n">
-        <v>4484990</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/geely/monjaro</t>
+          <t>https://ufa.masmotors.ru/car/geely/okavango</t>
         </is>
       </c>
       <c r="P115" t="n">
-        <v>3412493</v>
+        <v>2769743</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>https://autofort-ufa.ru/avto-new/geely/monjaro/</t>
-        </is>
-      </c>
-      <c r="R115" t="n">
-        <v>4484990</v>
-      </c>
-      <c r="S115" t="inlineStr">
-        <is>
-          <t>https://motors-ag.ru/catalog/geely/monjaro</t>
+          <t>https://autofort-ufa.ru/avto-new/geely/okavango/</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -5725,31 +5357,23 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Okavango</t>
+          <t>Okavango New</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>2749990</v>
+        <v>2540873</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://ufa.masmotors.ru/car/geely/okavango</t>
-        </is>
-      </c>
-      <c r="H116" t="n">
-        <v>2749990</v>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>https://ufa.masmotors.ru/car/geely/okavango</t>
-        </is>
-      </c>
-      <c r="P116" t="n">
-        <v>2769743</v>
-      </c>
-      <c r="Q116" t="inlineStr">
-        <is>
-          <t>https://autofort-ufa.ru/avto-new/geely/okavango/</t>
+          <t>https://ufa.autospot.ru/brands/geely/okavango_i/suv/price/</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>2540873</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>https://ufa.autospot.ru/brands/geely/okavango_i/suv/price/</t>
         </is>
       </c>
     </row>
@@ -5785,6 +5409,14 @@
           <t>https://ufa.masmotors.ru/car/geely/preface</t>
         </is>
       </c>
+      <c r="L117" t="n">
+        <v>2200313</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>https://ufa.autospot.ru/brands/geely/preface/sedan/price/</t>
+        </is>
+      </c>
       <c r="P117" t="n">
         <v>1725000</v>
       </c>
@@ -5811,19 +5443,19 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>2370994</v>
+        <v>2924993</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://avrora-motors.ru/catalog/geely/tugella_I_2023</t>
-        </is>
-      </c>
-      <c r="J118" t="n">
-        <v>2370994</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/geely/tugella_I_2023</t>
+          <t>https://autofort-ufa.ru/avto-new/geely/tugella/</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>2955990</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>https://ufa.autospot.ru/brands/geely/tugella_i/suv/price/</t>
         </is>
       </c>
       <c r="P118" t="n">
@@ -5951,11 +5583,11 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>2729000</v>
+        <v>2749000</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://avrora-motors.ru/catalog/great-wall/poer</t>
+          <t>https://motors-ag.ru/catalog/greatwall/poer</t>
         </is>
       </c>
       <c r="H122" t="n">
@@ -5966,14 +5598,6 @@
           <t>https://ufa.masmotors.ru/car/greatwall/poer</t>
         </is>
       </c>
-      <c r="J122" t="n">
-        <v>2729000</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/great-wall/poer</t>
-        </is>
-      </c>
       <c r="L122" t="n">
         <v>2764300</v>
       </c>
@@ -6049,11 +5673,11 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>2079000</v>
+        <v>2099000</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://avrora-motors.ru/catalog/great-wall/wingle7</t>
+          <t>https://motors-ag.ru/catalog/greatwall/wingle7</t>
         </is>
       </c>
       <c r="H124" t="n">
@@ -6064,14 +5688,6 @@
           <t>https://ufa.masmotors.ru/car/greatwall/wingle-7</t>
         </is>
       </c>
-      <c r="J124" t="n">
-        <v>2079000</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/great-wall/wingle7</t>
-        </is>
-      </c>
       <c r="R124" t="n">
         <v>2099000</v>
       </c>
@@ -6113,14 +5729,6 @@
           <t>https://ufa.masmotors.ru/car/haval/dargo</t>
         </is>
       </c>
-      <c r="J125" t="n">
-        <v>1764000</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/haval/dargo</t>
-        </is>
-      </c>
       <c r="L125" t="n">
         <v>2306790</v>
       </c>
@@ -6163,11 +5771,11 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>1956400</v>
+        <v>2036000</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://avrora-motors.ru/catalog/haval/dargo_x</t>
+          <t>https://ufabm.ru/cars/haval/dargo-x/350247/</t>
         </is>
       </c>
       <c r="F126" t="n">
@@ -6178,14 +5786,6 @@
           <t>https://ufabm.ru/cars/haval/dargo-x/350247/</t>
         </is>
       </c>
-      <c r="J126" t="n">
-        <v>1956400</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/haval/dargo_x</t>
-        </is>
-      </c>
       <c r="L126" t="n">
         <v>2344300</v>
       </c>
@@ -6220,11 +5820,11 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>1144000</v>
+        <v>1179000</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://avrora-motors.ru/catalog/haval/f7</t>
+          <t>https://motors-ag.ru/catalog/haval/f7</t>
         </is>
       </c>
       <c r="F127" t="n">
@@ -6243,14 +5843,6 @@
           <t>https://ufa.masmotors.ru/car/haval/f7</t>
         </is>
       </c>
-      <c r="J127" t="n">
-        <v>1144000</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/haval/f7</t>
-        </is>
-      </c>
       <c r="L127" t="n">
         <v>2377790</v>
       </c>
@@ -6334,11 +5926,11 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>1214000</v>
+        <v>1279000</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://avrora-motors.ru/catalog/haval/f7x</t>
+          <t>https://motors-ag.ru/catalog/haval/f7x</t>
         </is>
       </c>
       <c r="F129" t="n">
@@ -6349,14 +5941,6 @@
           <t>https://ufabm.ru/cars/haval/f7x/350234/</t>
         </is>
       </c>
-      <c r="J129" t="n">
-        <v>1214000</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/haval/f7x</t>
-        </is>
-      </c>
       <c r="L129" t="n">
         <v>2974000</v>
       </c>
@@ -6465,19 +6049,11 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>953400</v>
+        <v>973400</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://avrora-motors.ru/catalog/haval/h2</t>
-        </is>
-      </c>
-      <c r="J132" t="n">
-        <v>953400</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/haval/h2</t>
+          <t>https://motors-ag.ru/catalog/haval/h2</t>
         </is>
       </c>
       <c r="R132" t="n">
@@ -6506,11 +6082,11 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1744300</v>
+        <v>1889300</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://avrora-motors.ru/catalog/haval/h3</t>
+          <t>https://ufa.autospot.ru/brands/haval/h3/suv/price/</t>
         </is>
       </c>
       <c r="H133" t="n">
@@ -6521,16 +6097,8 @@
           <t>https://ufa.masmotors.ru/car/haval/h-3</t>
         </is>
       </c>
-      <c r="J133" t="n">
-        <v>1744300</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/haval/h3</t>
-        </is>
-      </c>
       <c r="L133" t="n">
-        <v>1916290</v>
+        <v>1889300</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
@@ -6578,14 +6146,6 @@
           <t>https://ufa.masmotors.ru/car/haval/h-5</t>
         </is>
       </c>
-      <c r="J134" t="n">
-        <v>959000</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/haval/h5</t>
-        </is>
-      </c>
       <c r="L134" t="n">
         <v>2768290</v>
       </c>
@@ -6628,19 +6188,11 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>1058000</v>
+        <v>1078000</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://avrora-motors.ru/catalog/haval/h6</t>
-        </is>
-      </c>
-      <c r="J135" t="n">
-        <v>1058000</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/haval/h6</t>
+          <t>https://motors-ag.ru/catalog/haval/h6</t>
         </is>
       </c>
       <c r="R135" t="n">
@@ -6684,14 +6236,6 @@
           <t>https://ufa.masmotors.ru/car/haval/h9</t>
         </is>
       </c>
-      <c r="J136" t="n">
-        <v>4084000</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/haval/h9_2018</t>
-        </is>
-      </c>
       <c r="L136" t="n">
         <v>3249300</v>
       </c>
@@ -6757,14 +6301,6 @@
           <t>https://ufa.masmotors.ru/car/haval/jolion</t>
         </is>
       </c>
-      <c r="J137" t="n">
-        <v>914000</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/haval/jolion</t>
-        </is>
-      </c>
       <c r="L137" t="n">
         <v>1749000</v>
       </c>
@@ -6920,14 +6456,6 @@
           <t>https://motors-ag.ru/catalog/haval/m6_II</t>
         </is>
       </c>
-      <c r="J140" t="n">
-        <v>1669000</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/haval/m6_II</t>
-        </is>
-      </c>
       <c r="R140" t="n">
         <v>1669000</v>
       </c>
@@ -7724,14 +7252,6 @@
           <t>https://ufa.masmotors.ru/car/jac/j7</t>
         </is>
       </c>
-      <c r="J160" t="n">
-        <v>713000</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/jac/j7</t>
-        </is>
-      </c>
       <c r="L160" t="n">
         <v>1569000</v>
       </c>
@@ -7871,14 +7391,6 @@
           <t>https://ufa.masmotors.ru/car/jac/js6</t>
         </is>
       </c>
-      <c r="J163" t="n">
-        <v>1799300</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/jac/js6</t>
-        </is>
-      </c>
       <c r="L163" t="n">
         <v>1889000</v>
       </c>
@@ -7969,14 +7481,6 @@
           <t>https://ufa.masmotors.ru/car/jac/s3</t>
         </is>
       </c>
-      <c r="J165" t="n">
-        <v>663000</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/jac/s3</t>
-        </is>
-      </c>
       <c r="P165" t="n">
         <v>1416750</v>
       </c>
@@ -8011,19 +7515,11 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>819000</v>
+        <v>1110525</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://avrora-motors.ru/catalog/jac/s5</t>
-        </is>
-      </c>
-      <c r="J166" t="n">
-        <v>819000</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/jac/s5</t>
+          <t>https://autofort-ufa.ru/avto-new/jac/s5/</t>
         </is>
       </c>
       <c r="P166" t="n">
@@ -8100,14 +7596,6 @@
           <t>https://motors-ag.ru/catalog/jac/s7</t>
         </is>
       </c>
-      <c r="J168" t="n">
-        <v>1214000</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/jac/s7</t>
-        </is>
-      </c>
       <c r="R168" t="n">
         <v>1214000</v>
       </c>
@@ -8149,14 +7637,6 @@
           <t>https://ufa.masmotors.ru/car/jac/t6</t>
         </is>
       </c>
-      <c r="J169" t="n">
-        <v>2250000</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/jac/t_6</t>
-        </is>
-      </c>
       <c r="R169" t="n">
         <v>2370000</v>
       </c>
@@ -8306,19 +7786,11 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>1998940</v>
+        <v>2071930</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>https://avrora-motors.ru/catalog/jaecoo/j7</t>
-        </is>
-      </c>
-      <c r="J173" t="n">
-        <v>1998940</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/jaecoo/j7</t>
+          <t>https://ufa.autospot.ru/brands/jaecoo/j7/suv/price/</t>
         </is>
       </c>
       <c r="L173" t="n">
@@ -8419,12 +7891,12 @@
           <t>https://ufa.masmotors.ru/car/jetour/dashing</t>
         </is>
       </c>
-      <c r="J175" t="n">
-        <v>1458940</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/jetour/dashing</t>
+      <c r="L175" t="n">
+        <v>1700000</v>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>https://ufa.autospot.ru/brands/jetour/dashing/suv/price/</t>
         </is>
       </c>
       <c r="P175" t="n">
@@ -8476,6 +7948,14 @@
           <t>https://ufa.masmotors.ru/car/jetour/t2</t>
         </is>
       </c>
+      <c r="L176" t="n">
+        <v>3209000</v>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>https://ufa.autospot.ru/brands/jetour/t2/suv/price/</t>
+        </is>
+      </c>
       <c r="P176" t="n">
         <v>2969250</v>
       </c>
@@ -8517,6 +7997,14 @@
           <t>https://ufa.masmotors.ru/car/jetour/iks50</t>
         </is>
       </c>
+      <c r="L177" t="n">
+        <v>1440000</v>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>https://ufa.autospot.ru/brands/jetour/x50/suv/price/</t>
+        </is>
+      </c>
       <c r="P177" t="n">
         <v>1492500</v>
       </c>
@@ -8558,6 +8046,14 @@
           <t>https://ufa.masmotors.ru/car/jetour/iks70</t>
         </is>
       </c>
+      <c r="L178" t="n">
+        <v>1999900</v>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>https://ufa.autospot.ru/brands/jetour/x70/suv/price/</t>
+        </is>
+      </c>
       <c r="P178" t="n">
         <v>1986750</v>
       </c>
@@ -8599,6 +8095,14 @@
           <t>https://ufa.masmotors.ru/car/jetour/x70-plus</t>
         </is>
       </c>
+      <c r="L179" t="n">
+        <v>2299900</v>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>https://ufa.autospot.ru/brands/jetour/x70plus/suv/price/</t>
+        </is>
+      </c>
       <c r="P179" t="n">
         <v>2249925</v>
       </c>
@@ -8625,11 +8129,11 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>2004940</v>
+        <v>2437425</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>https://avrora-motors.ru/catalog/jetour/x90plus</t>
+          <t>https://autofort-ufa.ru/avto-new/jetour/x90plus/</t>
         </is>
       </c>
       <c r="H180" t="n">
@@ -8640,12 +8144,12 @@
           <t>https://ufa.masmotors.ru/car/jetour/x90-plus</t>
         </is>
       </c>
-      <c r="J180" t="n">
-        <v>2004940</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/jetour/x90plus</t>
+      <c r="L180" t="n">
+        <v>2479900</v>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>https://ufa.autospot.ru/brands/jetour/x90plus/suv/price/</t>
         </is>
       </c>
       <c r="P180" t="n">
@@ -8682,19 +8186,11 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>1197400</v>
+        <v>1446000</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>https://avrora-motors.ru/catalog/jetta/va3</t>
-        </is>
-      </c>
-      <c r="J181" t="n">
-        <v>1197400</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/jetta/va3</t>
+          <t>https://autofort-ufa.ru/avto-new/jetta/va3/</t>
         </is>
       </c>
       <c r="P181" t="n">
@@ -8746,14 +8242,6 @@
           <t>https://ufabm.ru/cars/jetta/vs5/350257/</t>
         </is>
       </c>
-      <c r="J182" t="n">
-        <v>1442200</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/jetta/vs5</t>
-        </is>
-      </c>
       <c r="P182" t="n">
         <v>2250000</v>
       </c>
@@ -8821,19 +8309,11 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>1724800</v>
+        <v>2525250</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>https://avrora-motors.ru/catalog/jetta/vs7</t>
-        </is>
-      </c>
-      <c r="J184" t="n">
-        <v>1724800</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/jetta/vs7</t>
+          <t>https://autofort-ufa.ru/avto-new/jetta/vs7/</t>
         </is>
       </c>
       <c r="P184" t="n">
@@ -8885,14 +8365,6 @@
           <t>https://ufabm.ru/cars/kaiyi/kaiyi-e5/350283/</t>
         </is>
       </c>
-      <c r="J185" t="n">
-        <v>1336300</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/kaiyi/kaiyi_e5</t>
-        </is>
-      </c>
       <c r="P185" t="n">
         <v>1586250</v>
       </c>
@@ -8927,19 +8399,11 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>1337800</v>
+        <v>1678500</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>https://avrora-motors.ru/catalog/kaiyi/x3</t>
-        </is>
-      </c>
-      <c r="J186" t="n">
-        <v>1337800</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/kaiyi/x3</t>
+          <t>https://autofort-ufa.ru/avto-new/kaiyi/kaiyi_x3/</t>
         </is>
       </c>
       <c r="P186" t="n">
@@ -8968,19 +8432,11 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>1544900</v>
+        <v>1886175</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>https://avrora-motors.ru/catalog/kaiyi/x3_pro</t>
-        </is>
-      </c>
-      <c r="J187" t="n">
-        <v>1544900</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/kaiyi/x3_pro</t>
+          <t>https://autofort-ufa.ru/avto-new/kaiyi/kaiyi_x3_pro/</t>
         </is>
       </c>
       <c r="P187" t="n">
@@ -9049,14 +8505,6 @@
           <t>https://motors-ag.ru/catalog/kia/ceed_2022MY</t>
         </is>
       </c>
-      <c r="J189" t="n">
-        <v>1544900</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/kia/ceed_2022MY</t>
-        </is>
-      </c>
       <c r="R189" t="n">
         <v>1239900</v>
       </c>
@@ -9090,14 +8538,6 @@
           <t>https://motors-ag.ru/catalog/kia/ceed_sw_2021</t>
         </is>
       </c>
-      <c r="J190" t="n">
-        <v>1614900</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/kia/ceed_sw_2021</t>
-        </is>
-      </c>
       <c r="R190" t="n">
         <v>1295940</v>
       </c>
@@ -9131,14 +8571,6 @@
           <t>https://motors-ag.ru/catalog/kia/cerato_2022</t>
         </is>
       </c>
-      <c r="J191" t="n">
-        <v>1459900</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/kia/cerato_2022</t>
-        </is>
-      </c>
       <c r="R191" t="n">
         <v>1129900</v>
       </c>
@@ -9172,14 +8604,6 @@
           <t>https://motors-ag.ru/catalog/kia/rio_20</t>
         </is>
       </c>
-      <c r="J192" t="n">
-        <v>807900</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/kia/rio_20</t>
-        </is>
-      </c>
       <c r="R192" t="n">
         <v>807900</v>
       </c>
@@ -9213,14 +8637,6 @@
           <t>https://motors-ag.ru/catalog/kia/rio_x_2022MY</t>
         </is>
       </c>
-      <c r="J193" t="n">
-        <v>874900</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/kia/rio_x_2022MY</t>
-        </is>
-      </c>
       <c r="R193" t="n">
         <v>860940</v>
       </c>
@@ -9254,14 +8670,6 @@
           <t>https://motors-ag.ru/catalog/kia/seltos</t>
         </is>
       </c>
-      <c r="J194" t="n">
-        <v>1364990</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/kia/seltos</t>
-        </is>
-      </c>
       <c r="R194" t="n">
         <v>962900</v>
       </c>
@@ -9295,14 +8703,6 @@
           <t>https://motors-ag.ru/catalog/kia/sorento_2022MY</t>
         </is>
       </c>
-      <c r="J195" t="n">
-        <v>3089900</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/kia/sorento_2022MY</t>
-        </is>
-      </c>
       <c r="R195" t="n">
         <v>2273940</v>
       </c>
@@ -9336,14 +8736,6 @@
           <t>https://motors-ag.ru/catalog/kia/soul_2019</t>
         </is>
       </c>
-      <c r="J196" t="n">
-        <v>1234900</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/kia/soul_2019</t>
-        </is>
-      </c>
       <c r="R196" t="n">
         <v>884900</v>
       </c>
@@ -9753,7 +9145,7 @@
         </is>
       </c>
       <c r="L204" t="n">
-        <v>741400</v>
+        <v>739900</v>
       </c>
       <c r="M204" t="inlineStr">
         <is>
@@ -10023,7 +9415,7 @@
         </is>
       </c>
       <c r="L210" t="n">
-        <v>1281000</v>
+        <v>1336000</v>
       </c>
       <c r="M210" t="inlineStr">
         <is>
@@ -11577,14 +10969,6 @@
           <t>https://motors-ag.ru/catalog/lifan/murman</t>
         </is>
       </c>
-      <c r="J245" t="n">
-        <v>809900</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/lifan/murman</t>
-        </is>
-      </c>
       <c r="P245" t="n">
         <v>994425</v>
       </c>
@@ -11626,14 +11010,6 @@
           <t>https://motors-ag.ru/catalog/lifan/myway</t>
         </is>
       </c>
-      <c r="J246" t="n">
-        <v>719900</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/lifan/myway</t>
-        </is>
-      </c>
       <c r="P246" t="n">
         <v>877425</v>
       </c>
@@ -11675,14 +11051,6 @@
           <t>https://motors-ag.ru/catalog/lifan/solano2</t>
         </is>
       </c>
-      <c r="J247" t="n">
-        <v>499900</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/lifan/solano2</t>
-        </is>
-      </c>
       <c r="P247" t="n">
         <v>532425</v>
       </c>
@@ -11724,14 +11092,6 @@
           <t>https://motors-ag.ru/catalog/lifan/x50</t>
         </is>
       </c>
-      <c r="J248" t="n">
-        <v>429900</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/lifan/x50</t>
-        </is>
-      </c>
       <c r="P248" t="n">
         <v>672675</v>
       </c>
@@ -11773,14 +11133,6 @@
           <t>https://motors-ag.ru/catalog/lifan/x60</t>
         </is>
       </c>
-      <c r="J249" t="n">
-        <v>559900</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/lifan/x60</t>
-        </is>
-      </c>
       <c r="P249" t="n">
         <v>750675</v>
       </c>
@@ -11863,14 +11215,6 @@
           <t>https://ufa.masmotors.ru/car/lifan/x70</t>
         </is>
       </c>
-      <c r="J251" t="n">
-        <v>589000</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/lifan/x70</t>
-        </is>
-      </c>
       <c r="P251" t="n">
         <v>964275</v>
       </c>
@@ -11905,19 +11249,19 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>1524940</v>
+        <v>1668733</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>https://avrora-motors.ru/catalog/livan/s6pro</t>
-        </is>
-      </c>
-      <c r="J252" t="n">
-        <v>1524940</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/livan/s6pro</t>
+          <t>https://ufa.autospot.ru/brands/livan/s6pro/sedan/price/</t>
+        </is>
+      </c>
+      <c r="L252" t="n">
+        <v>1668733</v>
+      </c>
+      <c r="M252" t="inlineStr">
+        <is>
+          <t>https://ufa.autospot.ru/brands/livan/s6pro/sedan/price/</t>
         </is>
       </c>
       <c r="P252" t="n">
@@ -11946,19 +11290,19 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>1026940</v>
+        <v>1222933</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>https://avrora-motors.ru/catalog/livan/x3pro</t>
-        </is>
-      </c>
-      <c r="J253" t="n">
-        <v>1026940</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/livan/x3pro</t>
+          <t>https://ufa.autospot.ru/brands/livan/x3pro/suv/price/</t>
+        </is>
+      </c>
+      <c r="L253" t="n">
+        <v>1222933</v>
+      </c>
+      <c r="M253" t="inlineStr">
+        <is>
+          <t>https://ufa.autospot.ru/brands/livan/x3pro/suv/price/</t>
         </is>
       </c>
       <c r="P253" t="n">
@@ -11995,19 +11339,19 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>1572940</v>
+        <v>1628528</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>https://avrora-motors.ru/catalog/livan/x6pro</t>
-        </is>
-      </c>
-      <c r="J254" t="n">
-        <v>1572940</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/livan/x6pro</t>
+          <t>https://ufa.autospot.ru/brands/livan/x6pro/suv/price/</t>
+        </is>
+      </c>
+      <c r="L254" t="n">
+        <v>1628528</v>
+      </c>
+      <c r="M254" t="inlineStr">
+        <is>
+          <t>https://ufa.autospot.ru/brands/livan/x6pro/suv/price/</t>
         </is>
       </c>
       <c r="P254" t="n">
@@ -12380,14 +11724,6 @@
           <t>https://ufa.masmotors.ru/car/mazda/6</t>
         </is>
       </c>
-      <c r="J264" t="n">
-        <v>1548000</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/mazda/6_2018</t>
-        </is>
-      </c>
       <c r="R264" t="n">
         <v>1548000</v>
       </c>
@@ -12429,14 +11765,6 @@
           <t>https://ufa.masmotors.ru/car/mazda/cx-5</t>
         </is>
       </c>
-      <c r="J265" t="n">
-        <v>1645000</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/mazda/cx5_2017</t>
-        </is>
-      </c>
       <c r="R265" t="n">
         <v>1645000</v>
       </c>
@@ -12470,14 +11798,6 @@
           <t>https://motors-ag.ru/catalog/mazda/cx-9_2020</t>
         </is>
       </c>
-      <c r="J266" t="n">
-        <v>3585000</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/mazda/cx-9_2020</t>
-        </is>
-      </c>
       <c r="R266" t="n">
         <v>3585000</v>
       </c>
@@ -12618,14 +11938,6 @@
           <t>https://ufa.masmotors.ru/car/mitsubishi/asx</t>
         </is>
       </c>
-      <c r="J270" t="n">
-        <v>1969000</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/mitsubishi/asx_my20</t>
-        </is>
-      </c>
       <c r="R270" t="n">
         <v>1969000</v>
       </c>
@@ -12659,14 +11971,6 @@
           <t>https://motors-ag.ru/catalog/mitsubishi/eclipse_cross_I_2023</t>
         </is>
       </c>
-      <c r="J271" t="n">
-        <v>2929000</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/mitsubishi/eclipse_cross_I_2023</t>
-        </is>
-      </c>
       <c r="R271" t="n">
         <v>2929000</v>
       </c>
@@ -12700,14 +12004,6 @@
           <t>https://motors-ag.ru/catalog/mitsubishi/l200_19my</t>
         </is>
       </c>
-      <c r="J272" t="n">
-        <v>3479000</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/mitsubishi/l200_19my</t>
-        </is>
-      </c>
       <c r="R272" t="n">
         <v>3479000</v>
       </c>
@@ -12741,14 +12037,6 @@
           <t>https://motors-ag.ru/catalog/mitsubishi/outlander_2019</t>
         </is>
       </c>
-      <c r="J273" t="n">
-        <v>1989000</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/mitsubishi/outlander_2019</t>
-        </is>
-      </c>
       <c r="R273" t="n">
         <v>1989000</v>
       </c>
@@ -12790,14 +12078,6 @@
           <t>https://ufa.masmotors.ru/car/mitsubishi/pajero-sport</t>
         </is>
       </c>
-      <c r="J274" t="n">
-        <v>3739000</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/mitsubishi/pajero_sport_III_2023</t>
-        </is>
-      </c>
       <c r="R274" t="n">
         <v>3739000</v>
       </c>
@@ -12847,14 +12127,6 @@
           <t>https://ufa.masmotors.ru/car/moskvich/tri</t>
         </is>
       </c>
-      <c r="J275" t="n">
-        <v>1409000</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/moskvic/moskvish_3</t>
-        </is>
-      </c>
       <c r="L275" t="n">
         <v>1239000</v>
       </c>
@@ -12904,14 +12176,6 @@
           <t>https://motors-ag.ru/catalog/moskvic/moskvish_3e</t>
         </is>
       </c>
-      <c r="J276" t="n">
-        <v>2415000</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/moskvic/moskvish_3e</t>
-        </is>
-      </c>
       <c r="L276" t="n">
         <v>3945000</v>
       </c>
@@ -12954,11 +12218,11 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>1540000</v>
+        <v>1600000</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>https://avrora-motors.ru/catalog/moskvic/moskvish_6</t>
+          <t>https://ufa.autospot.ru/brands/moskvich/6/liftback/price/</t>
         </is>
       </c>
       <c r="H277" t="n">
@@ -12969,14 +12233,6 @@
           <t>https://ufa.masmotors.ru/car/moskvich/shest</t>
         </is>
       </c>
-      <c r="J277" t="n">
-        <v>1540000</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/moskvic/moskvish_6</t>
-        </is>
-      </c>
       <c r="L277" t="n">
         <v>1600000</v>
       </c>
@@ -13059,14 +12315,6 @@
           <t>https://ufa.masmotors.ru/car/nissan/qashqai</t>
         </is>
       </c>
-      <c r="J279" t="n">
-        <v>917000</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/nissan/qashqai_new</t>
-        </is>
-      </c>
       <c r="R279" t="n">
         <v>917000</v>
       </c>
@@ -13157,14 +12405,6 @@
           <t>https://ufa.masmotors.ru/car/nissan/x-trail</t>
         </is>
       </c>
-      <c r="J281" t="n">
-        <v>1472000</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/nissan/x-trail_new</t>
-        </is>
-      </c>
       <c r="R281" t="n">
         <v>1472000</v>
       </c>
@@ -13214,14 +12454,6 @@
           <t>https://ufa.masmotors.ru/car/omoda/c-5</t>
         </is>
       </c>
-      <c r="J282" t="n">
-        <v>1744900</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/omoda/c5</t>
-        </is>
-      </c>
       <c r="L282" t="n">
         <v>1614900</v>
       </c>
@@ -13313,7 +12545,7 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>1439900</v>
+        <v>1479900</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
@@ -13328,16 +12560,8 @@
           <t>https://ufa.masmotors.ru/car/omoda/s-5</t>
         </is>
       </c>
-      <c r="J284" t="n">
-        <v>1639900</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/omoda/s5</t>
-        </is>
-      </c>
       <c r="L284" t="n">
-        <v>1439900</v>
+        <v>1479900</v>
       </c>
       <c r="M284" t="inlineStr">
         <is>
@@ -13541,14 +12765,6 @@
           <t>https://ufa.masmotors.ru/car/ravon/nexia</t>
         </is>
       </c>
-      <c r="J289" t="n">
-        <v>321000</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/ravon/nexia_r3</t>
-        </is>
-      </c>
       <c r="R289" t="n">
         <v>321000</v>
       </c>
@@ -13590,14 +12806,6 @@
           <t>https://ufa.masmotors.ru/car/ravon/r2</t>
         </is>
       </c>
-      <c r="J290" t="n">
-        <v>311000</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/ravon/r2</t>
-        </is>
-      </c>
       <c r="R290" t="n">
         <v>311000</v>
       </c>
@@ -13631,14 +12839,6 @@
           <t>https://motors-ag.ru/catalog/ravon/r4</t>
         </is>
       </c>
-      <c r="J291" t="n">
-        <v>331000</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/ravon/r4</t>
-        </is>
-      </c>
       <c r="R291" t="n">
         <v>331000</v>
       </c>
@@ -14162,14 +13362,6 @@
           <t>https://motors-ag.ru/catalog/swm/g01</t>
         </is>
       </c>
-      <c r="J302" t="n">
-        <v>1709600</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/swm/g01</t>
-        </is>
-      </c>
       <c r="R302" t="n">
         <v>1187500</v>
       </c>
@@ -14203,14 +13395,6 @@
           <t>https://motors-ag.ru/catalog/swm/g01f</t>
         </is>
       </c>
-      <c r="J303" t="n">
-        <v>1950200</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/swm/g01f</t>
-        </is>
-      </c>
       <c r="R303" t="n">
         <v>1556000</v>
       </c>
@@ -14244,14 +13428,6 @@
           <t>https://motors-ag.ru/catalog/swm/g05_pro</t>
         </is>
       </c>
-      <c r="J304" t="n">
-        <v>1964000</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/swm/g05_pro</t>
-        </is>
-      </c>
       <c r="R304" t="n">
         <v>1226000</v>
       </c>
@@ -14638,14 +13814,6 @@
           <t>https://motors-ag.ru/catalog/solaris/hc</t>
         </is>
       </c>
-      <c r="J314" t="n">
-        <v>1763000</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/solaris/hc</t>
-        </is>
-      </c>
       <c r="P314" t="n">
         <v>1912500</v>
       </c>
@@ -14687,14 +13855,6 @@
           <t>https://motors-ag.ru/catalog/solaris/hs</t>
         </is>
       </c>
-      <c r="J315" t="n">
-        <v>1390000</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/solaris/hs</t>
-        </is>
-      </c>
       <c r="P315" t="n">
         <v>1575000</v>
       </c>
@@ -14736,14 +13896,6 @@
           <t>https://motors-ag.ru/catalog/solaris/krs</t>
         </is>
       </c>
-      <c r="J316" t="n">
-        <v>1448000</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/solaris/krs</t>
-        </is>
-      </c>
       <c r="P316" t="n">
         <v>1528500</v>
       </c>
@@ -14785,14 +13937,6 @@
           <t>https://motors-ag.ru/catalog/solaris/krx</t>
         </is>
       </c>
-      <c r="J317" t="n">
-        <v>1464000</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/solaris/krx</t>
-        </is>
-      </c>
       <c r="P317" t="n">
         <v>1570500</v>
       </c>
@@ -15271,14 +14415,6 @@
           <t>https://ufa.masmotors.ru/car/tank/300</t>
         </is>
       </c>
-      <c r="J331" t="n">
-        <v>4094000</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/tank/tank_300</t>
-        </is>
-      </c>
       <c r="L331" t="n">
         <v>3300000</v>
       </c>
@@ -15393,14 +14529,6 @@
           <t>https://ufa.masmotors.ru/car/tank/500</t>
         </is>
       </c>
-      <c r="J333" t="n">
-        <v>6294000</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/tank/tank_500</t>
-        </is>
-      </c>
       <c r="L333" t="n">
         <v>6099000</v>
       </c>
@@ -15573,14 +14701,6 @@
           <t>https://ufa.masmotors.ru/car/toyota/chr</t>
         </is>
       </c>
-      <c r="J337" t="n">
-        <v>1931000</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/toyota/c-hr_2019</t>
-        </is>
-      </c>
       <c r="R337" t="n">
         <v>1931000</v>
       </c>
@@ -15622,14 +14742,6 @@
           <t>https://ufa.masmotors.ru/car/toyota/camry</t>
         </is>
       </c>
-      <c r="J338" t="n">
-        <v>1798000</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/toyota/camry_21</t>
-        </is>
-      </c>
       <c r="L338" t="n">
         <v>4849000</v>
       </c>
@@ -15679,14 +14791,6 @@
           <t>https://ufa.masmotors.ru/car/toyota/corolla</t>
         </is>
       </c>
-      <c r="J339" t="n">
-        <v>1255000</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/toyota/Corolla_2019</t>
-        </is>
-      </c>
       <c r="R339" t="n">
         <v>1255000</v>
       </c>
@@ -15753,14 +14857,6 @@
           <t>https://motors-ag.ru/catalog/toyota/fortuner_2020</t>
         </is>
       </c>
-      <c r="J341" t="n">
-        <v>3064000</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/toyota/fortuner_2020</t>
-        </is>
-      </c>
       <c r="R341" t="n">
         <v>3064000</v>
       </c>
@@ -15827,14 +14923,6 @@
           <t>https://motors-ag.ru/catalog/toyota/highlander_20</t>
         </is>
       </c>
-      <c r="J343" t="n">
-        <v>4559000</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/toyota/highlander_20</t>
-        </is>
-      </c>
       <c r="L343" t="n">
         <v>7437390</v>
       </c>
@@ -15876,14 +14964,6 @@
           <t>https://motors-ag.ru/catalog/toyota/hilux_20</t>
         </is>
       </c>
-      <c r="J344" t="n">
-        <v>2941000</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/toyota/hilux_20</t>
-        </is>
-      </c>
       <c r="L344" t="n">
         <v>7960000</v>
       </c>
@@ -16065,14 +15145,6 @@
           <t>https://motors-ag.ru/catalog/toyota/land_cruiser_prado_2017</t>
         </is>
       </c>
-      <c r="J349" t="n">
-        <v>3251000</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/toyota/land_cruiser_prado_2017</t>
-        </is>
-      </c>
       <c r="L349" t="n">
         <v>10749000</v>
       </c>
@@ -16122,16 +15194,8 @@
           <t>https://ufa.masmotors.ru/car/toyota/rav4</t>
         </is>
       </c>
-      <c r="J350" t="n">
-        <v>1971000</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/toyota/Rav4_2019</t>
-        </is>
-      </c>
       <c r="L350" t="n">
-        <v>4780000</v>
+        <v>4980000</v>
       </c>
       <c r="M350" t="inlineStr">
         <is>
@@ -16393,14 +15457,6 @@
           <t>https://ufabm.ru/cars/voyah/free/350284/</t>
         </is>
       </c>
-      <c r="J357" t="n">
-        <v>4790000</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/voyah/free</t>
-        </is>
-      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -16419,7 +15475,7 @@
         </is>
       </c>
       <c r="D358" t="n">
-        <v>4690000</v>
+        <v>4990000</v>
       </c>
       <c r="E358" t="inlineStr">
         <is>
@@ -16427,7 +15483,7 @@
         </is>
       </c>
       <c r="L358" t="n">
-        <v>4690000</v>
+        <v>4990000</v>
       </c>
       <c r="M358" t="inlineStr">
         <is>
@@ -16977,14 +16033,6 @@
           <t>https://ufa.masmotors.ru/car/zotye/coupa</t>
         </is>
       </c>
-      <c r="J373" t="n">
-        <v>955000</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/zotye/coupa</t>
-        </is>
-      </c>
       <c r="R373" t="n">
         <v>955000</v>
       </c>
@@ -17026,53 +16074,12 @@
           <t>https://ufa.masmotors.ru/car/zotye/t600</t>
         </is>
       </c>
-      <c r="J374" t="n">
-        <v>722000</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>https://avrora-motors.ru/catalog/zotye/t600</t>
-        </is>
-      </c>
       <c r="R374" t="n">
         <v>722000</v>
       </c>
       <c r="S374" t="inlineStr">
         <is>
           <t>https://motors-ag.ru/catalog/zotye/t600</t>
-        </is>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="inlineStr">
-        <is>
-          <t>Новая машина, необходимо назначить id</t>
-        </is>
-      </c>
-      <c r="B375" t="inlineStr">
-        <is>
-          <t>changan</t>
-        </is>
-      </c>
-      <c r="C375" t="inlineStr">
-        <is>
-          <t>cs75plus(iii)</t>
-        </is>
-      </c>
-      <c r="D375" t="n">
-        <v>2999900</v>
-      </c>
-      <c r="E375" t="inlineStr">
-        <is>
-          <t>https://ufa.autospot.ru/brands/changan/cs75plus_iii/suv/price/</t>
-        </is>
-      </c>
-      <c r="L375" t="n">
-        <v>2999900</v>
-      </c>
-      <c r="M375" t="inlineStr">
-        <is>
-          <t>https://ufa.autospot.ru/brands/changan/cs75plus_iii/suv/price/</t>
         </is>
       </c>
     </row>
